--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -12,13 +12,15 @@
     <sheet name="Samples timeline" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Samples timeline sequenced" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Samples sequenced" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Shipments" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sequencing runs" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +163,9 @@
     <t>patient sample</t>
   </si>
   <si>
+    <t>raw name</t>
+  </si>
+  <si>
     <t>PCR</t>
   </si>
   <si>
@@ -173,13 +178,19 @@
     <t>adapter</t>
   </si>
   <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
     <t>NL4-3</t>
   </si>
   <si>
-    <t>1 2 3 4 5 6</t>
+    <t>1 2 3a 4 5b 6</t>
   </si>
   <si>
     <t>Tue28</t>
@@ -188,6 +199,9 @@
     <t>TS2</t>
   </si>
   <si>
+    <t>#0</t>
+  </si>
+  <si>
     <t>SF162</t>
   </si>
   <si>
@@ -215,6 +229,9 @@
     <t>TS18</t>
   </si>
   <si>
+    <t>MIX1 SF162 50% + NL4-3 50%</t>
+  </si>
+  <si>
     <t>watch for plasmid insert</t>
   </si>
   <si>
@@ -224,9 +241,15 @@
     <t>TS19</t>
   </si>
   <si>
+    <t>MIX2 SF162 95% + NL4-3 4.5% + F10 0.5%</t>
+  </si>
+  <si>
     <t>Nextera_HIV-8262-1</t>
   </si>
   <si>
+    <t>1 2 3a 4 5a 6</t>
+  </si>
+  <si>
     <t>testnextera_Lina</t>
   </si>
   <si>
@@ -242,6 +265,9 @@
     <t>Tue37</t>
   </si>
   <si>
+    <t>#1</t>
+  </si>
+  <si>
     <t>08HR-0235_PCR2</t>
   </si>
   <si>
@@ -293,6 +319,9 @@
     <t>N1-S1</t>
   </si>
   <si>
+    <t>#2</t>
+  </si>
+  <si>
     <t>MIX2_PCR1</t>
   </si>
   <si>
@@ -365,9 +394,15 @@
     <t>RNA_mix_PCR1_TaqHiFi</t>
   </si>
   <si>
+    <t>2 3a 4 6</t>
+  </si>
+  <si>
     <t>N4-S1</t>
   </si>
   <si>
+    <t>#2.5</t>
+  </si>
+  <si>
     <t>RNA_mix_PCR1_Taq</t>
   </si>
   <si>
@@ -404,12 +439,42 @@
     <t>N2-S4</t>
   </si>
   <si>
+    <t>POL_SA_2_HIV</t>
+  </si>
+  <si>
+    <t>Tue52</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>SA#2</t>
+  </si>
+  <si>
+    <t>South Africa HIV</t>
+  </si>
+  <si>
+    <t>VK01-2965_PCR2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>05HR-0269_PCR2</t>
+  </si>
+  <si>
+    <t>VK09-1685_PCR2</t>
+  </si>
+  <si>
     <t>LAI-III</t>
   </si>
   <si>
     <t>Tue59</t>
   </si>
   <si>
+    <t>#4</t>
+  </si>
+  <si>
     <t>N6-S3</t>
   </si>
   <si>
@@ -434,12 +499,33 @@
     <t>VK09-7738_PCR1</t>
   </si>
   <si>
+    <t>POL_SA_3_HIV</t>
+  </si>
+  <si>
+    <t>Tue63</t>
+  </si>
+  <si>
+    <t>SA#3</t>
+  </si>
+  <si>
+    <t>VK01-2965_PCR2-2</t>
+  </si>
+  <si>
+    <t>05HR-0269_PCR2-2</t>
+  </si>
+  <si>
+    <t>VK09-1685_PCR2-2</t>
+  </si>
+  <si>
     <t>28338_PCR1</t>
   </si>
   <si>
     <t>Tuen3</t>
   </si>
   <si>
+    <t>#5</t>
+  </si>
+  <si>
     <t>29698_PCR1</t>
   </si>
   <si>
@@ -452,6 +538,9 @@
     <t>N3-S1</t>
   </si>
   <si>
+    <t>#6</t>
+  </si>
+  <si>
     <t>VK08-1001_PCR1</t>
   </si>
   <si>
@@ -500,12 +589,15 @@
     <t>Tuen6</t>
   </si>
   <si>
-    <t>TS1</t>
+    <t>South Africa Plasmid control</t>
   </si>
   <si>
     <t>convPCR1542</t>
   </si>
   <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t>convPCR1968</t>
   </si>
   <si>
@@ -609,19 +701,284 @@
   </si>
   <si>
     <t>7686_PCR1-3</t>
+  </si>
+  <si>
+    <t>VK05-2685_PCR1</t>
+  </si>
+  <si>
+    <t>Tuen16</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>12402_PCR1</t>
+  </si>
+  <si>
+    <t>27134_PCR1</t>
+  </si>
+  <si>
+    <t>VK99-2133_PCR1</t>
+  </si>
+  <si>
+    <t>23058_PCR1</t>
+  </si>
+  <si>
+    <t>3174_PCR1</t>
+  </si>
+  <si>
+    <t>16311_PCR1</t>
+  </si>
+  <si>
+    <t>4955_PCR1</t>
+  </si>
+  <si>
+    <t>14799_PCR1</t>
+  </si>
+  <si>
+    <t>24062_PCR1</t>
+  </si>
+  <si>
+    <t>VL96-15555_PCR1</t>
+  </si>
+  <si>
+    <t>18140_PCR1</t>
+  </si>
+  <si>
+    <t>VK99-4202_PCR1</t>
+  </si>
+  <si>
+    <t>10264_PCR1</t>
+  </si>
+  <si>
+    <t>15611_PCR1</t>
+  </si>
+  <si>
+    <t>VK09-0119-F1-3_PCR1</t>
+  </si>
+  <si>
+    <t>VK09-0119</t>
+  </si>
+  <si>
+    <t>VK09-0119-F4-6_PCR1</t>
+  </si>
+  <si>
+    <t>11686-F1-3_PCR1</t>
+  </si>
+  <si>
+    <t>11686-F4-6_PCR1</t>
+  </si>
+  <si>
+    <t>21665-F1-3_PCR1</t>
+  </si>
+  <si>
+    <t>21665-F4-6_PCR1</t>
+  </si>
+  <si>
+    <t>32311_PCR1</t>
+  </si>
+  <si>
+    <t>N4-S4</t>
+  </si>
+  <si>
+    <t>random-hexamer-HIV-1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>random-hexamer-HIV-2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>n samples</t>
+  </si>
+  <si>
+    <t>freezer box</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>SE #0</t>
+  </si>
+  <si>
+    <t>SE #0 + lig test</t>
+  </si>
+  <si>
+    <t>SE #1</t>
+  </si>
+  <si>
+    <t>SE#1 #2</t>
+  </si>
+  <si>
+    <t>2013-09-24 Insert DNA-samples.docx</t>
+  </si>
+  <si>
+    <t>SE #2</t>
+  </si>
+  <si>
+    <t>2013-12-18 List of DNA samples shipped.docx</t>
+  </si>
+  <si>
+    <t>SE #2.5</t>
+  </si>
+  <si>
+    <t>2014-01-29 DNA samples.xlsx</t>
+  </si>
+  <si>
+    <t>SE #3</t>
+  </si>
+  <si>
+    <t>SE#3 #4 #5</t>
+  </si>
+  <si>
+    <t>2014-02-10 List of DNA samples sent.docx</t>
+  </si>
+  <si>
+    <t>SE #4</t>
+  </si>
+  <si>
+    <t>2014-03-10 DNA samples for sequencing.xlsx</t>
+  </si>
+  <si>
+    <t>SE #5</t>
+  </si>
+  <si>
+    <t>2014-04-02 DNA samples for sequencing.xlsx</t>
+  </si>
+  <si>
+    <t>SE #6</t>
+  </si>
+  <si>
+    <t>SE#6 #7</t>
+  </si>
+  <si>
+    <t>2014-04-24 DNA pools from 12 patient samples.xlsx</t>
+  </si>
+  <si>
+    <t>SE #7</t>
+  </si>
+  <si>
+    <t>2014-06-03 DNA pools from 24 patient samples.xlsx</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>plex</t>
+  </si>
+  <si>
+    <t>raw data</t>
+  </si>
+  <si>
+    <t>TruSeq nano</t>
+  </si>
+  <si>
+    <t>First run</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_08/HIVSwedenTruSeqNanoAGNeher/</t>
+  </si>
+  <si>
+    <t>First patient samples</t>
+  </si>
+  <si>
+    <t>NexteraXT</t>
+  </si>
+  <si>
+    <t>Uppsala test run (Lina's training)</t>
+  </si>
+  <si>
+    <t>/ebio/ag-neher/share/data/MiSeq_HIV_Karolinska/pawel_nextera/</t>
+  </si>
+  <si>
+    <t>First NexteraXT, only plasmids</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_08/HIVSwedenNexteraXTAGNeher/</t>
+  </si>
+  <si>
+    <t>F10 + PCR2 patient samples</t>
+  </si>
+  <si>
+    <t>Test for BluePippin, RNA mixes + 3 pat samples</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_08/HIVSwedenNexteraXTBluePippinAGNeher/</t>
+  </si>
+  <si>
+    <t>SA #1 + 3 PCR2 pat samples</t>
+  </si>
+  <si>
+    <t>failed!</t>
+  </si>
+  <si>
+    <t>Tue58</t>
+  </si>
+  <si>
+    <t>3 RNA refs + 4 pat samples</t>
+  </si>
+  <si>
+    <t>repetition of run Tue58</t>
+  </si>
+  <si>
+    <t>SA # 3 + 3 PCR2 patient samples</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/04_11/TruseqNanolibPatient/</t>
+  </si>
+  <si>
+    <t>pat samples</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_05/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>SA #3 plasmid + emPCR</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_15/TruSeqNanoLibHIV/</t>
+  </si>
+  <si>
+    <t>repetition of library Tuen3, different proportions</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_22/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>repetition of run Tuen10</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/05_30/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>22 pat samples + 2 random hexamers HIV RNA</t>
+  </si>
+  <si>
+    <t>cluster amplifiction for read2 failed!</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/06_13/HIVSwedenNexteraXTDualIndex/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="170" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -824,7 +1181,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,6 +1430,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1081,11 +1442,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1159,7 +1520,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="C:C D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1404,8 +1765,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1418,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8023,8 +8384,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8038,7 +8399,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C:C A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9951,8 +10312,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9963,20 +10324,26 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="9" width="22.1964285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="15.2678571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="9" width="14.9910714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7633928571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="20.7946428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.2678571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="5.70089285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.2455357142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.9910714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="10.0803571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="9" width="9.73214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="38.9553571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7633928571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2678571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.58928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,1732 +10365,3060 @@
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="0"/>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>54</v>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>58</v>
+      <c r="G3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>37024</v>
       </c>
       <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>54</v>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="9" t="n">
+      <c r="D8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>70</v>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="E9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9" t="n">
+      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>70</v>
+      <c r="E9" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B10" s="9" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
         <v>VK04-3106</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="D10" s="9" t="str">
         <f aca="false">RIGHT(A10, LEN(A10) - FIND("_", A10) - 3)</f>
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B11" s="9" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
         <v>08HR-0235</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="D11" s="9" t="str">
         <f aca="false">RIGHT(A11, LEN(A11) - FIND("_", A11) - 3)</f>
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
         <v>VK07-4778</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="D12" s="9" t="str">
         <f aca="false">RIGHT(A12, LEN(A12) - FIND("_", A12) - 3)</f>
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B13" s="9" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
         <v>VK03-4298</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="D13" s="9" t="str">
         <f aca="false">RIGHT(A13, LEN(A13) - FIND("_", A13) - 3)</f>
         <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B14" s="9" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
         <v>VK09-7738</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="D14" s="9" t="str">
         <f aca="false">RIGHT(A14, LEN(A14) - FIND("_", A14) - 3)</f>
         <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
         <v>VK08-8014</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="D15" s="9" t="str">
         <f aca="false">RIGHT(A15, LEN(A15) - FIND("_", A15) - 3)</f>
         <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B16" s="9" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
         <v>VK08-6634</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="D16" s="9" t="str">
         <f aca="false">RIGHT(A16, LEN(A16) - FIND("_", A16) - 3)</f>
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B17" s="9" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
         <v>VK07-8262</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="D17" s="9" t="str">
         <f aca="false">RIGHT(A17, LEN(A17) - FIND("_", A17) - 3)</f>
         <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B18" s="9" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
         <v>VK08-2987</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="D18" s="9" t="str">
         <f aca="false">RIGHT(A18, LEN(A18) - FIND("_", A18) - 3)</f>
         <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B19" s="0"/>
-      <c r="C19" s="9" t="str">
+      <c r="D19" s="9" t="str">
         <f aca="false">RIGHT(A19, LEN(A19) - FIND("_", A19) - 3)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>89</v>
+      <c r="E19" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B20" s="0"/>
-      <c r="C20" s="9" t="str">
+      <c r="D20" s="9" t="str">
         <f aca="false">RIGHT(A20, LEN(A20) - FIND("_", A20) - 3)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>89</v>
+      <c r="E20" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B21" s="0"/>
-      <c r="C21" s="9" t="str">
-        <f aca="false">RIGHT(A21, LEN(A21) - FIND("_", A21) - 3)</f>
-        <v>1_TaqHiFi</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>89</v>
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B22" s="0"/>
-      <c r="C22" s="9" t="str">
-        <f aca="false">RIGHT(A22, LEN(A22) - FIND("_", A22) - 3)</f>
-        <v>1_Taq</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>89</v>
+      <c r="D22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="D23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="9" t="str">
-        <f aca="false">RIGHT(A23, LEN(A23) - FIND("_", A23) - 3)</f>
-        <v>2_TaqHiFi</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="D24" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="9" t="str">
-        <f aca="false">RIGHT(A24, LEN(A24) - FIND("_", A24) - 3)</f>
-        <v>2_Taq</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="9" t="str">
-        <f aca="false">RIGHT(A25, LEN(A25) - FIND("_", A25) - 3)</f>
-        <v>2_TaqHiFi</v>
+      <c r="D25" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B26" s="0"/>
-      <c r="C26" s="9" t="str">
-        <f aca="false">RIGHT(A26, LEN(A26) - FIND("_", A26) - 3)</f>
-        <v>2_Taq</v>
+      <c r="D26" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B27" s="9" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
         <v>34493</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="D27" s="9" t="str">
         <f aca="false">RIGHT(A27, LEN(A27) - FIND("_", A27) - 3)</f>
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B28" s="9" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
         <v>29184</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="D28" s="9" t="str">
         <f aca="false">RIGHT(A28, LEN(A28) - FIND("_", A28) - 3)</f>
         <v>2</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B29" s="9" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
         <v>30847</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="D29" s="9" t="str">
         <f aca="false">RIGHT(A29, LEN(A29) - FIND("_", A29) - 3)</f>
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B30" s="9" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
         <v>VK02-4452</v>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="D30" s="9" t="str">
         <f aca="false">RIGHT(A30, LEN(A30) - FIND("_", A30) - 3)</f>
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B31" s="9" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
         <v>06HR-0145</v>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="D31" s="9" t="str">
         <f aca="false">RIGHT(A31, LEN(A31) - FIND("_", A31) - 3)</f>
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>83</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B32" s="9" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
         <v>28929</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="D32" s="9" t="str">
         <f aca="false">RIGHT(A32, LEN(A32) - FIND("_", A32) - 3)</f>
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B33" s="0"/>
-      <c r="C33" s="9" t="str">
-        <f aca="false">RIGHT(A33, LEN(A33) - FIND("_", A33) - 3)</f>
-        <v>1_TaqHiFi</v>
+      <c r="D33" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B34" s="0"/>
-      <c r="C34" s="9" t="str">
-        <f aca="false">RIGHT(A34, LEN(A34) - FIND("_", A34) - 3)</f>
-        <v>1_Taq</v>
+      <c r="D34" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B35" s="0"/>
-      <c r="C35" s="9" t="str">
-        <f aca="false">RIGHT(A35, LEN(A35) - FIND("_", A35) - 7)</f>
-        <v>1_TaqHiFi</v>
+      <c r="D35" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B36" s="0"/>
-      <c r="C36" s="9" t="str">
-        <f aca="false">RIGHT(A36, LEN(A36) - FIND("_", A36) - 7)</f>
-        <v>1_Taq</v>
+      <c r="D36" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B37" s="0"/>
-      <c r="C37" s="9" t="str">
-        <f aca="false">RIGHT(A37, LEN(A37) - FIND("_", A37) - 7)</f>
-        <v>2_TaqHiFi</v>
+      <c r="D37" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="D38" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="0"/>
-      <c r="C38" s="9" t="str">
-        <f aca="false">RIGHT(A38, LEN(A38) - FIND("_", A38) - 7)</f>
-        <v>2_Taq</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="G38" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B39" s="9" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
         <v>VK02-4452</v>
       </c>
-      <c r="C39" s="9" t="str">
+      <c r="D39" s="9" t="str">
         <f aca="false">RIGHT(A39, LEN(A39) - FIND("_", A39) - 3)</f>
         <v>1</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B40" s="9" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
         <v>06HR-0145</v>
       </c>
-      <c r="C40" s="9" t="str">
+      <c r="D40" s="9" t="str">
         <f aca="false">RIGHT(A40, LEN(A40) - FIND("_", A40) - 3)</f>
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B41" s="9" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
         <v>28929</v>
       </c>
-      <c r="C41" s="9" t="str">
+      <c r="D41" s="9" t="str">
         <f aca="false">RIGHT(A41, LEN(A41) - FIND("_", A41) - 3)</f>
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>127</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="E42" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
       <c r="F42" s="9" t="s">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>38540</v>
-      </c>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
+      <c r="A43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
+        <v>VK01-2965</v>
+      </c>
+      <c r="D43" s="9" t="str">
+        <f aca="false">RIGHT(A43, LEN(A43) - FIND("_", A43) - 3)</f>
+        <v>2</v>
+      </c>
       <c r="E43" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <v>38304</v>
-      </c>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
+      <c r="A44" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
+        <v>05HR-0269</v>
+      </c>
+      <c r="D44" s="9" t="str">
+        <f aca="false">RIGHT(A44, LEN(A44) - FIND("_", A44) - 3)</f>
+        <v>2</v>
+      </c>
       <c r="E44" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B45" s="9" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
-        <v>VK03-4298</v>
-      </c>
-      <c r="C45" s="9" t="str">
+        <v>VK09-1685</v>
+      </c>
+      <c r="D45" s="9" t="str">
         <f aca="false">RIGHT(A45, LEN(A45) - FIND("_", A45) - 3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>132</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="9" t="str">
-        <f aca="false">LEFT(A46, FIND("_", A46, 1) - 1)</f>
-        <v>VK04-3106</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f aca="false">RIGHT(A46, LEN(A46) - FIND("_", A46) - 3)</f>
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="D46" s="0"/>
       <c r="E46" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="9" t="str">
-        <f aca="false">LEFT(A47, FIND("_", A47, 1) - 1)</f>
-        <v>VK09-1685</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f aca="false">RIGHT(A47, LEN(A47) - FIND("_", A47) - 3)</f>
-        <v>1</v>
-      </c>
+      <c r="A47" s="9" t="n">
+        <v>38540</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="D47" s="0"/>
       <c r="E47" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>136</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="9" t="str">
-        <f aca="false">LEFT(A48, FIND("_", A48, 1) - 1)</f>
-        <v>VK09-7738</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f aca="false">RIGHT(A48, LEN(A48) - FIND("_", A48) - 3)</f>
-        <v>1</v>
-      </c>
+      <c r="A48" s="9" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="D48" s="0"/>
       <c r="E48" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>100</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B49" s="9" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
-        <v>28338</v>
-      </c>
-      <c r="C49" s="9" t="str">
+        <v>VK03-4298</v>
+      </c>
+      <c r="D49" s="9" t="str">
         <f aca="false">RIGHT(A49, LEN(A49) - FIND("_", A49) - 3)</f>
         <v>1</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B50" s="9" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
-        <v>29698</v>
-      </c>
-      <c r="C50" s="9" t="str">
+        <v>VK04-3106</v>
+      </c>
+      <c r="D50" s="9" t="str">
         <f aca="false">RIGHT(A50, LEN(A50) - FIND("_", A50) - 3)</f>
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>141</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B51" s="9" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
-        <v>21006</v>
-      </c>
-      <c r="C51" s="9" t="str">
+        <v>VK09-1685</v>
+      </c>
+      <c r="D51" s="9" t="str">
         <f aca="false">RIGHT(A51, LEN(A51) - FIND("_", A51) - 3)</f>
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B52" s="9" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
-        <v>VK08-1001</v>
-      </c>
-      <c r="C52" s="9" t="str">
+        <v>VK09-7738</v>
+      </c>
+      <c r="D52" s="9" t="str">
         <f aca="false">RIGHT(A52, LEN(A52) - FIND("_", A52) - 3)</f>
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="9" t="str">
-        <f aca="false">LEFT(A53, FIND("_", A53, 1) - 1)</f>
-        <v>24890</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f aca="false">RIGHT(A53, LEN(A53) - FIND("_", A53) - 3)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>139</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
       <c r="F53" s="9" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B54" s="9" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
-        <v>04HR-1501</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f aca="false">RIGHT(A54, LEN(A54) - FIND("_", A54) - 3)</f>
-        <v>1</v>
+        <v>VK01-2965</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>147</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B55" s="9" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
-        <v>VK06-1885</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f aca="false">RIGHT(A55, LEN(A55) - FIND("_", A55) - 3)</f>
-        <v>1</v>
+        <v>05HR-0269</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B56" s="9" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
-        <v>25775</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f aca="false">RIGHT(A56, LEN(A56) - FIND("_", A56) - 3)</f>
-        <v>1</v>
+        <v>VK09-1685</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B57" s="9" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
-        <v>VK06-6001</v>
-      </c>
-      <c r="C57" s="9" t="str">
+        <v>28338</v>
+      </c>
+      <c r="D57" s="9" t="str">
         <f aca="false">RIGHT(A57, LEN(A57) - FIND("_", A57) - 3)</f>
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B58" s="9" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
-        <v>21484</v>
-      </c>
-      <c r="C58" s="9" t="str">
+        <v>29698</v>
+      </c>
+      <c r="D58" s="9" t="str">
         <f aca="false">RIGHT(A58, LEN(A58) - FIND("_", A58) - 3)</f>
         <v>1</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B59" s="9" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
-        <v>26477</v>
-      </c>
-      <c r="C59" s="9" t="str">
+        <v>21006</v>
+      </c>
+      <c r="D59" s="9" t="str">
         <f aca="false">RIGHT(A59, LEN(A59) - FIND("_", A59) - 3)</f>
         <v>1</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>154</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B60" s="9" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
-        <v>VK00-1524</v>
-      </c>
-      <c r="C60" s="9" t="str">
+        <v>VK08-1001</v>
+      </c>
+      <c r="D60" s="9" t="str">
         <f aca="false">RIGHT(A60, LEN(A60) - FIND("_", A60) - 3)</f>
         <v>1</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>100</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B61" s="9" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
-        <v>VK07-4218</v>
-      </c>
-      <c r="C61" s="9" t="str">
+        <v>24890</v>
+      </c>
+      <c r="D61" s="9" t="str">
         <f aca="false">RIGHT(A61, LEN(A61) - FIND("_", A61) - 3)</f>
         <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>125</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B62" s="9" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
-        <v>7686</v>
-      </c>
-      <c r="C62" s="9" t="str">
+        <v>04HR-1501</v>
+      </c>
+      <c r="D62" s="9" t="str">
         <f aca="false">RIGHT(A62, LEN(A62) - FIND("_", A62) - 3)</f>
         <v>1</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>127</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="B63" s="9" t="str">
+        <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
+        <v>VK06-1885</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <f aca="false">RIGHT(A63, LEN(A63) - FIND("_", A63) - 3)</f>
+        <v>1</v>
+      </c>
       <c r="E63" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="B64" s="9" t="str">
+        <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
+        <v>25775</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f aca="false">RIGHT(A64, LEN(A64) - FIND("_", A64) - 3)</f>
+        <v>1</v>
+      </c>
       <c r="E64" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
+        <v>180</v>
+      </c>
+      <c r="B65" s="9" t="str">
+        <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
+        <v>VK06-6001</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f aca="false">RIGHT(A65, LEN(A65) - FIND("_", A65) - 3)</f>
+        <v>1</v>
+      </c>
       <c r="E65" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="B66" s="9" t="str">
+        <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
+        <v>21484</v>
+      </c>
+      <c r="D66" s="9" t="str">
+        <f aca="false">RIGHT(A66, LEN(A66) - FIND("_", A66) - 3)</f>
+        <v>1</v>
+      </c>
       <c r="E66" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
+        <v>182</v>
+      </c>
+      <c r="B67" s="9" t="str">
+        <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
+        <v>26477</v>
+      </c>
+      <c r="D67" s="9" t="str">
+        <f aca="false">RIGHT(A67, LEN(A67) - FIND("_", A67) - 3)</f>
+        <v>1</v>
+      </c>
       <c r="E67" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B68" s="9" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
-        <v>28338</v>
-      </c>
-      <c r="C68" s="9" t="str">
+        <v>VK00-1524</v>
+      </c>
+      <c r="D68" s="9" t="str">
         <f aca="false">RIGHT(A68, LEN(A68) - FIND("_", A68) - 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B69" s="9" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
-        <v>29698</v>
-      </c>
-      <c r="C69" s="9" t="str">
+        <v>VK07-4218</v>
+      </c>
+      <c r="D69" s="9" t="str">
         <f aca="false">RIGHT(A69, LEN(A69) - FIND("_", A69) - 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B70" s="9" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
-        <v>28338</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A70, LEN(A70) - FIND("_", A70) -3), FIND("-", RIGHT(A70, LEN(A70) - FIND("_", A70) - 3)) - 1)</f>
+        <v>7686</v>
+      </c>
+      <c r="D70" s="9" t="str">
+        <f aca="false">RIGHT(A70, LEN(A70) - FIND("_", A70) - 3)</f>
         <v>1</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="9" t="str">
-        <f aca="false">LEFT(A71, FIND("_", A71, 1) - 1)</f>
-        <v>29698</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A71, LEN(A71) - FIND("_", A71) -3), FIND("-", RIGHT(A71, LEN(A71) - FIND("_", A71) - 3)) - 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
       <c r="F71" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>141</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="9" t="str">
-        <f aca="false">LEFT(A72, FIND("_", A72, 1) - 1)</f>
-        <v>21006</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A72, LEN(A72) - FIND("_", A72) -3), FIND("-", RIGHT(A72, LEN(A72) - FIND("_", A72) - 3)) - 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
       <c r="F72" s="9" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="9" t="str">
-        <f aca="false">LEFT(A73, FIND("_", A73, 1) - 1)</f>
-        <v>VK08-1001</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A73, LEN(A73) - FIND("_", A73) -3), FIND("-", RIGHT(A73, LEN(A73) - FIND("_", A73) - 3)) - 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
       <c r="F73" s="9" t="s">
-        <v>115</v>
+        <v>188</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="9" t="str">
-        <f aca="false">LEFT(A74, FIND("_", A74, 1) - 1)</f>
-        <v>24890</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A74, LEN(A74) - FIND("_", A74) -3), FIND("-", RIGHT(A74, LEN(A74) - FIND("_", A74) - 3)) - 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
       <c r="F74" s="9" t="s">
-        <v>132</v>
+        <v>188</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="9" t="str">
-        <f aca="false">LEFT(A75, FIND("_", A75, 1) - 1)</f>
-        <v>04HR-1501</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A75, LEN(A75) - FIND("_", A75) -3), FIND("-", RIGHT(A75, LEN(A75) - FIND("_", A75) - 3)) - 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
       <c r="F75" s="9" t="s">
-        <v>147</v>
+        <v>188</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B76" s="9" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
-        <v>VK06-1885</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A76, LEN(A76) - FIND("_", A76) -3), FIND("-", RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)) - 1)</f>
-        <v>1</v>
+        <v>28338</v>
+      </c>
+      <c r="D76" s="9" t="str">
+        <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
+        <v>2</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>149</v>
+        <v>188</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B77" s="9" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
-        <v>25775</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f aca="false">LEFT(RIGHT(A77, LEN(A77) - FIND("_", A77) -3), FIND("-", RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)) - 1)</f>
-        <v>1</v>
+        <v>29698</v>
+      </c>
+      <c r="D77" s="9" t="str">
+        <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
+        <v>2</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>98</v>
+        <v>188</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B78" s="9" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
-        <v>VK06-6001</v>
-      </c>
-      <c r="C78" s="9" t="str">
+        <v>28338</v>
+      </c>
+      <c r="D78" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A78, LEN(A78) - FIND("_", A78) -3), FIND("-", RIGHT(A78, LEN(A78) - FIND("_", A78) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>92</v>
+        <v>198</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B79" s="9" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
-        <v>21484</v>
-      </c>
-      <c r="C79" s="9" t="str">
+        <v>29698</v>
+      </c>
+      <c r="D79" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A79, LEN(A79) - FIND("_", A79) -3), FIND("-", RIGHT(A79, LEN(A79) - FIND("_", A79) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>94</v>
+        <v>198</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B80" s="9" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
-        <v>26477</v>
-      </c>
-      <c r="C80" s="9" t="str">
+        <v>21006</v>
+      </c>
+      <c r="D80" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A80, LEN(A80) - FIND("_", A80) -3), FIND("-", RIGHT(A80, LEN(A80) - FIND("_", A80) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>154</v>
+        <v>198</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B81" s="9" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
-        <v>VK00-1524</v>
-      </c>
-      <c r="C81" s="9" t="str">
+        <v>VK08-1001</v>
+      </c>
+      <c r="D81" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A81, LEN(A81) - FIND("_", A81) -3), FIND("-", RIGHT(A81, LEN(A81) - FIND("_", A81) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>100</v>
+        <v>198</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B82" s="9" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
-        <v>VK07-4218</v>
-      </c>
-      <c r="C82" s="9" t="str">
+        <v>24890</v>
+      </c>
+      <c r="D82" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A82, LEN(A82) - FIND("_", A82) -3), FIND("-", RIGHT(A82, LEN(A82) - FIND("_", A82) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>125</v>
+        <v>198</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B83" s="9" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
-        <v>7686</v>
-      </c>
-      <c r="C83" s="9" t="str">
+        <v>04HR-1501</v>
+      </c>
+      <c r="D83" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A83, LEN(A83) - FIND("_", A83) -3), FIND("-", RIGHT(A83, LEN(A83) - FIND("_", A83) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>127</v>
+        <v>198</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B84" s="9" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
-        <v>28338</v>
-      </c>
-      <c r="C84" s="9" t="str">
+        <v>VK06-1885</v>
+      </c>
+      <c r="D84" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A84, LEN(A84) - FIND("_", A84) -3), FIND("-", RIGHT(A84, LEN(A84) - FIND("_", A84) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>90</v>
+        <v>198</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B85" s="9" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
-        <v>29698</v>
-      </c>
-      <c r="C85" s="9" t="str">
+        <v>25775</v>
+      </c>
+      <c r="D85" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A85, LEN(A85) - FIND("_", A85) -3), FIND("-", RIGHT(A85, LEN(A85) - FIND("_", A85) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>141</v>
+        <v>198</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B86" s="9" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
-        <v>21006</v>
-      </c>
-      <c r="C86" s="9" t="str">
+        <v>VK06-6001</v>
+      </c>
+      <c r="D86" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A86, LEN(A86) - FIND("_", A86) -3), FIND("-", RIGHT(A86, LEN(A86) - FIND("_", A86) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>143</v>
+        <v>198</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B87" s="9" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
-        <v>VK08-1001</v>
-      </c>
-      <c r="C87" s="9" t="str">
+        <v>21484</v>
+      </c>
+      <c r="D87" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A87, LEN(A87) - FIND("_", A87) -3), FIND("-", RIGHT(A87, LEN(A87) - FIND("_", A87) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>115</v>
+        <v>198</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B88" s="9" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
-        <v>24890</v>
-      </c>
-      <c r="C88" s="9" t="str">
+        <v>26477</v>
+      </c>
+      <c r="D88" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A88, LEN(A88) - FIND("_", A88) -3), FIND("-", RIGHT(A88, LEN(A88) - FIND("_", A88) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E88" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>132</v>
+      <c r="H88" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B89" s="9" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
-        <v>04HR-1501</v>
-      </c>
-      <c r="C89" s="9" t="str">
+        <v>VK00-1524</v>
+      </c>
+      <c r="D89" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A89, LEN(A89) - FIND("_", A89) -3), FIND("-", RIGHT(A89, LEN(A89) - FIND("_", A89) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>147</v>
+        <v>198</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B90" s="9" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
-        <v>VK06-1885</v>
-      </c>
-      <c r="C90" s="9" t="str">
+        <v>VK07-4218</v>
+      </c>
+      <c r="D90" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A90, LEN(A90) - FIND("_", A90) -3), FIND("-", RIGHT(A90, LEN(A90) - FIND("_", A90) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B91" s="9" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
-        <v>25775</v>
-      </c>
-      <c r="C91" s="9" t="str">
+        <v>7686</v>
+      </c>
+      <c r="D91" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A91, LEN(A91) - FIND("_", A91) -3), FIND("-", RIGHT(A91, LEN(A91) - FIND("_", A91) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>98</v>
+        <v>198</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B92" s="9" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
-        <v>VK06-6001</v>
-      </c>
-      <c r="C92" s="9" t="str">
+        <v>28338</v>
+      </c>
+      <c r="D92" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A92, LEN(A92) - FIND("_", A92) -3), FIND("-", RIGHT(A92, LEN(A92) - FIND("_", A92) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>92</v>
+        <v>213</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B93" s="9" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
-        <v>21484</v>
-      </c>
-      <c r="C93" s="9" t="str">
+        <v>29698</v>
+      </c>
+      <c r="D93" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A93, LEN(A93) - FIND("_", A93) -3), FIND("-", RIGHT(A93, LEN(A93) - FIND("_", A93) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>94</v>
+        <v>213</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B94" s="9" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
-        <v>26477</v>
-      </c>
-      <c r="C94" s="9" t="str">
+        <v>21006</v>
+      </c>
+      <c r="D94" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A94, LEN(A94) - FIND("_", A94) -3), FIND("-", RIGHT(A94, LEN(A94) - FIND("_", A94) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>154</v>
+        <v>213</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B95" s="9" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
-        <v>VK00-1524</v>
-      </c>
-      <c r="C95" s="9" t="str">
+        <v>VK08-1001</v>
+      </c>
+      <c r="D95" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A95, LEN(A95) - FIND("_", A95) -3), FIND("-", RIGHT(A95, LEN(A95) - FIND("_", A95) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>100</v>
+        <v>213</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B96" s="9" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
-        <v>VK07-4218</v>
-      </c>
-      <c r="C96" s="9" t="str">
+        <v>24890</v>
+      </c>
+      <c r="D96" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A96, LEN(A96) - FIND("_", A96) -3), FIND("-", RIGHT(A96, LEN(A96) - FIND("_", A96) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>125</v>
+        <v>213</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B97" s="9" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
-        <v>7686</v>
-      </c>
-      <c r="C97" s="9" t="str">
+        <v>04HR-1501</v>
+      </c>
+      <c r="D97" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A97, LEN(A97) - FIND("_", A97) -3), FIND("-", RIGHT(A97, LEN(A97) - FIND("_", A97) - 3)) - 1)</f>
         <v>1</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="9" t="str">
+        <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
+        <v>VK06-1885</v>
+      </c>
+      <c r="D98" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A98, LEN(A98) - FIND("_", A98) -3), FIND("-", RIGHT(A98, LEN(A98) - FIND("_", A98) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="9" t="str">
+        <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
+        <v>25775</v>
+      </c>
+      <c r="D99" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A99, LEN(A99) - FIND("_", A99) -3), FIND("-", RIGHT(A99, LEN(A99) - FIND("_", A99) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="9" t="str">
+        <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
+        <v>VK06-6001</v>
+      </c>
+      <c r="D100" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A100, LEN(A100) - FIND("_", A100) -3), FIND("-", RIGHT(A100, LEN(A100) - FIND("_", A100) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="9" t="str">
+        <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
+        <v>21484</v>
+      </c>
+      <c r="D101" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A101, LEN(A101) - FIND("_", A101) -3), FIND("-", RIGHT(A101, LEN(A101) - FIND("_", A101) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="9" t="str">
+        <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
+        <v>26477</v>
+      </c>
+      <c r="D102" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A102, LEN(A102) - FIND("_", A102) -3), FIND("-", RIGHT(A102, LEN(A102) - FIND("_", A102) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>127</v>
+      <c r="H102" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="9" t="str">
+        <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
+        <v>VK00-1524</v>
+      </c>
+      <c r="D103" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A103, LEN(A103) - FIND("_", A103) -3), FIND("-", RIGHT(A103, LEN(A103) - FIND("_", A103) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="9" t="str">
+        <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
+        <v>VK07-4218</v>
+      </c>
+      <c r="D104" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A104, LEN(A104) - FIND("_", A104) -3), FIND("-", RIGHT(A104, LEN(A104) - FIND("_", A104) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="9" t="str">
+        <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
+        <v>7686</v>
+      </c>
+      <c r="D105" s="9" t="str">
+        <f aca="false">LEFT(RIGHT(A105, LEN(A105) - FIND("_", A105) -3), FIND("-", RIGHT(A105, LEN(A105) - FIND("_", A105) - 3)) - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" s="9" t="str">
+        <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
+        <v>VK05-2685</v>
+      </c>
+      <c r="D106" s="9" t="str">
+        <f aca="false">RIGHT(A106, LEN(A106) - FIND("_", A106) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="9" t="str">
+        <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
+        <v>12402</v>
+      </c>
+      <c r="D107" s="9" t="str">
+        <f aca="false">RIGHT(A107, LEN(A107) - FIND("_", A107) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" s="9" t="str">
+        <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
+        <v>27134</v>
+      </c>
+      <c r="D108" s="9" t="str">
+        <f aca="false">RIGHT(A108, LEN(A108) - FIND("_", A108) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="9" t="str">
+        <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
+        <v>VK99-2133</v>
+      </c>
+      <c r="D109" s="9" t="str">
+        <f aca="false">RIGHT(A109, LEN(A109) - FIND("_", A109) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="9" t="str">
+        <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
+        <v>23058</v>
+      </c>
+      <c r="D110" s="9" t="str">
+        <f aca="false">RIGHT(A110, LEN(A110) - FIND("_", A110) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="9" t="str">
+        <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
+        <v>3174</v>
+      </c>
+      <c r="D111" s="9" t="str">
+        <f aca="false">RIGHT(A111, LEN(A111) - FIND("_", A111) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="9" t="str">
+        <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
+        <v>16311</v>
+      </c>
+      <c r="D112" s="9" t="str">
+        <f aca="false">RIGHT(A112, LEN(A112) - FIND("_", A112) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="9" t="str">
+        <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
+        <v>4955</v>
+      </c>
+      <c r="D113" s="9" t="str">
+        <f aca="false">RIGHT(A113, LEN(A113) - FIND("_", A113) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="9" t="str">
+        <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
+        <v>14799</v>
+      </c>
+      <c r="D114" s="9" t="str">
+        <f aca="false">RIGHT(A114, LEN(A114) - FIND("_", A114) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="9" t="str">
+        <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
+        <v>24062</v>
+      </c>
+      <c r="D115" s="9" t="str">
+        <f aca="false">RIGHT(A115, LEN(A115) - FIND("_", A115) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" s="9" t="str">
+        <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
+        <v>VL96-15555</v>
+      </c>
+      <c r="D116" s="9" t="str">
+        <f aca="false">RIGHT(A116, LEN(A116) - FIND("_", A116) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="9" t="str">
+        <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
+        <v>18140</v>
+      </c>
+      <c r="D117" s="9" t="str">
+        <f aca="false">RIGHT(A117, LEN(A117) - FIND("_", A117) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="9" t="str">
+        <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
+        <v>VK99-4202</v>
+      </c>
+      <c r="D118" s="9" t="str">
+        <f aca="false">RIGHT(A118, LEN(A118) - FIND("_", A118) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="9" t="str">
+        <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
+        <v>10264</v>
+      </c>
+      <c r="D119" s="9" t="str">
+        <f aca="false">RIGHT(A119, LEN(A119) - FIND("_", A119) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="9" t="str">
+        <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
+        <v>15611</v>
+      </c>
+      <c r="D120" s="9" t="str">
+        <f aca="false">RIGHT(A120, LEN(A120) - FIND("_", A120) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" s="9" t="str">
+        <f aca="false">RIGHT(A121, LEN(A121) - FIND("_", A121) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="9" t="str">
+        <f aca="false">RIGHT(A122, LEN(A122) - FIND("_", A122) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="9" t="n">
+        <v>11686</v>
+      </c>
+      <c r="D123" s="9" t="str">
+        <f aca="false">RIGHT(A123, LEN(A123) - FIND("_", A123) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="9" t="n">
+        <v>11686</v>
+      </c>
+      <c r="D124" s="9" t="str">
+        <f aca="false">RIGHT(A124, LEN(A124) - FIND("_", A124) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="9" t="n">
+        <v>21665</v>
+      </c>
+      <c r="D125" s="9" t="str">
+        <f aca="false">RIGHT(A125, LEN(A125) - FIND("_", A125) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="9" t="n">
+        <v>21665</v>
+      </c>
+      <c r="D126" s="9" t="str">
+        <f aca="false">RIGHT(A126, LEN(A126) - FIND("_", A126) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="9" t="str">
+        <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
+        <v>32311</v>
+      </c>
+      <c r="D127" s="9" t="str">
+        <f aca="false">RIGHT(A127, LEN(A127) - FIND("_", A127) - 3)</f>
+        <v>1</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -11731,8 +13426,634 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="6" width="10.0803571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="14.8348214285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="52.9776785714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="6" width="10.0803571428571"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="62" t="n">
+        <v>41541</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="62" t="n">
+        <v>41626</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="62" t="n">
+        <v>41668</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="62" t="n">
+        <v>41680</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="62" t="n">
+        <v>41708</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="62" t="n">
+        <v>41731</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="62" t="n">
+        <v>41753</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="62" t="n">
+        <v>41792</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C:C D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.4508928571429"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="6" width="10.0803571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="11.7633928571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.33035714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="41.7589285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="42.0267857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="57.7276785714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="6" width="10.0803571428571"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="62" t="n">
+        <v>41485</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="62" t="n">
+        <v>41547</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="62" t="n">
+        <v>41567</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="62" t="n">
+        <v>41649</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>602</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="62" t="n">
+        <v>41663</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>602</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="62" t="n">
+        <v>41670</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="62" t="n">
+        <v>41688</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="62" t="n">
+        <v>41710</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="62" t="n">
+        <v>41716</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="62" t="n">
+        <v>41738</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="62" t="n">
+        <v>41759</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="62" t="n">
+        <v>41771</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="62" t="n">
+        <v>41779</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="62" t="n">
+        <v>41784</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="62" t="n">
+        <v>41801</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="553" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="949" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -721,6 +721,9 @@
     <t>VK99-2133_PCR1</t>
   </si>
   <si>
+    <t>1 2 3b 4 5a 6</t>
+  </si>
+  <si>
     <t>23058_PCR1</t>
   </si>
   <si>
@@ -730,6 +733,9 @@
     <t>16311_PCR1</t>
   </si>
   <si>
+    <t>1 2 3b 4 5a+b 6</t>
+  </si>
+  <si>
     <t>4955_PCR1</t>
   </si>
   <si>
@@ -760,9 +766,15 @@
     <t>VK09-0119</t>
   </si>
   <si>
+    <t>1 2 3b</t>
+  </si>
+  <si>
     <t>VK09-0119-F4-6_PCR1</t>
   </si>
   <si>
+    <t>4 5a 6</t>
+  </si>
+  <si>
     <t>11686-F1-3_PCR1</t>
   </si>
   <si>
@@ -778,9 +790,15 @@
     <t>32311_PCR1</t>
   </si>
   <si>
+    <t>1 2 3a 4 6</t>
+  </si>
+  <si>
     <t>N4-S4</t>
   </si>
   <si>
+    <t>In principle it's F4 missing, but we find lots of reads from F4 and none from F5, so Lina must have mispipetted</t>
+  </si>
+  <si>
     <t>random-hexamer-HIV-1</t>
   </si>
   <si>
@@ -961,7 +979,7 @@
     <t>22 pat samples + 2 random hexamers HIV RNA</t>
   </si>
   <si>
-    <t>cluster amplifiction for read2 failed!</t>
+    <t>cluster amplifiction for read2 not great</t>
   </si>
   <si>
     <t>/ebio/abt6_sra/years/2014/06_13/HIVSwedenNexteraXTDualIndex/</t>
@@ -1442,11 +1460,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1520,7 +1538,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="C:C D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1765,8 +1783,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1780,7 +1798,7 @@
   <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8384,8 +8402,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8399,7 +8417,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C:C A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10312,8 +10330,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10326,8 +10344,8 @@
   </sheetPr>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10336,12 +10354,12 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="9" width="20.7946428571429"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.2678571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="9" width="5.70089285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.2455357142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="14.65625"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.9910714285714"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="9" width="10.0803571428571"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="9" width="9.73214285714286"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="9" width="38.9553571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7633928571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="94.5669642857143"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2678571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.58928571428571"/>
   </cols>
@@ -10384,6 +10402,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
@@ -10406,6 +10425,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
@@ -10431,6 +10451,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
@@ -10453,6 +10474,7 @@
         <v>37024</v>
       </c>
       <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
@@ -10477,6 +10499,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
@@ -10504,6 +10527,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
       <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
@@ -10531,6 +10555,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
@@ -10554,6 +10579,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
       <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
@@ -10580,6 +10606,7 @@
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
         <v>VK04-3106</v>
       </c>
+      <c r="C10" s="0"/>
       <c r="D10" s="9" t="str">
         <f aca="false">RIGHT(A10, LEN(A10) - FIND("_", A10) - 3)</f>
         <v>2</v>
@@ -10606,6 +10633,7 @@
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
         <v>08HR-0235</v>
       </c>
+      <c r="C11" s="0"/>
       <c r="D11" s="9" t="str">
         <f aca="false">RIGHT(A11, LEN(A11) - FIND("_", A11) - 3)</f>
         <v>2</v>
@@ -10632,6 +10660,7 @@
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
         <v>VK07-4778</v>
       </c>
+      <c r="C12" s="0"/>
       <c r="D12" s="9" t="str">
         <f aca="false">RIGHT(A12, LEN(A12) - FIND("_", A12) - 3)</f>
         <v>2</v>
@@ -10658,6 +10687,7 @@
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
         <v>VK03-4298</v>
       </c>
+      <c r="C13" s="0"/>
       <c r="D13" s="9" t="str">
         <f aca="false">RIGHT(A13, LEN(A13) - FIND("_", A13) - 3)</f>
         <v>2</v>
@@ -10684,6 +10714,7 @@
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
         <v>VK09-7738</v>
       </c>
+      <c r="C14" s="0"/>
       <c r="D14" s="9" t="str">
         <f aca="false">RIGHT(A14, LEN(A14) - FIND("_", A14) - 3)</f>
         <v>2</v>
@@ -10710,6 +10741,7 @@
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
         <v>VK08-8014</v>
       </c>
+      <c r="C15" s="0"/>
       <c r="D15" s="9" t="str">
         <f aca="false">RIGHT(A15, LEN(A15) - FIND("_", A15) - 3)</f>
         <v>2</v>
@@ -10736,6 +10768,7 @@
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
         <v>VK08-6634</v>
       </c>
+      <c r="C16" s="0"/>
       <c r="D16" s="9" t="str">
         <f aca="false">RIGHT(A16, LEN(A16) - FIND("_", A16) - 3)</f>
         <v>2</v>
@@ -10762,6 +10795,7 @@
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
         <v>VK07-8262</v>
       </c>
+      <c r="C17" s="0"/>
       <c r="D17" s="9" t="str">
         <f aca="false">RIGHT(A17, LEN(A17) - FIND("_", A17) - 3)</f>
         <v>2</v>
@@ -10788,6 +10822,7 @@
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
         <v>VK08-2987</v>
       </c>
+      <c r="C18" s="0"/>
       <c r="D18" s="9" t="str">
         <f aca="false">RIGHT(A18, LEN(A18) - FIND("_", A18) - 3)</f>
         <v>2</v>
@@ -10811,6 +10846,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="9" t="str">
         <f aca="false">RIGHT(A19, LEN(A19) - FIND("_", A19) - 3)</f>
         <v>1</v>
@@ -10834,6 +10870,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
       <c r="D20" s="9" t="str">
         <f aca="false">RIGHT(A20, LEN(A20) - FIND("_", A20) - 3)</f>
         <v>1</v>
@@ -10857,6 +10894,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
       <c r="D21" s="9" t="n">
         <v>1</v>
       </c>
@@ -10879,6 +10917,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="9" t="n">
         <v>1</v>
       </c>
@@ -10901,6 +10940,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="D23" s="9" t="n">
         <v>2</v>
       </c>
@@ -10923,6 +10963,7 @@
         <v>108</v>
       </c>
       <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
       <c r="D24" s="9" t="n">
         <v>2</v>
       </c>
@@ -10945,6 +10986,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
       <c r="D25" s="9" t="n">
         <v>2</v>
       </c>
@@ -10967,6 +11009,7 @@
         <v>112</v>
       </c>
       <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
       <c r="D26" s="9" t="n">
         <v>2</v>
       </c>
@@ -10992,6 +11035,7 @@
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
         <v>34493</v>
       </c>
+      <c r="C27" s="0"/>
       <c r="D27" s="9" t="str">
         <f aca="false">RIGHT(A27, LEN(A27) - FIND("_", A27) - 3)</f>
         <v>2</v>
@@ -11018,6 +11062,7 @@
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
         <v>29184</v>
       </c>
+      <c r="C28" s="0"/>
       <c r="D28" s="9" t="str">
         <f aca="false">RIGHT(A28, LEN(A28) - FIND("_", A28) - 3)</f>
         <v>2</v>
@@ -11044,6 +11089,7 @@
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
         <v>30847</v>
       </c>
+      <c r="C29" s="0"/>
       <c r="D29" s="9" t="str">
         <f aca="false">RIGHT(A29, LEN(A29) - FIND("_", A29) - 3)</f>
         <v>2</v>
@@ -11070,6 +11116,7 @@
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
         <v>VK02-4452</v>
       </c>
+      <c r="C30" s="0"/>
       <c r="D30" s="9" t="str">
         <f aca="false">RIGHT(A30, LEN(A30) - FIND("_", A30) - 3)</f>
         <v>2</v>
@@ -11096,6 +11143,7 @@
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
         <v>06HR-0145</v>
       </c>
+      <c r="C31" s="0"/>
       <c r="D31" s="9" t="str">
         <f aca="false">RIGHT(A31, LEN(A31) - FIND("_", A31) - 3)</f>
         <v>2</v>
@@ -11122,6 +11170,7 @@
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
         <v>28929</v>
       </c>
+      <c r="C32" s="0"/>
       <c r="D32" s="9" t="str">
         <f aca="false">RIGHT(A32, LEN(A32) - FIND("_", A32) - 3)</f>
         <v>2</v>
@@ -11145,6 +11194,7 @@
         <v>119</v>
       </c>
       <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
       <c r="D33" s="9" t="n">
         <v>1</v>
       </c>
@@ -11167,6 +11217,7 @@
         <v>121</v>
       </c>
       <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
       <c r="D34" s="9" t="n">
         <v>1</v>
       </c>
@@ -11189,6 +11240,7 @@
         <v>123</v>
       </c>
       <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
       <c r="D35" s="9" t="n">
         <v>1</v>
       </c>
@@ -11211,6 +11263,7 @@
         <v>127</v>
       </c>
       <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
       <c r="D36" s="9" t="n">
         <v>1</v>
       </c>
@@ -11233,6 +11286,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
       <c r="D37" s="9" t="n">
         <v>2</v>
       </c>
@@ -11255,6 +11309,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
       <c r="D38" s="9" t="n">
         <v>2</v>
       </c>
@@ -11280,6 +11335,7 @@
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
         <v>VK02-4452</v>
       </c>
+      <c r="C39" s="0"/>
       <c r="D39" s="9" t="str">
         <f aca="false">RIGHT(A39, LEN(A39) - FIND("_", A39) - 3)</f>
         <v>1</v>
@@ -11306,6 +11362,7 @@
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
         <v>06HR-0145</v>
       </c>
+      <c r="C40" s="0"/>
       <c r="D40" s="9" t="str">
         <f aca="false">RIGHT(A40, LEN(A40) - FIND("_", A40) - 3)</f>
         <v>1</v>
@@ -11332,6 +11389,7 @@
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
         <v>28929</v>
       </c>
+      <c r="C41" s="0"/>
       <c r="D41" s="9" t="str">
         <f aca="false">RIGHT(A41, LEN(A41) - FIND("_", A41) - 3)</f>
         <v>1</v>
@@ -11355,6 +11413,7 @@
         <v>139</v>
       </c>
       <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="9" t="s">
@@ -11378,6 +11437,7 @@
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
+      <c r="C43" s="0"/>
       <c r="D43" s="9" t="str">
         <f aca="false">RIGHT(A43, LEN(A43) - FIND("_", A43) - 3)</f>
         <v>2</v>
@@ -11404,6 +11464,7 @@
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
+      <c r="C44" s="0"/>
       <c r="D44" s="9" t="str">
         <f aca="false">RIGHT(A44, LEN(A44) - FIND("_", A44) - 3)</f>
         <v>2</v>
@@ -11430,6 +11491,7 @@
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
+      <c r="C45" s="0"/>
       <c r="D45" s="9" t="str">
         <f aca="false">RIGHT(A45, LEN(A45) - FIND("_", A45) - 3)</f>
         <v>2</v>
@@ -11453,6 +11515,7 @@
         <v>148</v>
       </c>
       <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="9" t="s">
         <v>75</v>
@@ -11473,6 +11536,7 @@
         <v>38540</v>
       </c>
       <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="9" t="s">
         <v>75</v>
@@ -11493,6 +11557,7 @@
         <v>38304</v>
       </c>
       <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="9" t="s">
         <v>75</v>
@@ -11516,6 +11581,7 @@
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
         <v>VK03-4298</v>
       </c>
+      <c r="C49" s="0"/>
       <c r="D49" s="9" t="str">
         <f aca="false">RIGHT(A49, LEN(A49) - FIND("_", A49) - 3)</f>
         <v>1</v>
@@ -11542,6 +11608,7 @@
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
         <v>VK04-3106</v>
       </c>
+      <c r="C50" s="0"/>
       <c r="D50" s="9" t="str">
         <f aca="false">RIGHT(A50, LEN(A50) - FIND("_", A50) - 3)</f>
         <v>1</v>
@@ -11568,6 +11635,7 @@
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
+      <c r="C51" s="0"/>
       <c r="D51" s="9" t="str">
         <f aca="false">RIGHT(A51, LEN(A51) - FIND("_", A51) - 3)</f>
         <v>1</v>
@@ -11594,6 +11662,7 @@
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
         <v>VK09-7738</v>
       </c>
+      <c r="C52" s="0"/>
       <c r="D52" s="9" t="str">
         <f aca="false">RIGHT(A52, LEN(A52) - FIND("_", A52) - 3)</f>
         <v>1</v>
@@ -11617,6 +11686,7 @@
         <v>159</v>
       </c>
       <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="9" t="s">
@@ -11640,6 +11710,7 @@
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
+      <c r="C54" s="0"/>
       <c r="D54" s="9" t="n">
         <v>2</v>
       </c>
@@ -11665,6 +11736,7 @@
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
+      <c r="C55" s="0"/>
       <c r="D55" s="9" t="n">
         <v>2</v>
       </c>
@@ -11690,6 +11762,7 @@
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
+      <c r="C56" s="0"/>
       <c r="D56" s="9" t="n">
         <v>2</v>
       </c>
@@ -11715,6 +11788,7 @@
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
         <v>28338</v>
       </c>
+      <c r="C57" s="0"/>
       <c r="D57" s="9" t="str">
         <f aca="false">RIGHT(A57, LEN(A57) - FIND("_", A57) - 3)</f>
         <v>1</v>
@@ -11741,6 +11815,7 @@
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
         <v>29698</v>
       </c>
+      <c r="C58" s="0"/>
       <c r="D58" s="9" t="str">
         <f aca="false">RIGHT(A58, LEN(A58) - FIND("_", A58) - 3)</f>
         <v>1</v>
@@ -11767,6 +11842,7 @@
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
         <v>21006</v>
       </c>
+      <c r="C59" s="0"/>
       <c r="D59" s="9" t="str">
         <f aca="false">RIGHT(A59, LEN(A59) - FIND("_", A59) - 3)</f>
         <v>1</v>
@@ -11793,6 +11869,7 @@
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
         <v>VK08-1001</v>
       </c>
+      <c r="C60" s="0"/>
       <c r="D60" s="9" t="str">
         <f aca="false">RIGHT(A60, LEN(A60) - FIND("_", A60) - 3)</f>
         <v>1</v>
@@ -11819,6 +11896,7 @@
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
         <v>24890</v>
       </c>
+      <c r="C61" s="0"/>
       <c r="D61" s="9" t="str">
         <f aca="false">RIGHT(A61, LEN(A61) - FIND("_", A61) - 3)</f>
         <v>1</v>
@@ -11845,6 +11923,7 @@
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
         <v>04HR-1501</v>
       </c>
+      <c r="C62" s="0"/>
       <c r="D62" s="9" t="str">
         <f aca="false">RIGHT(A62, LEN(A62) - FIND("_", A62) - 3)</f>
         <v>1</v>
@@ -11871,6 +11950,7 @@
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
         <v>VK06-1885</v>
       </c>
+      <c r="C63" s="0"/>
       <c r="D63" s="9" t="str">
         <f aca="false">RIGHT(A63, LEN(A63) - FIND("_", A63) - 3)</f>
         <v>1</v>
@@ -11897,6 +11977,7 @@
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
         <v>25775</v>
       </c>
+      <c r="C64" s="0"/>
       <c r="D64" s="9" t="str">
         <f aca="false">RIGHT(A64, LEN(A64) - FIND("_", A64) - 3)</f>
         <v>1</v>
@@ -11923,6 +12004,7 @@
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
         <v>VK06-6001</v>
       </c>
+      <c r="C65" s="0"/>
       <c r="D65" s="9" t="str">
         <f aca="false">RIGHT(A65, LEN(A65) - FIND("_", A65) - 3)</f>
         <v>1</v>
@@ -11949,6 +12031,7 @@
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
         <v>21484</v>
       </c>
+      <c r="C66" s="0"/>
       <c r="D66" s="9" t="str">
         <f aca="false">RIGHT(A66, LEN(A66) - FIND("_", A66) - 3)</f>
         <v>1</v>
@@ -11975,6 +12058,7 @@
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
         <v>26477</v>
       </c>
+      <c r="C67" s="0"/>
       <c r="D67" s="9" t="str">
         <f aca="false">RIGHT(A67, LEN(A67) - FIND("_", A67) - 3)</f>
         <v>1</v>
@@ -12001,6 +12085,7 @@
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
         <v>VK00-1524</v>
       </c>
+      <c r="C68" s="0"/>
       <c r="D68" s="9" t="str">
         <f aca="false">RIGHT(A68, LEN(A68) - FIND("_", A68) - 3)</f>
         <v>1</v>
@@ -12027,6 +12112,7 @@
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
         <v>VK07-4218</v>
       </c>
+      <c r="C69" s="0"/>
       <c r="D69" s="9" t="str">
         <f aca="false">RIGHT(A69, LEN(A69) - FIND("_", A69) - 3)</f>
         <v>1</v>
@@ -12053,6 +12139,7 @@
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
         <v>7686</v>
       </c>
+      <c r="C70" s="0"/>
       <c r="D70" s="9" t="str">
         <f aca="false">RIGHT(A70, LEN(A70) - FIND("_", A70) - 3)</f>
         <v>1</v>
@@ -12076,6 +12163,7 @@
         <v>187</v>
       </c>
       <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="9" t="s">
@@ -12096,6 +12184,7 @@
         <v>190</v>
       </c>
       <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="9" t="s">
@@ -12113,6 +12202,7 @@
         <v>192</v>
       </c>
       <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="9" t="s">
@@ -12130,6 +12220,7 @@
         <v>193</v>
       </c>
       <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="9" t="s">
@@ -12147,6 +12238,7 @@
         <v>194</v>
       </c>
       <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="9" t="s">
@@ -12167,6 +12259,7 @@
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
+      <c r="C76" s="0"/>
       <c r="D76" s="9" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
@@ -12192,6 +12285,7 @@
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
+      <c r="C77" s="0"/>
       <c r="D77" s="9" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
@@ -12217,6 +12311,7 @@
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
         <v>28338</v>
       </c>
+      <c r="C78" s="0"/>
       <c r="D78" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A78, LEN(A78) - FIND("_", A78) -3), FIND("-", RIGHT(A78, LEN(A78) - FIND("_", A78) - 3)) - 1)</f>
         <v>1</v>
@@ -12242,6 +12337,7 @@
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
         <v>29698</v>
       </c>
+      <c r="C79" s="0"/>
       <c r="D79" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A79, LEN(A79) - FIND("_", A79) -3), FIND("-", RIGHT(A79, LEN(A79) - FIND("_", A79) - 3)) - 1)</f>
         <v>1</v>
@@ -12267,6 +12363,7 @@
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
         <v>21006</v>
       </c>
+      <c r="C80" s="0"/>
       <c r="D80" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A80, LEN(A80) - FIND("_", A80) -3), FIND("-", RIGHT(A80, LEN(A80) - FIND("_", A80) - 3)) - 1)</f>
         <v>1</v>
@@ -12292,6 +12389,7 @@
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
         <v>VK08-1001</v>
       </c>
+      <c r="C81" s="0"/>
       <c r="D81" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A81, LEN(A81) - FIND("_", A81) -3), FIND("-", RIGHT(A81, LEN(A81) - FIND("_", A81) - 3)) - 1)</f>
         <v>1</v>
@@ -12317,6 +12415,7 @@
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
         <v>24890</v>
       </c>
+      <c r="C82" s="0"/>
       <c r="D82" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A82, LEN(A82) - FIND("_", A82) -3), FIND("-", RIGHT(A82, LEN(A82) - FIND("_", A82) - 3)) - 1)</f>
         <v>1</v>
@@ -12342,6 +12441,7 @@
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
         <v>04HR-1501</v>
       </c>
+      <c r="C83" s="0"/>
       <c r="D83" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A83, LEN(A83) - FIND("_", A83) -3), FIND("-", RIGHT(A83, LEN(A83) - FIND("_", A83) - 3)) - 1)</f>
         <v>1</v>
@@ -12367,6 +12467,7 @@
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
         <v>VK06-1885</v>
       </c>
+      <c r="C84" s="0"/>
       <c r="D84" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A84, LEN(A84) - FIND("_", A84) -3), FIND("-", RIGHT(A84, LEN(A84) - FIND("_", A84) - 3)) - 1)</f>
         <v>1</v>
@@ -12392,6 +12493,7 @@
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
         <v>25775</v>
       </c>
+      <c r="C85" s="0"/>
       <c r="D85" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A85, LEN(A85) - FIND("_", A85) -3), FIND("-", RIGHT(A85, LEN(A85) - FIND("_", A85) - 3)) - 1)</f>
         <v>1</v>
@@ -12417,6 +12519,7 @@
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
         <v>VK06-6001</v>
       </c>
+      <c r="C86" s="0"/>
       <c r="D86" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A86, LEN(A86) - FIND("_", A86) -3), FIND("-", RIGHT(A86, LEN(A86) - FIND("_", A86) - 3)) - 1)</f>
         <v>1</v>
@@ -12442,6 +12545,7 @@
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
         <v>21484</v>
       </c>
+      <c r="C87" s="0"/>
       <c r="D87" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A87, LEN(A87) - FIND("_", A87) -3), FIND("-", RIGHT(A87, LEN(A87) - FIND("_", A87) - 3)) - 1)</f>
         <v>1</v>
@@ -12467,6 +12571,7 @@
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
         <v>26477</v>
       </c>
+      <c r="C88" s="0"/>
       <c r="D88" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A88, LEN(A88) - FIND("_", A88) -3), FIND("-", RIGHT(A88, LEN(A88) - FIND("_", A88) - 3)) - 1)</f>
         <v>1</v>
@@ -12492,6 +12597,7 @@
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
         <v>VK00-1524</v>
       </c>
+      <c r="C89" s="0"/>
       <c r="D89" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A89, LEN(A89) - FIND("_", A89) -3), FIND("-", RIGHT(A89, LEN(A89) - FIND("_", A89) - 3)) - 1)</f>
         <v>1</v>
@@ -12517,6 +12623,7 @@
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
         <v>VK07-4218</v>
       </c>
+      <c r="C90" s="0"/>
       <c r="D90" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A90, LEN(A90) - FIND("_", A90) -3), FIND("-", RIGHT(A90, LEN(A90) - FIND("_", A90) - 3)) - 1)</f>
         <v>1</v>
@@ -12542,6 +12649,7 @@
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
         <v>7686</v>
       </c>
+      <c r="C91" s="0"/>
       <c r="D91" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A91, LEN(A91) - FIND("_", A91) -3), FIND("-", RIGHT(A91, LEN(A91) - FIND("_", A91) - 3)) - 1)</f>
         <v>1</v>
@@ -12567,6 +12675,7 @@
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
         <v>28338</v>
       </c>
+      <c r="C92" s="0"/>
       <c r="D92" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A92, LEN(A92) - FIND("_", A92) -3), FIND("-", RIGHT(A92, LEN(A92) - FIND("_", A92) - 3)) - 1)</f>
         <v>1</v>
@@ -12592,6 +12701,7 @@
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
         <v>29698</v>
       </c>
+      <c r="C93" s="0"/>
       <c r="D93" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A93, LEN(A93) - FIND("_", A93) -3), FIND("-", RIGHT(A93, LEN(A93) - FIND("_", A93) - 3)) - 1)</f>
         <v>1</v>
@@ -12617,6 +12727,7 @@
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
         <v>21006</v>
       </c>
+      <c r="C94" s="0"/>
       <c r="D94" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A94, LEN(A94) - FIND("_", A94) -3), FIND("-", RIGHT(A94, LEN(A94) - FIND("_", A94) - 3)) - 1)</f>
         <v>1</v>
@@ -12642,6 +12753,7 @@
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
         <v>VK08-1001</v>
       </c>
+      <c r="C95" s="0"/>
       <c r="D95" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A95, LEN(A95) - FIND("_", A95) -3), FIND("-", RIGHT(A95, LEN(A95) - FIND("_", A95) - 3)) - 1)</f>
         <v>1</v>
@@ -12667,6 +12779,7 @@
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
         <v>24890</v>
       </c>
+      <c r="C96" s="0"/>
       <c r="D96" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A96, LEN(A96) - FIND("_", A96) -3), FIND("-", RIGHT(A96, LEN(A96) - FIND("_", A96) - 3)) - 1)</f>
         <v>1</v>
@@ -12692,6 +12805,7 @@
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
         <v>04HR-1501</v>
       </c>
+      <c r="C97" s="0"/>
       <c r="D97" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A97, LEN(A97) - FIND("_", A97) -3), FIND("-", RIGHT(A97, LEN(A97) - FIND("_", A97) - 3)) - 1)</f>
         <v>1</v>
@@ -12717,6 +12831,7 @@
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
         <v>VK06-1885</v>
       </c>
+      <c r="C98" s="0"/>
       <c r="D98" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A98, LEN(A98) - FIND("_", A98) -3), FIND("-", RIGHT(A98, LEN(A98) - FIND("_", A98) - 3)) - 1)</f>
         <v>1</v>
@@ -12742,6 +12857,7 @@
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
         <v>25775</v>
       </c>
+      <c r="C99" s="0"/>
       <c r="D99" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A99, LEN(A99) - FIND("_", A99) -3), FIND("-", RIGHT(A99, LEN(A99) - FIND("_", A99) - 3)) - 1)</f>
         <v>1</v>
@@ -12767,6 +12883,7 @@
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
         <v>VK06-6001</v>
       </c>
+      <c r="C100" s="0"/>
       <c r="D100" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A100, LEN(A100) - FIND("_", A100) -3), FIND("-", RIGHT(A100, LEN(A100) - FIND("_", A100) - 3)) - 1)</f>
         <v>1</v>
@@ -12792,6 +12909,7 @@
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
         <v>21484</v>
       </c>
+      <c r="C101" s="0"/>
       <c r="D101" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A101, LEN(A101) - FIND("_", A101) -3), FIND("-", RIGHT(A101, LEN(A101) - FIND("_", A101) - 3)) - 1)</f>
         <v>1</v>
@@ -12817,6 +12935,7 @@
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
         <v>26477</v>
       </c>
+      <c r="C102" s="0"/>
       <c r="D102" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A102, LEN(A102) - FIND("_", A102) -3), FIND("-", RIGHT(A102, LEN(A102) - FIND("_", A102) - 3)) - 1)</f>
         <v>1</v>
@@ -12842,6 +12961,7 @@
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
         <v>VK00-1524</v>
       </c>
+      <c r="C103" s="0"/>
       <c r="D103" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A103, LEN(A103) - FIND("_", A103) -3), FIND("-", RIGHT(A103, LEN(A103) - FIND("_", A103) - 3)) - 1)</f>
         <v>1</v>
@@ -12867,6 +12987,7 @@
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
         <v>VK07-4218</v>
       </c>
+      <c r="C104" s="0"/>
       <c r="D104" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A104, LEN(A104) - FIND("_", A104) -3), FIND("-", RIGHT(A104, LEN(A104) - FIND("_", A104) - 3)) - 1)</f>
         <v>1</v>
@@ -12892,6 +13013,7 @@
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
         <v>7686</v>
       </c>
+      <c r="C105" s="0"/>
       <c r="D105" s="9" t="str">
         <f aca="false">LEFT(RIGHT(A105, LEN(A105) - FIND("_", A105) -3), FIND("-", RIGHT(A105, LEN(A105) - FIND("_", A105) - 3)) - 1)</f>
         <v>1</v>
@@ -12917,10 +13039,14 @@
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
         <v>VK05-2685</v>
       </c>
+      <c r="C106" s="0"/>
       <c r="D106" s="9" t="str">
         <f aca="false">RIGHT(A106, LEN(A106) - FIND("_", A106) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E106" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F106" s="9" t="s">
         <v>228</v>
       </c>
@@ -12939,10 +13065,14 @@
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
         <v>12402</v>
       </c>
+      <c r="C107" s="0"/>
       <c r="D107" s="9" t="str">
         <f aca="false">RIGHT(A107, LEN(A107) - FIND("_", A107) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E107" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F107" s="9" t="s">
         <v>228</v>
       </c>
@@ -12961,10 +13091,14 @@
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
         <v>27134</v>
       </c>
+      <c r="C108" s="0"/>
       <c r="D108" s="9" t="str">
         <f aca="false">RIGHT(A108, LEN(A108) - FIND("_", A108) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E108" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F108" s="9" t="s">
         <v>228</v>
       </c>
@@ -12983,10 +13117,14 @@
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
         <v>VK99-2133</v>
       </c>
+      <c r="C109" s="0"/>
       <c r="D109" s="9" t="str">
         <f aca="false">RIGHT(A109, LEN(A109) - FIND("_", A109) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E109" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F109" s="9" t="s">
         <v>228</v>
       </c>
@@ -12999,16 +13137,20 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B110" s="9" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
         <v>23058</v>
       </c>
+      <c r="C110" s="0"/>
       <c r="D110" s="9" t="str">
         <f aca="false">RIGHT(A110, LEN(A110) - FIND("_", A110) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E110" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F110" s="9" t="s">
         <v>228</v>
       </c>
@@ -13021,16 +13163,20 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B111" s="9" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
         <v>3174</v>
       </c>
+      <c r="C111" s="0"/>
       <c r="D111" s="9" t="str">
         <f aca="false">RIGHT(A111, LEN(A111) - FIND("_", A111) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E111" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F111" s="9" t="s">
         <v>228</v>
       </c>
@@ -13043,16 +13189,20 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B112" s="9" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
         <v>16311</v>
       </c>
+      <c r="C112" s="0"/>
       <c r="D112" s="9" t="str">
         <f aca="false">RIGHT(A112, LEN(A112) - FIND("_", A112) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E112" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F112" s="9" t="s">
         <v>228</v>
       </c>
@@ -13065,16 +13215,20 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B113" s="9" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
         <v>4955</v>
       </c>
+      <c r="C113" s="0"/>
       <c r="D113" s="9" t="str">
         <f aca="false">RIGHT(A113, LEN(A113) - FIND("_", A113) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E113" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F113" s="9" t="s">
         <v>228</v>
       </c>
@@ -13087,16 +13241,20 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B114" s="9" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
         <v>14799</v>
       </c>
+      <c r="C114" s="0"/>
       <c r="D114" s="9" t="str">
         <f aca="false">RIGHT(A114, LEN(A114) - FIND("_", A114) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E114" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F114" s="9" t="s">
         <v>228</v>
       </c>
@@ -13109,16 +13267,20 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B115" s="9" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
         <v>24062</v>
       </c>
+      <c r="C115" s="0"/>
       <c r="D115" s="9" t="str">
         <f aca="false">RIGHT(A115, LEN(A115) - FIND("_", A115) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E115" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F115" s="9" t="s">
         <v>228</v>
       </c>
@@ -13131,16 +13293,20 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B116" s="9" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
         <v>VL96-15555</v>
       </c>
+      <c r="C116" s="0"/>
       <c r="D116" s="9" t="str">
         <f aca="false">RIGHT(A116, LEN(A116) - FIND("_", A116) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E116" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F116" s="9" t="s">
         <v>228</v>
       </c>
@@ -13153,16 +13319,20 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B117" s="9" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
         <v>18140</v>
       </c>
+      <c r="C117" s="0"/>
       <c r="D117" s="9" t="str">
         <f aca="false">RIGHT(A117, LEN(A117) - FIND("_", A117) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E117" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F117" s="9" t="s">
         <v>228</v>
       </c>
@@ -13175,16 +13345,20 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B118" s="9" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
         <v>VK99-4202</v>
       </c>
+      <c r="C118" s="0"/>
       <c r="D118" s="9" t="str">
         <f aca="false">RIGHT(A118, LEN(A118) - FIND("_", A118) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E118" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F118" s="9" t="s">
         <v>228</v>
       </c>
@@ -13197,16 +13371,20 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B119" s="9" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
         <v>10264</v>
       </c>
+      <c r="C119" s="0"/>
       <c r="D119" s="9" t="str">
         <f aca="false">RIGHT(A119, LEN(A119) - FIND("_", A119) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E119" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F119" s="9" t="s">
         <v>228</v>
       </c>
@@ -13219,16 +13397,20 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B120" s="9" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
         <v>15611</v>
       </c>
+      <c r="C120" s="0"/>
       <c r="D120" s="9" t="str">
         <f aca="false">RIGHT(A120, LEN(A120) - FIND("_", A120) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E120" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F120" s="9" t="s">
         <v>228</v>
       </c>
@@ -13241,15 +13423,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C121" s="0"/>
       <c r="D121" s="9" t="str">
         <f aca="false">RIGHT(A121, LEN(A121) - FIND("_", A121) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E121" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="F121" s="9" t="s">
         <v>228</v>
       </c>
@@ -13262,15 +13448,19 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C122" s="0"/>
       <c r="D122" s="9" t="str">
         <f aca="false">RIGHT(A122, LEN(A122) - FIND("_", A122) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E122" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="F122" s="9" t="s">
         <v>228</v>
       </c>
@@ -13283,15 +13473,19 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>11686</v>
       </c>
+      <c r="C123" s="0"/>
       <c r="D123" s="9" t="str">
         <f aca="false">RIGHT(A123, LEN(A123) - FIND("_", A123) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E123" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="F123" s="9" t="s">
         <v>228</v>
       </c>
@@ -13304,15 +13498,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>11686</v>
       </c>
+      <c r="C124" s="0"/>
       <c r="D124" s="9" t="str">
         <f aca="false">RIGHT(A124, LEN(A124) - FIND("_", A124) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E124" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="F124" s="9" t="s">
         <v>228</v>
       </c>
@@ -13325,15 +13523,19 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B125" s="9" t="n">
         <v>21665</v>
       </c>
+      <c r="C125" s="0"/>
       <c r="D125" s="9" t="str">
         <f aca="false">RIGHT(A125, LEN(A125) - FIND("_", A125) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E125" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="F125" s="9" t="s">
         <v>228</v>
       </c>
@@ -13346,15 +13548,19 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B126" s="9" t="n">
         <v>21665</v>
       </c>
+      <c r="C126" s="0"/>
       <c r="D126" s="9" t="str">
         <f aca="false">RIGHT(A126, LEN(A126) - FIND("_", A126) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E126" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="F126" s="9" t="s">
         <v>228</v>
       </c>
@@ -13367,32 +13573,39 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B127" s="9" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
         <v>32311</v>
       </c>
+      <c r="C127" s="0"/>
       <c r="D127" s="9" t="str">
         <f aca="false">RIGHT(A127, LEN(A127) - FIND("_", A127) - 3)</f>
         <v>1</v>
       </c>
+      <c r="E127" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="F127" s="9" t="s">
         <v>228</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>229</v>
       </c>
+      <c r="J127" s="0" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>228</v>
@@ -13406,10 +13619,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>228</v>
@@ -13426,8 +13639,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13441,7 +13654,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13460,29 +13673,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C2" s="61" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B3" s="62" t="n">
         <v>41541</v>
@@ -13491,15 +13704,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B4" s="62" t="n">
         <v>41626</v>
@@ -13508,15 +13721,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B5" s="62" t="n">
         <v>41668</v>
@@ -13525,15 +13738,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B6" s="62" t="n">
         <v>41680</v>
@@ -13542,15 +13755,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B7" s="62" t="n">
         <v>41708</v>
@@ -13559,15 +13772,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B8" s="62" t="n">
         <v>41731</v>
@@ -13576,15 +13789,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B9" s="62" t="n">
         <v>41753</v>
@@ -13593,15 +13806,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B10" s="62" t="n">
         <v>41792</v>
@@ -13610,10 +13823,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -13621,8 +13834,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13635,8 +13848,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C:C D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13659,13 +13872,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>53</v>
@@ -13674,7 +13887,7 @@
         <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13688,17 +13901,17 @@
         <v>500</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,17 +13925,17 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13736,17 +13949,17 @@
         <v>600</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,17 +13973,17 @@
         <v>602</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13784,17 +13997,17 @@
         <v>602</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13808,17 +14021,17 @@
         <v>600</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13832,24 +14045,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B9" s="62" t="n">
         <v>41710</v>
@@ -13858,16 +14071,16 @@
         <v>600</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H9" s="0"/>
     </row>
@@ -13882,19 +14095,19 @@
         <v>600</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13908,17 +14121,17 @@
         <v>600</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13932,17 +14145,17 @@
         <v>600</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13956,17 +14169,17 @@
         <v>600</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13980,19 +14193,19 @@
         <v>500</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14006,19 +14219,19 @@
         <v>600</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14032,19 +14245,19 @@
         <v>600</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -14052,8 +14265,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>N5-S2</t>
+  </si>
+  <si>
+    <t>PROBABLY 5b</t>
   </si>
   <si>
     <t>VK04-3106_PCR1</t>
@@ -1572,11 +1575,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1650,7 +1653,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="C76:C77 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1727,6 +1730,7 @@
         <v>37530</v>
       </c>
       <c r="G3" s="7"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -1766,6 +1770,7 @@
         <v>36878</v>
       </c>
       <c r="G5" s="7"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -1784,6 +1789,7 @@
         <v>37700</v>
       </c>
       <c r="G6" s="7"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -1939,7 +1945,7 @@
   <dimension ref="A1:F464"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="C76:C77 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8752,7 +8758,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="1" sqref="C76:C77 A58"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10752,8 +10758,8 @@
   </sheetPr>
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C76:C77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11995,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>153</v>
@@ -12007,10 +12013,13 @@
         <v>154</v>
       </c>
       <c r="I49" s="0"/>
+      <c r="J49" s="0" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="10" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -12022,22 +12031,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>153</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>154</v>
       </c>
       <c r="I50" s="0"/>
+      <c r="J50" s="0" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" s="10" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -12055,7 +12067,7 @@
         <v>153</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>149</v>
@@ -12064,7 +12076,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" s="10" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -12091,20 +12103,20 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>147</v>
@@ -12112,14 +12124,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" s="10" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="10" t="n">
         <v>2</v>
@@ -12128,7 +12140,7 @@
         <v>79</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>88</v>
@@ -12140,14 +12152,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" s="10" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="10" t="n">
         <v>2</v>
@@ -12156,7 +12168,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>90</v>
@@ -12168,14 +12180,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" s="10" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="10" t="n">
         <v>2</v>
@@ -12184,7 +12196,7 @@
         <v>79</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>99</v>
@@ -12196,7 +12208,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" s="10" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -12211,19 +12223,19 @@
         <v>79</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="10" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -12238,19 +12250,19 @@
         <v>79</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" s="10" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -12265,19 +12277,19 @@
         <v>79</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B60" s="10" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -12292,19 +12304,19 @@
         <v>79</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" s="10" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -12319,19 +12331,19 @@
         <v>79</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>157</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B62" s="10" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -12346,19 +12358,19 @@
         <v>79</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B63" s="10" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -12373,19 +12385,19 @@
         <v>79</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64" s="10" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -12400,19 +12412,19 @@
         <v>79</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="10" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -12427,19 +12439,19 @@
         <v>79</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B66" s="10" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -12454,19 +12466,19 @@
         <v>79</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B67" s="10" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -12481,19 +12493,19 @@
         <v>79</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B68" s="10" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -12508,19 +12520,19 @@
         <v>79</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B69" s="10" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -12535,19 +12547,19 @@
         <v>79</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B70" s="10" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -12562,119 +12574,119 @@
         <v>79</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>90</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="10" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D76" s="10" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
@@ -12684,25 +12696,25 @@
         <v>79</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>72</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" s="10" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D77" s="10" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
@@ -12712,18 +12724,18 @@
         <v>79</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>76</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" s="10" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -12738,18 +12750,18 @@
         <v>79</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" s="10" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -12764,18 +12776,18 @@
         <v>79</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B80" s="10" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -12790,18 +12802,18 @@
         <v>79</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B81" s="10" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -12816,18 +12828,18 @@
         <v>79</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B82" s="10" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -12842,18 +12854,18 @@
         <v>79</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>157</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B83" s="10" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -12868,18 +12880,18 @@
         <v>79</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B84" s="10" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -12894,18 +12906,18 @@
         <v>79</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B85" s="10" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -12920,18 +12932,18 @@
         <v>79</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B86" s="10" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -12946,18 +12958,18 @@
         <v>79</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B87" s="10" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -12972,18 +12984,18 @@
         <v>79</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" s="10" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -12998,18 +13010,18 @@
         <v>79</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B89" s="10" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -13024,18 +13036,18 @@
         <v>79</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B90" s="10" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -13050,18 +13062,18 @@
         <v>79</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B91" s="10" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -13076,18 +13088,18 @@
         <v>79</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B92" s="10" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -13102,18 +13114,18 @@
         <v>79</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B93" s="10" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -13128,18 +13140,18 @@
         <v>79</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B94" s="10" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -13154,18 +13166,18 @@
         <v>79</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B95" s="10" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -13180,18 +13192,18 @@
         <v>79</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B96" s="10" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -13206,18 +13218,18 @@
         <v>79</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>157</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B97" s="10" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -13232,18 +13244,18 @@
         <v>79</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B98" s="10" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -13258,18 +13270,18 @@
         <v>79</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" s="10" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -13284,18 +13296,18 @@
         <v>79</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B100" s="10" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -13310,18 +13322,18 @@
         <v>79</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B101" s="10" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -13336,18 +13348,18 @@
         <v>79</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="10" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -13362,18 +13374,18 @@
         <v>79</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" s="10" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -13388,18 +13400,18 @@
         <v>79</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B104" s="10" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -13414,18 +13426,18 @@
         <v>79</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" s="10" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -13440,18 +13452,18 @@
         <v>79</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" s="10" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -13466,18 +13478,18 @@
         <v>79</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B107" s="10" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -13492,18 +13504,18 @@
         <v>79</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B108" s="10" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -13518,18 +13530,18 @@
         <v>79</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B109" s="10" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -13541,21 +13553,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B110" s="10" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -13567,21 +13579,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>132</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B111" s="10" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -13593,21 +13605,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>134</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="10" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -13619,21 +13631,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B113" s="10" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -13645,21 +13657,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B114" s="10" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -13671,21 +13683,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="10" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -13697,21 +13709,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B116" s="10" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -13723,21 +13735,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>157</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B117" s="10" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -13749,21 +13761,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B118" s="10" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -13775,21 +13787,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B119" s="10" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -13801,21 +13813,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B120" s="10" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -13827,21 +13839,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13852,21 +13864,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13877,21 +13889,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B123" s="10" t="n">
         <v>11686</v>
@@ -13902,21 +13914,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>155</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B124" s="10" t="n">
         <v>11686</v>
@@ -13927,21 +13939,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B125" s="10" t="n">
         <v>21665</v>
@@ -13952,21 +13964,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B126" s="10" t="n">
         <v>21665</v>
@@ -13977,21 +13989,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B127" s="10" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -14003,61 +14015,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G128" s="10" t="s">
         <v>109</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B130" s="10" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -14071,18 +14083,18 @@
         <v>79</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B131" s="10" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -14096,18 +14108,18 @@
         <v>79</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B132" s="10" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -14121,18 +14133,18 @@
         <v>79</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B133" s="10" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -14143,21 +14155,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B134" s="10" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -14168,21 +14180,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>132</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B135" s="10" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -14193,21 +14205,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>134</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B136" s="10" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -14218,21 +14230,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B137" s="10" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -14243,21 +14255,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B138" s="10" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -14268,21 +14280,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>126</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B139" s="10" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -14293,21 +14305,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B140" s="10" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -14318,21 +14330,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>157</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B141" s="10" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -14343,21 +14355,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B142" s="10" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -14368,21 +14380,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>136</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B143" s="10" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -14393,21 +14405,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B144" s="10" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -14418,21 +14430,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14442,21 +14454,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14466,21 +14478,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B147" s="10" t="n">
         <v>11686</v>
@@ -14490,21 +14502,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>155</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B148" s="10" t="n">
         <v>11686</v>
@@ -14514,21 +14526,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B149" s="10" t="n">
         <v>21665</v>
@@ -14538,21 +14550,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B150" s="10" t="n">
         <v>21665</v>
@@ -14562,21 +14574,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="10" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -14587,50 +14599,50 @@
         <v>1</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>109</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -14653,7 +14665,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="C76:C77 E11"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14672,29 +14684,29 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" s="63" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B3" s="64" t="n">
         <v>41541</v>
@@ -14703,15 +14715,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B4" s="64" t="n">
         <v>41626</v>
@@ -14720,15 +14732,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" s="64" t="n">
         <v>41668</v>
@@ -14737,15 +14749,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B6" s="64" t="n">
         <v>41680</v>
@@ -14754,15 +14766,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7" s="64" t="n">
         <v>41708</v>
@@ -14771,15 +14783,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B8" s="64" t="n">
         <v>41731</v>
@@ -14788,15 +14800,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B9" s="64" t="n">
         <v>41753</v>
@@ -14805,15 +14817,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B10" s="64" t="n">
         <v>41792</v>
@@ -14822,15 +14834,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B11" s="64" t="n">
         <v>41807</v>
@@ -14839,7 +14851,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -14862,7 +14874,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="C76:C77 H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14885,13 +14897,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -14900,7 +14912,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14914,17 +14926,17 @@
         <v>500</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,17 +14950,17 @@
         <v>500</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14962,17 +14974,17 @@
         <v>600</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14986,17 +14998,17 @@
         <v>602</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,17 +15022,17 @@
         <v>602</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,17 +15046,17 @@
         <v>600</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,24 +15070,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B9" s="64" t="n">
         <v>41710</v>
@@ -15084,16 +15096,16 @@
         <v>600</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H9" s="0"/>
     </row>
@@ -15108,24 +15120,24 @@
         <v>600</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" s="64" t="n">
         <v>41738</v>
@@ -15134,22 +15146,22 @@
         <v>600</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="64" t="n">
         <v>41759</v>
@@ -15158,22 +15170,22 @@
         <v>600</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="64" t="n">
         <v>41771</v>
@@ -15182,22 +15194,22 @@
         <v>600</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B14" s="64" t="n">
         <v>41779</v>
@@ -15206,24 +15218,24 @@
         <v>500</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="64" t="n">
         <v>41784</v>
@@ -15232,24 +15244,24 @@
         <v>600</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B16" s="64" t="n">
         <v>41801</v>
@@ -15258,24 +15270,24 @@
         <v>600</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B17" s="64" t="n">
         <v>41807</v>
@@ -15284,19 +15296,19 @@
         <v>500</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="553" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="553" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="437">
   <si>
     <t>id</t>
   </si>
@@ -247,52 +247,55 @@
     <t>comments</t>
   </si>
   <si>
+    <t>1st half (2nd half not present even under very relaxed mapping conditions)</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>check time and viral load!</t>
+  </si>
+  <si>
+    <t>last 25% very low</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>F1 2nd half less than 1st</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>overall low HIV</t>
+  </si>
+  <si>
+    <t>not yet extracted</t>
+  </si>
+  <si>
+    <t>SMI freezer</t>
+  </si>
+  <si>
+    <t>hole at 80%</t>
+  </si>
+  <si>
+    <t>last 25% low</t>
+  </si>
+  <si>
+    <t>90 bp gap in gag, overlap with F1??</t>
+  </si>
+  <si>
+    <t>only PCR2</t>
+  </si>
+  <si>
+    <t>date correct?</t>
+  </si>
+  <si>
     <t>1st half</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>check time and viral load!</t>
-  </si>
-  <si>
-    <t>last 25% very low</t>
-  </si>
-  <si>
-    <t>very low</t>
-  </si>
-  <si>
-    <t>F1 2nd half less than 1st</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>overall low HIV</t>
-  </si>
-  <si>
-    <t>not yet extracted</t>
-  </si>
-  <si>
-    <t>SMI freezer</t>
-  </si>
-  <si>
-    <t>hole at 80%</t>
-  </si>
-  <si>
-    <t>last 25% low</t>
-  </si>
-  <si>
-    <t>90 bp gap in gag, overlap with F1??</t>
-  </si>
-  <si>
-    <t>only PCR2</t>
-  </si>
-  <si>
-    <t>date correct?</t>
   </si>
   <si>
     <t>extraction failed?</t>
@@ -1836,11 +1839,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1913,7 +1916,7 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2230,6 +2233,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="7"/>
+      <c r="I11" s="0"/>
       <c r="J11" s="12" t="s">
         <v>24</v>
       </c>
@@ -2267,8 +2271,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9260,8 +9264,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9274,8 +9278,8 @@
   </sheetPr>
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11009,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>77</v>
@@ -12223,7 +12227,7 @@
       <c r="J78" s="0"/>
       <c r="K78" s="0"/>
       <c r="L78" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12254,7 +12258,7 @@
       <c r="J79" s="0"/>
       <c r="K79" s="0"/>
       <c r="L79" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12310,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G81" s="64" t="s">
         <v>82</v>
@@ -12357,7 +12361,7 @@
       <c r="J82" s="0"/>
       <c r="K82" s="0"/>
       <c r="L82" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12545,7 +12549,7 @@
         <v>76</v>
       </c>
       <c r="K87" s="64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L87" s="0"/>
     </row>
@@ -12608,7 +12612,7 @@
         <v>77</v>
       </c>
       <c r="H89" s="64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>77</v>
@@ -12649,7 +12653,7 @@
         <v>77</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>77</v>
@@ -12733,8 +12737,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12747,8 +12751,8 @@
   </sheetPr>
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12772,28 +12776,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>30</v>
@@ -12802,7 +12806,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -12810,22 +12814,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -12833,25 +12837,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -12859,16 +12863,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -12882,24 +12886,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -12907,27 +12911,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -12935,27 +12939,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -12963,10 +12967,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>1</v>
@@ -12974,12 +12978,12 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -12987,10 +12991,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>2</v>
@@ -12998,12 +13002,12 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="13" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
@@ -13015,22 +13019,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" s="13" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
@@ -13042,22 +13046,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" s="13" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
@@ -13069,22 +13073,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" s="13" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
@@ -13096,22 +13100,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="13" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
@@ -13123,22 +13127,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="13" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
@@ -13150,22 +13154,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="13" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
@@ -13177,22 +13181,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="13" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
@@ -13204,22 +13208,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" s="13" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
@@ -13231,22 +13235,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13255,22 +13259,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -13279,22 +13283,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -13302,22 +13306,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -13325,22 +13329,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -13348,22 +13352,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -13371,22 +13375,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -13394,22 +13398,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -13417,22 +13421,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" s="13" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
@@ -13444,22 +13448,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" s="13" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
@@ -13471,22 +13475,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" s="13" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
@@ -13498,22 +13502,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" s="13" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
@@ -13525,22 +13529,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31" s="13" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
@@ -13552,22 +13556,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" s="13" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
@@ -13579,22 +13583,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -13602,22 +13606,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -13625,22 +13629,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -13648,22 +13652,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -13671,22 +13675,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -13694,22 +13698,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -13717,22 +13721,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" s="13" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
@@ -13744,22 +13748,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" s="13" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
@@ -13771,22 +13775,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B41" s="13" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
@@ -13798,43 +13802,43 @@
         <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" s="13" t="str">
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
@@ -13846,22 +13850,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="13" t="str">
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
@@ -13873,22 +13877,22 @@
         <v>2</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" s="13" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
@@ -13900,37 +13904,37 @@
         <v>2</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -13942,16 +13946,16 @@
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -13963,22 +13967,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G48" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="13" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
@@ -13990,25 +13994,25 @@
         <v>1</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B50" s="13" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -14020,25 +14024,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B51" s="13" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -14050,22 +14054,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B52" s="13" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -14077,127 +14081,127 @@
         <v>1</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" s="13" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D54" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B55" s="13" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D55" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="13" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D56" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B57" s="13" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -14209,22 +14213,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B58" s="13" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -14236,22 +14240,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="13" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -14263,22 +14267,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B60" s="13" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -14290,22 +14294,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B61" s="13" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -14317,22 +14321,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B62" s="13" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -14344,22 +14348,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" s="13" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -14371,22 +14375,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B64" s="13" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -14398,22 +14402,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B65" s="13" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -14425,22 +14429,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B66" s="13" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -14452,22 +14456,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="13" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -14479,22 +14483,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B68" s="13" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -14506,22 +14510,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B69" s="13" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -14533,22 +14537,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B70" s="13" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -14560,171 +14564,171 @@
         <v>1</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B76" s="13" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D76" s="13" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B77" s="13" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D77" s="13" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B78" s="13" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -14736,21 +14740,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B79" s="13" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -14762,21 +14766,21 @@
         <v>1</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B80" s="13" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -14788,21 +14792,21 @@
         <v>1</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B81" s="13" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -14814,21 +14818,21 @@
         <v>1</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B82" s="13" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -14840,21 +14844,21 @@
         <v>1</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B83" s="13" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -14866,21 +14870,21 @@
         <v>1</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B84" s="13" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -14892,21 +14896,21 @@
         <v>1</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B85" s="13" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -14918,21 +14922,21 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B86" s="13" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -14944,21 +14948,21 @@
         <v>1</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B87" s="13" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -14970,21 +14974,21 @@
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B88" s="13" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -14996,21 +15000,21 @@
         <v>1</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B89" s="13" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -15022,21 +15026,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="13" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -15048,21 +15052,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="13" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -15074,21 +15078,21 @@
         <v>1</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="13" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -15100,21 +15104,21 @@
         <v>1</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B93" s="13" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -15126,21 +15130,21 @@
         <v>1</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B94" s="13" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -15152,21 +15156,21 @@
         <v>1</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B95" s="13" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -15178,21 +15182,21 @@
         <v>1</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B96" s="13" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -15204,21 +15208,21 @@
         <v>1</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B97" s="13" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -15230,21 +15234,21 @@
         <v>1</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B98" s="13" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -15256,21 +15260,21 @@
         <v>1</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B99" s="13" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -15282,21 +15286,21 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B100" s="13" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -15308,21 +15312,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B101" s="13" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -15334,21 +15338,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B102" s="13" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -15360,21 +15364,21 @@
         <v>1</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B103" s="13" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -15386,21 +15390,21 @@
         <v>1</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B104" s="13" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -15412,21 +15416,21 @@
         <v>1</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B105" s="13" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -15438,21 +15442,21 @@
         <v>1</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B106" s="13" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -15464,21 +15468,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B107" s="13" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -15490,21 +15494,21 @@
         <v>1</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B108" s="13" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -15516,21 +15520,21 @@
         <v>1</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B109" s="13" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -15542,21 +15546,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B110" s="13" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -15568,21 +15572,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B111" s="13" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -15594,21 +15598,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B112" s="13" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -15620,21 +15624,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B113" s="13" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -15646,21 +15650,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B114" s="13" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -15672,21 +15676,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B115" s="13" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -15698,21 +15702,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B116" s="13" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -15724,21 +15728,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B117" s="13" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -15750,21 +15754,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B118" s="13" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -15776,21 +15780,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B119" s="13" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -15802,21 +15806,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B120" s="13" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -15828,21 +15832,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>37</v>
@@ -15853,21 +15857,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>37</v>
@@ -15878,21 +15882,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>11686</v>
@@ -15903,21 +15907,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>11686</v>
@@ -15928,21 +15932,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>21665</v>
@@ -15953,21 +15957,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>21665</v>
@@ -15978,21 +15982,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B127" s="13" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -16004,61 +16008,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B130" s="13" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -16069,21 +16073,21 @@
         <v>1</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B131" s="13" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -16094,21 +16098,21 @@
         <v>1</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B132" s="13" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -16119,21 +16123,21 @@
         <v>1</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B133" s="13" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -16144,21 +16148,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B134" s="13" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -16169,21 +16173,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B135" s="13" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -16194,21 +16198,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B136" s="13" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -16219,21 +16223,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B137" s="13" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -16244,21 +16248,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B138" s="13" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -16269,21 +16273,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B139" s="13" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -16294,21 +16298,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B140" s="13" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -16319,21 +16323,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B141" s="13" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -16344,21 +16348,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B142" s="13" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -16369,21 +16373,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B143" s="13" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -16394,21 +16398,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B144" s="13" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -16419,21 +16423,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>37</v>
@@ -16443,21 +16447,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>37</v>
@@ -16467,21 +16471,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B147" s="13" t="n">
         <v>11686</v>
@@ -16491,21 +16495,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B148" s="13" t="n">
         <v>11686</v>
@@ -16515,21 +16519,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B149" s="13" t="n">
         <v>21665</v>
@@ -16539,21 +16543,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B150" s="13" t="n">
         <v>21665</v>
@@ -16563,21 +16567,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B151" s="13" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -16588,61 +16592,61 @@
         <v>1</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
       <c r="F153" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B154" s="13" t="str">
         <f aca="false">LEFT(A154, FIND("_", A154, 1) - 1)</f>
@@ -16653,21 +16657,21 @@
         <v>1</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B155" s="13" t="str">
         <f aca="false">LEFT(A155, FIND("_", A155, 1) - 1)</f>
@@ -16678,21 +16682,21 @@
         <v>1</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B156" s="13" t="str">
         <f aca="false">LEFT(A156, FIND("_", A156, 1) - 1)</f>
@@ -16703,41 +16707,41 @@
         <v>1</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" s="0"/>
       <c r="E157" s="0"/>
       <c r="F157" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B158" s="13" t="str">
         <f aca="false">LEFT(A158, FIND("_", A158, 1) - 1)</f>
@@ -16748,24 +16752,24 @@
         <v>1</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B159" s="13" t="str">
         <f aca="false">LEFT(A159, FIND("_", A159, 1) - 1)</f>
@@ -16776,21 +16780,21 @@
         <v>1</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B160" s="13" t="str">
         <f aca="false">LEFT(A160, FIND("_", A160, 1) - 1)</f>
@@ -16801,21 +16805,21 @@
         <v>1</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B161" s="13" t="str">
         <f aca="false">LEFT(A161, FIND("_", A161, 1) - 1)</f>
@@ -16826,24 +16830,24 @@
         <v>1</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B162" s="13" t="str">
         <f aca="false">LEFT(A162, FIND("_", A162, 1) - 1)</f>
@@ -16854,21 +16858,21 @@
         <v>1</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B163" s="13" t="str">
         <f aca="false">LEFT(A163, FIND("_", A163, 1) - 1)</f>
@@ -16879,24 +16883,24 @@
         <v>1</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B164" s="13" t="str">
         <f aca="false">LEFT(A164, FIND("_", A164, 1) - 1)</f>
@@ -16907,51 +16911,51 @@
         <v>1</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B165" s="13" t="str">
         <f aca="false">LEFT(A165, FIND("_", A165, 1) - 1)</f>
         <v>07HR-0248-F3-4</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D165" s="13" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B166" s="13" t="str">
         <f aca="false">LEFT(A166, FIND("_", A166, 1) - 1)</f>
@@ -16961,24 +16965,24 @@
         <v>1</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B167" s="13" t="str">
         <f aca="false">LEFT(A167, FIND("_", A167, 1) - 1)</f>
@@ -16988,21 +16992,21 @@
         <v>1</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B168" s="13" t="str">
         <f aca="false">LEFT(A168, FIND("_", A168, 1) - 1)</f>
@@ -17012,24 +17016,24 @@
         <v>1</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B169" s="13" t="str">
         <f aca="false">LEFT(A169, FIND("_", A169, 1) - 1)</f>
@@ -17039,24 +17043,24 @@
         <v>1</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B170" s="13" t="str">
         <f aca="false">LEFT(A170, FIND("_", A170, 1) - 1)</f>
@@ -17066,19 +17070,19 @@
         <v>1</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -17086,8 +17090,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -17120,29 +17124,29 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B3" s="67" t="n">
         <v>41541</v>
@@ -17151,15 +17155,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="67" t="n">
         <v>41626</v>
@@ -17168,15 +17172,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B5" s="67" t="n">
         <v>41668</v>
@@ -17185,15 +17189,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B6" s="67" t="n">
         <v>41680</v>
@@ -17202,15 +17206,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B7" s="67" t="n">
         <v>41708</v>
@@ -17219,15 +17223,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B8" s="67" t="n">
         <v>41731</v>
@@ -17236,15 +17240,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B9" s="67" t="n">
         <v>41753</v>
@@ -17253,15 +17257,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B10" s="67" t="n">
         <v>41792</v>
@@ -17270,15 +17274,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B11" s="67" t="n">
         <v>41807</v>
@@ -17287,10 +17291,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -17298,8 +17302,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -17336,27 +17340,27 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="67" t="n">
         <v>41485</v>
@@ -17365,22 +17369,22 @@
         <v>500</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="67" t="n">
         <v>41547</v>
@@ -17389,22 +17393,22 @@
         <v>500</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="67" t="n">
         <v>41567</v>
@@ -17413,22 +17417,22 @@
         <v>600</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="67" t="n">
         <v>41649</v>
@@ -17437,22 +17441,22 @@
         <v>602</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="67" t="n">
         <v>41663</v>
@@ -17461,22 +17465,22 @@
         <v>602</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" s="67" t="n">
         <v>41670</v>
@@ -17485,22 +17489,22 @@
         <v>600</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" s="67" t="n">
         <v>41688</v>
@@ -17509,24 +17513,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B9" s="67" t="n">
         <v>41710</v>
@@ -17535,22 +17539,22 @@
         <v>600</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="67" t="n">
         <v>41716</v>
@@ -17559,24 +17563,24 @@
         <v>600</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B11" s="67" t="n">
         <v>41738</v>
@@ -17585,22 +17589,22 @@
         <v>600</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" s="67" t="n">
         <v>41759</v>
@@ -17609,22 +17613,22 @@
         <v>600</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B13" s="67" t="n">
         <v>41771</v>
@@ -17633,22 +17637,22 @@
         <v>600</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B14" s="67" t="n">
         <v>41779</v>
@@ -17657,24 +17661,24 @@
         <v>500</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B15" s="67" t="n">
         <v>41784</v>
@@ -17683,24 +17687,24 @@
         <v>600</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B16" s="67" t="n">
         <v>41801</v>
@@ -17709,24 +17713,24 @@
         <v>600</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B17" s="67" t="n">
         <v>41807</v>
@@ -17735,24 +17739,24 @@
         <v>500</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B18" s="67" t="n">
         <v>41829</v>
@@ -17761,19 +17765,19 @@
         <v>500</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -17781,8 +17785,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="479">
   <si>
     <t>id</t>
   </si>
@@ -1228,6 +1228,24 @@
     <t>4698_PCR1</t>
   </si>
   <si>
+    <t>7848_PCR1</t>
+  </si>
+  <si>
+    <t>Tuen41</t>
+  </si>
+  <si>
+    <t>27548_PCR1</t>
+  </si>
+  <si>
+    <t>27993_PCR1</t>
+  </si>
+  <si>
+    <t>33089_PCR1</t>
+  </si>
+  <si>
+    <t>9985_PCR1</t>
+  </si>
+  <si>
     <t>n samples</t>
   </si>
   <si>
@@ -1433,6 +1451,12 @@
   </si>
   <si>
     <t>/ebio/abt6_sra/years/2014/09_01/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>5 HIV samples + Staph Aureus</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/09_05/HIVSwedenNexteraXT/</t>
   </si>
 </sst>
 </file>
@@ -2000,12 +2024,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2084,13 +2108,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.58928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7098214285714"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.58482142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.71875"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.90625"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.7232142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5133928571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5044642857143"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="84.9732142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.58482142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2481,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="13" width="14.75"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="14.5580357142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="14.5535714285714"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.0803571428571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="12.6383928571429"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="26.8526785714286"/>
@@ -9471,25 +9495,25 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J52" activeCellId="0" sqref="J52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L91" activeCellId="0" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.8125"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5446428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5357142857143"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0803571428571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6383928571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="8.58928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.125"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="8.58482142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.1205357142857"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="11.1517857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="8.58482142857143"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="11.96875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="8.58482142857143"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="23.1651785714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.58482142857143"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13046,15 +13070,25 @@
         <v>0</v>
       </c>
       <c r="E91" s="71"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="F91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="J91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K91" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="L91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="74" t="n">
@@ -13443,26 +13477,26 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K51" activeCellId="0" sqref="K51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H200" activeCellId="0" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.1964285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="22.2053571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="20.7946428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.2678571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.2767857142857"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="13" width="5.70089285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2455357142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.7946428571429"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="14.9910714285714"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="9.73214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="13" width="38.9553571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7633928571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="9.74107142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="13" width="38.9642857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7723214285714"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.58928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.58482142857143"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18373,6 +18407,126 @@
         <v>159</v>
       </c>
       <c r="H194" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B195" s="13" t="str">
+        <f aca="false">LEFT(A195, FIND("_", A195, 1) - 1)</f>
+        <v>7848</v>
+      </c>
+      <c r="D195" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B196" s="13" t="str">
+        <f aca="false">LEFT(A196, FIND("_", A196, 1) - 1)</f>
+        <v>27548</v>
+      </c>
+      <c r="D196" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B197" s="13" t="str">
+        <f aca="false">LEFT(A197, FIND("_", A197, 1) - 1)</f>
+        <v>27993</v>
+      </c>
+      <c r="D197" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H197" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B198" s="13" t="str">
+        <f aca="false">LEFT(A198, FIND("_", A198, 1) - 1)</f>
+        <v>33089</v>
+      </c>
+      <c r="D198" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H198" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" s="13" t="str">
+        <f aca="false">LEFT(A199, FIND("_", A199, 1) - 1)</f>
+        <v>9985</v>
+      </c>
+      <c r="D199" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G199" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H199" s="13" t="s">
         <v>375</v>
       </c>
     </row>
@@ -18404,7 +18558,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.0803571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="11.3214285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.8348214285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.84375"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="52.9776785714286"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="10.0803571428571"/>
   </cols>
@@ -18417,29 +18571,29 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B3" s="77" t="n">
         <v>41541</v>
@@ -18448,15 +18602,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B4" s="77" t="n">
         <v>41626</v>
@@ -18465,15 +18619,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B5" s="77" t="n">
         <v>41668</v>
@@ -18482,15 +18636,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B6" s="77" t="n">
         <v>41680</v>
@@ -18499,15 +18653,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B7" s="77" t="n">
         <v>41708</v>
@@ -18516,15 +18670,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B8" s="77" t="n">
         <v>41731</v>
@@ -18533,15 +18687,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B9" s="77" t="n">
         <v>41753</v>
@@ -18550,15 +18704,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B10" s="77" t="n">
         <v>41792</v>
@@ -18567,15 +18721,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B11" s="77" t="n">
         <v>41807</v>
@@ -18584,15 +18738,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B12" s="77" t="n">
         <v>41876</v>
@@ -18601,10 +18755,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -18624,20 +18778,20 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.4508928571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.4598214285714"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="11.3214285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.0803571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.7633928571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.7544642857143"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.33035714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="41.7589285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="41.75"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="7" width="42.0267857142857"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="57.7276785714286"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="7" width="10.0803571428571"/>
@@ -18651,13 +18805,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>103</v>
@@ -18666,7 +18820,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18680,17 +18834,17 @@
         <v>500</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18704,17 +18858,17 @@
         <v>500</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18728,17 +18882,17 @@
         <v>600</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18752,17 +18906,17 @@
         <v>602</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18776,17 +18930,17 @@
         <v>602</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18800,17 +18954,17 @@
         <v>600</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18824,24 +18978,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B9" s="77" t="n">
         <v>41710</v>
@@ -18850,16 +19004,16 @@
         <v>600</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H9" s="0"/>
     </row>
@@ -18874,19 +19028,19 @@
         <v>600</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18900,17 +19054,17 @@
         <v>600</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18924,17 +19078,17 @@
         <v>600</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18948,17 +19102,17 @@
         <v>600</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18972,19 +19126,19 @@
         <v>500</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18998,19 +19152,19 @@
         <v>600</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19024,19 +19178,19 @@
         <v>600</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19050,19 +19204,19 @@
         <v>500</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19076,19 +19230,19 @@
         <v>500</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19102,16 +19256,43 @@
         <v>500</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G19" s="0"/>
       <c r="H19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="77" t="n">
+        <v>41887</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -289,13 +289,10 @@
     <t>miss</t>
   </si>
   <si>
-    <t>overall low HIV</t>
-  </si>
-  <si>
     <t>not yet extracted</t>
   </si>
   <si>
-    <t>run41</t>
+    <t>analyzing now</t>
   </si>
   <si>
     <t>90 bp gap in gag, overlap with F1??</t>
@@ -1064,6 +1061,9 @@
   </si>
   <si>
     <t>22499_PCR1</t>
+  </si>
+  <si>
+    <t>Thomas12309</t>
   </si>
   <si>
     <t>Thomas12304</t>
@@ -2024,12 +2024,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2459,8 +2459,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9481,8 +9481,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9495,8 +9495,8 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L91" activeCellId="0" sqref="L91"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9833,9 +9833,6 @@
       <c r="K8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="68" t="str">
@@ -10105,7 +10102,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10136,7 +10133,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,7 +10410,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10444,7 +10441,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10718,7 +10715,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,7 +10746,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10859,22 +10856,22 @@
         <v>84</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,7 +10914,7 @@
         <v>84</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11071,7 +11068,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11102,7 +11099,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11186,7 +11183,7 @@
         <v>84</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11229,7 +11226,7 @@
         <v>84</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,7 +11474,7 @@
         <v>84</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11620,7 +11617,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11648,7 +11645,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,7 +12338,7 @@
         <v>84</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12668,7 +12665,7 @@
         <v>84</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12740,7 +12737,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12888,7 +12885,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13114,8 +13111,8 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8" t="s">
-        <v>91</v>
+      <c r="L92" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13143,7 +13140,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13294,7 +13291,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13465,8 +13462,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13479,8 +13476,8 @@
   </sheetPr>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H200" activeCellId="0" sqref="H200"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B157" activeCellId="0" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13504,39 +13501,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J1" s="76" t="s">
         <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -13544,22 +13541,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -13567,25 +13564,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -13593,16 +13590,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -13616,24 +13613,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13641,27 +13638,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13669,27 +13666,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13697,10 +13694,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>1</v>
@@ -13708,12 +13705,12 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13721,10 +13718,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>2</v>
@@ -13732,12 +13729,12 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="13" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
@@ -13749,22 +13746,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="13" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
@@ -13776,22 +13773,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="13" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
@@ -13803,22 +13800,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="13" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
@@ -13830,22 +13827,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="13" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
@@ -13857,22 +13854,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="13" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
@@ -13884,22 +13881,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="13" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
@@ -13911,22 +13908,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="13" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
@@ -13938,22 +13935,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="13" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
@@ -13965,22 +13962,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13989,22 +13986,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14013,22 +14010,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14036,22 +14033,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14059,22 +14056,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14082,22 +14079,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14105,22 +14102,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14128,22 +14125,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14151,22 +14148,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="13" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
@@ -14178,22 +14175,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="13" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
@@ -14205,22 +14202,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="13" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
@@ -14232,22 +14229,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="13" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
@@ -14259,22 +14256,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="13" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
@@ -14286,22 +14283,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="13" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
@@ -14313,22 +14310,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14336,22 +14333,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -14359,22 +14356,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -14382,22 +14379,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -14405,22 +14402,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -14428,22 +14425,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -14451,22 +14448,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="13" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
@@ -14478,22 +14475,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" s="13" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
@@ -14505,22 +14502,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="13" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
@@ -14532,43 +14529,43 @@
         <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="H42" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="13" t="str">
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
@@ -14580,22 +14577,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="13" t="str">
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
@@ -14607,22 +14604,22 @@
         <v>2</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="13" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
@@ -14634,37 +14631,37 @@
         <v>2</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -14676,16 +14673,16 @@
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -14697,22 +14694,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="13" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
@@ -14724,25 +14721,25 @@
         <v>1</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="13" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -14754,25 +14751,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="13" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -14784,16 +14781,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I51" s="0"/>
       <c r="K51" s="0" t="s">
@@ -14802,7 +14799,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B52" s="13" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -14814,127 +14811,127 @@
         <v>1</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="I53" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="13" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="13" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="13" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" s="13" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -14946,22 +14943,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="13" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -14973,22 +14970,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" s="13" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -15000,22 +14997,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G59" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B60" s="13" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -15027,22 +15024,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="13" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -15054,22 +15051,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="13" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -15081,22 +15078,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="13" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -15108,22 +15105,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="13" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -15135,22 +15132,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B65" s="13" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -15162,22 +15159,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="13" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -15189,22 +15186,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="13" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -15216,22 +15213,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" s="13" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -15243,22 +15240,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="13" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -15270,22 +15267,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B70" s="13" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -15297,171 +15294,171 @@
         <v>1</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B76" s="13" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D76" s="13" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B77" s="13" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="13" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B78" s="13" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -15473,21 +15470,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="13" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -15499,21 +15496,21 @@
         <v>1</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="13" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -15525,21 +15522,21 @@
         <v>1</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G80" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="13" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -15551,21 +15548,21 @@
         <v>1</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B82" s="13" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -15577,21 +15574,21 @@
         <v>1</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83" s="13" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -15603,21 +15600,21 @@
         <v>1</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84" s="13" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -15629,21 +15626,21 @@
         <v>1</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85" s="13" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -15655,21 +15652,21 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B86" s="13" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -15681,21 +15678,21 @@
         <v>1</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" s="13" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -15707,21 +15704,21 @@
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B88" s="13" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -15733,21 +15730,21 @@
         <v>1</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89" s="13" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -15759,21 +15756,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B90" s="13" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -15785,21 +15782,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B91" s="13" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -15811,21 +15808,21 @@
         <v>1</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B92" s="13" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -15837,21 +15834,21 @@
         <v>1</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B93" s="13" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -15863,21 +15860,21 @@
         <v>1</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B94" s="13" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -15889,21 +15886,21 @@
         <v>1</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G94" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H94" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B95" s="13" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -15915,21 +15912,21 @@
         <v>1</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B96" s="13" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -15941,21 +15938,21 @@
         <v>1</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B97" s="13" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -15967,21 +15964,21 @@
         <v>1</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B98" s="13" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -15993,21 +15990,21 @@
         <v>1</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B99" s="13" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -16019,21 +16016,21 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B100" s="13" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -16045,21 +16042,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B101" s="13" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -16071,21 +16068,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" s="13" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -16097,21 +16094,21 @@
         <v>1</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B103" s="13" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -16123,21 +16120,21 @@
         <v>1</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B104" s="13" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -16149,21 +16146,21 @@
         <v>1</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B105" s="13" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -16175,21 +16172,21 @@
         <v>1</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B106" s="13" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -16201,21 +16198,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B107" s="13" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -16227,21 +16224,21 @@
         <v>1</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H107" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B108" s="13" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -16253,21 +16250,21 @@
         <v>1</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B109" s="13" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -16279,21 +16276,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F109" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B110" s="13" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -16305,21 +16302,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F110" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H110" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B111" s="13" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -16331,21 +16328,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F111" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H111" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B112" s="13" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -16357,21 +16354,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F112" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B113" s="13" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -16383,21 +16380,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F113" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H113" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B114" s="13" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -16409,21 +16406,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F114" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B115" s="13" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -16435,21 +16432,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F115" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H115" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B116" s="13" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -16461,21 +16458,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F116" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B117" s="13" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -16487,21 +16484,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F117" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B118" s="13" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -16513,21 +16510,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F118" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H118" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B119" s="13" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -16539,21 +16536,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F119" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H119" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B120" s="13" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -16565,21 +16562,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F120" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H120" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>37</v>
@@ -16590,21 +16587,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H121" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>37</v>
@@ -16615,21 +16612,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F122" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H122" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>11686</v>
@@ -16640,21 +16637,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F123" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>11686</v>
@@ -16665,21 +16662,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F124" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H124" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>21665</v>
@@ -16690,21 +16687,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F125" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H125" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>21665</v>
@@ -16715,21 +16712,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F126" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" s="13" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -16741,61 +16738,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G127" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F127" s="13" t="s">
+      <c r="H127" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H128" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" s="13" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -16806,21 +16803,21 @@
         <v>1</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B131" s="13" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -16831,21 +16828,21 @@
         <v>1</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B132" s="13" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -16856,21 +16853,21 @@
         <v>1</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B133" s="13" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -16881,21 +16878,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B134" s="13" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -16906,21 +16903,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B135" s="13" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -16931,21 +16928,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" s="13" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -16956,21 +16953,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B137" s="13" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -16981,21 +16978,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B138" s="13" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -17006,21 +17003,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B139" s="13" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -17031,21 +17028,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B140" s="13" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -17056,21 +17053,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B141" s="13" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -17081,21 +17078,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B142" s="13" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -17106,21 +17103,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B143" s="13" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -17131,21 +17128,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B144" s="13" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -17156,21 +17153,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>37</v>
@@ -17180,21 +17177,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>37</v>
@@ -17204,21 +17201,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B147" s="13" t="n">
         <v>11686</v>
@@ -17228,21 +17225,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B148" s="13" t="n">
         <v>11686</v>
@@ -17252,21 +17249,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B149" s="13" t="n">
         <v>21665</v>
@@ -17276,21 +17273,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B150" s="13" t="n">
         <v>21665</v>
@@ -17300,21 +17297,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B151" s="13" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -17325,61 +17322,61 @@
         <v>1</v>
       </c>
       <c r="E151" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G151" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F151" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="H151" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
       <c r="F153" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B154" s="13" t="str">
         <f aca="false">LEFT(A154, FIND("_", A154, 1) - 1)</f>
@@ -17390,21 +17387,21 @@
         <v>1</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F154" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H154" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B155" s="13" t="str">
         <f aca="false">LEFT(A155, FIND("_", A155, 1) - 1)</f>
@@ -17415,24 +17412,24 @@
         <v>1</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F155" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H155" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="G155" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="J155" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B156" s="13" t="str">
         <f aca="false">LEFT(A156, FIND("_", A156, 1) - 1)</f>
@@ -17443,34 +17440,36 @@
         <v>1</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F156" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H156" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B157" s="0"/>
       <c r="C157" s="0"/>
       <c r="D157" s="0"/>
       <c r="E157" s="0"/>
       <c r="F157" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H157" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17486,16 +17485,16 @@
         <v>1</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J158" s="0" t="s">
         <v>350</v>
@@ -17514,19 +17513,19 @@
         <v>1</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17542,16 +17541,16 @@
         <v>1</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17567,16 +17566,16 @@
         <v>1</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J161" s="0" t="s">
         <v>354</v>
@@ -17595,16 +17594,16 @@
         <v>1</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17620,16 +17619,16 @@
         <v>1</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J163" s="0" t="s">
         <v>357</v>
@@ -17648,16 +17647,16 @@
         <v>1</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J164" s="0" t="s">
         <v>357</v>
@@ -17680,13 +17679,13 @@
         <v>361</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17704,13 +17703,13 @@
         <v>363</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J166" s="0" t="s">
         <v>364</v>
@@ -17731,13 +17730,13 @@
         <v>366</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17755,13 +17754,13 @@
         <v>368</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J168" s="0" t="s">
         <v>364</v>
@@ -17780,16 +17779,16 @@
         <v>1</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J169" s="0" t="s">
         <v>370</v>
@@ -17808,16 +17807,16 @@
         <v>1</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J170" s="0" t="s">
         <v>372</v>
@@ -17836,13 +17835,13 @@
         <v>1</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F171" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>375</v>
@@ -17861,13 +17860,13 @@
         <v>1</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F172" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>375</v>
@@ -17886,13 +17885,13 @@
         <v>1</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F173" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>375</v>
@@ -17911,13 +17910,13 @@
         <v>1</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F174" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H174" s="13" t="s">
         <v>375</v>
@@ -17936,13 +17935,13 @@
         <v>1</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F175" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>375</v>
@@ -17961,13 +17960,13 @@
         <v>1</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F176" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>375</v>
@@ -17986,13 +17985,13 @@
         <v>1</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F177" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>375</v>
@@ -18013,13 +18012,13 @@
         <v>1</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>375</v>
@@ -18040,13 +18039,13 @@
         <v>1</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F179" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>375</v>
@@ -18064,13 +18063,13 @@
         <v>1</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F180" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H180" s="13" t="s">
         <v>375</v>
@@ -18088,13 +18087,13 @@
         <v>1</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>375</v>
@@ -18112,13 +18111,13 @@
         <v>1</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>375</v>
@@ -18136,13 +18135,13 @@
         <v>1</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F183" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>375</v>
@@ -18160,13 +18159,13 @@
         <v>1</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F184" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>375</v>
@@ -18184,13 +18183,13 @@
         <v>1</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F185" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>375</v>
@@ -18213,7 +18212,7 @@
         <v>374</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>375</v>
@@ -18236,7 +18235,7 @@
         <v>374</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>375</v>
@@ -18254,13 +18253,13 @@
         <v>1</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F188" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H188" s="13" t="s">
         <v>375</v>
@@ -18278,13 +18277,13 @@
         <v>1</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F189" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>375</v>
@@ -18302,13 +18301,13 @@
         <v>1</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F190" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>375</v>
@@ -18326,13 +18325,13 @@
         <v>1</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F191" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>375</v>
@@ -18350,13 +18349,13 @@
         <v>1</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F192" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>375</v>
@@ -18374,13 +18373,13 @@
         <v>1</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F193" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>375</v>
@@ -18398,13 +18397,13 @@
         <v>1</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F194" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>375</v>
@@ -18422,13 +18421,13 @@
         <v>1</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>403</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>375</v>
@@ -18446,13 +18445,13 @@
         <v>1</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F196" s="13" t="s">
         <v>403</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>375</v>
@@ -18470,13 +18469,13 @@
         <v>1</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F197" s="13" t="s">
         <v>403</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>375</v>
@@ -18494,13 +18493,13 @@
         <v>1</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F198" s="13" t="s">
         <v>403</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>375</v>
@@ -18518,13 +18517,13 @@
         <v>1</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F199" s="13" t="s">
         <v>403</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>375</v>
@@ -18535,8 +18534,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -18766,8 +18765,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -18814,7 +18813,7 @@
         <v>438</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>30</v>
@@ -18825,7 +18824,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="77" t="n">
         <v>41485</v>
@@ -18849,7 +18848,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="77" t="n">
         <v>41547</v>
@@ -18873,7 +18872,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="77" t="n">
         <v>41567</v>
@@ -18897,7 +18896,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="77" t="n">
         <v>41649</v>
@@ -18921,7 +18920,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="77" t="n">
         <v>41663</v>
@@ -18945,7 +18944,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="77" t="n">
         <v>41670</v>
@@ -18969,7 +18968,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="77" t="n">
         <v>41688</v>
@@ -19019,7 +19018,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="77" t="n">
         <v>41716</v>
@@ -19045,7 +19044,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="77" t="n">
         <v>41738</v>
@@ -19069,7 +19068,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="77" t="n">
         <v>41759</v>
@@ -19093,7 +19092,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="77" t="n">
         <v>41771</v>
@@ -19117,7 +19116,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="77" t="n">
         <v>41779</v>
@@ -19143,7 +19142,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="77" t="n">
         <v>41784</v>
@@ -19169,7 +19168,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="77" t="n">
         <v>41801</v>
@@ -19195,7 +19194,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="77" t="n">
         <v>41807</v>
@@ -19221,7 +19220,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="77" t="n">
         <v>41829</v>
@@ -19300,8 +19299,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="489" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -289,19 +289,13 @@
     <t>miss</t>
   </si>
   <si>
+    <t>to sequence</t>
+  </si>
+  <si>
     <t>not yet extracted</t>
   </si>
   <si>
-    <t>analyzing now</t>
-  </si>
-  <si>
-    <t>90 bp gap in gag, overlap with F1??</t>
-  </si>
-  <si>
     <t>only PCR2</t>
-  </si>
-  <si>
-    <t>Lina is checking</t>
   </si>
   <si>
     <t>SMI freezer</t>
@@ -1587,7 +1581,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1616,6 +1610,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1703,7 +1709,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1992,6 +1998,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2024,12 +2042,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1 2" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2054,7 +2072,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF9966"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -2473,7 +2491,7 @@
   </sheetPr>
   <dimension ref="A1:F467"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A132" activeCellId="0" sqref="A132"/>
     </sheetView>
   </sheetViews>
@@ -2598,7 +2616,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="13" t="n">
         <v>20097</v>
@@ -4428,7 +4446,7 @@
       <c r="E131" s="39"/>
       <c r="F131" s="0"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="29" t="n">
         <v>20883</v>
       </c>
@@ -9495,8 +9513,8 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9821,18 +9839,19 @@
       <c r="G8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="72" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="68" t="str">
@@ -10095,13 +10114,13 @@
         <f aca="false">'Samples timeline'!E63</f>
         <v>0</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7" t="s">
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10126,14 +10145,14 @@
         <f aca="false">'Samples timeline'!E65</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10210,7 +10229,7 @@
       <c r="I18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -10245,7 +10264,7 @@
       <c r="G19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="72" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="7" t="s">
@@ -10409,7 +10428,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="74" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10434,14 +10453,23 @@
         <f aca="false">'Samples timeline'!E102</f>
         <v>0</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7" t="s">
-        <v>90</v>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10477,7 +10505,7 @@
       <c r="I25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -10509,7 +10537,7 @@
       <c r="G26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="72" t="s">
         <v>86</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -10588,7 +10616,7 @@
       <c r="F28" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="72" t="s">
         <v>88</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -10597,7 +10625,7 @@
       <c r="I28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -10708,14 +10736,14 @@
         <f aca="false">'Samples timeline'!E137</f>
         <v>0</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10739,14 +10767,23 @@
         <f aca="false">'Samples timeline'!E141</f>
         <v>0</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7" t="s">
-        <v>90</v>
+      <c r="F32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,23 +10892,23 @@
       <c r="F35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10914,7 +10951,7 @@
         <v>84</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10979,7 +11016,7 @@
         <f aca="false">'Samples timeline'!E160</f>
         <v>0</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="72" t="s">
         <v>86</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -11032,7 +11069,7 @@
       <c r="I39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="67" t="s">
+      <c r="J39" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K39" s="8" t="s">
@@ -11061,14 +11098,14 @@
         <f aca="false">'Samples timeline'!E162</f>
         <v>0</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
       <c r="L40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11092,14 +11129,23 @@
         <f aca="false">'Samples timeline'!E164</f>
         <v>0</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="7" t="s">
-        <v>90</v>
+      <c r="F41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11183,7 +11229,7 @@
         <v>84</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,7 +11272,7 @@
         <v>84</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11294,7 +11340,7 @@
       <c r="F46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="67" t="s">
+      <c r="G46" s="72" t="s">
         <v>86</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -11303,7 +11349,7 @@
       <c r="I46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="72" t="s">
         <v>86</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -11338,13 +11384,13 @@
       <c r="G47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="H47" s="72" t="s">
         <v>86</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J47" s="67" t="s">
+      <c r="J47" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -11420,13 +11466,13 @@
       <c r="G49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="72" t="s">
         <v>86</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J49" s="67" t="s">
+      <c r="J49" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -11474,7 +11520,7 @@
         <v>84</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11548,7 +11594,7 @@
       <c r="I52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J52" s="72"/>
+      <c r="J52" s="75"/>
       <c r="K52" s="8" t="s">
         <v>84</v>
       </c>
@@ -11572,22 +11618,22 @@
         <v>0</v>
       </c>
       <c r="E53" s="71"/>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="67" t="s">
+      <c r="G53" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="67" t="s">
+      <c r="H53" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="67" t="s">
+      <c r="I53" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="67" t="s">
+      <c r="J53" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K53" s="67" t="s">
+      <c r="K53" s="72" t="s">
         <v>86</v>
       </c>
       <c r="L53" s="0"/>
@@ -11610,13 +11656,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="71"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="7" t="s">
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="74" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11638,14 +11684,14 @@
         <v>0</v>
       </c>
       <c r="E55" s="71"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
       <c r="L55" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11672,7 +11718,7 @@
       <c r="F56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="67" t="s">
+      <c r="G56" s="72" t="s">
         <v>88</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -11681,7 +11727,7 @@
       <c r="I56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J56" s="67" t="s">
+      <c r="J56" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K56" s="7" t="s">
@@ -12006,7 +12052,7 @@
       <c r="I64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J64" s="67" t="s">
+      <c r="J64" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K64" s="7" t="s">
@@ -12091,7 +12137,7 @@
       <c r="J66" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="K66" s="67" t="s">
+      <c r="K66" s="72" t="s">
         <v>88</v>
       </c>
       <c r="L66" s="0"/>
@@ -12284,7 +12330,7 @@
       <c r="G71" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H71" s="67" t="s">
+      <c r="H71" s="72" t="s">
         <v>88</v>
       </c>
       <c r="I71" s="7" t="s">
@@ -12338,7 +12384,7 @@
         <v>84</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12665,7 +12711,7 @@
         <v>84</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,14 +12776,14 @@
         <f aca="false">'Samples timeline'!E350</f>
         <v>0</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="12" t="s">
-        <v>93</v>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="74" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12773,10 +12819,10 @@
       <c r="I83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J83" s="67" t="s">
+      <c r="J83" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K83" s="67" t="s">
+      <c r="K83" s="72" t="s">
         <v>86</v>
       </c>
       <c r="L83" s="8"/>
@@ -12802,22 +12848,22 @@
         <f aca="false">'Samples timeline'!E354</f>
         <v>0</v>
       </c>
-      <c r="F84" s="67" t="s">
+      <c r="F84" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="67" t="s">
+      <c r="G84" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H84" s="67" t="s">
+      <c r="H84" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I84" s="67" t="s">
+      <c r="I84" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J84" s="67" t="s">
+      <c r="J84" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="67" t="s">
+      <c r="K84" s="72" t="s">
         <v>86</v>
       </c>
       <c r="L84" s="0"/>
@@ -12840,22 +12886,22 @@
         <v>0</v>
       </c>
       <c r="E85" s="71"/>
-      <c r="F85" s="67" t="s">
+      <c r="F85" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="67" t="s">
+      <c r="G85" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H85" s="67" t="s">
+      <c r="H85" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I85" s="67" t="s">
+      <c r="I85" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J85" s="67" t="s">
+      <c r="J85" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K85" s="67" t="s">
+      <c r="K85" s="72" t="s">
         <v>86</v>
       </c>
       <c r="L85" s="0"/>
@@ -12885,7 +12931,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,19 +12958,19 @@
       <c r="F87" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="G87" s="67" t="s">
+      <c r="G87" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H87" s="67" t="s">
+      <c r="H87" s="72" t="s">
         <v>88</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J87" s="67" t="s">
+      <c r="J87" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="K87" s="67" t="s">
+      <c r="K87" s="72" t="s">
         <v>88</v>
       </c>
       <c r="L87" s="0"/>
@@ -12962,13 +13008,13 @@
       <c r="I88" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J88" s="67" t="s">
+      <c r="J88" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L88" s="73"/>
+      <c r="L88" s="76"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="68" t="n">
@@ -13003,10 +13049,10 @@
       <c r="I89" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J89" s="67" t="s">
+      <c r="J89" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="K89" s="67" t="s">
+      <c r="K89" s="72" t="s">
         <v>88</v>
       </c>
       <c r="L89" s="0"/>
@@ -13041,7 +13087,7 @@
       <c r="I90" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J90" s="67" t="s">
+      <c r="J90" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K90" s="7" t="s">
@@ -13067,79 +13113,88 @@
         <v>0</v>
       </c>
       <c r="E91" s="71"/>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G91" s="67" t="s">
+      <c r="G91" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="67" t="s">
+      <c r="H91" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="67" t="s">
+      <c r="I91" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="J91" s="67" t="s">
+      <c r="J91" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="K91" s="67" t="s">
+      <c r="K91" s="72" t="s">
         <v>88</v>
       </c>
       <c r="L91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="74" t="n">
+      <c r="A92" s="77" t="n">
         <f aca="false">'Samples timeline'!A366</f>
         <v>9985</v>
       </c>
-      <c r="B92" s="74" t="n">
+      <c r="B92" s="77" t="n">
         <f aca="false">'Samples timeline'!B366</f>
         <v>15034</v>
       </c>
-      <c r="C92" s="75" t="n">
+      <c r="C92" s="78" t="n">
         <f aca="false">'Samples timeline'!C366</f>
         <v>35242</v>
       </c>
-      <c r="D92" s="74" t="n">
+      <c r="D92" s="77" t="n">
         <f aca="false">'Samples timeline'!D366</f>
         <v>12000</v>
       </c>
       <c r="E92" s="71"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="7" t="s">
-        <v>90</v>
+      <c r="F92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="74" t="n">
+      <c r="A93" s="77" t="n">
         <f aca="false">'Samples timeline'!A367</f>
         <v>10110</v>
       </c>
-      <c r="B93" s="74" t="n">
+      <c r="B93" s="77" t="n">
         <f aca="false">'Samples timeline'!B367</f>
         <v>15034</v>
       </c>
-      <c r="C93" s="75" t="n">
+      <c r="C93" s="78" t="n">
         <f aca="false">'Samples timeline'!C367</f>
         <v>35269</v>
       </c>
-      <c r="D93" s="74" t="n">
+      <c r="D93" s="77" t="n">
         <f aca="false">'Samples timeline'!D367</f>
         <v>10500</v>
       </c>
       <c r="E93" s="71"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8" t="s">
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73"/>
+      <c r="L93" s="74" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13284,14 +13339,14 @@
         <f aca="false">'Samples timeline'!E434</f>
         <v>0</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="73"/>
       <c r="L97" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13409,7 +13464,7 @@
       <c r="I100" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J100" s="67" t="s">
+      <c r="J100" s="72" t="s">
         <v>88</v>
       </c>
       <c r="K100" s="7" t="s">
@@ -13476,7 +13531,7 @@
   </sheetPr>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B157" activeCellId="0" sqref="B157"/>
     </sheetView>
   </sheetViews>
@@ -13501,39 +13556,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -13541,22 +13596,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -13564,25 +13619,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -13590,16 +13645,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -13613,24 +13668,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -13638,27 +13693,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -13666,27 +13721,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13694,10 +13749,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>1</v>
@@ -13705,12 +13760,12 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -13718,10 +13773,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>2</v>
@@ -13729,12 +13784,12 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="13" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
@@ -13746,22 +13801,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="13" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
@@ -13773,22 +13828,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="13" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
@@ -13800,22 +13855,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" s="13" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
@@ -13827,22 +13882,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="13" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
@@ -13854,22 +13909,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="13" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
@@ -13881,22 +13936,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="13" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
@@ -13908,22 +13963,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="13" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
@@ -13935,22 +13990,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="13" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
@@ -13962,22 +14017,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -13986,22 +14041,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -14010,22 +14065,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -14033,22 +14088,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F21" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -14056,22 +14111,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -14079,22 +14134,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -14102,22 +14157,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -14125,22 +14180,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -14148,22 +14203,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="13" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
@@ -14175,22 +14230,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="13" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
@@ -14202,22 +14257,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="13" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
@@ -14229,22 +14284,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" s="13" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
@@ -14256,22 +14311,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="13" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
@@ -14283,22 +14338,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B32" s="13" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
@@ -14310,22 +14365,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -14333,22 +14388,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -14356,22 +14411,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>171</v>
-      </c>
       <c r="H34" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -14379,22 +14434,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -14402,22 +14457,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -14425,22 +14480,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -14448,22 +14503,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="13" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
@@ -14475,22 +14530,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" s="13" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
@@ -14502,22 +14557,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" s="13" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
@@ -14529,43 +14584,43 @@
         <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43" s="13" t="str">
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
@@ -14577,22 +14632,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" s="13" t="str">
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
@@ -14604,22 +14659,22 @@
         <v>2</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" s="13" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
@@ -14631,37 +14686,37 @@
         <v>2</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -14673,16 +14728,16 @@
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -14694,22 +14749,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="H48" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49" s="13" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
@@ -14721,25 +14776,25 @@
         <v>1</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" s="13" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -14751,25 +14806,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B51" s="13" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -14781,16 +14836,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I51" s="0"/>
       <c r="K51" s="0" t="s">
@@ -14799,7 +14854,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B52" s="13" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -14811,127 +14866,127 @@
         <v>1</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G53" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B54" s="13" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D54" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B55" s="13" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B56" s="13" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D56" s="13" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="13" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -14943,22 +14998,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B58" s="13" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -14970,22 +15025,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B59" s="13" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -14997,22 +15052,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B60" s="13" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -15024,22 +15079,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B61" s="13" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -15051,22 +15106,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B62" s="13" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -15078,22 +15133,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B63" s="13" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -15105,22 +15160,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64" s="13" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -15132,22 +15187,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B65" s="13" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -15159,22 +15214,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B66" s="13" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -15186,22 +15241,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B67" s="13" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -15213,22 +15268,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B68" s="13" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -15240,22 +15295,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B69" s="13" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -15267,22 +15322,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="13" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -15294,171 +15349,171 @@
         <v>1</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B76" s="13" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D76" s="13" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B77" s="13" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D77" s="13" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B78" s="13" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -15470,21 +15525,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B79" s="13" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -15496,21 +15551,21 @@
         <v>1</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B80" s="13" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -15522,21 +15577,21 @@
         <v>1</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B81" s="13" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -15548,21 +15603,21 @@
         <v>1</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B82" s="13" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -15574,21 +15629,21 @@
         <v>1</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B83" s="13" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -15600,21 +15655,21 @@
         <v>1</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B84" s="13" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -15626,21 +15681,21 @@
         <v>1</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B85" s="13" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -15652,21 +15707,21 @@
         <v>1</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B86" s="13" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -15678,21 +15733,21 @@
         <v>1</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B87" s="13" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -15704,21 +15759,21 @@
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B88" s="13" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -15730,21 +15785,21 @@
         <v>1</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B89" s="13" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -15756,21 +15811,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B90" s="13" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -15782,21 +15837,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B91" s="13" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -15808,21 +15863,21 @@
         <v>1</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B92" s="13" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -15834,21 +15889,21 @@
         <v>1</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B93" s="13" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -15860,21 +15915,21 @@
         <v>1</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B94" s="13" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -15886,21 +15941,21 @@
         <v>1</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B95" s="13" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -15912,21 +15967,21 @@
         <v>1</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B96" s="13" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -15938,21 +15993,21 @@
         <v>1</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B97" s="13" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -15964,21 +16019,21 @@
         <v>1</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B98" s="13" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -15990,21 +16045,21 @@
         <v>1</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B99" s="13" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -16016,21 +16071,21 @@
         <v>1</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B100" s="13" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -16042,21 +16097,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B101" s="13" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -16068,21 +16123,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B102" s="13" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -16094,21 +16149,21 @@
         <v>1</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B103" s="13" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -16120,21 +16175,21 @@
         <v>1</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B104" s="13" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -16146,21 +16201,21 @@
         <v>1</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B105" s="13" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -16172,21 +16227,21 @@
         <v>1</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B106" s="13" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -16198,21 +16253,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B107" s="13" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -16224,21 +16279,21 @@
         <v>1</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B108" s="13" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -16250,21 +16305,21 @@
         <v>1</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B109" s="13" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -16276,21 +16331,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B110" s="13" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -16302,21 +16357,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B111" s="13" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -16328,21 +16383,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B112" s="13" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -16354,21 +16409,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B113" s="13" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -16380,21 +16435,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B114" s="13" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -16406,21 +16461,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B115" s="13" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -16432,21 +16487,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B116" s="13" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -16458,21 +16513,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B117" s="13" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -16484,21 +16539,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B118" s="13" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -16510,21 +16565,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B119" s="13" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -16536,21 +16591,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B120" s="13" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -16562,21 +16617,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>37</v>
@@ -16587,21 +16642,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>37</v>
@@ -16612,21 +16667,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>11686</v>
@@ -16637,21 +16692,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>11686</v>
@@ -16662,21 +16717,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>21665</v>
@@ -16687,21 +16742,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>21665</v>
@@ -16712,21 +16767,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B127" s="13" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -16738,61 +16793,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B130" s="13" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -16803,21 +16858,21 @@
         <v>1</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B131" s="13" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -16828,21 +16883,21 @@
         <v>1</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B132" s="13" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -16853,21 +16908,21 @@
         <v>1</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B133" s="13" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -16878,21 +16933,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B134" s="13" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -16903,21 +16958,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B135" s="13" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -16928,21 +16983,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B136" s="13" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -16953,21 +17008,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B137" s="13" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -16978,21 +17033,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B138" s="13" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -17003,21 +17058,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B139" s="13" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -17028,21 +17083,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B140" s="13" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -17053,21 +17108,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B141" s="13" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -17078,21 +17133,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B142" s="13" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -17103,21 +17158,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B143" s="13" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -17128,21 +17183,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B144" s="13" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -17153,21 +17208,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>37</v>
@@ -17177,21 +17232,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>37</v>
@@ -17201,21 +17256,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B147" s="13" t="n">
         <v>11686</v>
@@ -17225,21 +17280,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B148" s="13" t="n">
         <v>11686</v>
@@ -17249,21 +17304,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B149" s="13" t="n">
         <v>21665</v>
@@ -17273,21 +17328,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B150" s="13" t="n">
         <v>21665</v>
@@ -17297,21 +17352,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B151" s="13" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -17322,61 +17377,61 @@
         <v>1</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
       <c r="F153" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B154" s="13" t="str">
         <f aca="false">LEFT(A154, FIND("_", A154, 1) - 1)</f>
@@ -17387,21 +17442,21 @@
         <v>1</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B155" s="13" t="str">
         <f aca="false">LEFT(A155, FIND("_", A155, 1) - 1)</f>
@@ -17412,24 +17467,24 @@
         <v>1</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H155" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J155" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="J155" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B156" s="13" t="str">
         <f aca="false">LEFT(A156, FIND("_", A156, 1) - 1)</f>
@@ -17440,41 +17495,41 @@
         <v>1</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" s="0"/>
       <c r="E157" s="0"/>
       <c r="F157" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B158" s="13" t="str">
         <f aca="false">LEFT(A158, FIND("_", A158, 1) - 1)</f>
@@ -17485,24 +17540,24 @@
         <v>1</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B159" s="13" t="str">
         <f aca="false">LEFT(A159, FIND("_", A159, 1) - 1)</f>
@@ -17513,24 +17568,24 @@
         <v>1</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B160" s="13" t="str">
         <f aca="false">LEFT(A160, FIND("_", A160, 1) - 1)</f>
@@ -17541,21 +17596,21 @@
         <v>1</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B161" s="13" t="str">
         <f aca="false">LEFT(A161, FIND("_", A161, 1) - 1)</f>
@@ -17566,24 +17621,24 @@
         <v>1</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B162" s="13" t="str">
         <f aca="false">LEFT(A162, FIND("_", A162, 1) - 1)</f>
@@ -17594,21 +17649,21 @@
         <v>1</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B163" s="13" t="str">
         <f aca="false">LEFT(A163, FIND("_", A163, 1) - 1)</f>
@@ -17619,24 +17674,24 @@
         <v>1</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B164" s="13" t="str">
         <f aca="false">LEFT(A164, FIND("_", A164, 1) - 1)</f>
@@ -17647,50 +17702,50 @@
         <v>1</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B165" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D165" s="13" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>50</v>
@@ -17700,24 +17755,24 @@
         <v>1</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>59</v>
@@ -17727,21 +17782,21 @@
         <v>1</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>59</v>
@@ -17751,24 +17806,24 @@
         <v>1</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B169" s="13" t="str">
         <f aca="false">LEFT(A169, FIND("_", A169, 1) - 1)</f>
@@ -17779,24 +17834,24 @@
         <v>1</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B170" s="13" t="str">
         <f aca="false">LEFT(A170, FIND("_", A170, 1) - 1)</f>
@@ -17807,24 +17862,24 @@
         <v>1</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B171" s="13" t="str">
         <f aca="false">LEFT(A171, FIND("_", A171, 1) - 1)</f>
@@ -17835,21 +17890,21 @@
         <v>1</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B172" s="13" t="str">
         <f aca="false">LEFT(A172, FIND("_", A172, 1) - 1)</f>
@@ -17860,21 +17915,21 @@
         <v>1</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B173" s="13" t="str">
         <f aca="false">LEFT(A173, FIND("_", A173, 1) - 1)</f>
@@ -17885,21 +17940,21 @@
         <v>1</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B174" s="13" t="str">
         <f aca="false">LEFT(A174, FIND("_", A174, 1) - 1)</f>
@@ -17910,21 +17965,21 @@
         <v>1</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B175" s="13" t="str">
         <f aca="false">LEFT(A175, FIND("_", A175, 1) - 1)</f>
@@ -17935,21 +17990,21 @@
         <v>1</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B176" s="13" t="str">
         <f aca="false">LEFT(A176, FIND("_", A176, 1) - 1)</f>
@@ -17960,21 +18015,21 @@
         <v>1</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B177" s="13" t="str">
         <f aca="false">LEFT(A177, FIND("_", A177, 1) - 1)</f>
@@ -17985,21 +18040,21 @@
         <v>1</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B178" s="13" t="str">
         <f aca="false">LEFT(A178, FIND("_", A178, 1) - 1)</f>
@@ -18012,24 +18067,24 @@
         <v>1</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B179" s="13" t="str">
         <f aca="false">LEFT(A179, FIND("_", A179, 1) - 1)</f>
@@ -18039,21 +18094,21 @@
         <v>1</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B180" s="13" t="str">
         <f aca="false">LEFT(A180, FIND("_", A180, 1) - 1)</f>
@@ -18063,21 +18118,21 @@
         <v>1</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B181" s="13" t="str">
         <f aca="false">LEFT(A181, FIND("_", A181, 1) - 1)</f>
@@ -18087,21 +18142,21 @@
         <v>1</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B182" s="13" t="str">
         <f aca="false">LEFT(A182, FIND("_", A182, 1) - 1)</f>
@@ -18111,21 +18166,21 @@
         <v>1</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B183" s="13" t="str">
         <f aca="false">LEFT(A183, FIND("_", A183, 1) - 1)</f>
@@ -18135,21 +18190,21 @@
         <v>1</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B184" s="13" t="str">
         <f aca="false">LEFT(A184, FIND("_", A184, 1) - 1)</f>
@@ -18159,21 +18214,21 @@
         <v>1</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B185" s="13" t="str">
         <f aca="false">LEFT(A185, FIND("_", A185, 1) - 1)</f>
@@ -18183,21 +18238,21 @@
         <v>1</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B186" s="13" t="n">
         <v>3265</v>
@@ -18206,21 +18261,21 @@
         <v>1</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B187" s="13" t="n">
         <v>3265</v>
@@ -18229,21 +18284,21 @@
         <v>1</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B188" s="13" t="str">
         <f aca="false">LEFT(A188, FIND("_", A188, 1) - 1)</f>
@@ -18253,21 +18308,21 @@
         <v>1</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B189" s="13" t="str">
         <f aca="false">LEFT(A189, FIND("_", A189, 1) - 1)</f>
@@ -18277,21 +18332,21 @@
         <v>1</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B190" s="13" t="str">
         <f aca="false">LEFT(A190, FIND("_", A190, 1) - 1)</f>
@@ -18301,21 +18356,21 @@
         <v>1</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B191" s="13" t="str">
         <f aca="false">LEFT(A191, FIND("_", A191, 1) - 1)</f>
@@ -18325,21 +18380,21 @@
         <v>1</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B192" s="13" t="str">
         <f aca="false">LEFT(A192, FIND("_", A192, 1) - 1)</f>
@@ -18349,21 +18404,21 @@
         <v>1</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B193" s="13" t="str">
         <f aca="false">LEFT(A193, FIND("_", A193, 1) - 1)</f>
@@ -18373,21 +18428,21 @@
         <v>1</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B194" s="13" t="str">
         <f aca="false">LEFT(A194, FIND("_", A194, 1) - 1)</f>
@@ -18397,21 +18452,21 @@
         <v>1</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B195" s="13" t="str">
         <f aca="false">LEFT(A195, FIND("_", A195, 1) - 1)</f>
@@ -18421,21 +18476,21 @@
         <v>1</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B196" s="13" t="str">
         <f aca="false">LEFT(A196, FIND("_", A196, 1) - 1)</f>
@@ -18445,21 +18500,21 @@
         <v>1</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H196" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B197" s="13" t="str">
         <f aca="false">LEFT(A197, FIND("_", A197, 1) - 1)</f>
@@ -18469,21 +18524,21 @@
         <v>1</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B198" s="13" t="str">
         <f aca="false">LEFT(A198, FIND("_", A198, 1) - 1)</f>
@@ -18493,21 +18548,21 @@
         <v>1</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B199" s="13" t="str">
         <f aca="false">LEFT(A199, FIND("_", A199, 1) - 1)</f>
@@ -18517,16 +18572,16 @@
         <v>1</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -18570,194 +18625,194 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="77" t="n">
+        <v>411</v>
+      </c>
+      <c r="B3" s="80" t="n">
         <v>41541</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="77" t="n">
+        <v>414</v>
+      </c>
+      <c r="B4" s="80" t="n">
         <v>41626</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="77" t="n">
+        <v>416</v>
+      </c>
+      <c r="B5" s="80" t="n">
         <v>41668</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" s="77" t="n">
+        <v>418</v>
+      </c>
+      <c r="B6" s="80" t="n">
         <v>41680</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="77" t="n">
+        <v>421</v>
+      </c>
+      <c r="B7" s="80" t="n">
         <v>41708</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="77" t="n">
+        <v>423</v>
+      </c>
+      <c r="B8" s="80" t="n">
         <v>41731</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="77" t="n">
+        <v>425</v>
+      </c>
+      <c r="B9" s="80" t="n">
         <v>41753</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="77" t="n">
+        <v>428</v>
+      </c>
+      <c r="B10" s="80" t="n">
         <v>41792</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="77" t="n">
+        <v>430</v>
+      </c>
+      <c r="B11" s="80" t="n">
         <v>41807</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B12" s="77" t="n">
+        <v>432</v>
+      </c>
+      <c r="B12" s="80" t="n">
         <v>41876</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -18804,494 +18859,494 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="77" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2" s="80" t="n">
         <v>41485</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="77" t="n">
+        <v>127</v>
+      </c>
+      <c r="B3" s="80" t="n">
         <v>41547</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="77" t="n">
+        <v>123</v>
+      </c>
+      <c r="B4" s="80" t="n">
         <v>41567</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="77" t="n">
+        <v>144</v>
+      </c>
+      <c r="B5" s="80" t="n">
         <v>41649</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>602</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="77" t="n">
+        <v>158</v>
+      </c>
+      <c r="B6" s="80" t="n">
         <v>41663</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>602</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="77" t="n">
+        <v>167</v>
+      </c>
+      <c r="B7" s="80" t="n">
         <v>41670</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="77" t="n">
+        <v>187</v>
+      </c>
+      <c r="B8" s="80" t="n">
         <v>41688</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="77" t="n">
+        <v>452</v>
+      </c>
+      <c r="B9" s="80" t="n">
         <v>41710</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="77" t="n">
+        <v>196</v>
+      </c>
+      <c r="B10" s="80" t="n">
         <v>41716</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="77" t="n">
+        <v>208</v>
+      </c>
+      <c r="B11" s="80" t="n">
         <v>41738</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="77" t="n">
+        <v>217</v>
+      </c>
+      <c r="B12" s="80" t="n">
         <v>41759</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="77" t="n">
+        <v>239</v>
+      </c>
+      <c r="B13" s="80" t="n">
         <v>41771</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="77" t="n">
+        <v>251</v>
+      </c>
+      <c r="B14" s="80" t="n">
         <v>41779</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="77" t="n">
+        <v>266</v>
+      </c>
+      <c r="B15" s="80" t="n">
         <v>41784</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="77" t="n">
+        <v>281</v>
+      </c>
+      <c r="B16" s="80" t="n">
         <v>41801</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>600</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" s="77" t="n">
+        <v>315</v>
+      </c>
+      <c r="B17" s="80" t="n">
         <v>41807</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" s="77" t="n">
+        <v>340</v>
+      </c>
+      <c r="B18" s="80" t="n">
         <v>41829</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="77" t="n">
+        <v>372</v>
+      </c>
+      <c r="B19" s="80" t="n">
         <v>41880</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G19" s="0"/>
       <c r="H19" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B20" s="77" t="n">
+        <v>401</v>
+      </c>
+      <c r="B20" s="80" t="n">
         <v>41887</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>500</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="661">
   <si>
     <t>code</t>
   </si>
@@ -557,12 +557,15 @@
     <t>miss end of F6?? check!</t>
   </si>
   <si>
+    <t>mislabelled (confirmed)</t>
+  </si>
+  <si>
+    <t>contaminated by 38304</t>
+  </si>
+  <si>
     <t>mislabelled</t>
   </si>
   <si>
-    <t>contaminated by 38304</t>
-  </si>
-  <si>
     <t>not yet extracted</t>
   </si>
   <si>
@@ -1478,6 +1481,9 @@
     <t>3640_PCR1</t>
   </si>
   <si>
+    <t>mislabelled during SMI query</t>
+  </si>
+  <si>
     <t>33460_PCR1</t>
   </si>
   <si>
@@ -1583,6 +1589,99 @@
     <t>3199-F12356_PCR1</t>
   </si>
   <si>
+    <t>31181_PCR1-2</t>
+  </si>
+  <si>
+    <t>Tuen43</t>
+  </si>
+  <si>
+    <t>24060_PCR1-2</t>
+  </si>
+  <si>
+    <t>30562_PCR1-2</t>
+  </si>
+  <si>
+    <t>8452_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK07-4778_PCR1-2</t>
+  </si>
+  <si>
+    <t>30847_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK08-8014_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK07-8262_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK08-2987_PCR1-2</t>
+  </si>
+  <si>
+    <t>28541_PCR1-2</t>
+  </si>
+  <si>
+    <t>25268_PCR1-2</t>
+  </si>
+  <si>
+    <t>5651_PCR1-2</t>
+  </si>
+  <si>
+    <t>10110_PCR1-2</t>
+  </si>
+  <si>
+    <t>3199-F12356_PCR1-2</t>
+  </si>
+  <si>
+    <t>VL96-15555-F12_PCR1-2</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>N6-S17</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>VL98-1253-F25_PCR1-2</t>
+  </si>
+  <si>
+    <t>VL98-1523</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>VK99-4204-F2_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK00-1524-F135_PCR1-2</t>
+  </si>
+  <si>
+    <t>1 3b 5a</t>
+  </si>
+  <si>
+    <t>VK01-2965-F135_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK01-2985</t>
+  </si>
+  <si>
+    <t>VK04-3106-F5_PCR1-2</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>10756_PCR1-2</t>
+  </si>
+  <si>
+    <t>26585_PCR1-2</t>
+  </si>
+  <si>
     <t>date of extraction</t>
   </si>
   <si>
@@ -1754,12 +1853,18 @@
     <t>SE#10</t>
   </si>
   <si>
-    <t>SE#10 SE#11</t>
+    <t>SE#10 #11 #12</t>
   </si>
   <si>
     <t>SE#11</t>
   </si>
   <si>
+    <t>SE #12</t>
+  </si>
+  <si>
+    <t>2014-10-13 DNA samples.xlsx</t>
+  </si>
+  <si>
     <t>cycles</t>
   </si>
   <si>
@@ -1893,6 +1998,12 @@
   </si>
   <si>
     <t>/ebio/abt6_sra/years/2014/09_29/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>Patient samples (repeats)</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2014/10_22/HIVSwedenNexteraXT/</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2242,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2464,6 +2575,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2480,8 +2595,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3376,8 +3491,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15011,8 +15126,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15025,8 +15140,8 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N70" activeCellId="0" sqref="N70"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15136,6 +15251,7 @@
         <v>169</v>
       </c>
       <c r="M2" s="1"/>
+      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="70" t="str">
@@ -15181,6 +15297,7 @@
         <v>169</v>
       </c>
       <c r="M3" s="1"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="70" t="str">
@@ -15226,6 +15343,7 @@
         <v>169</v>
       </c>
       <c r="M4" s="1"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
@@ -15271,6 +15389,7 @@
         <v>169</v>
       </c>
       <c r="M5" s="1"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="str">
@@ -15316,6 +15435,7 @@
         <v>169</v>
       </c>
       <c r="M6" s="1"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="str">
@@ -15363,6 +15483,7 @@
       <c r="M7" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="70" t="str">
@@ -15408,6 +15529,7 @@
         <v>169</v>
       </c>
       <c r="M8" s="1"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="70" t="str">
@@ -15453,6 +15575,7 @@
         <v>169</v>
       </c>
       <c r="M9" s="1"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="str">
@@ -15498,6 +15621,7 @@
         <v>169</v>
       </c>
       <c r="M10" s="1"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="70" t="str">
@@ -15543,6 +15667,7 @@
         <v>169</v>
       </c>
       <c r="M11" s="1"/>
+      <c r="N11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
@@ -15588,6 +15713,7 @@
         <v>169</v>
       </c>
       <c r="M12" s="1"/>
+      <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="str">
@@ -15633,6 +15759,7 @@
         <v>169</v>
       </c>
       <c r="M13" s="1"/>
+      <c r="N13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="70" t="n">
@@ -15678,6 +15805,7 @@
         <v>169</v>
       </c>
       <c r="M14" s="1"/>
+      <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="70" t="n">
@@ -15723,6 +15851,7 @@
         <v>169</v>
       </c>
       <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="70" t="n">
@@ -15768,6 +15897,7 @@
         <v>169</v>
       </c>
       <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="70" t="n">
@@ -15813,6 +15943,7 @@
         <v>169</v>
       </c>
       <c r="M17" s="1"/>
+      <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="70" t="str">
@@ -15858,6 +15989,7 @@
         <v>169</v>
       </c>
       <c r="M18" s="1"/>
+      <c r="N18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="70" t="str">
@@ -15903,6 +16035,7 @@
         <v>169</v>
       </c>
       <c r="M19" s="1"/>
+      <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="70" t="n">
@@ -15948,6 +16081,7 @@
         <v>169</v>
       </c>
       <c r="M20" s="1"/>
+      <c r="N20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="n">
@@ -15993,6 +16127,7 @@
         <v>169</v>
       </c>
       <c r="M21" s="1"/>
+      <c r="N21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="70" t="n">
@@ -16038,6 +16173,7 @@
         <v>169</v>
       </c>
       <c r="M22" s="1"/>
+      <c r="N22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="70" t="n">
@@ -16083,6 +16219,7 @@
         <v>169</v>
       </c>
       <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="70" t="n">
@@ -16128,6 +16265,7 @@
         <v>169</v>
       </c>
       <c r="M24" s="1"/>
+      <c r="N24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="70" t="str">
@@ -16173,6 +16311,7 @@
         <v>169</v>
       </c>
       <c r="M25" s="1"/>
+      <c r="N25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="70" t="str">
@@ -16215,6 +16354,7 @@
         <v>169</v>
       </c>
       <c r="M26" s="1"/>
+      <c r="N26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="70" t="str">
@@ -16260,6 +16400,7 @@
         <v>169</v>
       </c>
       <c r="M27" s="1"/>
+      <c r="N27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="70" t="str">
@@ -16305,6 +16446,7 @@
         <v>169</v>
       </c>
       <c r="M28" s="1"/>
+      <c r="N28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="str">
@@ -16350,6 +16492,7 @@
         <v>169</v>
       </c>
       <c r="M29" s="1"/>
+      <c r="N29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="70" t="n">
@@ -16395,6 +16538,7 @@
         <v>169</v>
       </c>
       <c r="M30" s="1"/>
+      <c r="N30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="70" t="n">
@@ -16440,6 +16584,7 @@
         <v>169</v>
       </c>
       <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="70" t="n">
@@ -16485,6 +16630,7 @@
         <v>169</v>
       </c>
       <c r="M32" s="1"/>
+      <c r="N32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="70" t="n">
@@ -16530,6 +16676,7 @@
         <v>169</v>
       </c>
       <c r="M33" s="1"/>
+      <c r="N33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="70" t="n">
@@ -16575,6 +16722,7 @@
         <v>169</v>
       </c>
       <c r="M34" s="1"/>
+      <c r="N34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="70" t="str">
@@ -16622,6 +16770,7 @@
       <c r="M35" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="N35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="70" t="str">
@@ -16667,6 +16816,7 @@
         <v>169</v>
       </c>
       <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="70" t="str">
@@ -16712,6 +16862,7 @@
         <v>169</v>
       </c>
       <c r="M37" s="1"/>
+      <c r="N37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="70" t="n">
@@ -16757,6 +16908,7 @@
         <v>169</v>
       </c>
       <c r="M38" s="1"/>
+      <c r="N38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="70" t="n">
@@ -16802,6 +16954,7 @@
         <v>169</v>
       </c>
       <c r="M39" s="1"/>
+      <c r="N39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="70" t="n">
@@ -16847,6 +17000,7 @@
         <v>169</v>
       </c>
       <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="70" t="n">
@@ -16892,6 +17046,7 @@
         <v>169</v>
       </c>
       <c r="M41" s="1"/>
+      <c r="N41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="70" t="str">
@@ -16937,6 +17092,7 @@
         <v>169</v>
       </c>
       <c r="M42" s="1"/>
+      <c r="N42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="str">
@@ -16984,6 +17140,7 @@
       <c r="M43" s="5" t="s">
         <v>177</v>
       </c>
+      <c r="N43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="70" t="str">
@@ -17029,6 +17186,7 @@
         <v>169</v>
       </c>
       <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="70" t="str">
@@ -17074,6 +17232,7 @@
         <v>169</v>
       </c>
       <c r="M45" s="1"/>
+      <c r="N45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="str">
@@ -17119,6 +17278,7 @@
         <v>169</v>
       </c>
       <c r="M46" s="1"/>
+      <c r="N46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="70" t="str">
@@ -17164,6 +17324,7 @@
         <v>169</v>
       </c>
       <c r="M47" s="1"/>
+      <c r="N47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="70" t="str">
@@ -17209,6 +17370,7 @@
         <v>169</v>
       </c>
       <c r="M48" s="1"/>
+      <c r="N48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="70" t="str">
@@ -17254,6 +17416,7 @@
         <v>169</v>
       </c>
       <c r="M49" s="1"/>
+      <c r="N49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="70" t="str">
@@ -17299,6 +17462,7 @@
         <v>169</v>
       </c>
       <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="70" t="str">
@@ -17344,6 +17508,7 @@
         <v>169</v>
       </c>
       <c r="M51" s="1"/>
+      <c r="N51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="74" t="str">
@@ -17433,6 +17598,7 @@
         <v>171</v>
       </c>
       <c r="M53" s="1"/>
+      <c r="N53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="70" t="str">
@@ -17475,6 +17641,7 @@
         <v>171</v>
       </c>
       <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="70" t="str">
@@ -17517,6 +17684,7 @@
         <v>174</v>
       </c>
       <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="70" t="n">
@@ -17562,6 +17730,7 @@
         <v>169</v>
       </c>
       <c r="M56" s="1"/>
+      <c r="N56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="70" t="n">
@@ -17604,6 +17773,7 @@
         <v>169</v>
       </c>
       <c r="M57" s="1"/>
+      <c r="N57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="70" t="n">
@@ -17649,6 +17819,7 @@
         <v>169</v>
       </c>
       <c r="M58" s="1"/>
+      <c r="N58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="70" t="n">
@@ -17694,6 +17865,7 @@
         <v>169</v>
       </c>
       <c r="M59" s="1"/>
+      <c r="N59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="70" t="n">
@@ -17739,6 +17911,7 @@
         <v>169</v>
       </c>
       <c r="M60" s="1"/>
+      <c r="N60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="70" t="n">
@@ -17784,6 +17957,7 @@
         <v>169</v>
       </c>
       <c r="M61" s="1"/>
+      <c r="N61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="70" t="n">
@@ -17829,6 +18003,7 @@
         <v>169</v>
       </c>
       <c r="M62" s="1"/>
+      <c r="N62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="70" t="n">
@@ -17874,6 +18049,7 @@
         <v>169</v>
       </c>
       <c r="M63" s="1"/>
+      <c r="N63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="70" t="n">
@@ -17919,6 +18095,7 @@
         <v>169</v>
       </c>
       <c r="M64" s="1"/>
+      <c r="N64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="70" t="n">
@@ -17964,6 +18141,7 @@
         <v>169</v>
       </c>
       <c r="M65" s="1"/>
+      <c r="N65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="70" t="n">
@@ -18009,6 +18187,7 @@
         <v>174</v>
       </c>
       <c r="M66" s="1"/>
+      <c r="N66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="70" t="n">
@@ -18051,6 +18230,7 @@
         <v>169</v>
       </c>
       <c r="M67" s="1"/>
+      <c r="N67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="70" t="n">
@@ -18096,6 +18276,7 @@
         <v>169</v>
       </c>
       <c r="M68" s="1"/>
+      <c r="N68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="70" t="n">
@@ -18141,6 +18322,7 @@
         <v>169</v>
       </c>
       <c r="M69" s="1"/>
+      <c r="N69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="70" t="n">
@@ -18186,6 +18368,7 @@
         <v>169</v>
       </c>
       <c r="M70" s="1"/>
+      <c r="N70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="70" t="n">
@@ -18231,6 +18414,7 @@
         <v>169</v>
       </c>
       <c r="M71" s="1"/>
+      <c r="N71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="70" t="n">
@@ -18276,6 +18460,7 @@
         <v>169</v>
       </c>
       <c r="M72" s="0"/>
+      <c r="N72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="70" t="n">
@@ -18321,6 +18506,7 @@
         <v>169</v>
       </c>
       <c r="M73" s="1"/>
+      <c r="N73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="70" t="n">
@@ -18363,6 +18549,7 @@
         <v>169</v>
       </c>
       <c r="M74" s="1"/>
+      <c r="N74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="70" t="n">
@@ -18408,6 +18595,7 @@
         <v>169</v>
       </c>
       <c r="M75" s="1"/>
+      <c r="N75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="70" t="n">
@@ -18453,6 +18641,7 @@
         <v>169</v>
       </c>
       <c r="M76" s="1"/>
+      <c r="N76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="70" t="n">
@@ -18498,6 +18687,7 @@
         <v>169</v>
       </c>
       <c r="M77" s="1"/>
+      <c r="N77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="70" t="n">
@@ -18543,6 +18733,7 @@
         <v>169</v>
       </c>
       <c r="M78" s="1"/>
+      <c r="N78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="70" t="n">
@@ -18588,6 +18779,7 @@
         <v>169</v>
       </c>
       <c r="M79" s="1"/>
+      <c r="N79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="70" t="n">
@@ -18633,6 +18825,7 @@
         <v>169</v>
       </c>
       <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="70" t="n">
@@ -18678,6 +18871,7 @@
         <v>169</v>
       </c>
       <c r="M81" s="1"/>
+      <c r="N81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="70" t="n">
@@ -18723,6 +18917,7 @@
         <v>169</v>
       </c>
       <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="70" t="n">
@@ -18768,6 +18963,7 @@
         <v>171</v>
       </c>
       <c r="M83" s="1"/>
+      <c r="N83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="70" t="n">
@@ -18813,6 +19009,7 @@
         <v>171</v>
       </c>
       <c r="M84" s="1"/>
+      <c r="N84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="74" t="n">
@@ -18855,7 +19052,7 @@
         <v>171</v>
       </c>
       <c r="M85" s="75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>25</v>
@@ -18890,8 +19087,9 @@
       <c r="K86" s="0"/>
       <c r="L86" s="0"/>
       <c r="M86" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="70" t="n">
@@ -18937,6 +19135,7 @@
         <v>174</v>
       </c>
       <c r="M87" s="1"/>
+      <c r="N87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="70" t="n">
@@ -18982,6 +19181,7 @@
         <v>169</v>
       </c>
       <c r="M88" s="76"/>
+      <c r="N88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="70" t="n">
@@ -19027,6 +19227,7 @@
         <v>174</v>
       </c>
       <c r="M89" s="1"/>
+      <c r="N89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="74" t="n">
@@ -19069,7 +19270,7 @@
         <v>169</v>
       </c>
       <c r="M90" s="75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>25</v>
@@ -19520,8 +19721,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19532,10 +19733,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K51" activeCellId="0" sqref="K51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J235" activeCellId="0" sqref="J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19549,7 +19750,7 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="16" width="10.1428571428571"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="16" width="11.0178571428571"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="16" width="39.0044642857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7098214285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="53.0267857142857"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57589285714286"/>
   </cols>
@@ -19559,39 +19760,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J1" s="81" t="s">
         <v>103</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -19599,22 +19800,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -19622,25 +19823,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -19648,16 +19849,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -19671,24 +19872,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -19696,27 +19897,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -19724,27 +19925,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -19752,10 +19953,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G8" s="16" t="n">
         <v>1</v>
@@ -19763,12 +19964,12 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -19776,10 +19977,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G9" s="16" t="n">
         <v>2</v>
@@ -19787,12 +19988,12 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B10" s="16" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
@@ -19804,22 +20005,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B11" s="16" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
@@ -19831,22 +20032,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B12" s="16" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
@@ -19858,22 +20059,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" s="16" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
@@ -19885,22 +20086,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B14" s="16" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
@@ -19912,22 +20113,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B15" s="16" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
@@ -19939,22 +20140,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" s="16" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
@@ -19966,22 +20167,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B17" s="16" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
@@ -19993,22 +20194,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" s="16" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
@@ -20020,22 +20221,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -20044,22 +20245,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -20068,22 +20269,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -20091,22 +20292,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -20114,22 +20315,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -20137,22 +20338,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -20160,22 +20361,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -20183,22 +20384,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -20206,22 +20407,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="16" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
@@ -20233,22 +20434,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="16" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
@@ -20260,22 +20461,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="16" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
@@ -20287,22 +20488,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" s="16" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
@@ -20314,22 +20515,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" s="16" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
@@ -20341,22 +20542,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="16" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
@@ -20368,22 +20569,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -20391,22 +20592,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -20414,22 +20615,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -20437,22 +20638,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -20460,22 +20661,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -20483,22 +20684,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -20506,22 +20707,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" s="16" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
@@ -20533,22 +20734,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B40" s="16" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
@@ -20560,22 +20761,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B41" s="16" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
@@ -20587,43 +20788,43 @@
         <v>1</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="16" t="str">
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
@@ -20635,22 +20836,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="16" t="str">
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
@@ -20662,22 +20863,22 @@
         <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" s="16" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
@@ -20689,37 +20890,37 @@
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -20731,16 +20932,16 @@
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -20752,22 +20953,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B49" s="16" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
@@ -20779,25 +20980,25 @@
         <v>1</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B50" s="16" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -20809,25 +21010,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" s="16" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -20839,22 +21040,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B52" s="16" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -20866,127 +21067,127 @@
         <v>1</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B54" s="16" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D54" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B55" s="16" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D55" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B56" s="16" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D56" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="82" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B57" s="16" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -20998,22 +21199,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="82" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B58" s="16" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -21025,22 +21226,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B59" s="16" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -21052,22 +21253,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B60" s="16" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -21079,22 +21280,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B61" s="16" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -21106,22 +21307,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="82" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B62" s="16" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -21133,22 +21334,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B63" s="16" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -21160,22 +21361,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B64" s="16" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -21187,22 +21388,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B65" s="16" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -21214,22 +21415,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B66" s="16" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -21241,22 +21442,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B67" s="16" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -21268,22 +21469,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B68" s="16" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -21295,22 +21496,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B69" s="16" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -21322,22 +21523,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B70" s="16" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -21349,171 +21550,171 @@
         <v>1</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="82" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="82" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B76" s="16" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D76" s="16" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B77" s="16" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D77" s="16" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B78" s="16" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -21525,21 +21726,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B79" s="16" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -21551,21 +21752,21 @@
         <v>1</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B80" s="16" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -21577,21 +21778,21 @@
         <v>1</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B81" s="16" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -21603,21 +21804,21 @@
         <v>1</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B82" s="16" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -21629,21 +21830,21 @@
         <v>1</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B83" s="16" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -21655,21 +21856,21 @@
         <v>1</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B84" s="16" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -21681,21 +21882,21 @@
         <v>1</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B85" s="16" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -21707,21 +21908,21 @@
         <v>1</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B86" s="16" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -21733,21 +21934,21 @@
         <v>1</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="82" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B87" s="16" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -21759,21 +21960,21 @@
         <v>1</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B88" s="16" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -21785,21 +21986,21 @@
         <v>1</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B89" s="16" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -21811,21 +22012,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B90" s="16" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -21837,21 +22038,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B91" s="16" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -21863,21 +22064,21 @@
         <v>1</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="82" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B92" s="16" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -21889,21 +22090,21 @@
         <v>1</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B93" s="16" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -21915,21 +22116,21 @@
         <v>1</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B94" s="16" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -21941,21 +22142,21 @@
         <v>1</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B95" s="16" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -21967,21 +22168,21 @@
         <v>1</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B96" s="16" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -21993,21 +22194,21 @@
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B97" s="16" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -22019,21 +22220,21 @@
         <v>1</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B98" s="16" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -22045,21 +22246,21 @@
         <v>1</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B99" s="16" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -22071,21 +22272,21 @@
         <v>1</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B100" s="16" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -22097,21 +22298,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B101" s="16" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -22123,21 +22324,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B102" s="16" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -22149,21 +22350,21 @@
         <v>1</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="82" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B103" s="16" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -22175,21 +22376,21 @@
         <v>1</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B104" s="16" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -22201,21 +22402,21 @@
         <v>1</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B105" s="16" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -22227,21 +22428,21 @@
         <v>1</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B106" s="16" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -22253,21 +22454,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B107" s="16" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -22279,21 +22480,21 @@
         <v>1</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B108" s="16" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -22305,21 +22506,21 @@
         <v>1</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B109" s="16" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -22331,21 +22532,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B110" s="16" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -22357,21 +22558,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="82" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B111" s="16" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -22383,21 +22584,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B112" s="16" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -22409,21 +22610,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="82" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B113" s="16" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -22435,21 +22636,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B114" s="16" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -22461,21 +22662,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B115" s="16" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -22487,21 +22688,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B116" s="16" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -22513,21 +22714,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B117" s="16" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -22539,21 +22740,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B118" s="16" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -22565,21 +22766,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B119" s="16" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -22591,21 +22792,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B120" s="16" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -22617,21 +22818,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>109</v>
@@ -22642,21 +22843,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="82" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>109</v>
@@ -22667,21 +22868,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="82" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B123" s="16" t="n">
         <v>11686</v>
@@ -22692,21 +22893,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B124" s="16" t="n">
         <v>11686</v>
@@ -22717,21 +22918,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="82" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B125" s="16" t="n">
         <v>21665</v>
@@ -22742,21 +22943,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="82" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B126" s="16" t="n">
         <v>21665</v>
@@ -22767,21 +22968,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H126" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="82" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B127" s="16" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -22793,61 +22994,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H127" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="82" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B130" s="16" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -22858,21 +23059,21 @@
         <v>1</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B131" s="16" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -22883,21 +23084,21 @@
         <v>1</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B132" s="16" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -22908,21 +23109,21 @@
         <v>1</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B133" s="16" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -22933,21 +23134,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="82" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B134" s="16" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -22958,21 +23159,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="82" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B135" s="16" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -22983,21 +23184,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B136" s="16" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -23008,21 +23209,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="82" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B137" s="16" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -23033,21 +23234,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="82" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B138" s="16" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -23058,21 +23259,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="82" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B139" s="16" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -23083,21 +23284,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H139" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="82" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B140" s="16" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -23108,21 +23309,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B141" s="16" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -23133,21 +23334,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="82" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B142" s="16" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -23158,21 +23359,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="82" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B143" s="16" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -23183,21 +23384,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B144" s="16" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -23208,21 +23409,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="82" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>109</v>
@@ -23232,21 +23433,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="82" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>109</v>
@@ -23256,21 +23457,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H146" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="82" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B147" s="16" t="n">
         <v>11686</v>
@@ -23280,21 +23481,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="82" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B148" s="16" t="n">
         <v>11686</v>
@@ -23304,21 +23505,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="82" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B149" s="16" t="n">
         <v>21665</v>
@@ -23328,21 +23529,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="82" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B150" s="16" t="n">
         <v>21665</v>
@@ -23352,21 +23553,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="82" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B151" s="16" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -23377,61 +23578,61 @@
         <v>1</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="82" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
       <c r="F153" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="82" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B154" s="16" t="str">
         <f aca="false">LEFT(A154, FIND("_", A154, 1) - 1)</f>
@@ -23442,21 +23643,21 @@
         <v>1</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H154" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="82" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B155" s="16" t="str">
         <f aca="false">LEFT(A155, FIND("_", A155, 1) - 1)</f>
@@ -23467,24 +23668,24 @@
         <v>1</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H155" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="82" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B156" s="16" t="str">
         <f aca="false">LEFT(A156, FIND("_", A156, 1) - 1)</f>
@@ -23495,41 +23696,41 @@
         <v>1</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H156" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="82" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" s="0"/>
       <c r="E157" s="0"/>
       <c r="F157" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H157" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B158" s="16" t="str">
         <f aca="false">LEFT(A158, FIND("_", A158, 1) - 1)</f>
@@ -23540,24 +23741,24 @@
         <v>1</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="82" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B159" s="16" t="str">
         <f aca="false">LEFT(A159, FIND("_", A159, 1) - 1)</f>
@@ -23568,24 +23769,24 @@
         <v>1</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="82" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B160" s="16" t="str">
         <f aca="false">LEFT(A160, FIND("_", A160, 1) - 1)</f>
@@ -23596,21 +23797,21 @@
         <v>1</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="82" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B161" s="16" t="str">
         <f aca="false">LEFT(A161, FIND("_", A161, 1) - 1)</f>
@@ -23621,24 +23822,24 @@
         <v>1</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B162" s="16" t="str">
         <f aca="false">LEFT(A162, FIND("_", A162, 1) - 1)</f>
@@ -23649,21 +23850,21 @@
         <v>1</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B163" s="16" t="str">
         <f aca="false">LEFT(A163, FIND("_", A163, 1) - 1)</f>
@@ -23674,24 +23875,24 @@
         <v>1</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="82" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B164" s="16" t="str">
         <f aca="false">LEFT(A164, FIND("_", A164, 1) - 1)</f>
@@ -23702,50 +23903,50 @@
         <v>1</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="82" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D165" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="82" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>123</v>
@@ -23755,24 +23956,24 @@
         <v>1</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="82" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>133</v>
@@ -23782,21 +23983,21 @@
         <v>1</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="82" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>133</v>
@@ -23806,24 +24007,24 @@
         <v>1</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="82" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B169" s="16" t="str">
         <f aca="false">LEFT(A169, FIND("_", A169, 1) - 1)</f>
@@ -23834,24 +24035,24 @@
         <v>1</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="82" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B170" s="16" t="str">
         <f aca="false">LEFT(A170, FIND("_", A170, 1) - 1)</f>
@@ -23862,24 +24063,24 @@
         <v>1</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B171" s="16" t="str">
         <f aca="false">LEFT(A171, FIND("_", A171, 1) - 1)</f>
@@ -23890,21 +24091,21 @@
         <v>1</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B172" s="16" t="str">
         <f aca="false">LEFT(A172, FIND("_", A172, 1) - 1)</f>
@@ -23915,16 +24116,16 @@
         <v>1</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K172" s="0" t="s">
         <v>162</v>
@@ -23932,7 +24133,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="82" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B173" s="16" t="str">
         <f aca="false">LEFT(A173, FIND("_", A173, 1) - 1)</f>
@@ -23943,21 +24144,21 @@
         <v>1</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B174" s="16" t="str">
         <f aca="false">LEFT(A174, FIND("_", A174, 1) - 1)</f>
@@ -23968,21 +24169,21 @@
         <v>1</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="82" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B175" s="16" t="str">
         <f aca="false">LEFT(A175, FIND("_", A175, 1) - 1)</f>
@@ -23993,21 +24194,21 @@
         <v>1</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="82" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B176" s="16" t="str">
         <f aca="false">LEFT(A176, FIND("_", A176, 1) - 1)</f>
@@ -24018,16 +24219,16 @@
         <v>1</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G176" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>162</v>
@@ -24035,7 +24236,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B177" s="16" t="str">
         <f aca="false">LEFT(A177, FIND("_", A177, 1) - 1)</f>
@@ -24046,16 +24247,16 @@
         <v>1</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>162</v>
@@ -24063,7 +24264,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="82" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B178" s="16" t="str">
         <f aca="false">LEFT(A178, FIND("_", A178, 1) - 1)</f>
@@ -24076,24 +24277,24 @@
         <v>1</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="82" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B179" s="16" t="str">
         <f aca="false">LEFT(A179, FIND("_", A179, 1) - 1)</f>
@@ -24104,21 +24305,21 @@
         <v>1</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="82" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B180" s="16" t="str">
         <f aca="false">LEFT(A180, FIND("_", A180, 1) - 1)</f>
@@ -24129,21 +24330,21 @@
         <v>1</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="82" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B181" s="16" t="str">
         <f aca="false">LEFT(A181, FIND("_", A181, 1) - 1)</f>
@@ -24154,21 +24355,21 @@
         <v>1</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="82" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B182" s="16" t="str">
         <f aca="false">LEFT(A182, FIND("_", A182, 1) - 1)</f>
@@ -24179,21 +24380,21 @@
         <v>1</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="82" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B183" s="16" t="str">
         <f aca="false">LEFT(A183, FIND("_", A183, 1) - 1)</f>
@@ -24204,21 +24405,21 @@
         <v>1</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B184" s="16" t="str">
         <f aca="false">LEFT(A184, FIND("_", A184, 1) - 1)</f>
@@ -24229,21 +24430,21 @@
         <v>1</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="82" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B185" s="16" t="str">
         <f aca="false">LEFT(A185, FIND("_", A185, 1) - 1)</f>
@@ -24254,21 +24455,21 @@
         <v>1</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B186" s="16" t="n">
         <v>3265</v>
@@ -24278,21 +24479,21 @@
         <v>1</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B187" s="16" t="n">
         <v>3265</v>
@@ -24302,21 +24503,21 @@
         <v>1</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H187" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B188" s="16" t="str">
         <f aca="false">LEFT(A188, FIND("_", A188, 1) - 1)</f>
@@ -24327,21 +24528,21 @@
         <v>1</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="82" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B189" s="16" t="str">
         <f aca="false">LEFT(A189, FIND("_", A189, 1) - 1)</f>
@@ -24352,21 +24553,21 @@
         <v>1</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H189" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="82" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B190" s="16" t="str">
         <f aca="false">LEFT(A190, FIND("_", A190, 1) - 1)</f>
@@ -24377,21 +24578,21 @@
         <v>1</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H190" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="82" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B191" s="16" t="str">
         <f aca="false">LEFT(A191, FIND("_", A191, 1) - 1)</f>
@@ -24402,21 +24603,24 @@
         <v>1</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="J191" s="83" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="82" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B192" s="16" t="str">
         <f aca="false">LEFT(A192, FIND("_", A192, 1) - 1)</f>
@@ -24427,21 +24631,21 @@
         <v>1</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="82" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B193" s="16" t="str">
         <f aca="false">LEFT(A193, FIND("_", A193, 1) - 1)</f>
@@ -24452,21 +24656,21 @@
         <v>1</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="82" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B194" s="16" t="str">
         <f aca="false">LEFT(A194, FIND("_", A194, 1) - 1)</f>
@@ -24477,21 +24681,21 @@
         <v>1</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H194" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="82" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B195" s="16" t="str">
         <f aca="false">LEFT(A195, FIND("_", A195, 1) - 1)</f>
@@ -24502,21 +24706,21 @@
         <v>1</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H195" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="82" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B196" s="16" t="str">
         <f aca="false">LEFT(A196, FIND("_", A196, 1) - 1)</f>
@@ -24527,21 +24731,21 @@
         <v>1</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="82" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B197" s="16" t="str">
         <f aca="false">LEFT(A197, FIND("_", A197, 1) - 1)</f>
@@ -24552,21 +24756,21 @@
         <v>1</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="82" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B198" s="16" t="str">
         <f aca="false">LEFT(A198, FIND("_", A198, 1) - 1)</f>
@@ -24577,21 +24781,21 @@
         <v>1</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="82" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B199" s="16" t="str">
         <f aca="false">LEFT(A199, FIND("_", A199, 1) - 1)</f>
@@ -24602,21 +24806,21 @@
         <v>1</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="82" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B200" s="16" t="n">
         <v>31181</v>
@@ -24626,21 +24830,21 @@
         <v>1</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="82" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B201" s="16" t="n">
         <v>24060</v>
@@ -24650,21 +24854,21 @@
         <v>1</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G201" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H201" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="H201" s="16" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="82" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B202" s="16" t="n">
         <v>30562</v>
@@ -24674,21 +24878,21 @@
         <v>1</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="82" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B203" s="16" t="n">
         <v>8452</v>
@@ -24698,21 +24902,21 @@
         <v>1</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="82" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>125</v>
@@ -24722,21 +24926,21 @@
         <v>1</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H204" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="82" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B205" s="16" t="n">
         <v>29184</v>
@@ -24746,21 +24950,21 @@
         <v>1</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="82" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B206" s="16" t="n">
         <v>30847</v>
@@ -24770,21 +24974,21 @@
         <v>1</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="82" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>131</v>
@@ -24794,21 +24998,21 @@
         <v>1</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F207" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="82" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>144</v>
@@ -24818,21 +25022,21 @@
         <v>1</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="82" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>130</v>
@@ -24842,50 +25046,50 @@
         <v>1</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="82" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B210" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D210" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="82" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B211" s="16" t="n">
         <v>28541</v>
@@ -24894,21 +25098,21 @@
         <v>1</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="82" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B212" s="16" t="n">
         <v>25268</v>
@@ -24917,21 +25121,21 @@
         <v>1</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="82" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B213" s="16" t="n">
         <v>5651</v>
@@ -24940,21 +25144,21 @@
         <v>1</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="82" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B214" s="16" t="n">
         <v>10110</v>
@@ -24963,21 +25167,21 @@
         <v>1</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="82" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B215" s="16" t="n">
         <v>3199</v>
@@ -24986,30 +25190,571 @@
         <v>1</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="82" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H216" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="82" t="s">
+        <v>522</v>
+      </c>
+      <c r="B217" s="16" t="n">
+        <v>31181</v>
+      </c>
+      <c r="C217" s="0"/>
+      <c r="D217" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F217" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G217" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="82" t="s">
+        <v>524</v>
+      </c>
+      <c r="B218" s="16" t="n">
+        <v>24060</v>
+      </c>
+      <c r="C218" s="0"/>
+      <c r="D218" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G218" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H218" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="B219" s="16" t="n">
+        <v>30562</v>
+      </c>
+      <c r="C219" s="0"/>
+      <c r="D219" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="82" t="s">
+        <v>526</v>
+      </c>
+      <c r="B220" s="16" t="n">
+        <v>8452</v>
+      </c>
+      <c r="C220" s="0"/>
+      <c r="D220" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G220" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C221" s="0"/>
+      <c r="D221" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F221" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G221" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="H221" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="82" t="s">
+        <v>528</v>
+      </c>
+      <c r="B222" s="16" t="n">
+        <v>30847</v>
+      </c>
+      <c r="C222" s="0"/>
+      <c r="D222" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G222" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H222" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C223" s="0"/>
+      <c r="D223" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="82" t="s">
+        <v>530</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C224" s="0"/>
+      <c r="D224" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F224" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="82" t="s">
+        <v>531</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D225" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G225" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H225" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="82" t="s">
+        <v>532</v>
+      </c>
+      <c r="B226" s="16" t="n">
+        <v>28541</v>
+      </c>
+      <c r="D226" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="82" t="s">
+        <v>533</v>
+      </c>
+      <c r="B227" s="16" t="n">
+        <v>25268</v>
+      </c>
+      <c r="D227" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H227" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="82" t="s">
+        <v>534</v>
+      </c>
+      <c r="B228" s="16" t="n">
+        <v>5651</v>
+      </c>
+      <c r="D228" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F228" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G228" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H228" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="82" t="s">
+        <v>535</v>
+      </c>
+      <c r="B229" s="16" t="n">
+        <v>10110</v>
+      </c>
+      <c r="D229" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G229" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H229" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="82" t="s">
+        <v>536</v>
+      </c>
+      <c r="B230" s="16" t="n">
+        <v>3199</v>
+      </c>
+      <c r="D230" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F230" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G230" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H230" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D231" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="H231" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D232" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G232" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H232" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D233" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F233" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G233" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H233" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D234" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G234" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D235" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="F235" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G235" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H235" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="J235" s="0" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D236" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G236" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H236" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B237" s="16" t="n">
+        <v>10756</v>
+      </c>
+      <c r="C237" s="16" t="n">
+        <v>10756</v>
+      </c>
+      <c r="D237" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G237" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="H237" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B238" s="16" t="n">
+        <v>26585</v>
+      </c>
+      <c r="C238" s="16" t="n">
+        <v>26585</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="G238" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H238" s="16" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -25017,8 +25762,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25047,7 +25792,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25055,7 +25800,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25063,7 +25808,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25071,7 +25816,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25079,7 +25824,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25087,7 +25832,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25095,7 +25840,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25103,7 +25848,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25111,7 +25856,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25119,7 +25864,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25127,7 +25872,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25135,7 +25880,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25143,7 +25888,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25151,7 +25896,7 @@
         <v>25304</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25171,7 +25916,7 @@
         <v>33460</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25179,7 +25924,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25187,7 +25932,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25195,7 +25940,7 @@
         <v>18601</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25203,7 +25948,7 @@
         <v>20979</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25211,7 +25956,7 @@
         <v>23030</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25225,7 +25970,7 @@
         <v>27548</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25233,7 +25978,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25241,7 +25986,7 @@
         <v>121</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25249,7 +25994,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25257,7 +26002,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25265,7 +26010,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25273,7 +26018,7 @@
         <v>20883</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25287,7 +26032,7 @@
         <v>27993</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25295,7 +26040,7 @@
         <v>31023</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25303,7 +26048,7 @@
         <v>33873</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25311,7 +26056,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25319,7 +26064,7 @@
         <v>126</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25327,7 +26072,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25335,7 +26080,7 @@
         <v>26585</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25343,7 +26088,7 @@
         <v>27717</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25357,7 +26102,7 @@
         <v>33089</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25365,7 +26110,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25373,7 +26118,7 @@
         <v>130</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25381,7 +26126,7 @@
         <v>131</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25389,7 +26134,7 @@
         <v>132</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25397,7 +26142,7 @@
         <v>133</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25405,7 +26150,7 @@
         <v>141</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25413,7 +26158,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25421,7 +26166,7 @@
         <v>143</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25429,7 +26174,7 @@
         <v>144</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25437,7 +26182,7 @@
         <v>145</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25445,7 +26190,7 @@
         <v>3640</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25453,7 +26198,7 @@
         <v>4698</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25473,7 +26218,7 @@
         <v>10264</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25481,7 +26226,7 @@
         <v>10756</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25489,7 +26234,7 @@
         <v>12879</v>
       </c>
       <c r="B58" s="67" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25497,7 +26242,7 @@
         <v>14908</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25505,7 +26250,7 @@
         <v>18140</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25513,7 +26258,7 @@
         <v>21484</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25521,7 +26266,7 @@
         <v>24890</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25529,7 +26274,7 @@
         <v>28929</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25537,7 +26282,7 @@
         <v>31440</v>
       </c>
       <c r="B64" s="67" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25545,7 +26290,7 @@
         <v>34493</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25553,7 +26298,7 @@
         <v>14799</v>
       </c>
       <c r="B66" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25561,7 +26306,7 @@
         <v>15611</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25569,7 +26314,7 @@
         <v>18113</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25577,7 +26322,7 @@
         <v>21006</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25585,7 +26330,7 @@
         <v>23919</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25593,7 +26338,7 @@
         <v>26477</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25601,7 +26346,7 @@
         <v>29184</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25615,7 +26360,7 @@
         <v>11686</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25623,7 +26368,7 @@
         <v>12402</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25631,7 +26376,7 @@
         <v>16311</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25639,7 +26384,7 @@
         <v>18798</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25647,7 +26392,7 @@
         <v>23058</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25655,7 +26400,7 @@
         <v>25775</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25663,7 +26408,7 @@
         <v>28338</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25671,7 +26416,7 @@
         <v>30847</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25679,7 +26424,7 @@
         <v>3174</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25687,7 +26432,7 @@
         <v>3199</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25695,7 +26440,7 @@
         <v>3265</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25703,7 +26448,7 @@
         <v>3722</v>
       </c>
       <c r="B85" s="67" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25711,7 +26456,7 @@
         <v>3968</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25719,7 +26464,7 @@
         <v>4955</v>
       </c>
       <c r="B87" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25727,7 +26472,7 @@
         <v>5862</v>
       </c>
       <c r="B88" s="67" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25735,7 +26480,7 @@
         <v>6154</v>
       </c>
       <c r="B89" s="67" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25743,7 +26488,7 @@
         <v>7686</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25751,7 +26496,7 @@
         <v>7848</v>
       </c>
       <c r="B91" s="67" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25759,7 +26504,7 @@
         <v>9985</v>
       </c>
       <c r="B92" s="67" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25803,7 +26548,7 @@
         <v>21665</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25811,7 +26556,7 @@
         <v>22499</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25819,7 +26564,7 @@
         <v>24062</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25827,7 +26572,7 @@
         <v>27134</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25835,7 +26580,7 @@
         <v>29698</v>
       </c>
       <c r="B103" s="67" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25843,7 +26588,7 @@
         <v>32311</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25851,7 +26596,7 @@
         <v>34347</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -25859,8 +26604,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25873,8 +26618,8 @@
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25882,7 +26627,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.1428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="11.2857142857143"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="14.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="16.1919642857143"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="53.0044642857143"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="10.1428571428571"/>
   </cols>
@@ -25895,224 +26640,241 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B3" s="83" t="n">
+        <v>586</v>
+      </c>
+      <c r="B3" s="84" t="n">
         <v>41541</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B4" s="83" t="n">
+        <v>589</v>
+      </c>
+      <c r="B4" s="84" t="n">
         <v>41626</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B5" s="83" t="n">
+        <v>591</v>
+      </c>
+      <c r="B5" s="84" t="n">
         <v>41668</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B6" s="83" t="n">
+        <v>593</v>
+      </c>
+      <c r="B6" s="84" t="n">
         <v>41680</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="83" t="n">
+        <v>596</v>
+      </c>
+      <c r="B7" s="84" t="n">
         <v>41708</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="83" t="n">
+        <v>598</v>
+      </c>
+      <c r="B8" s="84" t="n">
         <v>41731</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B9" s="83" t="n">
+        <v>600</v>
+      </c>
+      <c r="B9" s="84" t="n">
         <v>41753</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="83" t="n">
+        <v>603</v>
+      </c>
+      <c r="B10" s="84" t="n">
         <v>41792</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="83" t="n">
+        <v>605</v>
+      </c>
+      <c r="B11" s="84" t="n">
         <v>41807</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="83" t="n">
+        <v>607</v>
+      </c>
+      <c r="B12" s="84" t="n">
         <v>41876</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B13" s="84" t="n">
+        <v>609</v>
+      </c>
+      <c r="B13" s="85" t="n">
         <v>41887</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" s="84" t="n">
+        <v>611</v>
+      </c>
+      <c r="B14" s="85" t="n">
         <v>41906</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>577</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="85" t="n">
+        <v>41926</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26124,8 +26886,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26138,8 +26900,8 @@
   </sheetPr>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26163,522 +26925,548 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="83" t="n">
+        <v>193</v>
+      </c>
+      <c r="B2" s="84" t="n">
         <v>41485</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="83" t="n">
+        <v>216</v>
+      </c>
+      <c r="B3" s="84" t="n">
         <v>41547</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="5" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="83" t="n">
+        <v>212</v>
+      </c>
+      <c r="B4" s="84" t="n">
         <v>41567</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="83" t="n">
+        <v>233</v>
+      </c>
+      <c r="B5" s="84" t="n">
         <v>41649</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>602</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="5" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="83" t="n">
+        <v>247</v>
+      </c>
+      <c r="B6" s="84" t="n">
         <v>41663</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>602</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="83" t="n">
+        <v>256</v>
+      </c>
+      <c r="B7" s="84" t="n">
         <v>41670</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="5" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="83" t="n">
+        <v>276</v>
+      </c>
+      <c r="B8" s="84" t="n">
         <v>41688</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B9" s="83" t="n">
+        <v>632</v>
+      </c>
+      <c r="B9" s="84" t="n">
         <v>41710</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="83" t="n">
+        <v>285</v>
+      </c>
+      <c r="B10" s="84" t="n">
         <v>41716</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="83" t="n">
+        <v>297</v>
+      </c>
+      <c r="B11" s="84" t="n">
         <v>41738</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="5" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="83" t="n">
+        <v>306</v>
+      </c>
+      <c r="B12" s="84" t="n">
         <v>41759</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="5" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="83" t="n">
+        <v>328</v>
+      </c>
+      <c r="B13" s="84" t="n">
         <v>41771</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="5" t="s">
-        <v>605</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B14" s="83" t="n">
+        <v>340</v>
+      </c>
+      <c r="B14" s="84" t="n">
         <v>41779</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B15" s="83" t="n">
+        <v>355</v>
+      </c>
+      <c r="B15" s="84" t="n">
         <v>41784</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="83" t="n">
+        <v>370</v>
+      </c>
+      <c r="B16" s="84" t="n">
         <v>41801</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="83" t="n">
+        <v>404</v>
+      </c>
+      <c r="B17" s="84" t="n">
         <v>41807</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="83" t="n">
+        <v>429</v>
+      </c>
+      <c r="B18" s="84" t="n">
         <v>41829</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B19" s="83" t="n">
+        <v>461</v>
+      </c>
+      <c r="B19" s="84" t="n">
         <v>41880</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B20" s="83" t="n">
+        <v>491</v>
+      </c>
+      <c r="B20" s="84" t="n">
         <v>41887</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B21" s="84" t="n">
+        <v>497</v>
+      </c>
+      <c r="B21" s="85" t="n">
         <v>41909</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>500</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="85" t="n">
+        <v>41929</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>623</v>
+      <c r="E22" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26687,8 +27475,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -1652,7 +1652,7 @@
     <t>VL98-1523</t>
   </si>
   <si>
-    <t>2 5</t>
+    <t>2 5a</t>
   </si>
   <si>
     <t>VK99-4204-F2_PCR1-2</t>
@@ -2595,8 +2595,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3485,14 +3485,15 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15126,8 +15127,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15140,7 +15141,7 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -19721,8 +19722,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19735,8 +19736,8 @@
   </sheetPr>
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J235" activeCellId="0" sqref="J235"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A192" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -25094,6 +25095,7 @@
       <c r="B211" s="16" t="n">
         <v>28541</v>
       </c>
+      <c r="C211" s="0"/>
       <c r="D211" s="16" t="n">
         <v>1</v>
       </c>
@@ -25117,6 +25119,7 @@
       <c r="B212" s="16" t="n">
         <v>25268</v>
       </c>
+      <c r="C212" s="0"/>
       <c r="D212" s="16" t="n">
         <v>1</v>
       </c>
@@ -25140,6 +25143,7 @@
       <c r="B213" s="16" t="n">
         <v>5651</v>
       </c>
+      <c r="C213" s="0"/>
       <c r="D213" s="16" t="n">
         <v>1</v>
       </c>
@@ -25163,6 +25167,7 @@
       <c r="B214" s="16" t="n">
         <v>10110</v>
       </c>
+      <c r="C214" s="0"/>
       <c r="D214" s="16" t="n">
         <v>1</v>
       </c>
@@ -25186,6 +25191,7 @@
       <c r="B215" s="16" t="n">
         <v>3199</v>
       </c>
+      <c r="C215" s="0"/>
       <c r="D215" s="16" t="n">
         <v>1</v>
       </c>
@@ -25206,6 +25212,10 @@
       <c r="A216" s="82" t="s">
         <v>331</v>
       </c>
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
+      <c r="D216" s="0"/>
+      <c r="E216" s="0"/>
       <c r="F216" s="16" t="s">
         <v>497</v>
       </c>
@@ -25441,6 +25451,7 @@
       <c r="B226" s="16" t="n">
         <v>28541</v>
       </c>
+      <c r="C226" s="0"/>
       <c r="D226" s="16" t="n">
         <v>1</v>
       </c>
@@ -25464,6 +25475,7 @@
       <c r="B227" s="16" t="n">
         <v>25268</v>
       </c>
+      <c r="C227" s="0"/>
       <c r="D227" s="16" t="n">
         <v>1</v>
       </c>
@@ -25487,6 +25499,7 @@
       <c r="B228" s="16" t="n">
         <v>5651</v>
       </c>
+      <c r="C228" s="0"/>
       <c r="D228" s="16" t="n">
         <v>1</v>
       </c>
@@ -25510,6 +25523,7 @@
       <c r="B229" s="16" t="n">
         <v>10110</v>
       </c>
+      <c r="C229" s="0"/>
       <c r="D229" s="16" t="n">
         <v>1</v>
       </c>
@@ -25533,6 +25547,7 @@
       <c r="B230" s="16" t="n">
         <v>3199</v>
       </c>
+      <c r="C230" s="0"/>
       <c r="D230" s="16" t="n">
         <v>1</v>
       </c>
@@ -25580,7 +25595,7 @@
         <v>541</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>542</v>
+        <v>106</v>
       </c>
       <c r="C232" s="16" t="s">
         <v>542</v>
@@ -25743,6 +25758,9 @@
       </c>
       <c r="C238" s="16" t="n">
         <v>26585</v>
+      </c>
+      <c r="D238" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>375</v>
@@ -25762,8 +25780,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26604,8 +26622,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26616,9 +26634,9 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -26845,6 +26863,7 @@
       <c r="D13" s="5" t="s">
         <v>610</v>
       </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -26859,6 +26878,7 @@
       <c r="D14" s="5" t="s">
         <v>610</v>
       </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -26881,13 +26901,15 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27475,8 +27497,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -2595,8 +2595,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3492,8 +3492,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15127,8 +15127,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19722,8 +19722,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19737,7 +19737,7 @@
   <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A192" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
+      <selection pane="topLeft" activeCell="G238" activeCellId="0" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -25780,8 +25780,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26622,8 +26622,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26908,8 +26908,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27497,8 +27497,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="678">
   <si>
     <t>code</t>
   </si>
@@ -1322,10 +1322,13 @@
     <t>22499_PCR1</t>
   </si>
   <si>
+    <t>Thomas12304</t>
+  </si>
+  <si>
     <t>Thomas12309</t>
   </si>
   <si>
-    <t>Thomas12304</t>
+    <t>1 2 3B 4 5a 6</t>
   </si>
   <si>
     <t>VL98-1253_PCR1</t>
@@ -1679,6 +1682,51 @@
     <t>26585_PCR1-2</t>
   </si>
   <si>
+    <t>Thomas9671</t>
+  </si>
+  <si>
+    <t>Tuen47</t>
+  </si>
+  <si>
+    <t>Thomas24295</t>
+  </si>
+  <si>
+    <t>Thomas36459</t>
+  </si>
+  <si>
+    <t>Thomas34398</t>
+  </si>
+  <si>
+    <t>Thomas31835</t>
+  </si>
+  <si>
+    <t>Thomas33230</t>
+  </si>
+  <si>
+    <t>Thomas26895</t>
+  </si>
+  <si>
+    <t>VK02-4452_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK03-4298_PCR1-2</t>
+  </si>
+  <si>
+    <t>08HR-0235_PCR1-2</t>
+  </si>
+  <si>
+    <t>VK08-1001_PCR1-4</t>
+  </si>
+  <si>
+    <t>should have been VK06-6001 but – oh, well</t>
+  </si>
+  <si>
+    <t>23058_PCR1-3</t>
+  </si>
+  <si>
+    <t>12402_PCR1-3</t>
+  </si>
+  <si>
     <t>date of extraction</t>
   </si>
   <si>
@@ -2001,6 +2049,12 @@
   </si>
   <si>
     <t>/ebio/abt6_sra/years/2014/10_22/HIVSwedenNexteraXT/</t>
+  </si>
+  <si>
+    <t>Thomas samples + patient repeats</t>
+  </si>
+  <si>
+    <t>to be done</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2070,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2136,6 +2190,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Bitstream Vera Serif"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2516,10 +2575,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2580,6 +2635,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2596,8 +2655,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -15142,8 +15201,8 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15234,10 +15293,10 @@
         <f aca="false">'Samples timeline'!F3</f>
         <v>537</v>
       </c>
-      <c r="G2" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>167</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -15256,19 +15315,19 @@
       <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="str">
+      <c r="A3" s="69" t="str">
         <f aca="false">'Samples timeline'!A9</f>
         <v>VL98-1253</v>
       </c>
-      <c r="B3" s="71" t="n">
+      <c r="B3" s="70" t="n">
         <f aca="false">'Samples timeline'!B9</f>
         <v>20097</v>
       </c>
-      <c r="C3" s="72" t="n">
+      <c r="C3" s="71" t="n">
         <f aca="false">'Samples timeline'!C9</f>
         <v>35817</v>
       </c>
-      <c r="D3" s="73" t="n">
+      <c r="D3" s="72" t="n">
         <f aca="false">'Samples timeline'!D9</f>
         <v>597</v>
       </c>
@@ -15283,7 +15342,7 @@
       <c r="G3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="5" t="s">
         <v>167</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -15292,7 +15351,7 @@
       <c r="J3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>168</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -15302,19 +15361,19 @@
       <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70" t="str">
+      <c r="A4" s="69" t="str">
         <f aca="false">'Samples timeline'!A15</f>
         <v>VK99-2133</v>
       </c>
-      <c r="B4" s="71" t="n">
+      <c r="B4" s="70" t="n">
         <f aca="false">'Samples timeline'!B15</f>
         <v>20097</v>
       </c>
-      <c r="C4" s="72" t="n">
+      <c r="C4" s="71" t="n">
         <f aca="false">'Samples timeline'!C15</f>
         <v>36339</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="72" t="n">
         <f aca="false">'Samples timeline'!D15</f>
         <v>1119</v>
       </c>
@@ -15375,7 +15434,7 @@
       <c r="G5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="5" t="s">
         <v>167</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -15440,19 +15499,19 @@
       <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="str">
+      <c r="A7" s="69" t="str">
         <f aca="false">'Samples timeline'!A19</f>
         <v>VK00-1524</v>
       </c>
-      <c r="B7" s="71" t="n">
+      <c r="B7" s="70" t="n">
         <f aca="false">'Samples timeline'!B19</f>
         <v>20097</v>
       </c>
-      <c r="C7" s="72" t="n">
+      <c r="C7" s="71" t="n">
         <f aca="false">'Samples timeline'!C19</f>
         <v>36648</v>
       </c>
-      <c r="D7" s="73" t="n">
+      <c r="D7" s="72" t="n">
         <f aca="false">'Samples timeline'!D19</f>
         <v>1428</v>
       </c>
@@ -15464,19 +15523,19 @@
         <f aca="false">'Samples timeline'!F19</f>
         <v>510</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -15486,19 +15545,19 @@
       <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="70" t="str">
+      <c r="A8" s="69" t="str">
         <f aca="false">'Samples timeline'!A23</f>
         <v>VK01-2965</v>
       </c>
-      <c r="B8" s="71" t="n">
+      <c r="B8" s="70" t="n">
         <f aca="false">'Samples timeline'!B23</f>
         <v>20097</v>
       </c>
-      <c r="C8" s="72" t="n">
+      <c r="C8" s="71" t="n">
         <f aca="false">'Samples timeline'!C23</f>
         <v>37116</v>
       </c>
-      <c r="D8" s="73" t="n">
+      <c r="D8" s="72" t="n">
         <f aca="false">'Samples timeline'!D23</f>
         <v>1896</v>
       </c>
@@ -15510,19 +15569,19 @@
         <f aca="false">'Samples timeline'!F23</f>
         <v>530</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="5" t="s">
         <v>167</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="5" t="s">
         <v>167</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="5" t="s">
         <v>167</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -15532,19 +15591,19 @@
       <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="str">
+      <c r="A9" s="69" t="str">
         <f aca="false">'Samples timeline'!A26</f>
         <v>VK02-4452</v>
       </c>
-      <c r="B9" s="71" t="n">
+      <c r="B9" s="70" t="n">
         <f aca="false">'Samples timeline'!B26</f>
         <v>20097</v>
       </c>
-      <c r="C9" s="72" t="n">
+      <c r="C9" s="71" t="n">
         <f aca="false">'Samples timeline'!C26</f>
         <v>37558</v>
       </c>
-      <c r="D9" s="73" t="n">
+      <c r="D9" s="72" t="n">
         <f aca="false">'Samples timeline'!D26</f>
         <v>2338</v>
       </c>
@@ -15624,19 +15683,19 @@
       <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="str">
+      <c r="A11" s="69" t="str">
         <f aca="false">'Samples timeline'!A31</f>
         <v>VK03-4298</v>
       </c>
-      <c r="B11" s="71" t="n">
+      <c r="B11" s="70" t="n">
         <f aca="false">'Samples timeline'!B31</f>
         <v>20097</v>
       </c>
-      <c r="C11" s="72" t="n">
+      <c r="C11" s="71" t="n">
         <f aca="false">'Samples timeline'!C31</f>
         <v>37894</v>
       </c>
-      <c r="D11" s="73" t="n">
+      <c r="D11" s="72" t="n">
         <f aca="false">'Samples timeline'!D31</f>
         <v>2674</v>
       </c>
@@ -15706,7 +15765,7 @@
       <c r="J12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="5" t="s">
         <v>167</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -15716,19 +15775,19 @@
       <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="str">
+      <c r="A13" s="69" t="str">
         <f aca="false">'Samples timeline'!A35</f>
         <v>VK04-4187</v>
       </c>
-      <c r="B13" s="71" t="n">
+      <c r="B13" s="70" t="n">
         <f aca="false">'Samples timeline'!B35</f>
         <v>20097</v>
       </c>
-      <c r="C13" s="72" t="n">
+      <c r="C13" s="71" t="n">
         <f aca="false">'Samples timeline'!C35</f>
         <v>38251</v>
       </c>
-      <c r="D13" s="73" t="n">
+      <c r="D13" s="72" t="n">
         <f aca="false">'Samples timeline'!D35</f>
         <v>3031</v>
       </c>
@@ -15762,19 +15821,19 @@
       <c r="N13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="n">
+      <c r="A14" s="69" t="n">
         <f aca="false">'Samples timeline'!A60</f>
         <v>25304</v>
       </c>
-      <c r="B14" s="71" t="n">
+      <c r="B14" s="70" t="n">
         <f aca="false">'Samples timeline'!B60</f>
         <v>15363</v>
       </c>
-      <c r="C14" s="72" t="n">
+      <c r="C14" s="71" t="n">
         <f aca="false">'Samples timeline'!C60</f>
         <v>37539</v>
       </c>
-      <c r="D14" s="73" t="n">
+      <c r="D14" s="72" t="n">
         <f aca="false">'Samples timeline'!D60</f>
         <v>207.5</v>
       </c>
@@ -15808,19 +15867,19 @@
       <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70" t="n">
+      <c r="A15" s="69" t="n">
         <f aca="false">'Samples timeline'!A64</f>
         <v>28541</v>
       </c>
-      <c r="B15" s="71" t="n">
+      <c r="B15" s="70" t="n">
         <f aca="false">'Samples timeline'!B64</f>
         <v>15363</v>
       </c>
-      <c r="C15" s="72" t="n">
+      <c r="C15" s="71" t="n">
         <f aca="false">'Samples timeline'!C64</f>
         <v>38026</v>
       </c>
-      <c r="D15" s="73" t="n">
+      <c r="D15" s="72" t="n">
         <f aca="false">'Samples timeline'!D64</f>
         <v>694.5</v>
       </c>
@@ -15854,19 +15913,19 @@
       <c r="N15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="70" t="n">
+      <c r="A16" s="69" t="n">
         <f aca="false">'Samples timeline'!A66</f>
         <v>31181</v>
       </c>
-      <c r="B16" s="71" t="n">
+      <c r="B16" s="70" t="n">
         <f aca="false">'Samples timeline'!B66</f>
         <v>15363</v>
       </c>
-      <c r="C16" s="72" t="n">
+      <c r="C16" s="71" t="n">
         <f aca="false">'Samples timeline'!C66</f>
         <v>38401</v>
       </c>
-      <c r="D16" s="73" t="n">
+      <c r="D16" s="72" t="n">
         <f aca="false">'Samples timeline'!D66</f>
         <v>1069.5</v>
       </c>
@@ -15900,19 +15959,19 @@
       <c r="N16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="70" t="n">
+      <c r="A17" s="69" t="n">
         <f aca="false">'Samples timeline'!A68</f>
         <v>33460</v>
       </c>
-      <c r="B17" s="71" t="n">
+      <c r="B17" s="70" t="n">
         <f aca="false">'Samples timeline'!B68</f>
         <v>15363</v>
       </c>
-      <c r="C17" s="72" t="n">
+      <c r="C17" s="71" t="n">
         <f aca="false">'Samples timeline'!C68</f>
         <v>38720</v>
       </c>
-      <c r="D17" s="73" t="n">
+      <c r="D17" s="72" t="n">
         <f aca="false">'Samples timeline'!D68</f>
         <v>1388.5</v>
       </c>
@@ -15936,7 +15995,7 @@
       <c r="J17" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="73" t="s">
         <v>170</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -15946,19 +16005,19 @@
       <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="70" t="str">
+      <c r="A18" s="69" t="str">
         <f aca="false">'Samples timeline'!A71</f>
         <v>VK07-0259</v>
       </c>
-      <c r="B18" s="71" t="n">
+      <c r="B18" s="70" t="n">
         <f aca="false">'Samples timeline'!B71</f>
         <v>15363</v>
       </c>
-      <c r="C18" s="72" t="n">
+      <c r="C18" s="71" t="n">
         <f aca="false">'Samples timeline'!C71</f>
         <v>39093</v>
       </c>
-      <c r="D18" s="73" t="n">
+      <c r="D18" s="72" t="n">
         <f aca="false">'Samples timeline'!D71</f>
         <v>1761.5</v>
       </c>
@@ -15982,7 +16041,7 @@
       <c r="J18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -15992,19 +16051,19 @@
       <c r="N18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="70" t="str">
+      <c r="A19" s="69" t="str">
         <f aca="false">'Samples timeline'!A74</f>
         <v>VK08-1001</v>
       </c>
-      <c r="B19" s="71" t="n">
+      <c r="B19" s="70" t="n">
         <f aca="false">'Samples timeline'!B74</f>
         <v>15363</v>
       </c>
-      <c r="C19" s="72" t="n">
+      <c r="C19" s="71" t="n">
         <f aca="false">'Samples timeline'!C74</f>
         <v>39483</v>
       </c>
-      <c r="D19" s="73" t="n">
+      <c r="D19" s="72" t="n">
         <f aca="false">'Samples timeline'!D74</f>
         <v>2151.5</v>
       </c>
@@ -16022,7 +16081,7 @@
       <c r="H19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="73" t="s">
         <v>170</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -16038,19 +16097,19 @@
       <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="70" t="n">
+      <c r="A20" s="69" t="n">
         <f aca="false">'Samples timeline'!A91</f>
         <v>18601</v>
       </c>
-      <c r="B20" s="71" t="n">
+      <c r="B20" s="70" t="n">
         <f aca="false">'Samples timeline'!B91</f>
         <v>15823</v>
       </c>
-      <c r="C20" s="72" t="n">
+      <c r="C20" s="71" t="n">
         <f aca="false">'Samples timeline'!C91</f>
         <v>36552</v>
       </c>
-      <c r="D20" s="73" t="n">
+      <c r="D20" s="72" t="n">
         <f aca="false">'Samples timeline'!D91</f>
         <v>283.5</v>
       </c>
@@ -16084,19 +16143,19 @@
       <c r="N20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="n">
+      <c r="A21" s="69" t="n">
         <f aca="false">'Samples timeline'!A96</f>
         <v>20979</v>
       </c>
-      <c r="B21" s="71" t="n">
+      <c r="B21" s="70" t="n">
         <f aca="false">'Samples timeline'!B96</f>
         <v>15823</v>
       </c>
-      <c r="C21" s="72" t="n">
+      <c r="C21" s="71" t="n">
         <f aca="false">'Samples timeline'!C96</f>
         <v>36907</v>
       </c>
-      <c r="D21" s="73" t="n">
+      <c r="D21" s="72" t="n">
         <f aca="false">'Samples timeline'!D96</f>
         <v>638.5</v>
       </c>
@@ -16130,19 +16189,19 @@
       <c r="N21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="70" t="n">
+      <c r="A22" s="69" t="n">
         <f aca="false">'Samples timeline'!A100</f>
         <v>23030</v>
       </c>
-      <c r="B22" s="71" t="n">
+      <c r="B22" s="70" t="n">
         <f aca="false">'Samples timeline'!B100</f>
         <v>15823</v>
       </c>
-      <c r="C22" s="72" t="n">
+      <c r="C22" s="71" t="n">
         <f aca="false">'Samples timeline'!C100</f>
         <v>37203</v>
       </c>
-      <c r="D22" s="73" t="n">
+      <c r="D22" s="72" t="n">
         <f aca="false">'Samples timeline'!D100</f>
         <v>934.5</v>
       </c>
@@ -16176,19 +16235,19 @@
       <c r="N22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="70" t="n">
+      <c r="A23" s="69" t="n">
         <f aca="false">'Samples timeline'!A103</f>
         <v>25268</v>
       </c>
-      <c r="B23" s="71" t="n">
+      <c r="B23" s="70" t="n">
         <f aca="false">'Samples timeline'!B103</f>
         <v>15823</v>
       </c>
-      <c r="C23" s="72" t="n">
+      <c r="C23" s="71" t="n">
         <f aca="false">'Samples timeline'!C103</f>
         <v>37532</v>
       </c>
-      <c r="D23" s="73" t="n">
+      <c r="D23" s="72" t="n">
         <f aca="false">'Samples timeline'!D103</f>
         <v>1263.5</v>
       </c>
@@ -16212,7 +16271,7 @@
       <c r="J23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -16222,19 +16281,19 @@
       <c r="N23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="70" t="n">
+      <c r="A24" s="69" t="n">
         <f aca="false">'Samples timeline'!A106</f>
         <v>27548</v>
       </c>
-      <c r="B24" s="71" t="n">
+      <c r="B24" s="70" t="n">
         <f aca="false">'Samples timeline'!B106</f>
         <v>15823</v>
       </c>
-      <c r="C24" s="72" t="n">
+      <c r="C24" s="71" t="n">
         <f aca="false">'Samples timeline'!C106</f>
         <v>37882</v>
       </c>
-      <c r="D24" s="73" t="n">
+      <c r="D24" s="72" t="n">
         <f aca="false">'Samples timeline'!D106</f>
         <v>1613.5</v>
       </c>
@@ -16268,19 +16327,19 @@
       <c r="N24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="70" t="str">
+      <c r="A25" s="69" t="str">
         <f aca="false">'Samples timeline'!A109</f>
         <v>04HR-1501</v>
       </c>
-      <c r="B25" s="71" t="n">
+      <c r="B25" s="70" t="n">
         <f aca="false">'Samples timeline'!B109</f>
         <v>15823</v>
       </c>
-      <c r="C25" s="72" t="n">
+      <c r="C25" s="71" t="n">
         <f aca="false">'Samples timeline'!C109</f>
         <v>38340</v>
       </c>
-      <c r="D25" s="73" t="n">
+      <c r="D25" s="72" t="n">
         <f aca="false">'Samples timeline'!D109</f>
         <v>2071.5</v>
       </c>
@@ -16304,7 +16363,7 @@
       <c r="J25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -16314,23 +16373,23 @@
       <c r="N25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="70" t="str">
+      <c r="A26" s="69" t="str">
         <f aca="false">'Samples timeline'!A110</f>
         <v>05HR-0269</v>
       </c>
-      <c r="B26" s="70" t="n">
+      <c r="B26" s="69" t="n">
         <f aca="false">'Samples timeline'!B110</f>
         <v>15823</v>
       </c>
-      <c r="C26" s="72" t="n">
+      <c r="C26" s="71" t="n">
         <f aca="false">'Samples timeline'!C110</f>
         <v>38412</v>
       </c>
-      <c r="D26" s="73" t="n">
+      <c r="D26" s="72" t="n">
         <f aca="false">'Samples timeline'!D110</f>
         <v>2143.5</v>
       </c>
-      <c r="E26" s="70" t="n">
+      <c r="E26" s="69" t="n">
         <f aca="false">'Samples timeline'!E110</f>
         <v>38000</v>
       </c>
@@ -16341,7 +16400,7 @@
       <c r="H26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="73" t="s">
         <v>170</v>
       </c>
       <c r="J26" s="5" t="s">
@@ -16357,19 +16416,19 @@
       <c r="N26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="70" t="str">
+      <c r="A27" s="69" t="str">
         <f aca="false">'Samples timeline'!A113</f>
         <v>06HR-0145</v>
       </c>
-      <c r="B27" s="71" t="n">
+      <c r="B27" s="70" t="n">
         <f aca="false">'Samples timeline'!B113</f>
         <v>15823</v>
       </c>
-      <c r="C27" s="72" t="n">
+      <c r="C27" s="71" t="n">
         <f aca="false">'Samples timeline'!C113</f>
         <v>38750</v>
       </c>
-      <c r="D27" s="73" t="n">
+      <c r="D27" s="72" t="n">
         <f aca="false">'Samples timeline'!D113</f>
         <v>2481.5</v>
       </c>
@@ -16403,19 +16462,19 @@
       <c r="N27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70" t="str">
+      <c r="A28" s="69" t="str">
         <f aca="false">'Samples timeline'!A117</f>
         <v>07HR-0248</v>
       </c>
-      <c r="B28" s="71" t="n">
+      <c r="B28" s="70" t="n">
         <f aca="false">'Samples timeline'!B117</f>
         <v>15823</v>
       </c>
-      <c r="C28" s="72" t="n">
+      <c r="C28" s="71" t="n">
         <f aca="false">'Samples timeline'!C117</f>
         <v>39133</v>
       </c>
-      <c r="D28" s="73" t="n">
+      <c r="D28" s="72" t="n">
         <f aca="false">'Samples timeline'!D117</f>
         <v>2864.5</v>
       </c>
@@ -16427,10 +16486,10 @@
         <f aca="false">'Samples timeline'!F117</f>
         <v>310</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="73" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -16439,7 +16498,7 @@
       <c r="J28" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -16449,19 +16508,19 @@
       <c r="N28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70" t="str">
+      <c r="A29" s="69" t="str">
         <f aca="false">'Samples timeline'!A120</f>
         <v>08HR-0235</v>
       </c>
-      <c r="B29" s="71" t="n">
+      <c r="B29" s="70" t="n">
         <f aca="false">'Samples timeline'!B120</f>
         <v>15823</v>
       </c>
-      <c r="C29" s="72" t="n">
+      <c r="C29" s="71" t="n">
         <f aca="false">'Samples timeline'!C120</f>
         <v>39485</v>
       </c>
-      <c r="D29" s="73" t="n">
+      <c r="D29" s="72" t="n">
         <f aca="false">'Samples timeline'!D120</f>
         <v>3216.5</v>
       </c>
@@ -16495,19 +16554,19 @@
       <c r="N29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="70" t="n">
+      <c r="A30" s="69" t="n">
         <f aca="false">'Samples timeline'!A139</f>
         <v>20883</v>
       </c>
-      <c r="B30" s="71" t="n">
+      <c r="B30" s="70" t="n">
         <f aca="false">'Samples timeline'!B139</f>
         <v>15313</v>
       </c>
-      <c r="C30" s="72" t="n">
+      <c r="C30" s="71" t="n">
         <f aca="false">'Samples timeline'!C139</f>
         <v>36894</v>
       </c>
-      <c r="D30" s="73" t="n">
+      <c r="D30" s="72" t="n">
         <f aca="false">'Samples timeline'!D139</f>
         <v>326</v>
       </c>
@@ -16541,19 +16600,19 @@
       <c r="N30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="70" t="n">
+      <c r="A31" s="69" t="n">
         <f aca="false">'Samples timeline'!A144</f>
         <v>24060</v>
       </c>
-      <c r="B31" s="71" t="n">
+      <c r="B31" s="70" t="n">
         <f aca="false">'Samples timeline'!B144</f>
         <v>15313</v>
       </c>
-      <c r="C31" s="72" t="n">
+      <c r="C31" s="71" t="n">
         <f aca="false">'Samples timeline'!C144</f>
         <v>37363</v>
       </c>
-      <c r="D31" s="73" t="n">
+      <c r="D31" s="72" t="n">
         <f aca="false">'Samples timeline'!D144</f>
         <v>795</v>
       </c>
@@ -16587,19 +16646,19 @@
       <c r="N31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="70" t="n">
+      <c r="A32" s="69" t="n">
         <f aca="false">'Samples timeline'!A148</f>
         <v>27993</v>
       </c>
-      <c r="B32" s="71" t="n">
+      <c r="B32" s="70" t="n">
         <f aca="false">'Samples timeline'!B148</f>
         <v>15313</v>
       </c>
-      <c r="C32" s="72" t="n">
+      <c r="C32" s="71" t="n">
         <f aca="false">'Samples timeline'!C148</f>
         <v>37943</v>
       </c>
-      <c r="D32" s="73" t="n">
+      <c r="D32" s="72" t="n">
         <f aca="false">'Samples timeline'!D148</f>
         <v>1375</v>
       </c>
@@ -16633,19 +16692,19 @@
       <c r="N32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="70" t="n">
+      <c r="A33" s="69" t="n">
         <f aca="false">'Samples timeline'!A150</f>
         <v>31023</v>
       </c>
-      <c r="B33" s="71" t="n">
+      <c r="B33" s="70" t="n">
         <f aca="false">'Samples timeline'!B150</f>
         <v>15313</v>
       </c>
-      <c r="C33" s="72" t="n">
+      <c r="C33" s="71" t="n">
         <f aca="false">'Samples timeline'!C150</f>
         <v>38378</v>
       </c>
-      <c r="D33" s="73" t="n">
+      <c r="D33" s="72" t="n">
         <f aca="false">'Samples timeline'!D150</f>
         <v>1810</v>
       </c>
@@ -16679,19 +16738,19 @@
       <c r="N33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="70" t="n">
+      <c r="A34" s="69" t="n">
         <f aca="false">'Samples timeline'!A152</f>
         <v>33873</v>
       </c>
-      <c r="B34" s="71" t="n">
+      <c r="B34" s="70" t="n">
         <f aca="false">'Samples timeline'!B152</f>
         <v>15313</v>
       </c>
-      <c r="C34" s="72" t="n">
+      <c r="C34" s="71" t="n">
         <f aca="false">'Samples timeline'!C152</f>
         <v>38764</v>
       </c>
-      <c r="D34" s="73" t="n">
+      <c r="D34" s="72" t="n">
         <f aca="false">'Samples timeline'!D152</f>
         <v>2196</v>
       </c>
@@ -16725,19 +16784,19 @@
       <c r="N34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="70" t="str">
+      <c r="A35" s="69" t="str">
         <f aca="false">'Samples timeline'!A156</f>
         <v>VK07-4778</v>
       </c>
-      <c r="B35" s="71" t="n">
+      <c r="B35" s="70" t="n">
         <f aca="false">'Samples timeline'!B156</f>
         <v>15313</v>
       </c>
-      <c r="C35" s="72" t="n">
+      <c r="C35" s="71" t="n">
         <f aca="false">'Samples timeline'!C156</f>
         <v>39275</v>
       </c>
-      <c r="D35" s="73" t="n">
+      <c r="D35" s="72" t="n">
         <f aca="false">'Samples timeline'!D156</f>
         <v>2707</v>
       </c>
@@ -16773,19 +16832,19 @@
       <c r="N35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="70" t="str">
+      <c r="A36" s="69" t="str">
         <f aca="false">'Samples timeline'!A157</f>
         <v>VK08-2987</v>
       </c>
-      <c r="B36" s="71" t="n">
+      <c r="B36" s="70" t="n">
         <f aca="false">'Samples timeline'!B157</f>
         <v>15313</v>
       </c>
-      <c r="C36" s="72" t="n">
+      <c r="C36" s="71" t="n">
         <f aca="false">'Samples timeline'!C157</f>
         <v>39559</v>
       </c>
-      <c r="D36" s="73" t="n">
+      <c r="D36" s="72" t="n">
         <f aca="false">'Samples timeline'!D157</f>
         <v>2991</v>
       </c>
@@ -16819,19 +16878,19 @@
       <c r="N36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70" t="str">
+      <c r="A37" s="69" t="str">
         <f aca="false">'Samples timeline'!A159</f>
         <v>VK09-1685</v>
       </c>
-      <c r="B37" s="71" t="n">
+      <c r="B37" s="70" t="n">
         <f aca="false">'Samples timeline'!B159</f>
         <v>15313</v>
       </c>
-      <c r="C37" s="72" t="n">
+      <c r="C37" s="71" t="n">
         <f aca="false">'Samples timeline'!C159</f>
         <v>39870</v>
       </c>
-      <c r="D37" s="73" t="n">
+      <c r="D37" s="72" t="n">
         <f aca="false">'Samples timeline'!D159</f>
         <v>3302</v>
       </c>
@@ -16865,19 +16924,19 @@
       <c r="N37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="70" t="n">
+      <c r="A38" s="69" t="n">
         <f aca="false">'Samples timeline'!A170</f>
         <v>26585</v>
       </c>
-      <c r="B38" s="71" t="n">
+      <c r="B38" s="70" t="n">
         <f aca="false">'Samples timeline'!B170</f>
         <v>15376</v>
       </c>
-      <c r="C38" s="72" t="n">
+      <c r="C38" s="71" t="n">
         <f aca="false">'Samples timeline'!C170</f>
         <v>37734</v>
       </c>
-      <c r="D38" s="73" t="n">
+      <c r="D38" s="72" t="n">
         <f aca="false">'Samples timeline'!D170</f>
         <v>132</v>
       </c>
@@ -16889,7 +16948,7 @@
         <f aca="false">'Samples timeline'!F170</f>
         <v>521</v>
       </c>
-      <c r="G38" s="74" t="s">
+      <c r="G38" s="73" t="s">
         <v>170</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -16911,19 +16970,19 @@
       <c r="N38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="70" t="n">
+      <c r="A39" s="69" t="n">
         <f aca="false">'Samples timeline'!A171</f>
         <v>27717</v>
       </c>
-      <c r="B39" s="71" t="n">
+      <c r="B39" s="70" t="n">
         <f aca="false">'Samples timeline'!B171</f>
         <v>15376</v>
       </c>
-      <c r="C39" s="72" t="n">
+      <c r="C39" s="71" t="n">
         <f aca="false">'Samples timeline'!C171</f>
         <v>37903</v>
       </c>
-      <c r="D39" s="73" t="n">
+      <c r="D39" s="72" t="n">
         <f aca="false">'Samples timeline'!D171</f>
         <v>301</v>
       </c>
@@ -16947,7 +17006,7 @@
       <c r="J39" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -16957,19 +17016,19 @@
       <c r="N39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="70" t="n">
+      <c r="A40" s="69" t="n">
         <f aca="false">'Samples timeline'!A172</f>
         <v>30562</v>
       </c>
-      <c r="B40" s="71" t="n">
+      <c r="B40" s="70" t="n">
         <f aca="false">'Samples timeline'!B172</f>
         <v>15376</v>
       </c>
-      <c r="C40" s="72" t="n">
+      <c r="C40" s="71" t="n">
         <f aca="false">'Samples timeline'!C172</f>
         <v>38313</v>
       </c>
-      <c r="D40" s="73" t="n">
+      <c r="D40" s="72" t="n">
         <f aca="false">'Samples timeline'!D172</f>
         <v>711</v>
       </c>
@@ -17003,19 +17062,19 @@
       <c r="N40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="70" t="n">
+      <c r="A41" s="69" t="n">
         <f aca="false">'Samples timeline'!A174</f>
         <v>33089</v>
       </c>
-      <c r="B41" s="71" t="n">
+      <c r="B41" s="70" t="n">
         <f aca="false">'Samples timeline'!B174</f>
         <v>15376</v>
       </c>
-      <c r="C41" s="72" t="n">
+      <c r="C41" s="71" t="n">
         <f aca="false">'Samples timeline'!C174</f>
         <v>38657</v>
       </c>
-      <c r="D41" s="73" t="n">
+      <c r="D41" s="72" t="n">
         <f aca="false">'Samples timeline'!D174</f>
         <v>1055</v>
       </c>
@@ -17049,19 +17108,19 @@
       <c r="N41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="70" t="str">
+      <c r="A42" s="69" t="str">
         <f aca="false">'Samples timeline'!A176</f>
         <v>VK06-6001</v>
       </c>
-      <c r="B42" s="71" t="n">
+      <c r="B42" s="70" t="n">
         <f aca="false">'Samples timeline'!B176</f>
         <v>15376</v>
       </c>
-      <c r="C42" s="72" t="n">
+      <c r="C42" s="71" t="n">
         <f aca="false">'Samples timeline'!C176</f>
         <v>39014</v>
       </c>
-      <c r="D42" s="73" t="n">
+      <c r="D42" s="72" t="n">
         <f aca="false">'Samples timeline'!D176</f>
         <v>1412</v>
       </c>
@@ -17143,19 +17202,19 @@
       <c r="N43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="70" t="str">
+      <c r="A44" s="69" t="str">
         <f aca="false">'Samples timeline'!A180</f>
         <v>VK08-8014</v>
       </c>
-      <c r="B44" s="71" t="n">
+      <c r="B44" s="70" t="n">
         <f aca="false">'Samples timeline'!B180</f>
         <v>15376</v>
       </c>
-      <c r="C44" s="72" t="n">
+      <c r="C44" s="71" t="n">
         <f aca="false">'Samples timeline'!C180</f>
         <v>39749</v>
       </c>
-      <c r="D44" s="73" t="n">
+      <c r="D44" s="72" t="n">
         <f aca="false">'Samples timeline'!D180</f>
         <v>2147</v>
       </c>
@@ -17189,19 +17248,19 @@
       <c r="N44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="70" t="str">
+      <c r="A45" s="69" t="str">
         <f aca="false">'Samples timeline'!A192</f>
         <v>VK02-4864</v>
       </c>
-      <c r="B45" s="71" t="n">
+      <c r="B45" s="70" t="n">
         <f aca="false">'Samples timeline'!B192</f>
         <v>20529</v>
       </c>
-      <c r="C45" s="72" t="n">
+      <c r="C45" s="71" t="n">
         <f aca="false">'Samples timeline'!C192</f>
         <v>37586</v>
       </c>
-      <c r="D45" s="73" t="n">
+      <c r="D45" s="72" t="n">
         <f aca="false">'Samples timeline'!D192</f>
         <v>22.5</v>
       </c>
@@ -17262,7 +17321,7 @@
       <c r="G46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="73" t="s">
         <v>170</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -17271,7 +17330,7 @@
       <c r="J46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K46" s="74" t="s">
+      <c r="K46" s="73" t="s">
         <v>170</v>
       </c>
       <c r="L46" s="5" t="s">
@@ -17281,19 +17340,19 @@
       <c r="N46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="70" t="str">
+      <c r="A47" s="69" t="str">
         <f aca="false">'Samples timeline'!A199</f>
         <v>VK05-2685</v>
       </c>
-      <c r="B47" s="71" t="n">
+      <c r="B47" s="70" t="n">
         <f aca="false">'Samples timeline'!B199</f>
         <v>20529</v>
       </c>
-      <c r="C47" s="72" t="n">
+      <c r="C47" s="71" t="n">
         <f aca="false">'Samples timeline'!C199</f>
         <v>38498</v>
       </c>
-      <c r="D47" s="73" t="n">
+      <c r="D47" s="72" t="n">
         <f aca="false">'Samples timeline'!D199</f>
         <v>934.5</v>
       </c>
@@ -17305,19 +17364,19 @@
         <f aca="false">'Samples timeline'!F199</f>
         <v>590</v>
       </c>
-      <c r="G47" s="74" t="s">
+      <c r="G47" s="73" t="s">
         <v>175</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="74" t="s">
+      <c r="I47" s="73" t="s">
         <v>170</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K47" s="74" t="s">
+      <c r="K47" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -17327,19 +17386,19 @@
       <c r="N47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="70" t="str">
+      <c r="A48" s="69" t="str">
         <f aca="false">'Samples timeline'!A201</f>
         <v>VK06-1885</v>
       </c>
-      <c r="B48" s="71" t="n">
+      <c r="B48" s="70" t="n">
         <f aca="false">'Samples timeline'!B201</f>
         <v>20529</v>
       </c>
-      <c r="C48" s="72" t="n">
+      <c r="C48" s="71" t="n">
         <f aca="false">'Samples timeline'!C201</f>
         <v>38817</v>
       </c>
-      <c r="D48" s="73" t="n">
+      <c r="D48" s="72" t="n">
         <f aca="false">'Samples timeline'!D201</f>
         <v>1253.5</v>
       </c>
@@ -17373,19 +17432,19 @@
       <c r="N48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="70" t="str">
+      <c r="A49" s="69" t="str">
         <f aca="false">'Samples timeline'!A203</f>
         <v>VK07-4218</v>
       </c>
-      <c r="B49" s="71" t="n">
+      <c r="B49" s="70" t="n">
         <f aca="false">'Samples timeline'!B203</f>
         <v>20529</v>
       </c>
-      <c r="C49" s="72" t="n">
+      <c r="C49" s="71" t="n">
         <f aca="false">'Samples timeline'!C203</f>
         <v>39248</v>
       </c>
-      <c r="D49" s="73" t="n">
+      <c r="D49" s="72" t="n">
         <f aca="false">'Samples timeline'!D203</f>
         <v>1684.5</v>
       </c>
@@ -17403,13 +17462,13 @@
       <c r="H49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I49" s="74" t="s">
+      <c r="I49" s="73" t="s">
         <v>170</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K49" s="74" t="s">
+      <c r="K49" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L49" s="5" t="s">
@@ -17419,19 +17478,19 @@
       <c r="N49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="70" t="str">
+      <c r="A50" s="69" t="str">
         <f aca="false">'Samples timeline'!A206</f>
         <v>VK08-6634</v>
       </c>
-      <c r="B50" s="71" t="n">
+      <c r="B50" s="70" t="n">
         <f aca="false">'Samples timeline'!B206</f>
         <v>20529</v>
       </c>
-      <c r="C50" s="72" t="n">
+      <c r="C50" s="71" t="n">
         <f aca="false">'Samples timeline'!C206</f>
         <v>39702</v>
       </c>
-      <c r="D50" s="73" t="n">
+      <c r="D50" s="72" t="n">
         <f aca="false">'Samples timeline'!D206</f>
         <v>2138.5</v>
       </c>
@@ -17465,19 +17524,19 @@
       <c r="N50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="70" t="str">
+      <c r="A51" s="69" t="str">
         <f aca="false">'Samples timeline'!A209</f>
         <v>VK09-7738</v>
       </c>
-      <c r="B51" s="71" t="n">
+      <c r="B51" s="70" t="n">
         <f aca="false">'Samples timeline'!B209</f>
         <v>20529</v>
       </c>
-      <c r="C51" s="72" t="n">
+      <c r="C51" s="71" t="n">
         <f aca="false">'Samples timeline'!C209</f>
         <v>40080</v>
       </c>
-      <c r="D51" s="73" t="n">
+      <c r="D51" s="72" t="n">
         <f aca="false">'Samples timeline'!D209</f>
         <v>2516.5</v>
       </c>
@@ -17511,11 +17570,11 @@
       <c r="N51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="75" t="str">
+      <c r="A52" s="74" t="str">
         <f aca="false">'Samples timeline'!A219</f>
         <v>3640</v>
       </c>
-      <c r="B52" s="70" t="n">
+      <c r="B52" s="69" t="n">
         <f aca="false">'Samples timeline'!B219</f>
         <v>15107</v>
       </c>
@@ -17527,7 +17586,7 @@
         <f aca="false">'Samples timeline'!D219</f>
         <v>99</v>
       </c>
-      <c r="E52" s="70" t="n">
+      <c r="E52" s="69" t="n">
         <f aca="false">'Samples timeline'!E219</f>
         <v>0</v>
       </c>
@@ -17550,7 +17609,7 @@
       <c r="L52" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M52" s="76" t="s">
+      <c r="M52" s="75" t="s">
         <v>176</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -17558,11 +17617,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="70" t="str">
+      <c r="A53" s="69" t="str">
         <f aca="false">'Samples timeline'!A223</f>
         <v>4698</v>
       </c>
-      <c r="B53" s="70" t="n">
+      <c r="B53" s="69" t="n">
         <f aca="false">'Samples timeline'!B223</f>
         <v>15107</v>
       </c>
@@ -17574,38 +17633,38 @@
         <f aca="false">'Samples timeline'!D223</f>
         <v>479</v>
       </c>
-      <c r="E53" s="70" t="n">
+      <c r="E53" s="69" t="n">
         <f aca="false">'Samples timeline'!E223</f>
         <v>0</v>
       </c>
       <c r="F53" s="62"/>
-      <c r="G53" s="74" t="s">
+      <c r="G53" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H53" s="74" t="s">
+      <c r="H53" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="J53" s="74" t="s">
+      <c r="J53" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="74" t="s">
+      <c r="K53" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L53" s="74" t="s">
+      <c r="L53" s="73" t="s">
         <v>170</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="70" t="str">
+      <c r="A54" s="69" t="str">
         <f aca="false">'Samples timeline'!A226</f>
         <v>5651</v>
       </c>
-      <c r="B54" s="70" t="n">
+      <c r="B54" s="69" t="n">
         <f aca="false">'Samples timeline'!B226</f>
         <v>15107</v>
       </c>
@@ -17617,38 +17676,38 @@
         <f aca="false">'Samples timeline'!D226</f>
         <v>822</v>
       </c>
-      <c r="E54" s="70" t="n">
+      <c r="E54" s="69" t="n">
         <f aca="false">'Samples timeline'!E226</f>
         <v>0</v>
       </c>
       <c r="F54" s="62"/>
-      <c r="G54" s="74" t="s">
+      <c r="G54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="I54" s="74" t="s">
+      <c r="I54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="74" t="s">
+      <c r="J54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="K54" s="74" t="s">
+      <c r="K54" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="73" t="s">
         <v>170</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="70" t="str">
+      <c r="A55" s="69" t="str">
         <f aca="false">'Samples timeline'!A240</f>
         <v>8452</v>
       </c>
-      <c r="B55" s="70" t="n">
+      <c r="B55" s="69" t="n">
         <f aca="false">'Samples timeline'!B240</f>
         <v>15107</v>
       </c>
@@ -17660,46 +17719,46 @@
         <f aca="false">'Samples timeline'!D240</f>
         <v>1905</v>
       </c>
-      <c r="E55" s="70" t="n">
+      <c r="E55" s="69" t="n">
         <f aca="false">'Samples timeline'!E240</f>
         <v>0</v>
       </c>
       <c r="F55" s="62"/>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="73" t="s">
         <v>171</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="74" t="s">
+      <c r="J55" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="K55" s="74" t="s">
+      <c r="K55" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="L55" s="74" t="s">
+      <c r="L55" s="73" t="s">
         <v>171</v>
       </c>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="70" t="n">
+      <c r="A56" s="69" t="n">
         <f aca="false">'Samples timeline'!A244</f>
         <v>10264</v>
       </c>
-      <c r="B56" s="71" t="n">
+      <c r="B56" s="70" t="n">
         <f aca="false">'Samples timeline'!B244</f>
         <v>15107</v>
       </c>
-      <c r="C56" s="72" t="n">
+      <c r="C56" s="71" t="n">
         <f aca="false">'Samples timeline'!C244</f>
         <v>35290</v>
       </c>
-      <c r="D56" s="73" t="n">
+      <c r="D56" s="72" t="n">
         <f aca="false">'Samples timeline'!D244</f>
         <v>2248</v>
       </c>
@@ -17714,7 +17773,7 @@
       <c r="G56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H56" s="74" t="s">
+      <c r="H56" s="73" t="s">
         <v>171</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -17723,7 +17782,7 @@
       <c r="J56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K56" s="74" t="s">
+      <c r="K56" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L56" s="5" t="s">
@@ -17733,19 +17792,19 @@
       <c r="N56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="70" t="n">
+      <c r="A57" s="69" t="n">
         <f aca="false">'Samples timeline'!A245</f>
         <v>10756</v>
       </c>
-      <c r="B57" s="71" t="n">
+      <c r="B57" s="70" t="n">
         <f aca="false">'Samples timeline'!B245</f>
         <v>15107</v>
       </c>
-      <c r="C57" s="72" t="n">
+      <c r="C57" s="71" t="n">
         <f aca="false">'Samples timeline'!C245</f>
         <v>35353</v>
       </c>
-      <c r="D57" s="73" t="n">
+      <c r="D57" s="72" t="n">
         <f aca="false">'Samples timeline'!D245</f>
         <v>2311</v>
       </c>
@@ -17776,19 +17835,19 @@
       <c r="N57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="70" t="n">
+      <c r="A58" s="69" t="n">
         <f aca="false">'Samples timeline'!A249</f>
         <v>12879</v>
       </c>
-      <c r="B58" s="71" t="n">
+      <c r="B58" s="70" t="n">
         <f aca="false">'Samples timeline'!B249</f>
         <v>15107</v>
       </c>
-      <c r="C58" s="72" t="n">
+      <c r="C58" s="71" t="n">
         <f aca="false">'Samples timeline'!C249</f>
         <v>35710</v>
       </c>
-      <c r="D58" s="73" t="n">
+      <c r="D58" s="72" t="n">
         <f aca="false">'Samples timeline'!D249</f>
         <v>2668</v>
       </c>
@@ -17809,7 +17868,7 @@
       <c r="I58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J58" s="74" t="s">
+      <c r="J58" s="73" t="s">
         <v>177</v>
       </c>
       <c r="K58" s="5" t="s">
@@ -17822,19 +17881,19 @@
       <c r="N58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="70" t="n">
+      <c r="A59" s="69" t="n">
         <f aca="false">'Samples timeline'!A252</f>
         <v>14908</v>
       </c>
-      <c r="B59" s="71" t="n">
+      <c r="B59" s="70" t="n">
         <f aca="false">'Samples timeline'!B252</f>
         <v>15107</v>
       </c>
-      <c r="C59" s="72" t="n">
+      <c r="C59" s="71" t="n">
         <f aca="false">'Samples timeline'!C252</f>
         <v>36012</v>
       </c>
-      <c r="D59" s="73" t="n">
+      <c r="D59" s="72" t="n">
         <f aca="false">'Samples timeline'!D252</f>
         <v>2970</v>
       </c>
@@ -17868,19 +17927,19 @@
       <c r="N59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="70" t="n">
+      <c r="A60" s="69" t="n">
         <f aca="false">'Samples timeline'!A258</f>
         <v>18140</v>
       </c>
-      <c r="B60" s="71" t="n">
+      <c r="B60" s="70" t="n">
         <f aca="false">'Samples timeline'!B258</f>
         <v>15107</v>
       </c>
-      <c r="C60" s="72" t="n">
+      <c r="C60" s="71" t="n">
         <f aca="false">'Samples timeline'!C258</f>
         <v>36479</v>
       </c>
-      <c r="D60" s="73" t="n">
+      <c r="D60" s="72" t="n">
         <f aca="false">'Samples timeline'!D258</f>
         <v>3437</v>
       </c>
@@ -17914,19 +17973,19 @@
       <c r="N60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="70" t="n">
+      <c r="A61" s="69" t="n">
         <f aca="false">'Samples timeline'!A264</f>
         <v>21484</v>
       </c>
-      <c r="B61" s="71" t="n">
+      <c r="B61" s="70" t="n">
         <f aca="false">'Samples timeline'!B264</f>
         <v>15107</v>
       </c>
-      <c r="C61" s="72" t="n">
+      <c r="C61" s="71" t="n">
         <f aca="false">'Samples timeline'!C264</f>
         <v>36976</v>
       </c>
-      <c r="D61" s="73" t="n">
+      <c r="D61" s="72" t="n">
         <f aca="false">'Samples timeline'!D264</f>
         <v>3934</v>
       </c>
@@ -17960,19 +18019,19 @@
       <c r="N61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="70" t="n">
+      <c r="A62" s="69" t="n">
         <f aca="false">'Samples timeline'!A272</f>
         <v>24890</v>
       </c>
-      <c r="B62" s="71" t="n">
+      <c r="B62" s="70" t="n">
         <f aca="false">'Samples timeline'!B272</f>
         <v>15107</v>
       </c>
-      <c r="C62" s="72" t="n">
+      <c r="C62" s="71" t="n">
         <f aca="false">'Samples timeline'!C272</f>
         <v>37487</v>
       </c>
-      <c r="D62" s="73" t="n">
+      <c r="D62" s="72" t="n">
         <f aca="false">'Samples timeline'!D272</f>
         <v>4445</v>
       </c>
@@ -18006,19 +18065,19 @@
       <c r="N62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="70" t="n">
+      <c r="A63" s="69" t="n">
         <f aca="false">'Samples timeline'!A278</f>
         <v>28929</v>
       </c>
-      <c r="B63" s="71" t="n">
+      <c r="B63" s="70" t="n">
         <f aca="false">'Samples timeline'!B278</f>
         <v>15107</v>
       </c>
-      <c r="C63" s="72" t="n">
+      <c r="C63" s="71" t="n">
         <f aca="false">'Samples timeline'!C278</f>
         <v>38076</v>
       </c>
-      <c r="D63" s="73" t="n">
+      <c r="D63" s="72" t="n">
         <f aca="false">'Samples timeline'!D278</f>
         <v>5034</v>
       </c>
@@ -18052,19 +18111,19 @@
       <c r="N63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="70" t="n">
+      <c r="A64" s="69" t="n">
         <f aca="false">'Samples timeline'!A282</f>
         <v>31440</v>
       </c>
-      <c r="B64" s="71" t="n">
+      <c r="B64" s="70" t="n">
         <f aca="false">'Samples timeline'!B282</f>
         <v>15107</v>
       </c>
-      <c r="C64" s="72" t="n">
+      <c r="C64" s="71" t="n">
         <f aca="false">'Samples timeline'!C282</f>
         <v>38434</v>
       </c>
-      <c r="D64" s="73" t="n">
+      <c r="D64" s="72" t="n">
         <f aca="false">'Samples timeline'!D282</f>
         <v>5392</v>
       </c>
@@ -18088,7 +18147,7 @@
       <c r="J64" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K64" s="74" t="s">
+      <c r="K64" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L64" s="5" t="s">
@@ -18098,19 +18157,19 @@
       <c r="N64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="70" t="n">
+      <c r="A65" s="69" t="n">
         <f aca="false">'Samples timeline'!A286</f>
         <v>34493</v>
       </c>
-      <c r="B65" s="71" t="n">
+      <c r="B65" s="70" t="n">
         <f aca="false">'Samples timeline'!B286</f>
         <v>15107</v>
       </c>
-      <c r="C65" s="72" t="n">
+      <c r="C65" s="71" t="n">
         <f aca="false">'Samples timeline'!C286</f>
         <v>38853</v>
       </c>
-      <c r="D65" s="73" t="n">
+      <c r="D65" s="72" t="n">
         <f aca="false">'Samples timeline'!D286</f>
         <v>5811</v>
       </c>
@@ -18144,19 +18203,19 @@
       <c r="N65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="70" t="n">
+      <c r="A66" s="69" t="n">
         <f aca="false">'Samples timeline'!A307</f>
         <v>14799</v>
       </c>
-      <c r="B66" s="71" t="n">
+      <c r="B66" s="70" t="n">
         <f aca="false">'Samples timeline'!B307</f>
         <v>9669</v>
       </c>
-      <c r="C66" s="72" t="n">
+      <c r="C66" s="71" t="n">
         <f aca="false">'Samples timeline'!C307</f>
         <v>35991</v>
       </c>
-      <c r="D66" s="73" t="n">
+      <c r="D66" s="72" t="n">
         <f aca="false">'Samples timeline'!D307</f>
         <v>171.5</v>
       </c>
@@ -18183,26 +18242,26 @@
       <c r="K66" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L66" s="74" t="s">
+      <c r="L66" s="73" t="s">
         <v>171</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="70" t="n">
+      <c r="A67" s="69" t="n">
         <f aca="false">'Samples timeline'!A308</f>
         <v>15611</v>
       </c>
-      <c r="B67" s="71" t="n">
+      <c r="B67" s="70" t="n">
         <f aca="false">'Samples timeline'!B308</f>
         <v>9669</v>
       </c>
-      <c r="C67" s="72" t="n">
+      <c r="C67" s="71" t="n">
         <f aca="false">'Samples timeline'!C308</f>
         <v>36104</v>
       </c>
-      <c r="D67" s="73" t="n">
+      <c r="D67" s="72" t="n">
         <f aca="false">'Samples timeline'!D308</f>
         <v>284.5</v>
       </c>
@@ -18233,19 +18292,19 @@
       <c r="N67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="70" t="n">
+      <c r="A68" s="69" t="n">
         <f aca="false">'Samples timeline'!A312</f>
         <v>18113</v>
       </c>
-      <c r="B68" s="71" t="n">
+      <c r="B68" s="70" t="n">
         <f aca="false">'Samples timeline'!B312</f>
         <v>9669</v>
       </c>
-      <c r="C68" s="72" t="n">
+      <c r="C68" s="71" t="n">
         <f aca="false">'Samples timeline'!C312</f>
         <v>36474</v>
       </c>
-      <c r="D68" s="73" t="n">
+      <c r="D68" s="72" t="n">
         <f aca="false">'Samples timeline'!D312</f>
         <v>654.5</v>
       </c>
@@ -18279,19 +18338,19 @@
       <c r="N68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="70" t="n">
+      <c r="A69" s="69" t="n">
         <f aca="false">'Samples timeline'!A317</f>
         <v>21006</v>
       </c>
-      <c r="B69" s="71" t="n">
+      <c r="B69" s="70" t="n">
         <f aca="false">'Samples timeline'!B317</f>
         <v>9669</v>
       </c>
-      <c r="C69" s="72" t="n">
+      <c r="C69" s="71" t="n">
         <f aca="false">'Samples timeline'!C317</f>
         <v>36907</v>
       </c>
-      <c r="D69" s="73" t="n">
+      <c r="D69" s="72" t="n">
         <f aca="false">'Samples timeline'!D317</f>
         <v>1087.5</v>
       </c>
@@ -18325,19 +18384,19 @@
       <c r="N69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="70" t="n">
+      <c r="A70" s="69" t="n">
         <f aca="false">'Samples timeline'!A321</f>
         <v>23919</v>
       </c>
-      <c r="B70" s="71" t="n">
+      <c r="B70" s="70" t="n">
         <f aca="false">'Samples timeline'!B321</f>
         <v>9669</v>
       </c>
-      <c r="C70" s="72" t="n">
+      <c r="C70" s="71" t="n">
         <f aca="false">'Samples timeline'!C321</f>
         <v>37341</v>
       </c>
-      <c r="D70" s="73" t="n">
+      <c r="D70" s="72" t="n">
         <f aca="false">'Samples timeline'!D321</f>
         <v>1521.5</v>
       </c>
@@ -18371,19 +18430,19 @@
       <c r="N70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="70" t="n">
+      <c r="A71" s="69" t="n">
         <f aca="false">'Samples timeline'!A325</f>
         <v>26477</v>
       </c>
-      <c r="B71" s="71" t="n">
+      <c r="B71" s="70" t="n">
         <f aca="false">'Samples timeline'!B325</f>
         <v>9669</v>
       </c>
-      <c r="C71" s="72" t="n">
+      <c r="C71" s="71" t="n">
         <f aca="false">'Samples timeline'!C325</f>
         <v>37714</v>
       </c>
-      <c r="D71" s="73" t="n">
+      <c r="D71" s="72" t="n">
         <f aca="false">'Samples timeline'!D325</f>
         <v>1894.5</v>
       </c>
@@ -18417,19 +18476,19 @@
       <c r="N71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="70" t="n">
+      <c r="A72" s="69" t="n">
         <f aca="false">'Samples timeline'!A329</f>
         <v>29184</v>
       </c>
-      <c r="B72" s="71" t="n">
+      <c r="B72" s="70" t="n">
         <f aca="false">'Samples timeline'!B329</f>
         <v>9669</v>
       </c>
-      <c r="C72" s="72" t="n">
+      <c r="C72" s="71" t="n">
         <f aca="false">'Samples timeline'!C329</f>
         <v>38112</v>
       </c>
-      <c r="D72" s="73" t="n">
+      <c r="D72" s="72" t="n">
         <f aca="false">'Samples timeline'!D329</f>
         <v>2292.5</v>
       </c>
@@ -18463,19 +18522,19 @@
       <c r="N72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="70" t="n">
+      <c r="A73" s="69" t="n">
         <f aca="false">'Samples timeline'!A359</f>
         <v>11686</v>
       </c>
-      <c r="B73" s="71" t="n">
+      <c r="B73" s="70" t="n">
         <f aca="false">'Samples timeline'!B359</f>
         <v>15241</v>
       </c>
-      <c r="C73" s="72" t="n">
+      <c r="C73" s="71" t="n">
         <f aca="false">'Samples timeline'!C359</f>
         <v>35499</v>
       </c>
-      <c r="D73" s="73" t="n">
+      <c r="D73" s="72" t="n">
         <f aca="false">'Samples timeline'!D359</f>
         <v>327</v>
       </c>
@@ -18509,19 +18568,19 @@
       <c r="N73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="70" t="n">
+      <c r="A74" s="69" t="n">
         <f aca="false">'Samples timeline'!A360</f>
         <v>12402</v>
       </c>
-      <c r="B74" s="71" t="n">
+      <c r="B74" s="70" t="n">
         <f aca="false">'Samples timeline'!B360</f>
         <v>15241</v>
       </c>
-      <c r="C74" s="72" t="n">
+      <c r="C74" s="71" t="n">
         <f aca="false">'Samples timeline'!C360</f>
         <v>35620</v>
       </c>
-      <c r="D74" s="73" t="n">
+      <c r="D74" s="72" t="n">
         <f aca="false">'Samples timeline'!D360</f>
         <v>448</v>
       </c>
@@ -18552,19 +18611,19 @@
       <c r="N74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="70" t="n">
+      <c r="A75" s="69" t="n">
         <f aca="false">'Samples timeline'!A365</f>
         <v>16311</v>
       </c>
-      <c r="B75" s="71" t="n">
+      <c r="B75" s="70" t="n">
         <f aca="false">'Samples timeline'!B365</f>
         <v>15241</v>
       </c>
-      <c r="C75" s="72" t="n">
+      <c r="C75" s="71" t="n">
         <f aca="false">'Samples timeline'!C365</f>
         <v>36206</v>
       </c>
-      <c r="D75" s="73" t="n">
+      <c r="D75" s="72" t="n">
         <f aca="false">'Samples timeline'!D365</f>
         <v>1034</v>
       </c>
@@ -18598,19 +18657,19 @@
       <c r="N75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="70" t="n">
+      <c r="A76" s="69" t="n">
         <f aca="false">'Samples timeline'!A369</f>
         <v>18798</v>
       </c>
-      <c r="B76" s="71" t="n">
+      <c r="B76" s="70" t="n">
         <f aca="false">'Samples timeline'!B369</f>
         <v>15241</v>
       </c>
-      <c r="C76" s="72" t="n">
+      <c r="C76" s="71" t="n">
         <f aca="false">'Samples timeline'!C369</f>
         <v>36586</v>
       </c>
-      <c r="D76" s="73" t="n">
+      <c r="D76" s="72" t="n">
         <f aca="false">'Samples timeline'!D369</f>
         <v>1414</v>
       </c>
@@ -18631,10 +18690,10 @@
       <c r="I76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J76" s="74" t="s">
+      <c r="J76" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="K76" s="74" t="s">
+      <c r="K76" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L76" s="5" t="s">
@@ -18644,19 +18703,19 @@
       <c r="N76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="70" t="n">
+      <c r="A77" s="69" t="n">
         <f aca="false">'Samples timeline'!A375</f>
         <v>23058</v>
       </c>
-      <c r="B77" s="71" t="n">
+      <c r="B77" s="70" t="n">
         <f aca="false">'Samples timeline'!B375</f>
         <v>15241</v>
       </c>
-      <c r="C77" s="72" t="n">
+      <c r="C77" s="71" t="n">
         <f aca="false">'Samples timeline'!C375</f>
         <v>37208</v>
       </c>
-      <c r="D77" s="73" t="n">
+      <c r="D77" s="72" t="n">
         <f aca="false">'Samples timeline'!D375</f>
         <v>2036</v>
       </c>
@@ -18690,19 +18749,19 @@
       <c r="N77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="70" t="n">
+      <c r="A78" s="69" t="n">
         <f aca="false">'Samples timeline'!A379</f>
         <v>25775</v>
       </c>
-      <c r="B78" s="71" t="n">
+      <c r="B78" s="70" t="n">
         <f aca="false">'Samples timeline'!B379</f>
         <v>15241</v>
       </c>
-      <c r="C78" s="72" t="n">
+      <c r="C78" s="71" t="n">
         <f aca="false">'Samples timeline'!C379</f>
         <v>37607</v>
       </c>
-      <c r="D78" s="73" t="n">
+      <c r="D78" s="72" t="n">
         <f aca="false">'Samples timeline'!D379</f>
         <v>2435</v>
       </c>
@@ -18736,19 +18795,19 @@
       <c r="N78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="70" t="n">
+      <c r="A79" s="69" t="n">
         <f aca="false">'Samples timeline'!A382</f>
         <v>28338</v>
       </c>
-      <c r="B79" s="71" t="n">
+      <c r="B79" s="70" t="n">
         <f aca="false">'Samples timeline'!B382</f>
         <v>15241</v>
       </c>
-      <c r="C79" s="72" t="n">
+      <c r="C79" s="71" t="n">
         <f aca="false">'Samples timeline'!C382</f>
         <v>38001</v>
       </c>
-      <c r="D79" s="73" t="n">
+      <c r="D79" s="72" t="n">
         <f aca="false">'Samples timeline'!D382</f>
         <v>2829</v>
       </c>
@@ -18782,19 +18841,19 @@
       <c r="N79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="70" t="n">
+      <c r="A80" s="69" t="n">
         <f aca="false">'Samples timeline'!A385</f>
         <v>30847</v>
       </c>
-      <c r="B80" s="71" t="n">
+      <c r="B80" s="70" t="n">
         <f aca="false">'Samples timeline'!B385</f>
         <v>15241</v>
       </c>
-      <c r="C80" s="72" t="n">
+      <c r="C80" s="71" t="n">
         <f aca="false">'Samples timeline'!C385</f>
         <v>38348</v>
       </c>
-      <c r="D80" s="73" t="n">
+      <c r="D80" s="72" t="n">
         <f aca="false">'Samples timeline'!D385</f>
         <v>3176</v>
       </c>
@@ -18828,19 +18887,19 @@
       <c r="N80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="70" t="n">
+      <c r="A81" s="69" t="n">
         <f aca="false">'Samples timeline'!A401</f>
         <v>3174</v>
       </c>
-      <c r="B81" s="71" t="n">
+      <c r="B81" s="70" t="n">
         <f aca="false">'Samples timeline'!B401</f>
         <v>15034</v>
       </c>
-      <c r="C81" s="72" t="n">
+      <c r="C81" s="71" t="n">
         <f aca="false">'Samples timeline'!C401</f>
         <v>33045</v>
       </c>
-      <c r="D81" s="73" t="n">
+      <c r="D81" s="72" t="n">
         <f aca="false">'Samples timeline'!D401</f>
         <v>-5.5</v>
       </c>
@@ -18874,19 +18933,19 @@
       <c r="N81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="70" t="n">
+      <c r="A82" s="69" t="n">
         <f aca="false">'Samples timeline'!A402</f>
         <v>3199</v>
       </c>
-      <c r="B82" s="71" t="n">
+      <c r="B82" s="70" t="n">
         <f aca="false">'Samples timeline'!B402</f>
         <v>15034</v>
       </c>
-      <c r="C82" s="72" t="n">
+      <c r="C82" s="71" t="n">
         <f aca="false">'Samples timeline'!C402</f>
         <v>33078</v>
       </c>
-      <c r="D82" s="73" t="n">
+      <c r="D82" s="72" t="n">
         <f aca="false">'Samples timeline'!D402</f>
         <v>27.5</v>
       </c>
@@ -18910,7 +18969,7 @@
       <c r="J82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K82" s="74" t="s">
+      <c r="K82" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L82" s="5" t="s">
@@ -18920,19 +18979,19 @@
       <c r="N82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="70" t="n">
+      <c r="A83" s="69" t="n">
         <f aca="false">'Samples timeline'!A403</f>
         <v>3265</v>
       </c>
-      <c r="B83" s="71" t="n">
+      <c r="B83" s="70" t="n">
         <f aca="false">'Samples timeline'!B403</f>
         <v>15034</v>
       </c>
-      <c r="C83" s="72" t="n">
+      <c r="C83" s="71" t="n">
         <f aca="false">'Samples timeline'!C403</f>
         <v>33080</v>
       </c>
-      <c r="D83" s="73" t="n">
+      <c r="D83" s="72" t="n">
         <f aca="false">'Samples timeline'!D403</f>
         <v>29.5</v>
       </c>
@@ -18956,29 +19015,29 @@
       <c r="J83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K83" s="74" t="s">
+      <c r="K83" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L83" s="74" t="s">
+      <c r="L83" s="73" t="s">
         <v>170</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="70" t="n">
+      <c r="A84" s="69" t="n">
         <f aca="false">'Samples timeline'!A406</f>
         <v>3722</v>
       </c>
-      <c r="B84" s="71" t="n">
+      <c r="B84" s="70" t="n">
         <f aca="false">'Samples timeline'!B406</f>
         <v>15034</v>
       </c>
-      <c r="C84" s="72" t="n">
+      <c r="C84" s="71" t="n">
         <f aca="false">'Samples timeline'!C406</f>
         <v>33227</v>
       </c>
-      <c r="D84" s="73" t="n">
+      <c r="D84" s="72" t="n">
         <f aca="false">'Samples timeline'!D406</f>
         <v>176.5</v>
       </c>
@@ -18990,68 +19049,68 @@
         <f aca="false">'Samples timeline'!F406</f>
         <v>410</v>
       </c>
-      <c r="G84" s="74" t="s">
+      <c r="G84" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H84" s="74" t="s">
+      <c r="H84" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="I84" s="74" t="s">
+      <c r="I84" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="J84" s="74" t="s">
+      <c r="J84" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="K84" s="74" t="s">
+      <c r="K84" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L84" s="74" t="s">
+      <c r="L84" s="73" t="s">
         <v>170</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="75" t="n">
+      <c r="A85" s="74" t="n">
         <f aca="false">'Samples timeline'!A407</f>
         <v>3968</v>
       </c>
-      <c r="B85" s="70" t="n">
+      <c r="B85" s="69" t="n">
         <f aca="false">'Samples timeline'!B407</f>
         <v>15034</v>
       </c>
-      <c r="C85" s="72" t="n">
+      <c r="C85" s="71" t="n">
         <f aca="false">'Samples timeline'!C407</f>
         <v>33331</v>
       </c>
-      <c r="D85" s="73" t="n">
+      <c r="D85" s="72" t="n">
         <f aca="false">'Samples timeline'!D407</f>
         <v>280.5</v>
       </c>
-      <c r="E85" s="70" t="n">
+      <c r="E85" s="69" t="n">
         <f aca="false">'Samples timeline'!E407</f>
         <v>0</v>
       </c>
       <c r="F85" s="62"/>
-      <c r="G85" s="74" t="s">
+      <c r="G85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H85" s="74" t="s">
+      <c r="H85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="I85" s="74" t="s">
+      <c r="I85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="J85" s="74" t="s">
+      <c r="J85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="K85" s="74" t="s">
+      <c r="K85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L85" s="74" t="s">
+      <c r="L85" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="M85" s="76" t="s">
+      <c r="M85" s="75" t="s">
         <v>178</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -19059,23 +19118,23 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="70" t="n">
+      <c r="A86" s="69" t="n">
         <f aca="false">'Samples timeline'!A408</f>
         <v>4158</v>
       </c>
-      <c r="B86" s="70" t="n">
+      <c r="B86" s="69" t="n">
         <f aca="false">'Samples timeline'!B408</f>
         <v>15034</v>
       </c>
-      <c r="C86" s="72" t="n">
+      <c r="C86" s="71" t="n">
         <f aca="false">'Samples timeline'!C408</f>
         <v>33386</v>
       </c>
-      <c r="D86" s="73" t="n">
+      <c r="D86" s="72" t="n">
         <f aca="false">'Samples timeline'!D408</f>
         <v>335.5</v>
       </c>
-      <c r="E86" s="70" t="n">
+      <c r="E86" s="69" t="n">
         <f aca="false">'Samples timeline'!E408</f>
         <v>0</v>
       </c>
@@ -19092,19 +19151,19 @@
       <c r="N86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="70" t="n">
+      <c r="A87" s="69" t="n">
         <f aca="false">'Samples timeline'!A410</f>
         <v>4955</v>
       </c>
-      <c r="B87" s="71" t="n">
+      <c r="B87" s="70" t="n">
         <f aca="false">'Samples timeline'!B410</f>
         <v>15034</v>
       </c>
-      <c r="C87" s="72" t="n">
+      <c r="C87" s="71" t="n">
         <f aca="false">'Samples timeline'!C410</f>
         <v>33542</v>
       </c>
-      <c r="D87" s="73" t="n">
+      <c r="D87" s="72" t="n">
         <f aca="false">'Samples timeline'!D410</f>
         <v>491.5</v>
       </c>
@@ -19119,30 +19178,30 @@
       <c r="G87" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H87" s="74" t="s">
+      <c r="H87" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="I87" s="74" t="s">
+      <c r="I87" s="73" t="s">
         <v>171</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K87" s="74" t="s">
+      <c r="K87" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="L87" s="74" t="s">
+      <c r="L87" s="73" t="s">
         <v>171</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="70" t="n">
+      <c r="A88" s="69" t="n">
         <f aca="false">'Samples timeline'!A415</f>
         <v>5862</v>
       </c>
-      <c r="B88" s="70" t="n">
+      <c r="B88" s="69" t="n">
         <f aca="false">'Samples timeline'!B415</f>
         <v>15034</v>
       </c>
@@ -19154,7 +19213,7 @@
         <f aca="false">'Samples timeline'!D415</f>
         <v>873.5</v>
       </c>
-      <c r="E88" s="70" t="n">
+      <c r="E88" s="69" t="n">
         <f aca="false">'Samples timeline'!E415</f>
         <v>0</v>
       </c>
@@ -19174,29 +19233,29 @@
       <c r="J88" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K88" s="74" t="s">
+      <c r="K88" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M88" s="77"/>
+      <c r="M88" s="76"/>
       <c r="N88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="70" t="n">
+      <c r="A89" s="69" t="n">
         <f aca="false">'Samples timeline'!A416</f>
         <v>6154</v>
       </c>
-      <c r="B89" s="71" t="n">
+      <c r="B89" s="70" t="n">
         <f aca="false">'Samples timeline'!B416</f>
         <v>15034</v>
       </c>
-      <c r="C89" s="72" t="n">
+      <c r="C89" s="71" t="n">
         <f aca="false">'Samples timeline'!C416</f>
         <v>34016</v>
       </c>
-      <c r="D89" s="73" t="n">
+      <c r="D89" s="72" t="n">
         <f aca="false">'Samples timeline'!D416</f>
         <v>965.5</v>
       </c>
@@ -19217,32 +19276,32 @@
       <c r="I89" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J89" s="74" t="s">
+      <c r="J89" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="K89" s="74" t="s">
+      <c r="K89" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="L89" s="74" t="s">
+      <c r="L89" s="73" t="s">
         <v>171</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="75" t="n">
+      <c r="A90" s="74" t="n">
         <f aca="false">'Samples timeline'!A428</f>
         <v>7686</v>
       </c>
-      <c r="B90" s="71" t="n">
+      <c r="B90" s="70" t="n">
         <f aca="false">'Samples timeline'!B428</f>
         <v>15034</v>
       </c>
-      <c r="C90" s="72" t="n">
+      <c r="C90" s="71" t="n">
         <f aca="false">'Samples timeline'!C428</f>
         <v>34571</v>
       </c>
-      <c r="D90" s="73" t="n">
+      <c r="D90" s="72" t="n">
         <f aca="false">'Samples timeline'!D428</f>
         <v>1520.5</v>
       </c>
@@ -19263,13 +19322,13 @@
       <c r="J90" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K90" s="74" t="s">
+      <c r="K90" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M90" s="76" t="s">
+      <c r="M90" s="75" t="s">
         <v>180</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -19277,19 +19336,19 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="70" t="n">
+      <c r="A91" s="69" t="n">
         <f aca="false">'Samples timeline'!A430</f>
         <v>7848</v>
       </c>
-      <c r="B91" s="71" t="n">
+      <c r="B91" s="70" t="n">
         <f aca="false">'Samples timeline'!B430</f>
         <v>15034</v>
       </c>
-      <c r="C91" s="72" t="n">
+      <c r="C91" s="71" t="n">
         <f aca="false">'Samples timeline'!C430</f>
         <v>34618</v>
       </c>
-      <c r="D91" s="73" t="n">
+      <c r="D91" s="72" t="n">
         <f aca="false">'Samples timeline'!D430</f>
         <v>1567.5</v>
       </c>
@@ -19298,44 +19357,44 @@
         <v>0</v>
       </c>
       <c r="F91" s="62"/>
-      <c r="G91" s="74" t="s">
+      <c r="G91" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H91" s="74" t="s">
+      <c r="H91" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="I91" s="74" t="s">
+      <c r="I91" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="J91" s="74" t="s">
+      <c r="J91" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="K91" s="74" t="s">
+      <c r="K91" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="L91" s="74" t="s">
+      <c r="L91" s="73" t="s">
         <v>171</v>
       </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="78" t="n">
+      <c r="A92" s="77" t="n">
         <f aca="false">'Samples timeline'!A444</f>
         <v>9985</v>
       </c>
-      <c r="B92" s="78" t="n">
+      <c r="B92" s="77" t="n">
         <f aca="false">'Samples timeline'!B444</f>
         <v>15034</v>
       </c>
-      <c r="C92" s="79" t="n">
+      <c r="C92" s="78" t="n">
         <f aca="false">'Samples timeline'!C444</f>
         <v>35241</v>
       </c>
-      <c r="D92" s="80" t="n">
+      <c r="D92" s="79" t="n">
         <f aca="false">'Samples timeline'!D444</f>
         <v>2190.5</v>
       </c>
-      <c r="E92" s="78" t="n">
+      <c r="E92" s="77" t="n">
         <f aca="false">'Samples timeline'!E444</f>
         <v>12000</v>
       </c>
@@ -19361,23 +19420,23 @@
       <c r="M92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="78" t="n">
+      <c r="A93" s="77" t="n">
         <f aca="false">'Samples timeline'!A445</f>
         <v>10110</v>
       </c>
-      <c r="B93" s="78" t="n">
+      <c r="B93" s="77" t="n">
         <f aca="false">'Samples timeline'!B445</f>
         <v>15034</v>
       </c>
-      <c r="C93" s="79" t="n">
+      <c r="C93" s="78" t="n">
         <f aca="false">'Samples timeline'!C445</f>
         <v>35268</v>
       </c>
-      <c r="D93" s="80" t="n">
+      <c r="D93" s="79" t="n">
         <f aca="false">'Samples timeline'!D445</f>
         <v>2217.5</v>
       </c>
-      <c r="E93" s="78" t="n">
+      <c r="E93" s="77" t="n">
         <f aca="false">'Samples timeline'!E445</f>
         <v>10500</v>
       </c>
@@ -19394,7 +19453,7 @@
       <c r="J93" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K93" s="74" t="s">
+      <c r="K93" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L93" s="5" t="s">
@@ -19403,19 +19462,19 @@
       <c r="M93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="70" t="n">
+      <c r="A94" s="69" t="n">
         <f aca="false">'Samples timeline'!A529</f>
         <v>21665</v>
       </c>
-      <c r="B94" s="71" t="n">
+      <c r="B94" s="70" t="n">
         <f aca="false">'Samples timeline'!B529</f>
         <v>15319</v>
       </c>
-      <c r="C94" s="72" t="n">
+      <c r="C94" s="71" t="n">
         <f aca="false">'Samples timeline'!C529</f>
         <v>37000</v>
       </c>
-      <c r="D94" s="73" t="n">
+      <c r="D94" s="72" t="n">
         <f aca="false">'Samples timeline'!D529</f>
         <v>337</v>
       </c>
@@ -19448,19 +19507,19 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="70" t="n">
+      <c r="A95" s="69" t="n">
         <f aca="false">'Samples timeline'!A530</f>
         <v>22499</v>
       </c>
-      <c r="B95" s="71" t="n">
+      <c r="B95" s="70" t="n">
         <f aca="false">'Samples timeline'!B530</f>
         <v>15319</v>
       </c>
-      <c r="C95" s="72" t="n">
+      <c r="C95" s="71" t="n">
         <f aca="false">'Samples timeline'!C530</f>
         <v>37123</v>
       </c>
-      <c r="D95" s="73" t="n">
+      <c r="D95" s="72" t="n">
         <f aca="false">'Samples timeline'!D530</f>
         <v>460</v>
       </c>
@@ -19538,19 +19597,19 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="70" t="n">
+      <c r="A97" s="69" t="n">
         <f aca="false">'Samples timeline'!A537</f>
         <v>27134</v>
       </c>
-      <c r="B97" s="71" t="n">
+      <c r="B97" s="70" t="n">
         <f aca="false">'Samples timeline'!B537</f>
         <v>15319</v>
       </c>
-      <c r="C97" s="72" t="n">
+      <c r="C97" s="71" t="n">
         <f aca="false">'Samples timeline'!C537</f>
         <v>37817</v>
       </c>
-      <c r="D97" s="73" t="n">
+      <c r="D97" s="72" t="n">
         <f aca="false">'Samples timeline'!D537</f>
         <v>1154</v>
       </c>
@@ -19583,19 +19642,19 @@
       <c r="M97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="70" t="n">
+      <c r="A98" s="69" t="n">
         <f aca="false">'Samples timeline'!A540</f>
         <v>29698</v>
       </c>
-      <c r="B98" s="71" t="n">
+      <c r="B98" s="70" t="n">
         <f aca="false">'Samples timeline'!B540</f>
         <v>15319</v>
       </c>
-      <c r="C98" s="72" t="n">
+      <c r="C98" s="71" t="n">
         <f aca="false">'Samples timeline'!C540</f>
         <v>38187</v>
       </c>
-      <c r="D98" s="73" t="n">
+      <c r="D98" s="72" t="n">
         <f aca="false">'Samples timeline'!D540</f>
         <v>1524</v>
       </c>
@@ -19628,19 +19687,19 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="70" t="n">
+      <c r="A99" s="69" t="n">
         <f aca="false">'Samples timeline'!A543</f>
         <v>32311</v>
       </c>
-      <c r="B99" s="71" t="n">
+      <c r="B99" s="70" t="n">
         <f aca="false">'Samples timeline'!B543</f>
         <v>15319</v>
       </c>
-      <c r="C99" s="72" t="n">
+      <c r="C99" s="71" t="n">
         <f aca="false">'Samples timeline'!C543</f>
         <v>38541</v>
       </c>
-      <c r="D99" s="73" t="n">
+      <c r="D99" s="72" t="n">
         <f aca="false">'Samples timeline'!D543</f>
         <v>1878</v>
       </c>
@@ -19664,7 +19723,7 @@
       <c r="J99" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K99" s="74" t="s">
+      <c r="K99" s="73" t="s">
         <v>171</v>
       </c>
       <c r="L99" s="5" t="s">
@@ -19673,19 +19732,19 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="70" t="n">
+      <c r="A100" s="69" t="n">
         <f aca="false">'Samples timeline'!A546</f>
         <v>34347</v>
       </c>
-      <c r="B100" s="71" t="n">
+      <c r="B100" s="70" t="n">
         <f aca="false">'Samples timeline'!B546</f>
         <v>15319</v>
       </c>
-      <c r="C100" s="72" t="n">
+      <c r="C100" s="71" t="n">
         <f aca="false">'Samples timeline'!C546</f>
         <v>38834</v>
       </c>
-      <c r="D100" s="73" t="n">
+      <c r="D100" s="72" t="n">
         <f aca="false">'Samples timeline'!D546</f>
         <v>2171</v>
       </c>
@@ -19733,17 +19792,17 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G236" activeCellId="0" sqref="G236"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H242" activeCellId="0" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="16" width="22.1428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="16" width="20.8616071428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="15.4330357142857"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="16" width="5.70982142857143"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="16" width="19.8616071428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="16" width="15"/>
@@ -19755,43 +19814,43 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57589285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="81" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="81" t="s">
+    <row r="1" s="80" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="80" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="0"/>
@@ -19814,7 +19873,7 @@
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="0"/>
@@ -19840,7 +19899,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="0"/>
@@ -19863,7 +19922,7 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="n">
+      <c r="A5" s="82" t="n">
         <v>37024</v>
       </c>
       <c r="B5" s="0"/>
@@ -19888,7 +19947,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="0"/>
@@ -19916,7 +19975,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>206</v>
       </c>
       <c r="B7" s="0"/>
@@ -19944,7 +20003,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>209</v>
       </c>
       <c r="B8" s="0"/>
@@ -19968,7 +20027,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="82" t="s">
         <v>213</v>
       </c>
       <c r="B9" s="0"/>
@@ -19992,7 +20051,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="82" t="s">
         <v>214</v>
       </c>
       <c r="B10" s="16" t="str">
@@ -20019,7 +20078,7 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="82" t="s">
         <v>217</v>
       </c>
       <c r="B11" s="16" t="str">
@@ -20046,7 +20105,7 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>218</v>
       </c>
       <c r="B12" s="16" t="str">
@@ -20073,7 +20132,7 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="82" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="16" t="str">
@@ -20100,7 +20159,7 @@
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="16" t="str">
@@ -20127,7 +20186,7 @@
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>223</v>
       </c>
       <c r="B15" s="16" t="str">
@@ -20154,7 +20213,7 @@
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="82" t="s">
         <v>225</v>
       </c>
       <c r="B16" s="16" t="str">
@@ -20181,7 +20240,7 @@
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="82" t="s">
         <v>227</v>
       </c>
       <c r="B17" s="16" t="str">
@@ -20208,7 +20267,7 @@
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B18" s="16" t="str">
@@ -20235,7 +20294,7 @@
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="82" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="0"/>
@@ -20259,7 +20318,7 @@
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="82" t="s">
         <v>235</v>
       </c>
       <c r="B20" s="0"/>
@@ -20283,7 +20342,7 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="82" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="0"/>
@@ -20306,7 +20365,7 @@
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="82" t="s">
         <v>239</v>
       </c>
       <c r="B22" s="0"/>
@@ -20329,7 +20388,7 @@
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="82" t="s">
         <v>241</v>
       </c>
       <c r="B23" s="0"/>
@@ -20352,7 +20411,7 @@
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="82" t="s">
         <v>243</v>
       </c>
       <c r="B24" s="0"/>
@@ -20375,7 +20434,7 @@
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="82" t="s">
         <v>245</v>
       </c>
       <c r="B25" s="0"/>
@@ -20398,7 +20457,7 @@
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>247</v>
       </c>
       <c r="B26" s="0"/>
@@ -20421,7 +20480,7 @@
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>248</v>
       </c>
       <c r="B27" s="16" t="str">
@@ -20448,7 +20507,7 @@
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="82" t="s">
         <v>249</v>
       </c>
       <c r="B28" s="16" t="str">
@@ -20475,7 +20534,7 @@
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="82" t="s">
         <v>250</v>
       </c>
       <c r="B29" s="16" t="str">
@@ -20502,7 +20561,7 @@
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="82" t="s">
         <v>251</v>
       </c>
       <c r="B30" s="16" t="str">
@@ -20529,7 +20588,7 @@
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="82" t="s">
         <v>252</v>
       </c>
       <c r="B31" s="16" t="str">
@@ -20556,7 +20615,7 @@
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="82" t="s">
         <v>253</v>
       </c>
       <c r="B32" s="16" t="str">
@@ -20583,7 +20642,7 @@
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="82" t="s">
         <v>254</v>
       </c>
       <c r="B33" s="0"/>
@@ -20606,7 +20665,7 @@
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="82" t="s">
         <v>256</v>
       </c>
       <c r="B34" s="0"/>
@@ -20629,7 +20688,7 @@
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="82" t="s">
         <v>258</v>
       </c>
       <c r="B35" s="0"/>
@@ -20652,7 +20711,7 @@
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="82" t="s">
         <v>262</v>
       </c>
       <c r="B36" s="0"/>
@@ -20675,7 +20734,7 @@
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="82" t="s">
         <v>264</v>
       </c>
       <c r="B37" s="0"/>
@@ -20698,7 +20757,7 @@
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="82" t="s">
         <v>266</v>
       </c>
       <c r="B38" s="0"/>
@@ -20721,7 +20780,7 @@
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="82" t="s">
         <v>268</v>
       </c>
       <c r="B39" s="16" t="str">
@@ -20748,7 +20807,7 @@
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="82" t="s">
         <v>270</v>
       </c>
       <c r="B40" s="16" t="str">
@@ -20775,7 +20834,7 @@
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="82" t="s">
         <v>272</v>
       </c>
       <c r="B41" s="16" t="str">
@@ -20802,7 +20861,7 @@
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="82" t="s">
         <v>274</v>
       </c>
       <c r="B42" s="0"/>
@@ -20823,7 +20882,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="82" t="s">
         <v>279</v>
       </c>
       <c r="B43" s="16" t="str">
@@ -20850,7 +20909,7 @@
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="82" t="s">
         <v>281</v>
       </c>
       <c r="B44" s="16" t="str">
@@ -20877,7 +20936,7 @@
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="82" t="s">
         <v>282</v>
       </c>
       <c r="B45" s="16" t="str">
@@ -20904,7 +20963,7 @@
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="82" t="s">
         <v>283</v>
       </c>
       <c r="B46" s="0"/>
@@ -20925,7 +20984,7 @@
       <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="83" t="n">
+      <c r="A47" s="82" t="n">
         <v>38540</v>
       </c>
       <c r="B47" s="0"/>
@@ -20946,7 +21005,7 @@
       <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="83" t="n">
+      <c r="A48" s="82" t="n">
         <v>38304</v>
       </c>
       <c r="B48" s="0"/>
@@ -20967,7 +21026,7 @@
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="82" t="s">
         <v>287</v>
       </c>
       <c r="B49" s="16" t="str">
@@ -20997,7 +21056,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="82" t="s">
         <v>290</v>
       </c>
       <c r="B50" s="16" t="str">
@@ -21027,7 +21086,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="82" t="s">
         <v>292</v>
       </c>
       <c r="B51" s="16" t="str">
@@ -21054,7 +21113,7 @@
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="82" t="s">
         <v>294</v>
       </c>
       <c r="B52" s="16" t="str">
@@ -21081,7 +21140,7 @@
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="82" t="s">
         <v>295</v>
       </c>
       <c r="B53" s="0"/>
@@ -21102,7 +21161,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="82" t="s">
         <v>298</v>
       </c>
       <c r="B54" s="16" t="str">
@@ -21130,7 +21189,7 @@
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="82" t="s">
         <v>300</v>
       </c>
       <c r="B55" s="16" t="str">
@@ -21158,7 +21217,7 @@
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="82" t="s">
         <v>302</v>
       </c>
       <c r="B56" s="16" t="str">
@@ -21186,7 +21245,7 @@
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="82" t="s">
         <v>304</v>
       </c>
       <c r="B57" s="16" t="str">
@@ -21213,7 +21272,7 @@
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="82" t="s">
         <v>307</v>
       </c>
       <c r="B58" s="16" t="str">
@@ -21240,7 +21299,7 @@
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="82" t="s">
         <v>309</v>
       </c>
       <c r="B59" s="16" t="str">
@@ -21267,7 +21326,7 @@
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="82" t="s">
         <v>312</v>
       </c>
       <c r="B60" s="16" t="str">
@@ -21294,7 +21353,7 @@
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="82" t="s">
         <v>313</v>
       </c>
       <c r="B61" s="16" t="str">
@@ -21321,7 +21380,7 @@
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="82" t="s">
         <v>314</v>
       </c>
       <c r="B62" s="16" t="str">
@@ -21348,7 +21407,7 @@
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="82" t="s">
         <v>316</v>
       </c>
       <c r="B63" s="16" t="str">
@@ -21375,7 +21434,7 @@
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="82" t="s">
         <v>318</v>
       </c>
       <c r="B64" s="16" t="str">
@@ -21402,7 +21461,7 @@
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="82" t="s">
         <v>319</v>
       </c>
       <c r="B65" s="16" t="str">
@@ -21429,7 +21488,7 @@
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="82" t="s">
         <v>320</v>
       </c>
       <c r="B66" s="16" t="str">
@@ -21456,7 +21515,7 @@
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="82" t="s">
         <v>321</v>
       </c>
       <c r="B67" s="16" t="str">
@@ -21483,7 +21542,7 @@
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="82" t="s">
         <v>323</v>
       </c>
       <c r="B68" s="16" t="str">
@@ -21510,7 +21569,7 @@
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="82" t="s">
         <v>324</v>
       </c>
       <c r="B69" s="16" t="str">
@@ -21537,7 +21596,7 @@
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="82" t="s">
         <v>325</v>
       </c>
       <c r="B70" s="16" t="str">
@@ -21564,7 +21623,7 @@
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="82" t="s">
         <v>326</v>
       </c>
       <c r="B71" s="0"/>
@@ -21585,7 +21644,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="82" t="s">
         <v>329</v>
       </c>
       <c r="B72" s="0"/>
@@ -21603,7 +21662,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="82" t="s">
         <v>331</v>
       </c>
       <c r="B73" s="0"/>
@@ -21621,7 +21680,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="82" t="s">
         <v>332</v>
       </c>
       <c r="B74" s="0"/>
@@ -21639,7 +21698,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="82" t="s">
         <v>333</v>
       </c>
       <c r="B75" s="0"/>
@@ -21657,7 +21716,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="82" t="s">
         <v>334</v>
       </c>
       <c r="B76" s="16" t="str">
@@ -21685,7 +21744,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="82" t="s">
         <v>336</v>
       </c>
       <c r="B77" s="16" t="str">
@@ -21713,7 +21772,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="82" t="s">
         <v>338</v>
       </c>
       <c r="B78" s="16" t="str">
@@ -21739,7 +21798,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="82" t="s">
         <v>340</v>
       </c>
       <c r="B79" s="16" t="str">
@@ -21765,7 +21824,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="82" t="s">
         <v>341</v>
       </c>
       <c r="B80" s="16" t="str">
@@ -21791,7 +21850,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="82" t="s">
         <v>342</v>
       </c>
       <c r="B81" s="16" t="str">
@@ -21817,7 +21876,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="82" t="s">
         <v>343</v>
       </c>
       <c r="B82" s="16" t="str">
@@ -21843,7 +21902,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="82" t="s">
         <v>344</v>
       </c>
       <c r="B83" s="16" t="str">
@@ -21869,7 +21928,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="82" t="s">
         <v>345</v>
       </c>
       <c r="B84" s="16" t="str">
@@ -21895,7 +21954,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="82" t="s">
         <v>346</v>
       </c>
       <c r="B85" s="16" t="str">
@@ -21921,7 +21980,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="82" t="s">
         <v>347</v>
       </c>
       <c r="B86" s="16" t="str">
@@ -21947,7 +22006,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="82" t="s">
         <v>348</v>
       </c>
       <c r="B87" s="16" t="str">
@@ -21973,7 +22032,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="82" t="s">
         <v>349</v>
       </c>
       <c r="B88" s="16" t="str">
@@ -21999,7 +22058,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="82" t="s">
         <v>350</v>
       </c>
       <c r="B89" s="16" t="str">
@@ -22025,7 +22084,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="82" t="s">
         <v>351</v>
       </c>
       <c r="B90" s="16" t="str">
@@ -22051,7 +22110,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="82" t="s">
         <v>352</v>
       </c>
       <c r="B91" s="16" t="str">
@@ -22077,7 +22136,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="82" t="s">
         <v>353</v>
       </c>
       <c r="B92" s="16" t="str">
@@ -22103,7 +22162,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="82" t="s">
         <v>355</v>
       </c>
       <c r="B93" s="16" t="str">
@@ -22129,7 +22188,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="82" t="s">
         <v>356</v>
       </c>
       <c r="B94" s="16" t="str">
@@ -22155,7 +22214,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="82" t="s">
         <v>357</v>
       </c>
       <c r="B95" s="16" t="str">
@@ -22181,7 +22240,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="82" t="s">
         <v>358</v>
       </c>
       <c r="B96" s="16" t="str">
@@ -22207,7 +22266,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="82" t="s">
         <v>359</v>
       </c>
       <c r="B97" s="16" t="str">
@@ -22233,7 +22292,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="82" t="s">
         <v>360</v>
       </c>
       <c r="B98" s="16" t="str">
@@ -22259,7 +22318,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="82" t="s">
         <v>361</v>
       </c>
       <c r="B99" s="16" t="str">
@@ -22285,7 +22344,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="82" t="s">
         <v>362</v>
       </c>
       <c r="B100" s="16" t="str">
@@ -22311,7 +22370,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="82" t="s">
         <v>363</v>
       </c>
       <c r="B101" s="16" t="str">
@@ -22337,7 +22396,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="82" t="s">
         <v>364</v>
       </c>
       <c r="B102" s="16" t="str">
@@ -22363,7 +22422,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="82" t="s">
         <v>365</v>
       </c>
       <c r="B103" s="16" t="str">
@@ -22389,7 +22448,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="82" t="s">
         <v>366</v>
       </c>
       <c r="B104" s="16" t="str">
@@ -22415,7 +22474,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="82" t="s">
         <v>367</v>
       </c>
       <c r="B105" s="16" t="str">
@@ -22441,7 +22500,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="82" t="s">
         <v>368</v>
       </c>
       <c r="B106" s="16" t="str">
@@ -22467,7 +22526,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="82" t="s">
         <v>371</v>
       </c>
       <c r="B107" s="16" t="str">
@@ -22493,7 +22552,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="82" t="s">
         <v>372</v>
       </c>
       <c r="B108" s="16" t="str">
@@ -22519,7 +22578,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="83" t="s">
+      <c r="A109" s="82" t="s">
         <v>373</v>
       </c>
       <c r="B109" s="16" t="str">
@@ -22545,7 +22604,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="82" t="s">
         <v>375</v>
       </c>
       <c r="B110" s="16" t="str">
@@ -22571,7 +22630,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="83" t="s">
+      <c r="A111" s="82" t="s">
         <v>376</v>
       </c>
       <c r="B111" s="16" t="str">
@@ -22597,7 +22656,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="83" t="s">
+      <c r="A112" s="82" t="s">
         <v>377</v>
       </c>
       <c r="B112" s="16" t="str">
@@ -22623,7 +22682,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="83" t="s">
+      <c r="A113" s="82" t="s">
         <v>379</v>
       </c>
       <c r="B113" s="16" t="str">
@@ -22649,7 +22708,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="82" t="s">
         <v>380</v>
       </c>
       <c r="B114" s="16" t="str">
@@ -22675,7 +22734,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="83" t="s">
+      <c r="A115" s="82" t="s">
         <v>381</v>
       </c>
       <c r="B115" s="16" t="str">
@@ -22701,7 +22760,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="82" t="s">
         <v>382</v>
       </c>
       <c r="B116" s="16" t="str">
@@ -22727,7 +22786,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="83" t="s">
+      <c r="A117" s="82" t="s">
         <v>383</v>
       </c>
       <c r="B117" s="16" t="str">
@@ -22753,7 +22812,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="83" t="s">
+      <c r="A118" s="82" t="s">
         <v>384</v>
       </c>
       <c r="B118" s="16" t="str">
@@ -22779,7 +22838,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="82" t="s">
         <v>385</v>
       </c>
       <c r="B119" s="16" t="str">
@@ -22805,7 +22864,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="83" t="s">
+      <c r="A120" s="82" t="s">
         <v>386</v>
       </c>
       <c r="B120" s="16" t="str">
@@ -22831,7 +22890,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="82" t="s">
         <v>387</v>
       </c>
       <c r="B121" s="16" t="s">
@@ -22856,7 +22915,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="82" t="s">
         <v>389</v>
       </c>
       <c r="B122" s="16" t="s">
@@ -22881,7 +22940,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="82" t="s">
         <v>391</v>
       </c>
       <c r="B123" s="16" t="n">
@@ -22906,7 +22965,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="83" t="s">
+      <c r="A124" s="82" t="s">
         <v>392</v>
       </c>
       <c r="B124" s="16" t="n">
@@ -22931,7 +22990,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="82" t="s">
         <v>393</v>
       </c>
       <c r="B125" s="16" t="n">
@@ -22956,7 +23015,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="82" t="s">
         <v>394</v>
       </c>
       <c r="B126" s="16" t="n">
@@ -22981,7 +23040,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="83" t="s">
+      <c r="A127" s="82" t="s">
         <v>395</v>
       </c>
       <c r="B127" s="16" t="str">
@@ -23007,7 +23066,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="82" t="s">
         <v>398</v>
       </c>
       <c r="B128" s="0"/>
@@ -23027,7 +23086,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="83" t="s">
+      <c r="A129" s="82" t="s">
         <v>400</v>
       </c>
       <c r="B129" s="0"/>
@@ -23047,7 +23106,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="82" t="s">
         <v>402</v>
       </c>
       <c r="B130" s="16" t="str">
@@ -23072,7 +23131,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="82" t="s">
         <v>404</v>
       </c>
       <c r="B131" s="16" t="str">
@@ -23097,7 +23156,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="82" t="s">
         <v>405</v>
       </c>
       <c r="B132" s="16" t="str">
@@ -23122,7 +23181,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="82" t="s">
         <v>406</v>
       </c>
       <c r="B133" s="16" t="str">
@@ -23147,7 +23206,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="82" t="s">
         <v>407</v>
       </c>
       <c r="B134" s="16" t="str">
@@ -23172,7 +23231,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="83" t="s">
+      <c r="A135" s="82" t="s">
         <v>408</v>
       </c>
       <c r="B135" s="16" t="str">
@@ -23197,7 +23256,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="83" t="s">
+      <c r="A136" s="82" t="s">
         <v>409</v>
       </c>
       <c r="B136" s="16" t="str">
@@ -23222,7 +23281,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="83" t="s">
+      <c r="A137" s="82" t="s">
         <v>410</v>
       </c>
       <c r="B137" s="16" t="str">
@@ -23247,7 +23306,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="82" t="s">
         <v>411</v>
       </c>
       <c r="B138" s="16" t="str">
@@ -23272,7 +23331,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="83" t="s">
+      <c r="A139" s="82" t="s">
         <v>412</v>
       </c>
       <c r="B139" s="16" t="str">
@@ -23297,7 +23356,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="83" t="s">
+      <c r="A140" s="82" t="s">
         <v>413</v>
       </c>
       <c r="B140" s="16" t="str">
@@ -23322,7 +23381,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="83" t="s">
+      <c r="A141" s="82" t="s">
         <v>414</v>
       </c>
       <c r="B141" s="16" t="str">
@@ -23347,7 +23406,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="83" t="s">
+      <c r="A142" s="82" t="s">
         <v>415</v>
       </c>
       <c r="B142" s="16" t="str">
@@ -23372,7 +23431,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="83" t="s">
+      <c r="A143" s="82" t="s">
         <v>416</v>
       </c>
       <c r="B143" s="16" t="str">
@@ -23397,7 +23456,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="83" t="s">
+      <c r="A144" s="82" t="s">
         <v>417</v>
       </c>
       <c r="B144" s="16" t="str">
@@ -23422,7 +23481,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="82" t="s">
         <v>418</v>
       </c>
       <c r="B145" s="16" t="s">
@@ -23446,7 +23505,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="83" t="s">
+      <c r="A146" s="82" t="s">
         <v>419</v>
       </c>
       <c r="B146" s="16" t="s">
@@ -23470,7 +23529,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="83" t="s">
+      <c r="A147" s="82" t="s">
         <v>420</v>
       </c>
       <c r="B147" s="16" t="n">
@@ -23494,7 +23553,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="83" t="s">
+      <c r="A148" s="82" t="s">
         <v>421</v>
       </c>
       <c r="B148" s="16" t="n">
@@ -23518,7 +23577,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="82" t="s">
         <v>422</v>
       </c>
       <c r="B149" s="16" t="n">
@@ -23542,7 +23601,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="83" t="s">
+      <c r="A150" s="82" t="s">
         <v>423</v>
       </c>
       <c r="B150" s="16" t="n">
@@ -23566,7 +23625,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="83" t="s">
+      <c r="A151" s="82" t="s">
         <v>424</v>
       </c>
       <c r="B151" s="16" t="str">
@@ -23591,7 +23650,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="82" t="s">
         <v>425</v>
       </c>
       <c r="B152" s="0"/>
@@ -23611,7 +23670,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="83" t="s">
+      <c r="A153" s="82" t="s">
         <v>426</v>
       </c>
       <c r="B153" s="0"/>
@@ -23631,7 +23690,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="83" t="s">
+      <c r="A154" s="82" t="s">
         <v>427</v>
       </c>
       <c r="B154" s="16" t="str">
@@ -23656,7 +23715,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="83" t="s">
+      <c r="A155" s="82" t="s">
         <v>430</v>
       </c>
       <c r="B155" s="16" t="str">
@@ -23684,7 +23743,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="82" t="s">
         <v>432</v>
       </c>
       <c r="B156" s="16" t="str">
@@ -23709,15 +23768,19 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="83" t="s">
+      <c r="A157" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="5"/>
+      <c r="C157" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
+      <c r="D157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="F157" s="16" t="s">
         <v>428</v>
       </c>
@@ -23729,8 +23792,8 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="83" t="s">
-        <v>435</v>
+      <c r="A158" s="82" t="s">
+        <v>436</v>
       </c>
       <c r="B158" s="16" t="str">
         <f aca="false">LEFT(A158, FIND("_", A158, 1) - 1)</f>
@@ -23753,12 +23816,12 @@
         <v>370</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="83" t="s">
-        <v>437</v>
+      <c r="A159" s="82" t="s">
+        <v>438</v>
       </c>
       <c r="B159" s="16" t="str">
         <f aca="false">LEFT(A159, FIND("_", A159, 1) - 1)</f>
@@ -23785,8 +23848,8 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="83" t="s">
-        <v>438</v>
+      <c r="A160" s="82" t="s">
+        <v>439</v>
       </c>
       <c r="B160" s="16" t="str">
         <f aca="false">LEFT(A160, FIND("_", A160, 1) - 1)</f>
@@ -23810,8 +23873,8 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="83" t="s">
-        <v>439</v>
+      <c r="A161" s="82" t="s">
+        <v>440</v>
       </c>
       <c r="B161" s="16" t="str">
         <f aca="false">LEFT(A161, FIND("_", A161, 1) - 1)</f>
@@ -23834,12 +23897,12 @@
         <v>370</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="83" t="s">
-        <v>441</v>
+      <c r="A162" s="82" t="s">
+        <v>442</v>
       </c>
       <c r="B162" s="16" t="str">
         <f aca="false">LEFT(A162, FIND("_", A162, 1) - 1)</f>
@@ -23863,8 +23926,8 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="83" t="s">
-        <v>442</v>
+      <c r="A163" s="82" t="s">
+        <v>443</v>
       </c>
       <c r="B163" s="16" t="str">
         <f aca="false">LEFT(A163, FIND("_", A163, 1) - 1)</f>
@@ -23887,12 +23950,12 @@
         <v>285</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="83" t="s">
-        <v>444</v>
+      <c r="A164" s="82" t="s">
+        <v>445</v>
       </c>
       <c r="B164" s="16" t="str">
         <f aca="false">LEFT(A164, FIND("_", A164, 1) - 1)</f>
@@ -23915,24 +23978,24 @@
         <v>285</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="83" t="s">
-        <v>445</v>
+      <c r="A165" s="82" t="s">
+        <v>446</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D165" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>428</v>
@@ -23945,8 +24008,8 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="83" t="s">
-        <v>448</v>
+      <c r="A166" s="82" t="s">
+        <v>449</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>123</v>
@@ -23956,7 +24019,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>428</v>
@@ -23968,12 +24031,12 @@
         <v>285</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="83" t="s">
-        <v>451</v>
+      <c r="A167" s="82" t="s">
+        <v>452</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>133</v>
@@ -23983,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>428</v>
@@ -23996,8 +24059,8 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="83" t="s">
-        <v>453</v>
+      <c r="A168" s="82" t="s">
+        <v>454</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>133</v>
@@ -24007,7 +24070,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F168" s="16" t="s">
         <v>428</v>
@@ -24019,12 +24082,12 @@
         <v>285</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="83" t="s">
-        <v>455</v>
+      <c r="A169" s="82" t="s">
+        <v>456</v>
       </c>
       <c r="B169" s="16" t="str">
         <f aca="false">LEFT(A169, FIND("_", A169, 1) - 1)</f>
@@ -24047,12 +24110,12 @@
         <v>280</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="83" t="s">
-        <v>457</v>
+      <c r="A170" s="82" t="s">
+        <v>458</v>
       </c>
       <c r="B170" s="16" t="str">
         <f aca="false">LEFT(A170, FIND("_", A170, 1) - 1)</f>
@@ -24075,12 +24138,12 @@
         <v>280</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="83" t="s">
-        <v>459</v>
+      <c r="A171" s="82" t="s">
+        <v>460</v>
       </c>
       <c r="B171" s="16" t="str">
         <f aca="false">LEFT(A171, FIND("_", A171, 1) - 1)</f>
@@ -24094,18 +24157,18 @@
         <v>374</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>233</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="83" t="s">
-        <v>462</v>
+      <c r="A172" s="82" t="s">
+        <v>463</v>
       </c>
       <c r="B172" s="16" t="str">
         <f aca="false">LEFT(A172, FIND("_", A172, 1) - 1)</f>
@@ -24119,21 +24182,21 @@
         <v>374</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>308</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K172" s="0" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="83" t="s">
-        <v>463</v>
+      <c r="A173" s="82" t="s">
+        <v>464</v>
       </c>
       <c r="B173" s="16" t="str">
         <f aca="false">LEFT(A173, FIND("_", A173, 1) - 1)</f>
@@ -24147,18 +24210,18 @@
         <v>374</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>310</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="83" t="s">
-        <v>464</v>
+      <c r="A174" s="82" t="s">
+        <v>465</v>
       </c>
       <c r="B174" s="16" t="str">
         <f aca="false">LEFT(A174, FIND("_", A174, 1) - 1)</f>
@@ -24172,18 +24235,18 @@
         <v>374</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>260</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="83" t="s">
-        <v>465</v>
+      <c r="A175" s="82" t="s">
+        <v>466</v>
       </c>
       <c r="B175" s="16" t="str">
         <f aca="false">LEFT(A175, FIND("_", A175, 1) - 1)</f>
@@ -24197,18 +24260,18 @@
         <v>374</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>263</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="83" t="s">
-        <v>466</v>
+      <c r="A176" s="82" t="s">
+        <v>467</v>
       </c>
       <c r="B176" s="16" t="str">
         <f aca="false">LEFT(A176, FIND("_", A176, 1) - 1)</f>
@@ -24222,21 +24285,21 @@
         <v>374</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G176" s="16" t="s">
         <v>265</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="83" t="s">
-        <v>467</v>
+      <c r="A177" s="82" t="s">
+        <v>468</v>
       </c>
       <c r="B177" s="16" t="str">
         <f aca="false">LEFT(A177, FIND("_", A177, 1) - 1)</f>
@@ -24250,21 +24313,21 @@
         <v>374</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G177" s="16" t="s">
         <v>317</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="83" t="s">
-        <v>468</v>
+      <c r="A178" s="82" t="s">
+        <v>469</v>
       </c>
       <c r="B178" s="16" t="str">
         <f aca="false">LEFT(A178, FIND("_", A178, 1) - 1)</f>
@@ -24280,21 +24343,21 @@
         <v>374</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G178" s="16" t="s">
         <v>242</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="83" t="s">
-        <v>470</v>
+      <c r="A179" s="82" t="s">
+        <v>471</v>
       </c>
       <c r="B179" s="16" t="str">
         <f aca="false">LEFT(A179, FIND("_", A179, 1) - 1)</f>
@@ -24308,18 +24371,18 @@
         <v>374</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G179" s="16" t="s">
         <v>257</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="83" t="s">
-        <v>471</v>
+      <c r="A180" s="82" t="s">
+        <v>472</v>
       </c>
       <c r="B180" s="16" t="str">
         <f aca="false">LEFT(A180, FIND("_", A180, 1) - 1)</f>
@@ -24333,18 +24396,18 @@
         <v>374</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>293</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="83" t="s">
-        <v>472</v>
+      <c r="A181" s="82" t="s">
+        <v>473</v>
       </c>
       <c r="B181" s="16" t="str">
         <f aca="false">LEFT(A181, FIND("_", A181, 1) - 1)</f>
@@ -24358,18 +24421,18 @@
         <v>374</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>288</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="83" t="s">
-        <v>473</v>
+      <c r="A182" s="82" t="s">
+        <v>474</v>
       </c>
       <c r="B182" s="16" t="str">
         <f aca="false">LEFT(A182, FIND("_", A182, 1) - 1)</f>
@@ -24383,18 +24446,18 @@
         <v>374</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>315</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="83" t="s">
-        <v>474</v>
+      <c r="A183" s="82" t="s">
+        <v>475</v>
       </c>
       <c r="B183" s="16" t="str">
         <f aca="false">LEFT(A183, FIND("_", A183, 1) - 1)</f>
@@ -24408,18 +24471,18 @@
         <v>374</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>267</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="83" t="s">
-        <v>475</v>
+      <c r="A184" s="82" t="s">
+        <v>476</v>
       </c>
       <c r="B184" s="16" t="str">
         <f aca="false">LEFT(A184, FIND("_", A184, 1) - 1)</f>
@@ -24433,18 +24496,18 @@
         <v>374</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>269</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="83" t="s">
-        <v>476</v>
+      <c r="A185" s="82" t="s">
+        <v>477</v>
       </c>
       <c r="B185" s="16" t="str">
         <f aca="false">LEFT(A185, FIND("_", A185, 1) - 1)</f>
@@ -24458,18 +24521,18 @@
         <v>374</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="83" t="s">
-        <v>477</v>
+      <c r="A186" s="82" t="s">
+        <v>478</v>
       </c>
       <c r="B186" s="16" t="n">
         <v>3265</v>
@@ -24479,21 +24542,21 @@
         <v>1</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="83" t="s">
-        <v>479</v>
+      <c r="A187" s="82" t="s">
+        <v>480</v>
       </c>
       <c r="B187" s="16" t="n">
         <v>3265</v>
@@ -24503,21 +24566,21 @@
         <v>1</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>322</v>
       </c>
       <c r="H187" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="83" t="s">
-        <v>481</v>
+      <c r="A188" s="82" t="s">
+        <v>482</v>
       </c>
       <c r="B188" s="16" t="str">
         <f aca="false">LEFT(A188, FIND("_", A188, 1) - 1)</f>
@@ -24531,18 +24594,18 @@
         <v>374</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>286</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="83" t="s">
-        <v>482</v>
+      <c r="A189" s="82" t="s">
+        <v>483</v>
       </c>
       <c r="B189" s="16" t="str">
         <f aca="false">LEFT(A189, FIND("_", A189, 1) - 1)</f>
@@ -24556,18 +24619,18 @@
         <v>374</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H189" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="83" t="s">
-        <v>483</v>
+      <c r="A190" s="82" t="s">
+        <v>484</v>
       </c>
       <c r="B190" s="16" t="str">
         <f aca="false">LEFT(A190, FIND("_", A190, 1) - 1)</f>
@@ -24581,18 +24644,18 @@
         <v>374</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>273</v>
       </c>
       <c r="H190" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="83" t="s">
-        <v>484</v>
+      <c r="A191" s="82" t="s">
+        <v>485</v>
       </c>
       <c r="B191" s="16" t="str">
         <f aca="false">LEFT(A191, FIND("_", A191, 1) - 1)</f>
@@ -24606,21 +24669,21 @@
         <v>374</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>291</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="J191" s="84" t="s">
-        <v>485</v>
+        <v>462</v>
+      </c>
+      <c r="J191" s="83" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="83" t="s">
-        <v>486</v>
+      <c r="A192" s="82" t="s">
+        <v>487</v>
       </c>
       <c r="B192" s="16" t="str">
         <f aca="false">LEFT(A192, FIND("_", A192, 1) - 1)</f>
@@ -24634,18 +24697,18 @@
         <v>374</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>397</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="83" t="s">
-        <v>487</v>
+      <c r="A193" s="82" t="s">
+        <v>488</v>
       </c>
       <c r="B193" s="16" t="str">
         <f aca="false">LEFT(A193, FIND("_", A193, 1) - 1)</f>
@@ -24659,18 +24722,18 @@
         <v>374</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>240</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="83" t="s">
-        <v>488</v>
+      <c r="A194" s="82" t="s">
+        <v>489</v>
       </c>
       <c r="B194" s="16" t="str">
         <f aca="false">LEFT(A194, FIND("_", A194, 1) - 1)</f>
@@ -24684,18 +24747,18 @@
         <v>374</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>244</v>
       </c>
       <c r="H194" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="83" t="s">
-        <v>489</v>
+      <c r="A195" s="82" t="s">
+        <v>490</v>
       </c>
       <c r="B195" s="16" t="str">
         <f aca="false">LEFT(A195, FIND("_", A195, 1) - 1)</f>
@@ -24709,18 +24772,18 @@
         <v>374</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>257</v>
       </c>
       <c r="H195" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="83" t="s">
-        <v>491</v>
+      <c r="A196" s="82" t="s">
+        <v>492</v>
       </c>
       <c r="B196" s="16" t="str">
         <f aca="false">LEFT(A196, FIND("_", A196, 1) - 1)</f>
@@ -24734,18 +24797,18 @@
         <v>374</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="83" t="s">
-        <v>492</v>
+      <c r="A197" s="82" t="s">
+        <v>493</v>
       </c>
       <c r="B197" s="16" t="str">
         <f aca="false">LEFT(A197, FIND("_", A197, 1) - 1)</f>
@@ -24759,18 +24822,18 @@
         <v>374</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>397</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="83" t="s">
-        <v>493</v>
+      <c r="A198" s="82" t="s">
+        <v>494</v>
       </c>
       <c r="B198" s="16" t="str">
         <f aca="false">LEFT(A198, FIND("_", A198, 1) - 1)</f>
@@ -24784,18 +24847,18 @@
         <v>374</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>322</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="83" t="s">
-        <v>494</v>
+      <c r="A199" s="82" t="s">
+        <v>495</v>
       </c>
       <c r="B199" s="16" t="str">
         <f aca="false">LEFT(A199, FIND("_", A199, 1) - 1)</f>
@@ -24809,18 +24872,18 @@
         <v>374</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>244</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="83" t="s">
-        <v>495</v>
+      <c r="A200" s="82" t="s">
+        <v>496</v>
       </c>
       <c r="B200" s="16" t="n">
         <v>31181</v>
@@ -24833,18 +24896,18 @@
         <v>374</v>
       </c>
       <c r="F200" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="83" t="s">
-        <v>499</v>
+      <c r="A201" s="82" t="s">
+        <v>500</v>
       </c>
       <c r="B201" s="16" t="n">
         <v>24060</v>
@@ -24857,18 +24920,18 @@
         <v>374</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="83" t="s">
-        <v>501</v>
+      <c r="A202" s="82" t="s">
+        <v>502</v>
       </c>
       <c r="B202" s="16" t="n">
         <v>30562</v>
@@ -24881,18 +24944,18 @@
         <v>374</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="83" t="s">
-        <v>503</v>
+      <c r="A203" s="82" t="s">
+        <v>504</v>
       </c>
       <c r="B203" s="16" t="n">
         <v>8452</v>
@@ -24905,18 +24968,18 @@
         <v>374</v>
       </c>
       <c r="F203" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="83" t="s">
-        <v>505</v>
+      <c r="A204" s="82" t="s">
+        <v>506</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>125</v>
@@ -24929,18 +24992,18 @@
         <v>191</v>
       </c>
       <c r="F204" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H204" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="83" t="s">
-        <v>507</v>
+      <c r="A205" s="82" t="s">
+        <v>508</v>
       </c>
       <c r="B205" s="16" t="n">
         <v>29184</v>
@@ -24953,18 +25016,18 @@
         <v>210</v>
       </c>
       <c r="F205" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>242</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="83" t="s">
-        <v>508</v>
+      <c r="A206" s="82" t="s">
+        <v>509</v>
       </c>
       <c r="B206" s="16" t="n">
         <v>30847</v>
@@ -24977,18 +25040,18 @@
         <v>210</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>257</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="83" t="s">
-        <v>509</v>
+      <c r="A207" s="82" t="s">
+        <v>510</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>131</v>
@@ -25001,18 +25064,18 @@
         <v>210</v>
       </c>
       <c r="F207" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>293</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="83" t="s">
-        <v>510</v>
+      <c r="A208" s="82" t="s">
+        <v>511</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>144</v>
@@ -25025,18 +25088,18 @@
         <v>210</v>
       </c>
       <c r="F208" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>288</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="83" t="s">
-        <v>511</v>
+      <c r="A209" s="82" t="s">
+        <v>512</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>130</v>
@@ -25049,24 +25112,24 @@
         <v>210</v>
       </c>
       <c r="F209" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>315</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="83" t="s">
-        <v>512</v>
+      <c r="A210" s="82" t="s">
+        <v>513</v>
       </c>
       <c r="B210" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D210" s="16" t="n">
         <v>1</v>
@@ -25075,21 +25138,21 @@
         <v>210</v>
       </c>
       <c r="F210" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>267</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="83" t="s">
-        <v>515</v>
+      <c r="A211" s="82" t="s">
+        <v>516</v>
       </c>
       <c r="B211" s="16" t="n">
         <v>28541</v>
@@ -25102,18 +25165,18 @@
         <v>374</v>
       </c>
       <c r="F211" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="83" t="s">
-        <v>517</v>
+      <c r="A212" s="82" t="s">
+        <v>518</v>
       </c>
       <c r="B212" s="16" t="n">
         <v>25268</v>
@@ -25126,18 +25189,18 @@
         <v>374</v>
       </c>
       <c r="F212" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="83" t="s">
-        <v>518</v>
+      <c r="A213" s="82" t="s">
+        <v>519</v>
       </c>
       <c r="B213" s="16" t="n">
         <v>5651</v>
@@ -25150,18 +25213,18 @@
         <v>374</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>286</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="83" t="s">
-        <v>519</v>
+      <c r="A214" s="82" t="s">
+        <v>520</v>
       </c>
       <c r="B214" s="16" t="n">
         <v>10110</v>
@@ -25174,18 +25237,18 @@
         <v>374</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="83" t="s">
-        <v>520</v>
+      <c r="A215" s="82" t="s">
+        <v>521</v>
       </c>
       <c r="B215" s="16" t="n">
         <v>3199</v>
@@ -25198,17 +25261,17 @@
         <v>374</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>273</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="83" t="s">
+      <c r="A216" s="82" t="s">
         <v>330</v>
       </c>
       <c r="B216" s="0"/>
@@ -25216,18 +25279,18 @@
       <c r="D216" s="0"/>
       <c r="E216" s="0"/>
       <c r="F216" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>240</v>
       </c>
       <c r="H216" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="83" t="s">
-        <v>521</v>
+      <c r="A217" s="82" t="s">
+        <v>522</v>
       </c>
       <c r="B217" s="16" t="n">
         <v>31181</v>
@@ -25240,18 +25303,18 @@
         <v>374</v>
       </c>
       <c r="F217" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="83" t="s">
-        <v>523</v>
+      <c r="A218" s="82" t="s">
+        <v>524</v>
       </c>
       <c r="B218" s="16" t="n">
         <v>24060</v>
@@ -25264,18 +25327,18 @@
         <v>374</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H218" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="83" t="s">
-        <v>524</v>
+      <c r="A219" s="82" t="s">
+        <v>525</v>
       </c>
       <c r="B219" s="16" t="n">
         <v>30562</v>
@@ -25288,18 +25351,18 @@
         <v>374</v>
       </c>
       <c r="F219" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H219" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="83" t="s">
-        <v>525</v>
+      <c r="A220" s="82" t="s">
+        <v>526</v>
       </c>
       <c r="B220" s="16" t="n">
         <v>8452</v>
@@ -25312,18 +25375,18 @@
         <v>374</v>
       </c>
       <c r="F220" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H220" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="83" t="s">
-        <v>526</v>
+      <c r="A221" s="82" t="s">
+        <v>527</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>125</v>
@@ -25336,18 +25399,18 @@
         <v>191</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="83" t="s">
-        <v>527</v>
+      <c r="A222" s="82" t="s">
+        <v>528</v>
       </c>
       <c r="B222" s="16" t="n">
         <v>30847</v>
@@ -25360,18 +25423,18 @@
         <v>210</v>
       </c>
       <c r="F222" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>257</v>
       </c>
       <c r="H222" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="83" t="s">
-        <v>528</v>
+      <c r="A223" s="82" t="s">
+        <v>529</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>131</v>
@@ -25384,18 +25447,18 @@
         <v>210</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>293</v>
       </c>
       <c r="H223" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="83" t="s">
-        <v>529</v>
+      <c r="A224" s="82" t="s">
+        <v>530</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>130</v>
@@ -25408,24 +25471,24 @@
         <v>210</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>315</v>
       </c>
       <c r="H224" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="83" t="s">
-        <v>530</v>
+      <c r="A225" s="82" t="s">
+        <v>531</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D225" s="16" t="n">
         <v>1</v>
@@ -25434,18 +25497,18 @@
         <v>210</v>
       </c>
       <c r="F225" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>267</v>
       </c>
       <c r="H225" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="83" t="s">
-        <v>531</v>
+      <c r="A226" s="82" t="s">
+        <v>532</v>
       </c>
       <c r="B226" s="16" t="n">
         <v>28541</v>
@@ -25458,18 +25521,18 @@
         <v>374</v>
       </c>
       <c r="F226" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="83" t="s">
-        <v>532</v>
+      <c r="A227" s="82" t="s">
+        <v>533</v>
       </c>
       <c r="B227" s="16" t="n">
         <v>25268</v>
@@ -25482,18 +25545,18 @@
         <v>374</v>
       </c>
       <c r="F227" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H227" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="83" t="s">
-        <v>533</v>
+      <c r="A228" s="82" t="s">
+        <v>534</v>
       </c>
       <c r="B228" s="16" t="n">
         <v>5651</v>
@@ -25506,18 +25569,18 @@
         <v>374</v>
       </c>
       <c r="F228" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>286</v>
       </c>
       <c r="H228" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="83" t="s">
-        <v>534</v>
+      <c r="A229" s="82" t="s">
+        <v>535</v>
       </c>
       <c r="B229" s="16" t="n">
         <v>10110</v>
@@ -25530,18 +25593,18 @@
         <v>374</v>
       </c>
       <c r="F229" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H229" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="83" t="s">
-        <v>535</v>
+      <c r="A230" s="82" t="s">
+        <v>536</v>
       </c>
       <c r="B230" s="16" t="n">
         <v>3199</v>
@@ -25554,18 +25617,18 @@
         <v>374</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>273</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B231" s="16" t="s">
         <v>105</v>
@@ -25577,47 +25640,47 @@
         <v>1</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H231" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B232" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D232" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>317</v>
       </c>
       <c r="H232" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B233" s="16" t="s">
         <v>108</v>
@@ -25632,18 +25695,18 @@
         <v>2</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>269</v>
       </c>
       <c r="H233" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B234" s="16" t="s">
         <v>110</v>
@@ -25655,50 +25718,50 @@
         <v>1</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>322</v>
       </c>
       <c r="H234" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B235" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D235" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>291</v>
       </c>
       <c r="H235" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B236" s="16" t="s">
         <v>115</v>
@@ -25710,21 +25773,21 @@
         <v>1</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F236" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>397</v>
       </c>
       <c r="H236" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B237" s="16" t="n">
         <v>10756</v>
@@ -25739,7 +25802,7 @@
         <v>374</v>
       </c>
       <c r="F237" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>240</v>
@@ -25750,7 +25813,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B238" s="16" t="n">
         <v>26585</v>
@@ -25765,13 +25828,294 @@
         <v>374</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>244</v>
       </c>
       <c r="H238" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D239" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F239" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G239" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H239" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D240" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G240" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H240" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D241" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F241" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G241" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H241" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="D242" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F242" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G242" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H242" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D243" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F243" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G243" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H243" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="D244" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G244" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H244" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D245" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G245" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H245" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B246" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D246" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G246" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H246" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D247" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="H247" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D248" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G248" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H248" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D249" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G249" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H249" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J249" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B250" s="16" t="n">
+        <v>23058</v>
+      </c>
+      <c r="D250" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G250" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H250" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B251" s="16" t="n">
+        <v>12402</v>
+      </c>
+      <c r="D251" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G251" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H251" s="16" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -25809,7 +26153,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25817,7 +26161,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25825,7 +26169,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25833,7 +26177,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25841,7 +26185,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25849,7 +26193,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25857,7 +26201,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25865,7 +26209,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25873,7 +26217,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25881,7 +26225,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25889,7 +26233,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25897,7 +26241,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25905,7 +26249,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25913,7 +26257,7 @@
         <v>25304</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25933,7 +26277,7 @@
         <v>33460</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25941,7 +26285,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25949,7 +26293,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25957,7 +26301,7 @@
         <v>18601</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25965,7 +26309,7 @@
         <v>20979</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25973,7 +26317,7 @@
         <v>23030</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25987,7 +26331,7 @@
         <v>27548</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25995,7 +26339,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26003,7 +26347,7 @@
         <v>121</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26011,7 +26355,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26019,7 +26363,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26027,7 +26371,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26035,7 +26379,7 @@
         <v>20883</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26049,7 +26393,7 @@
         <v>27993</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26057,7 +26401,7 @@
         <v>31023</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26065,7 +26409,7 @@
         <v>33873</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26073,7 +26417,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26081,7 +26425,7 @@
         <v>126</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26089,7 +26433,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26097,7 +26441,7 @@
         <v>26585</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26105,7 +26449,7 @@
         <v>27717</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26119,7 +26463,7 @@
         <v>33089</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26127,7 +26471,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26135,7 +26479,7 @@
         <v>130</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26143,7 +26487,7 @@
         <v>131</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26151,7 +26495,7 @@
         <v>132</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26159,7 +26503,7 @@
         <v>133</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26167,7 +26511,7 @@
         <v>141</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26175,7 +26519,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26183,7 +26527,7 @@
         <v>143</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26191,7 +26535,7 @@
         <v>144</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26199,7 +26543,7 @@
         <v>145</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26207,7 +26551,7 @@
         <v>3640</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26215,7 +26559,7 @@
         <v>4698</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26235,7 +26579,7 @@
         <v>10264</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26243,7 +26587,7 @@
         <v>10756</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26251,7 +26595,7 @@
         <v>12879</v>
       </c>
       <c r="B58" s="67" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26259,7 +26603,7 @@
         <v>14908</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26267,7 +26611,7 @@
         <v>18140</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26275,7 +26619,7 @@
         <v>21484</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26283,7 +26627,7 @@
         <v>24890</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26291,7 +26635,7 @@
         <v>28929</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26299,7 +26643,7 @@
         <v>31440</v>
       </c>
       <c r="B64" s="67" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26307,7 +26651,7 @@
         <v>34493</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26315,7 +26659,7 @@
         <v>14799</v>
       </c>
       <c r="B66" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26323,7 +26667,7 @@
         <v>15611</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26331,7 +26675,7 @@
         <v>18113</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26339,7 +26683,7 @@
         <v>21006</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26347,7 +26691,7 @@
         <v>23919</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26355,7 +26699,7 @@
         <v>26477</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26363,7 +26707,7 @@
         <v>29184</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26377,7 +26721,7 @@
         <v>11686</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26385,7 +26729,7 @@
         <v>12402</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26393,7 +26737,7 @@
         <v>16311</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26401,7 +26745,7 @@
         <v>18798</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26409,7 +26753,7 @@
         <v>23058</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26417,7 +26761,7 @@
         <v>25775</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26425,7 +26769,7 @@
         <v>28338</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26433,7 +26777,7 @@
         <v>30847</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26441,7 +26785,7 @@
         <v>3174</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26449,7 +26793,7 @@
         <v>3199</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26457,7 +26801,7 @@
         <v>3265</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26465,7 +26809,7 @@
         <v>3722</v>
       </c>
       <c r="B85" s="67" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26473,7 +26817,7 @@
         <v>3968</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26481,7 +26825,7 @@
         <v>4955</v>
       </c>
       <c r="B87" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26489,7 +26833,7 @@
         <v>5862</v>
       </c>
       <c r="B88" s="67" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26497,7 +26841,7 @@
         <v>6154</v>
       </c>
       <c r="B89" s="67" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26505,7 +26849,7 @@
         <v>7686</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26513,7 +26857,7 @@
         <v>7848</v>
       </c>
       <c r="B91" s="67" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26521,7 +26865,7 @@
         <v>9985</v>
       </c>
       <c r="B92" s="67" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26565,7 +26909,7 @@
         <v>21665</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26573,7 +26917,7 @@
         <v>22499</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26581,7 +26925,7 @@
         <v>24062</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26589,7 +26933,7 @@
         <v>27134</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26597,7 +26941,7 @@
         <v>29698</v>
       </c>
       <c r="B103" s="67" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26605,7 +26949,7 @@
         <v>32311</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26613,7 +26957,7 @@
         <v>34347</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -26657,31 +27001,31 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="B3" s="85" t="n">
         <v>41541</v>
@@ -26690,15 +27034,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="B4" s="85" t="n">
         <v>41626</v>
@@ -26707,15 +27051,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B5" s="85" t="n">
         <v>41668</v>
@@ -26724,15 +27068,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B6" s="85" t="n">
         <v>41680</v>
@@ -26741,15 +27085,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="B7" s="85" t="n">
         <v>41708</v>
@@ -26758,15 +27102,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="B8" s="85" t="n">
         <v>41731</v>
@@ -26775,15 +27119,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="B9" s="85" t="n">
         <v>41753</v>
@@ -26792,15 +27136,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B10" s="85" t="n">
         <v>41792</v>
@@ -26809,15 +27153,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B11" s="85" t="n">
         <v>41807</v>
@@ -26826,15 +27170,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="B12" s="85" t="n">
         <v>41876</v>
@@ -26843,15 +27187,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="B13" s="86" t="n">
         <v>41887</v>
@@ -26860,13 +27204,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="B14" s="86" t="n">
         <v>41906</v>
@@ -26875,13 +27219,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="B15" s="86" t="n">
         <v>41926</v>
@@ -26890,10 +27234,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26921,8 +27265,8 @@
   </sheetPr>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26946,13 +27290,13 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>188</v>
@@ -26961,7 +27305,7 @@
         <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26975,17 +27319,17 @@
         <v>500</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26999,17 +27343,17 @@
         <v>500</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="5" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27023,17 +27367,17 @@
         <v>600</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27047,17 +27391,17 @@
         <v>602</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="5" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27071,17 +27415,17 @@
         <v>602</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27095,17 +27439,17 @@
         <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="5" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27119,24 +27463,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B9" s="85" t="n">
         <v>41710</v>
@@ -27145,16 +27489,16 @@
         <v>600</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="H9" s="0"/>
     </row>
@@ -27169,19 +27513,19 @@
         <v>600</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27195,17 +27539,17 @@
         <v>600</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="5" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27219,17 +27563,17 @@
         <v>600</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="5" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27243,17 +27587,17 @@
         <v>600</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="5" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27267,19 +27611,19 @@
         <v>500</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27293,19 +27637,19 @@
         <v>600</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27319,19 +27663,19 @@
         <v>600</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27345,22 +27689,22 @@
         <v>500</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>428</v>
       </c>
@@ -27371,24 +27715,24 @@
         <v>500</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B19" s="85" t="n">
         <v>41880</v>
@@ -27397,24 +27741,24 @@
         <v>500</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B20" s="85" t="n">
         <v>41887</v>
@@ -27423,24 +27767,24 @@
         <v>500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B21" s="86" t="n">
         <v>41909</v>
@@ -27449,24 +27793,24 @@
         <v>500</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B22" s="86" t="n">
         <v>41929</v>
@@ -27475,19 +27819,45 @@
         <v>500</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>659</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="86" t="n">
+        <v>41943</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="457" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="588" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -2054,7 +2054,7 @@
     <t>Thomas samples + patient repeats</t>
   </si>
   <si>
-    <t>to be done</t>
+    <t>/ebio/abt6_sra/years/2014/11_05/HIVSwedenNexteraXT/</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2070,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2191,11 +2191,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Bitstream Vera Serif"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2298,7 +2293,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2635,10 +2630,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2655,8 +2646,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3546,14 +3537,15 @@
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15187,8 +15179,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15202,7 +15194,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19780,8 +19772,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -19794,7 +19786,7 @@
   </sheetPr>
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H242" activeCellId="0" sqref="H242"/>
     </sheetView>
   </sheetViews>
@@ -25841,6 +25833,7 @@
       <c r="A239" s="16" t="s">
         <v>553</v>
       </c>
+      <c r="B239" s="0"/>
       <c r="D239" s="16" t="n">
         <v>1</v>
       </c>
@@ -25861,6 +25854,7 @@
       <c r="A240" s="16" t="s">
         <v>555</v>
       </c>
+      <c r="B240" s="0"/>
       <c r="D240" s="16" t="n">
         <v>1</v>
       </c>
@@ -25881,6 +25875,7 @@
       <c r="A241" s="16" t="s">
         <v>556</v>
       </c>
+      <c r="B241" s="0"/>
       <c r="D241" s="16" t="n">
         <v>1</v>
       </c>
@@ -25901,6 +25896,7 @@
       <c r="A242" s="16" t="s">
         <v>557</v>
       </c>
+      <c r="B242" s="0"/>
       <c r="D242" s="16" t="n">
         <v>1</v>
       </c>
@@ -25921,6 +25917,7 @@
       <c r="A243" s="16" t="s">
         <v>558</v>
       </c>
+      <c r="B243" s="0"/>
       <c r="D243" s="16" t="n">
         <v>1</v>
       </c>
@@ -25941,6 +25938,7 @@
       <c r="A244" s="16" t="s">
         <v>559</v>
       </c>
+      <c r="B244" s="0"/>
       <c r="D244" s="16" t="n">
         <v>1</v>
       </c>
@@ -25961,6 +25959,7 @@
       <c r="A245" s="16" t="s">
         <v>560</v>
       </c>
+      <c r="B245" s="0"/>
       <c r="D245" s="16" t="n">
         <v>1</v>
       </c>
@@ -25981,7 +25980,7 @@
       <c r="A246" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="B246" s="84" t="s">
+      <c r="B246" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D246" s="16" t="n">
@@ -26123,8 +26122,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26965,8 +26964,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27027,7 +27026,7 @@
       <c r="A3" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B3" s="85" t="n">
+      <c r="B3" s="84" t="n">
         <v>41541</v>
       </c>
       <c r="C3" s="5" t="n">
@@ -27044,7 +27043,7 @@
       <c r="A4" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B4" s="85" t="n">
+      <c r="B4" s="84" t="n">
         <v>41626</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -27061,7 +27060,7 @@
       <c r="A5" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B5" s="85" t="n">
+      <c r="B5" s="84" t="n">
         <v>41668</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -27078,7 +27077,7 @@
       <c r="A6" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="85" t="n">
+      <c r="B6" s="84" t="n">
         <v>41680</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -27095,7 +27094,7 @@
       <c r="A7" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B7" s="84" t="n">
         <v>41708</v>
       </c>
       <c r="C7" s="5" t="n">
@@ -27112,7 +27111,7 @@
       <c r="A8" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B8" s="85" t="n">
+      <c r="B8" s="84" t="n">
         <v>41731</v>
       </c>
       <c r="C8" s="5" t="n">
@@ -27129,7 +27128,7 @@
       <c r="A9" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B9" s="85" t="n">
+      <c r="B9" s="84" t="n">
         <v>41753</v>
       </c>
       <c r="C9" s="5" t="n">
@@ -27146,7 +27145,7 @@
       <c r="A10" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B10" s="85" t="n">
+      <c r="B10" s="84" t="n">
         <v>41792</v>
       </c>
       <c r="C10" s="5" t="n">
@@ -27163,7 +27162,7 @@
       <c r="A11" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B11" s="85" t="n">
+      <c r="B11" s="84" t="n">
         <v>41807</v>
       </c>
       <c r="C11" s="5" t="n">
@@ -27180,7 +27179,7 @@
       <c r="A12" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B12" s="85" t="n">
+      <c r="B12" s="84" t="n">
         <v>41876</v>
       </c>
       <c r="C12" s="5" t="n">
@@ -27197,7 +27196,7 @@
       <c r="A13" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B13" s="86" t="n">
+      <c r="B13" s="85" t="n">
         <v>41887</v>
       </c>
       <c r="C13" s="5" t="n">
@@ -27212,7 +27211,7 @@
       <c r="A14" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B14" s="86" t="n">
+      <c r="B14" s="85" t="n">
         <v>41906</v>
       </c>
       <c r="C14" s="5" t="n">
@@ -27227,7 +27226,7 @@
       <c r="A15" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B15" s="86" t="n">
+      <c r="B15" s="85" t="n">
         <v>41926</v>
       </c>
       <c r="C15" s="5" t="n">
@@ -27251,8 +27250,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27266,7 +27265,7 @@
   <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27312,7 +27311,7 @@
       <c r="A2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="85" t="n">
+      <c r="B2" s="84" t="n">
         <v>41485</v>
       </c>
       <c r="C2" s="5" t="n">
@@ -27336,7 +27335,7 @@
       <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="85" t="n">
+      <c r="B3" s="84" t="n">
         <v>41547</v>
       </c>
       <c r="C3" s="5" t="n">
@@ -27360,7 +27359,7 @@
       <c r="A4" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="85" t="n">
+      <c r="B4" s="84" t="n">
         <v>41567</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -27384,7 +27383,7 @@
       <c r="A5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="85" t="n">
+      <c r="B5" s="84" t="n">
         <v>41649</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -27408,7 +27407,7 @@
       <c r="A6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="85" t="n">
+      <c r="B6" s="84" t="n">
         <v>41663</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -27432,7 +27431,7 @@
       <c r="A7" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B7" s="84" t="n">
         <v>41670</v>
       </c>
       <c r="C7" s="5" t="n">
@@ -27456,7 +27455,7 @@
       <c r="A8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="85" t="n">
+      <c r="B8" s="84" t="n">
         <v>41688</v>
       </c>
       <c r="C8" s="5" t="n">
@@ -27482,7 +27481,7 @@
       <c r="A9" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B9" s="85" t="n">
+      <c r="B9" s="84" t="n">
         <v>41710</v>
       </c>
       <c r="C9" s="5" t="n">
@@ -27506,7 +27505,7 @@
       <c r="A10" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="85" t="n">
+      <c r="B10" s="84" t="n">
         <v>41716</v>
       </c>
       <c r="C10" s="5" t="n">
@@ -27532,7 +27531,7 @@
       <c r="A11" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="85" t="n">
+      <c r="B11" s="84" t="n">
         <v>41738</v>
       </c>
       <c r="C11" s="5" t="n">
@@ -27556,7 +27555,7 @@
       <c r="A12" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="85" t="n">
+      <c r="B12" s="84" t="n">
         <v>41759</v>
       </c>
       <c r="C12" s="5" t="n">
@@ -27580,7 +27579,7 @@
       <c r="A13" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B13" s="85" t="n">
+      <c r="B13" s="84" t="n">
         <v>41771</v>
       </c>
       <c r="C13" s="5" t="n">
@@ -27604,7 +27603,7 @@
       <c r="A14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="85" t="n">
+      <c r="B14" s="84" t="n">
         <v>41779</v>
       </c>
       <c r="C14" s="5" t="n">
@@ -27630,7 +27629,7 @@
       <c r="A15" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="85" t="n">
+      <c r="B15" s="84" t="n">
         <v>41784</v>
       </c>
       <c r="C15" s="5" t="n">
@@ -27656,7 +27655,7 @@
       <c r="A16" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="85" t="n">
+      <c r="B16" s="84" t="n">
         <v>41801</v>
       </c>
       <c r="C16" s="5" t="n">
@@ -27682,7 +27681,7 @@
       <c r="A17" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B17" s="85" t="n">
+      <c r="B17" s="84" t="n">
         <v>41807</v>
       </c>
       <c r="C17" s="5" t="n">
@@ -27708,7 +27707,7 @@
       <c r="A18" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B18" s="85" t="n">
+      <c r="B18" s="84" t="n">
         <v>41829</v>
       </c>
       <c r="C18" s="5" t="n">
@@ -27734,7 +27733,7 @@
       <c r="A19" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B19" s="85" t="n">
+      <c r="B19" s="84" t="n">
         <v>41880</v>
       </c>
       <c r="C19" s="5" t="n">
@@ -27760,7 +27759,7 @@
       <c r="A20" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B20" s="85" t="n">
+      <c r="B20" s="84" t="n">
         <v>41887</v>
       </c>
       <c r="C20" s="5" t="n">
@@ -27786,7 +27785,7 @@
       <c r="A21" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B21" s="86" t="n">
+      <c r="B21" s="85" t="n">
         <v>41909</v>
       </c>
       <c r="C21" s="5" t="n">
@@ -27812,7 +27811,7 @@
       <c r="A22" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B22" s="86" t="n">
+      <c r="B22" s="85" t="n">
         <v>41929</v>
       </c>
       <c r="C22" s="5" t="n">
@@ -27838,7 +27837,7 @@
       <c r="A23" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B23" s="86" t="n">
+      <c r="B23" s="85" t="n">
         <v>41943</v>
       </c>
       <c r="C23" s="5" t="n">
@@ -27868,8 +27867,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="751">
   <si>
     <t>code</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>1:1 (0/1)</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
   <si>
     <t>F5 came out as almost only Micrococcus luteus NCTC 2665, complete genome, genbank CP001628.1</t>
@@ -3059,8 +3062,8 @@
   </sheetPr>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="J86:O87 J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3893,8 +3896,8 @@
   </sheetPr>
   <dimension ref="A1:G572"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F404" activeCellId="1" sqref="J86:O87 F404"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F404" activeCellId="0" sqref="F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5644,7 +5647,7 @@
       </c>
       <c r="G85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="25"/>
       <c r="B86" s="25" t="n">
         <v>15363</v>
@@ -15528,8 +15531,8 @@
   </sheetPr>
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86:O87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15748,7 +15751,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
@@ -18429,12 +18432,12 @@
         <v>172</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="70" t="n">
         <v>12879</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>172</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66" s="0"/>
     </row>
@@ -18873,7 +18876,7 @@
         <v>178</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68" s="0"/>
     </row>
@@ -19743,7 +19746,7 @@
         <v>185</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86" s="0"/>
     </row>
@@ -19786,7 +19789,7 @@
         <v>185</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87" s="0"/>
     </row>
@@ -19860,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>171</v>
@@ -20029,7 +20032,7 @@
         <v>187</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q92" s="0"/>
     </row>
@@ -20078,7 +20081,7 @@
         <v>172</v>
       </c>
       <c r="P93" s="80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>26</v>
@@ -20222,7 +20225,7 @@
       </c>
       <c r="P96" s="0"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="70" t="n">
         <v>21665</v>
       </c>
@@ -20366,7 +20369,7 @@
       </c>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="70" t="n">
         <v>27134</v>
       </c>
@@ -20572,8 +20575,8 @@
   </sheetPr>
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C282" activeCellId="1" sqref="J86:O87 C282"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C282" activeCellId="0" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20597,39 +20600,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F1" s="100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G1" s="100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J1" s="101" t="s">
         <v>104</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -20637,22 +20640,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
@@ -20660,25 +20663,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
@@ -20686,16 +20689,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -20709,24 +20712,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
@@ -20734,27 +20737,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -20762,27 +20765,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -20790,23 +20793,23 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -20814,10 +20817,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>26</v>
@@ -20825,12 +20828,12 @@
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B10" s="17" t="str">
         <f aca="false">LEFT(A10, FIND("_", A10, 1) - 1)</f>
@@ -20842,22 +20845,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B11" s="17" t="str">
         <f aca="false">LEFT(A11, FIND("_", A11, 1) - 1)</f>
@@ -20869,22 +20872,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B12" s="17" t="str">
         <f aca="false">LEFT(A12, FIND("_", A12, 1) - 1)</f>
@@ -20896,22 +20899,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B13" s="17" t="str">
         <f aca="false">LEFT(A13, FIND("_", A13, 1) - 1)</f>
@@ -20923,22 +20926,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B14" s="17" t="str">
         <f aca="false">LEFT(A14, FIND("_", A14, 1) - 1)</f>
@@ -20950,22 +20953,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B15" s="17" t="str">
         <f aca="false">LEFT(A15, FIND("_", A15, 1) - 1)</f>
@@ -20977,22 +20980,22 @@
         <v>2</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B16" s="17" t="str">
         <f aca="false">LEFT(A16, FIND("_", A16, 1) - 1)</f>
@@ -21004,22 +21007,22 @@
         <v>2</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B17" s="17" t="str">
         <f aca="false">LEFT(A17, FIND("_", A17, 1) - 1)</f>
@@ -21031,22 +21034,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B18" s="17" t="str">
         <f aca="false">LEFT(A18, FIND("_", A18, 1) - 1)</f>
@@ -21058,22 +21061,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -21082,22 +21085,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -21106,22 +21109,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -21129,22 +21132,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -21152,22 +21155,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -21175,22 +21178,22 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -21198,22 +21201,22 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -21221,22 +21224,22 @@
         <v>2</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -21244,22 +21247,22 @@
         <v>2</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" s="17" t="str">
         <f aca="false">LEFT(A27, FIND("_", A27, 1) - 1)</f>
@@ -21271,22 +21274,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" s="17" t="str">
         <f aca="false">LEFT(A28, FIND("_", A28, 1) - 1)</f>
@@ -21298,22 +21301,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" s="17" t="str">
         <f aca="false">LEFT(A29, FIND("_", A29, 1) - 1)</f>
@@ -21325,22 +21328,22 @@
         <v>2</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="102" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" s="17" t="str">
         <f aca="false">LEFT(A30, FIND("_", A30, 1) - 1)</f>
@@ -21352,22 +21355,22 @@
         <v>2</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="17" t="str">
         <f aca="false">LEFT(A31, FIND("_", A31, 1) - 1)</f>
@@ -21379,22 +21382,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="17" t="str">
         <f aca="false">LEFT(A32, FIND("_", A32, 1) - 1)</f>
@@ -21406,22 +21409,22 @@
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -21429,22 +21432,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -21452,22 +21455,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -21475,22 +21478,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -21498,22 +21501,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -21521,22 +21524,22 @@
         <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -21544,22 +21547,22 @@
         <v>2</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="102" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="17" t="str">
         <f aca="false">LEFT(A39, FIND("_", A39, 1) - 1)</f>
@@ -21571,22 +21574,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="17" t="str">
         <f aca="false">LEFT(A40, FIND("_", A40, 1) - 1)</f>
@@ -21598,22 +21601,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="102" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B41" s="17" t="str">
         <f aca="false">LEFT(A41, FIND("_", A41, 1) - 1)</f>
@@ -21625,43 +21628,43 @@
         <v>1</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" s="17" t="str">
         <f aca="false">LEFT(A43, FIND("_", A43, 1) - 1)</f>
@@ -21673,22 +21676,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" s="17" t="str">
         <f aca="false">LEFT(A44, FIND("_", A44, 1) - 1)</f>
@@ -21700,22 +21703,22 @@
         <v>2</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" s="17" t="str">
         <f aca="false">LEFT(A45, FIND("_", A45, 1) - 1)</f>
@@ -21727,37 +21730,37 @@
         <v>2</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -21769,16 +21772,16 @@
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
       <c r="E47" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I47" s="0"/>
     </row>
@@ -21790,22 +21793,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G48" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" s="17" t="str">
         <f aca="false">LEFT(A49, FIND("_", A49, 1) - 1)</f>
@@ -21817,25 +21820,25 @@
         <v>1</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="102" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B50" s="17" t="str">
         <f aca="false">LEFT(A50, FIND("_", A50, 1) - 1)</f>
@@ -21847,25 +21850,25 @@
         <v>1</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" s="17" t="str">
         <f aca="false">LEFT(A51, FIND("_", A51, 1) - 1)</f>
@@ -21877,22 +21880,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B52" s="17" t="str">
         <f aca="false">LEFT(A52, FIND("_", A52, 1) - 1)</f>
@@ -21904,127 +21907,127 @@
         <v>1</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" s="17" t="str">
         <f aca="false">LEFT(A54, FIND("_", A54, 1) - 1)</f>
         <v>VK01-2965</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D54" s="17" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B55" s="17" t="str">
         <f aca="false">LEFT(A55, FIND("_", A55, 1) - 1)</f>
         <v>05HR-0269</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D55" s="17" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" s="17" t="str">
         <f aca="false">LEFT(A56, FIND("_", A56, 1) - 1)</f>
         <v>VK09-1685</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D56" s="17" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B57" s="17" t="str">
         <f aca="false">LEFT(A57, FIND("_", A57, 1) - 1)</f>
@@ -22036,22 +22039,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" s="17" t="str">
         <f aca="false">LEFT(A58, FIND("_", A58, 1) - 1)</f>
@@ -22063,22 +22066,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" s="17" t="str">
         <f aca="false">LEFT(A59, FIND("_", A59, 1) - 1)</f>
@@ -22090,22 +22093,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" s="17" t="str">
         <f aca="false">LEFT(A60, FIND("_", A60, 1) - 1)</f>
@@ -22117,22 +22120,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" s="17" t="str">
         <f aca="false">LEFT(A61, FIND("_", A61, 1) - 1)</f>
@@ -22144,22 +22147,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="102" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" s="17" t="str">
         <f aca="false">LEFT(A62, FIND("_", A62, 1) - 1)</f>
@@ -22171,22 +22174,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B63" s="17" t="str">
         <f aca="false">LEFT(A63, FIND("_", A63, 1) - 1)</f>
@@ -22198,22 +22201,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B64" s="17" t="str">
         <f aca="false">LEFT(A64, FIND("_", A64, 1) - 1)</f>
@@ -22225,22 +22228,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="102" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B65" s="17" t="str">
         <f aca="false">LEFT(A65, FIND("_", A65, 1) - 1)</f>
@@ -22252,22 +22255,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="102" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B66" s="17" t="str">
         <f aca="false">LEFT(A66, FIND("_", A66, 1) - 1)</f>
@@ -22279,22 +22282,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B67" s="17" t="str">
         <f aca="false">LEFT(A67, FIND("_", A67, 1) - 1)</f>
@@ -22306,22 +22309,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="102" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B68" s="17" t="str">
         <f aca="false">LEFT(A68, FIND("_", A68, 1) - 1)</f>
@@ -22333,22 +22336,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="102" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B69" s="17" t="str">
         <f aca="false">LEFT(A69, FIND("_", A69, 1) - 1)</f>
@@ -22360,22 +22363,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" s="17" t="str">
         <f aca="false">LEFT(A70, FIND("_", A70, 1) - 1)</f>
@@ -22387,171 +22390,171 @@
         <v>1</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="102" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" s="0"/>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="102" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B74" s="0"/>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B75" s="0"/>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="102" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B76" s="17" t="str">
         <f aca="false">LEFT(A76, FIND("_", A76, 1) - 1)</f>
         <v>28338</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D76" s="17" t="str">
         <f aca="false">RIGHT(A76, LEN(A76) - FIND("_", A76) - 3)</f>
         <v>2</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="102" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B77" s="17" t="str">
         <f aca="false">LEFT(A77, FIND("_", A77, 1) - 1)</f>
         <v>29698</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D77" s="17" t="str">
         <f aca="false">RIGHT(A77, LEN(A77) - FIND("_", A77) - 3)</f>
         <v>2</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="102" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B78" s="17" t="str">
         <f aca="false">LEFT(A78, FIND("_", A78, 1) - 1)</f>
@@ -22563,21 +22566,21 @@
         <v>1</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="102" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B79" s="17" t="str">
         <f aca="false">LEFT(A79, FIND("_", A79, 1) - 1)</f>
@@ -22589,21 +22592,21 @@
         <v>1</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B80" s="17" t="str">
         <f aca="false">LEFT(A80, FIND("_", A80, 1) - 1)</f>
@@ -22615,21 +22618,21 @@
         <v>1</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="102" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B81" s="17" t="str">
         <f aca="false">LEFT(A81, FIND("_", A81, 1) - 1)</f>
@@ -22641,21 +22644,21 @@
         <v>1</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B82" s="17" t="str">
         <f aca="false">LEFT(A82, FIND("_", A82, 1) - 1)</f>
@@ -22667,21 +22670,21 @@
         <v>1</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B83" s="17" t="str">
         <f aca="false">LEFT(A83, FIND("_", A83, 1) - 1)</f>
@@ -22693,21 +22696,21 @@
         <v>1</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B84" s="17" t="str">
         <f aca="false">LEFT(A84, FIND("_", A84, 1) - 1)</f>
@@ -22719,21 +22722,21 @@
         <v>1</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B85" s="17" t="str">
         <f aca="false">LEFT(A85, FIND("_", A85, 1) - 1)</f>
@@ -22745,21 +22748,21 @@
         <v>1</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="102" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B86" s="17" t="str">
         <f aca="false">LEFT(A86, FIND("_", A86, 1) - 1)</f>
@@ -22771,21 +22774,21 @@
         <v>1</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="102" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B87" s="17" t="str">
         <f aca="false">LEFT(A87, FIND("_", A87, 1) - 1)</f>
@@ -22797,21 +22800,21 @@
         <v>1</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="102" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B88" s="17" t="str">
         <f aca="false">LEFT(A88, FIND("_", A88, 1) - 1)</f>
@@ -22823,21 +22826,21 @@
         <v>1</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="102" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B89" s="17" t="str">
         <f aca="false">LEFT(A89, FIND("_", A89, 1) - 1)</f>
@@ -22849,21 +22852,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="102" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B90" s="17" t="str">
         <f aca="false">LEFT(A90, FIND("_", A90, 1) - 1)</f>
@@ -22875,21 +22878,21 @@
         <v>1</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="102" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B91" s="17" t="str">
         <f aca="false">LEFT(A91, FIND("_", A91, 1) - 1)</f>
@@ -22901,21 +22904,21 @@
         <v>1</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="102" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B92" s="17" t="str">
         <f aca="false">LEFT(A92, FIND("_", A92, 1) - 1)</f>
@@ -22927,21 +22930,21 @@
         <v>1</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B93" s="17" t="str">
         <f aca="false">LEFT(A93, FIND("_", A93, 1) - 1)</f>
@@ -22953,21 +22956,21 @@
         <v>1</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B94" s="17" t="str">
         <f aca="false">LEFT(A94, FIND("_", A94, 1) - 1)</f>
@@ -22979,21 +22982,21 @@
         <v>1</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B95" s="17" t="str">
         <f aca="false">LEFT(A95, FIND("_", A95, 1) - 1)</f>
@@ -23005,21 +23008,21 @@
         <v>1</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B96" s="17" t="str">
         <f aca="false">LEFT(A96, FIND("_", A96, 1) - 1)</f>
@@ -23031,21 +23034,21 @@
         <v>1</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B97" s="17" t="str">
         <f aca="false">LEFT(A97, FIND("_", A97, 1) - 1)</f>
@@ -23057,21 +23060,21 @@
         <v>1</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="102" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B98" s="17" t="str">
         <f aca="false">LEFT(A98, FIND("_", A98, 1) - 1)</f>
@@ -23083,21 +23086,21 @@
         <v>1</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B99" s="17" t="str">
         <f aca="false">LEFT(A99, FIND("_", A99, 1) - 1)</f>
@@ -23109,21 +23112,21 @@
         <v>1</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B100" s="17" t="str">
         <f aca="false">LEFT(A100, FIND("_", A100, 1) - 1)</f>
@@ -23135,21 +23138,21 @@
         <v>1</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B101" s="17" t="str">
         <f aca="false">LEFT(A101, FIND("_", A101, 1) - 1)</f>
@@ -23161,21 +23164,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B102" s="17" t="str">
         <f aca="false">LEFT(A102, FIND("_", A102, 1) - 1)</f>
@@ -23187,21 +23190,21 @@
         <v>1</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B103" s="17" t="str">
         <f aca="false">LEFT(A103, FIND("_", A103, 1) - 1)</f>
@@ -23213,21 +23216,21 @@
         <v>1</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B104" s="17" t="str">
         <f aca="false">LEFT(A104, FIND("_", A104, 1) - 1)</f>
@@ -23239,21 +23242,21 @@
         <v>1</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B105" s="17" t="str">
         <f aca="false">LEFT(A105, FIND("_", A105, 1) - 1)</f>
@@ -23265,21 +23268,21 @@
         <v>1</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B106" s="17" t="str">
         <f aca="false">LEFT(A106, FIND("_", A106, 1) - 1)</f>
@@ -23291,21 +23294,21 @@
         <v>1</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B107" s="17" t="str">
         <f aca="false">LEFT(A107, FIND("_", A107, 1) - 1)</f>
@@ -23317,21 +23320,21 @@
         <v>1</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B108" s="17" t="str">
         <f aca="false">LEFT(A108, FIND("_", A108, 1) - 1)</f>
@@ -23343,21 +23346,21 @@
         <v>1</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B109" s="17" t="str">
         <f aca="false">LEFT(A109, FIND("_", A109, 1) - 1)</f>
@@ -23369,21 +23372,21 @@
         <v>1</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B110" s="17" t="str">
         <f aca="false">LEFT(A110, FIND("_", A110, 1) - 1)</f>
@@ -23395,21 +23398,21 @@
         <v>1</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B111" s="17" t="str">
         <f aca="false">LEFT(A111, FIND("_", A111, 1) - 1)</f>
@@ -23421,21 +23424,21 @@
         <v>1</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B112" s="17" t="str">
         <f aca="false">LEFT(A112, FIND("_", A112, 1) - 1)</f>
@@ -23447,21 +23450,21 @@
         <v>1</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B113" s="17" t="str">
         <f aca="false">LEFT(A113, FIND("_", A113, 1) - 1)</f>
@@ -23473,21 +23476,21 @@
         <v>1</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B114" s="17" t="str">
         <f aca="false">LEFT(A114, FIND("_", A114, 1) - 1)</f>
@@ -23499,21 +23502,21 @@
         <v>1</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B115" s="17" t="str">
         <f aca="false">LEFT(A115, FIND("_", A115, 1) - 1)</f>
@@ -23525,21 +23528,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B116" s="17" t="str">
         <f aca="false">LEFT(A116, FIND("_", A116, 1) - 1)</f>
@@ -23551,21 +23554,21 @@
         <v>1</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B117" s="17" t="str">
         <f aca="false">LEFT(A117, FIND("_", A117, 1) - 1)</f>
@@ -23577,21 +23580,21 @@
         <v>1</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="102" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B118" s="17" t="str">
         <f aca="false">LEFT(A118, FIND("_", A118, 1) - 1)</f>
@@ -23603,21 +23606,21 @@
         <v>1</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="102" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B119" s="17" t="str">
         <f aca="false">LEFT(A119, FIND("_", A119, 1) - 1)</f>
@@ -23629,21 +23632,21 @@
         <v>1</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="102" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B120" s="17" t="str">
         <f aca="false">LEFT(A120, FIND("_", A120, 1) - 1)</f>
@@ -23655,21 +23658,21 @@
         <v>1</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="102" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>110</v>
@@ -23680,21 +23683,21 @@
         <v>1</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="102" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>110</v>
@@ -23705,21 +23708,21 @@
         <v>1</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="102" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B123" s="17" t="n">
         <v>11686</v>
@@ -23730,21 +23733,21 @@
         <v>1</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="102" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B124" s="17" t="n">
         <v>11686</v>
@@ -23755,21 +23758,21 @@
         <v>1</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B125" s="17" t="n">
         <v>21665</v>
@@ -23780,21 +23783,21 @@
         <v>1</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="102" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B126" s="17" t="n">
         <v>21665</v>
@@ -23805,21 +23808,21 @@
         <v>1</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="102" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B127" s="17" t="str">
         <f aca="false">LEFT(A127, FIND("_", A127, 1) - 1)</f>
@@ -23831,61 +23834,61 @@
         <v>1</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B128" s="0"/>
       <c r="C128" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="102" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B129" s="0"/>
       <c r="C129" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
       <c r="F129" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="102" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B130" s="17" t="str">
         <f aca="false">LEFT(A130, FIND("_", A130, 1) - 1)</f>
@@ -23896,21 +23899,21 @@
         <v>1</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="102" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B131" s="17" t="str">
         <f aca="false">LEFT(A131, FIND("_", A131, 1) - 1)</f>
@@ -23921,21 +23924,21 @@
         <v>1</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="102" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B132" s="17" t="str">
         <f aca="false">LEFT(A132, FIND("_", A132, 1) - 1)</f>
@@ -23946,21 +23949,21 @@
         <v>1</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="102" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B133" s="17" t="str">
         <f aca="false">LEFT(A133, FIND("_", A133, 1) - 1)</f>
@@ -23971,21 +23974,21 @@
         <v>1</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="102" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B134" s="17" t="str">
         <f aca="false">LEFT(A134, FIND("_", A134, 1) - 1)</f>
@@ -23996,21 +23999,21 @@
         <v>1</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="102" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B135" s="17" t="str">
         <f aca="false">LEFT(A135, FIND("_", A135, 1) - 1)</f>
@@ -24021,21 +24024,21 @@
         <v>1</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="102" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B136" s="17" t="str">
         <f aca="false">LEFT(A136, FIND("_", A136, 1) - 1)</f>
@@ -24046,21 +24049,21 @@
         <v>1</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="102" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B137" s="17" t="str">
         <f aca="false">LEFT(A137, FIND("_", A137, 1) - 1)</f>
@@ -24071,21 +24074,21 @@
         <v>1</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="102" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B138" s="17" t="str">
         <f aca="false">LEFT(A138, FIND("_", A138, 1) - 1)</f>
@@ -24096,21 +24099,21 @@
         <v>1</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="102" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B139" s="17" t="str">
         <f aca="false">LEFT(A139, FIND("_", A139, 1) - 1)</f>
@@ -24121,21 +24124,21 @@
         <v>1</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="102" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B140" s="17" t="str">
         <f aca="false">LEFT(A140, FIND("_", A140, 1) - 1)</f>
@@ -24146,21 +24149,21 @@
         <v>1</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B141" s="17" t="str">
         <f aca="false">LEFT(A141, FIND("_", A141, 1) - 1)</f>
@@ -24171,21 +24174,21 @@
         <v>1</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="102" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B142" s="17" t="str">
         <f aca="false">LEFT(A142, FIND("_", A142, 1) - 1)</f>
@@ -24196,21 +24199,21 @@
         <v>1</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="102" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B143" s="17" t="str">
         <f aca="false">LEFT(A143, FIND("_", A143, 1) - 1)</f>
@@ -24221,21 +24224,21 @@
         <v>1</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="102" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B144" s="17" t="str">
         <f aca="false">LEFT(A144, FIND("_", A144, 1) - 1)</f>
@@ -24246,21 +24249,21 @@
         <v>1</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="102" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>110</v>
@@ -24270,21 +24273,21 @@
         <v>1</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="102" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>110</v>
@@ -24294,21 +24297,21 @@
         <v>1</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B147" s="17" t="n">
         <v>11686</v>
@@ -24318,21 +24321,21 @@
         <v>1</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="102" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B148" s="17" t="n">
         <v>11686</v>
@@ -24342,21 +24345,21 @@
         <v>1</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B149" s="17" t="n">
         <v>21665</v>
@@ -24366,21 +24369,21 @@
         <v>1</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="102" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B150" s="17" t="n">
         <v>21665</v>
@@ -24390,21 +24393,21 @@
         <v>1</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="102" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B151" s="17" t="str">
         <f aca="false">LEFT(A151, FIND("_", A151, 1) - 1)</f>
@@ -24415,61 +24418,61 @@
         <v>1</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="102" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="102" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
       <c r="F153" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="102" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B154" s="17" t="str">
         <f aca="false">LEFT(A154, FIND("_", A154, 1) - 1)</f>
@@ -24480,21 +24483,21 @@
         <v>1</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="102" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B155" s="17" t="str">
         <f aca="false">LEFT(A155, FIND("_", A155, 1) - 1)</f>
@@ -24505,24 +24508,24 @@
         <v>1</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="102" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B156" s="17" t="str">
         <f aca="false">LEFT(A156, FIND("_", A156, 1) - 1)</f>
@@ -24533,45 +24536,45 @@
         <v>1</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="102" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="102" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B158" s="17" t="str">
         <f aca="false">LEFT(A158, FIND("_", A158, 1) - 1)</f>
@@ -24582,24 +24585,24 @@
         <v>1</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="102" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" s="17" t="str">
         <f aca="false">LEFT(A159, FIND("_", A159, 1) - 1)</f>
@@ -24610,24 +24613,24 @@
         <v>1</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="102" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B160" s="17" t="str">
         <f aca="false">LEFT(A160, FIND("_", A160, 1) - 1)</f>
@@ -24638,21 +24641,21 @@
         <v>1</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="102" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B161" s="17" t="str">
         <f aca="false">LEFT(A161, FIND("_", A161, 1) - 1)</f>
@@ -24663,24 +24666,24 @@
         <v>1</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="102" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B162" s="17" t="str">
         <f aca="false">LEFT(A162, FIND("_", A162, 1) - 1)</f>
@@ -24691,21 +24694,21 @@
         <v>1</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="102" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B163" s="17" t="str">
         <f aca="false">LEFT(A163, FIND("_", A163, 1) - 1)</f>
@@ -24716,24 +24719,24 @@
         <v>1</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="102" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B164" s="17" t="str">
         <f aca="false">LEFT(A164, FIND("_", A164, 1) - 1)</f>
@@ -24744,50 +24747,50 @@
         <v>1</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="102" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D165" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="102" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>124</v>
@@ -24797,24 +24800,24 @@
         <v>1</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="102" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>134</v>
@@ -24824,21 +24827,21 @@
         <v>1</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="102" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>134</v>
@@ -24848,24 +24851,24 @@
         <v>1</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="102" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B169" s="17" t="str">
         <f aca="false">LEFT(A169, FIND("_", A169, 1) - 1)</f>
@@ -24876,24 +24879,24 @@
         <v>1</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="102" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B170" s="17" t="str">
         <f aca="false">LEFT(A170, FIND("_", A170, 1) - 1)</f>
@@ -24904,24 +24907,24 @@
         <v>1</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="102" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B171" s="17" t="str">
         <f aca="false">LEFT(A171, FIND("_", A171, 1) - 1)</f>
@@ -24932,21 +24935,21 @@
         <v>1</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="102" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B172" s="17" t="str">
         <f aca="false">LEFT(A172, FIND("_", A172, 1) - 1)</f>
@@ -24957,16 +24960,16 @@
         <v>1</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F172" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K172" s="0" t="s">
         <v>166</v>
@@ -24974,7 +24977,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="102" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B173" s="17" t="str">
         <f aca="false">LEFT(A173, FIND("_", A173, 1) - 1)</f>
@@ -24985,21 +24988,21 @@
         <v>1</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F173" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="102" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B174" s="17" t="str">
         <f aca="false">LEFT(A174, FIND("_", A174, 1) - 1)</f>
@@ -25010,21 +25013,21 @@
         <v>1</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="102" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B175" s="17" t="str">
         <f aca="false">LEFT(A175, FIND("_", A175, 1) - 1)</f>
@@ -25035,21 +25038,21 @@
         <v>1</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B176" s="17" t="str">
         <f aca="false">LEFT(A176, FIND("_", A176, 1) - 1)</f>
@@ -25060,16 +25063,16 @@
         <v>1</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>166</v>
@@ -25077,7 +25080,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="102" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B177" s="17" t="str">
         <f aca="false">LEFT(A177, FIND("_", A177, 1) - 1)</f>
@@ -25088,16 +25091,16 @@
         <v>1</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>166</v>
@@ -25105,7 +25108,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="102" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B178" s="17" t="str">
         <f aca="false">LEFT(A178, FIND("_", A178, 1) - 1)</f>
@@ -25118,24 +25121,24 @@
         <v>1</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F178" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="102" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B179" s="17" t="str">
         <f aca="false">LEFT(A179, FIND("_", A179, 1) - 1)</f>
@@ -25146,21 +25149,21 @@
         <v>1</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="102" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B180" s="17" t="str">
         <f aca="false">LEFT(A180, FIND("_", A180, 1) - 1)</f>
@@ -25171,21 +25174,21 @@
         <v>1</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="102" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B181" s="17" t="str">
         <f aca="false">LEFT(A181, FIND("_", A181, 1) - 1)</f>
@@ -25196,21 +25199,21 @@
         <v>1</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B182" s="17" t="str">
         <f aca="false">LEFT(A182, FIND("_", A182, 1) - 1)</f>
@@ -25221,21 +25224,21 @@
         <v>1</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="102" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B183" s="17" t="str">
         <f aca="false">LEFT(A183, FIND("_", A183, 1) - 1)</f>
@@ -25246,21 +25249,21 @@
         <v>1</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B184" s="17" t="str">
         <f aca="false">LEFT(A184, FIND("_", A184, 1) - 1)</f>
@@ -25271,21 +25274,21 @@
         <v>1</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B185" s="17" t="str">
         <f aca="false">LEFT(A185, FIND("_", A185, 1) - 1)</f>
@@ -25296,21 +25299,21 @@
         <v>1</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B186" s="17" t="n">
         <v>3265</v>
@@ -25320,21 +25323,21 @@
         <v>1</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="102" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B187" s="17" t="n">
         <v>3265</v>
@@ -25344,21 +25347,21 @@
         <v>1</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="102" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B188" s="17" t="str">
         <f aca="false">LEFT(A188, FIND("_", A188, 1) - 1)</f>
@@ -25369,21 +25372,21 @@
         <v>1</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="102" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B189" s="17" t="str">
         <f aca="false">LEFT(A189, FIND("_", A189, 1) - 1)</f>
@@ -25394,21 +25397,21 @@
         <v>1</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="102" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B190" s="17" t="str">
         <f aca="false">LEFT(A190, FIND("_", A190, 1) - 1)</f>
@@ -25419,21 +25422,21 @@
         <v>1</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="102" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B191" s="17" t="str">
         <f aca="false">LEFT(A191, FIND("_", A191, 1) - 1)</f>
@@ -25444,24 +25447,24 @@
         <v>1</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J191" s="103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="102" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B192" s="17" t="str">
         <f aca="false">LEFT(A192, FIND("_", A192, 1) - 1)</f>
@@ -25472,21 +25475,21 @@
         <v>1</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="102" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B193" s="17" t="str">
         <f aca="false">LEFT(A193, FIND("_", A193, 1) - 1)</f>
@@ -25497,21 +25500,21 @@
         <v>1</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="102" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B194" s="17" t="str">
         <f aca="false">LEFT(A194, FIND("_", A194, 1) - 1)</f>
@@ -25522,21 +25525,21 @@
         <v>1</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="102" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B195" s="17" t="str">
         <f aca="false">LEFT(A195, FIND("_", A195, 1) - 1)</f>
@@ -25547,21 +25550,21 @@
         <v>1</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B196" s="17" t="str">
         <f aca="false">LEFT(A196, FIND("_", A196, 1) - 1)</f>
@@ -25572,21 +25575,21 @@
         <v>1</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B197" s="17" t="str">
         <f aca="false">LEFT(A197, FIND("_", A197, 1) - 1)</f>
@@ -25597,21 +25600,21 @@
         <v>1</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="102" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B198" s="17" t="str">
         <f aca="false">LEFT(A198, FIND("_", A198, 1) - 1)</f>
@@ -25622,21 +25625,21 @@
         <v>1</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="102" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B199" s="17" t="str">
         <f aca="false">LEFT(A199, FIND("_", A199, 1) - 1)</f>
@@ -25647,21 +25650,21 @@
         <v>1</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="102" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B200" s="17" t="n">
         <v>31181</v>
@@ -25671,21 +25674,21 @@
         <v>1</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="102" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B201" s="17" t="n">
         <v>24060</v>
@@ -25695,21 +25698,21 @@
         <v>1</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="102" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B202" s="17" t="n">
         <v>30562</v>
@@ -25719,21 +25722,21 @@
         <v>1</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="102" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B203" s="17" t="n">
         <v>8452</v>
@@ -25743,21 +25746,21 @@
         <v>1</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="102" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>126</v>
@@ -25767,21 +25770,21 @@
         <v>1</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="102" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B205" s="17" t="n">
         <v>29184</v>
@@ -25791,21 +25794,21 @@
         <v>1</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="102" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B206" s="17" t="n">
         <v>30847</v>
@@ -25815,21 +25818,21 @@
         <v>1</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="102" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B207" s="17" t="s">
         <v>132</v>
@@ -25839,21 +25842,21 @@
         <v>1</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="102" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>145</v>
@@ -25863,21 +25866,21 @@
         <v>1</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F208" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="102" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B209" s="17" t="s">
         <v>131</v>
@@ -25887,50 +25890,50 @@
         <v>1</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F209" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G209" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="102" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B210" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D210" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="102" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B211" s="17" t="n">
         <v>28541</v>
@@ -25940,21 +25943,21 @@
         <v>1</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="102" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B212" s="17" t="n">
         <v>25268</v>
@@ -25964,21 +25967,21 @@
         <v>1</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="102" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B213" s="17" t="n">
         <v>5651</v>
@@ -25988,21 +25991,21 @@
         <v>1</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="102" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B214" s="17" t="n">
         <v>10110</v>
@@ -26012,21 +26015,21 @@
         <v>1</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="102" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B215" s="17" t="n">
         <v>3199</v>
@@ -26036,39 +26039,39 @@
         <v>1</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B216" s="0"/>
       <c r="C216" s="0"/>
       <c r="D216" s="0"/>
       <c r="E216" s="0"/>
       <c r="F216" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="102" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B217" s="17" t="n">
         <v>31181</v>
@@ -26078,21 +26081,21 @@
         <v>1</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="102" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B218" s="17" t="n">
         <v>24060</v>
@@ -26102,21 +26105,21 @@
         <v>1</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="102" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B219" s="17" t="n">
         <v>30562</v>
@@ -26126,21 +26129,21 @@
         <v>1</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="102" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B220" s="17" t="n">
         <v>8452</v>
@@ -26150,21 +26153,21 @@
         <v>1</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H220" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="102" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>126</v>
@@ -26174,21 +26177,21 @@
         <v>1</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="102" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B222" s="17" t="n">
         <v>30847</v>
@@ -26198,21 +26201,21 @@
         <v>1</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="102" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B223" s="17" t="s">
         <v>132</v>
@@ -26222,21 +26225,21 @@
         <v>1</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H223" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="102" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B224" s="17" t="s">
         <v>131</v>
@@ -26246,47 +26249,47 @@
         <v>1</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F224" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="102" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B225" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D225" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H225" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B226" s="17" t="n">
         <v>28541</v>
@@ -26296,21 +26299,21 @@
         <v>1</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H226" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="102" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B227" s="17" t="n">
         <v>25268</v>
@@ -26320,21 +26323,21 @@
         <v>1</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F227" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H227" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="102" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B228" s="17" t="n">
         <v>5651</v>
@@ -26344,21 +26347,21 @@
         <v>1</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F228" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H228" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="102" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B229" s="17" t="n">
         <v>10110</v>
@@ -26368,21 +26371,21 @@
         <v>1</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H229" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="102" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B230" s="17" t="n">
         <v>3199</v>
@@ -26392,21 +26395,21 @@
         <v>1</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>106</v>
@@ -26418,47 +26421,47 @@
         <v>1</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H231" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B232" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D232" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H232" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B233" s="17" t="s">
         <v>109</v>
@@ -26473,18 +26476,18 @@
         <v>2</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H233" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B234" s="17" t="s">
         <v>111</v>
@@ -26496,50 +26499,50 @@
         <v>1</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B235" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D235" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H235" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B236" s="17" t="s">
         <v>116</v>
@@ -26551,21 +26554,21 @@
         <v>1</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F236" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H236" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B237" s="17" t="n">
         <v>10756</v>
@@ -26577,21 +26580,21 @@
         <v>1</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F237" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H237" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B238" s="17" t="n">
         <v>26585</v>
@@ -26603,21 +26606,21 @@
         <v>1</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F238" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B239" s="0"/>
       <c r="C239" s="0"/>
@@ -26625,21 +26628,21 @@
         <v>1</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B240" s="0"/>
       <c r="C240" s="0"/>
@@ -26647,21 +26650,21 @@
         <v>1</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F240" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H240" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B241" s="0"/>
       <c r="C241" s="0"/>
@@ -26669,21 +26672,21 @@
         <v>1</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F241" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H241" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B242" s="0"/>
       <c r="C242" s="0"/>
@@ -26691,21 +26694,21 @@
         <v>1</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F242" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H242" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B243" s="0"/>
       <c r="C243" s="0"/>
@@ -26713,21 +26716,21 @@
         <v>1</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F243" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B244" s="0"/>
       <c r="C244" s="0"/>
@@ -26735,21 +26738,21 @@
         <v>1</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F244" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H244" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B245" s="0"/>
       <c r="C245" s="0"/>
@@ -26757,21 +26760,21 @@
         <v>1</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F245" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H245" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B246" s="17" t="s">
         <v>113</v>
@@ -26781,21 +26784,21 @@
         <v>1</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F246" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B247" s="17" t="s">
         <v>115</v>
@@ -26805,21 +26808,21 @@
         <v>1</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F247" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B248" s="17" t="s">
         <v>125</v>
@@ -26829,21 +26832,21 @@
         <v>1</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F248" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H248" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B249" s="17" t="s">
         <v>119</v>
@@ -26853,24 +26856,24 @@
         <v>1</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F249" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H249" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B250" s="17" t="n">
         <v>23058</v>
@@ -26880,21 +26883,21 @@
         <v>1</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F250" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H250" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B251" s="17" t="n">
         <v>12402</v>
@@ -26904,21 +26907,21 @@
         <v>1</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F251" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H251" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B252" s="17" t="n">
         <v>3968</v>
@@ -26928,24 +26931,24 @@
         <v>1</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F252" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G252" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H252" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B253" s="17" t="n">
         <v>33460</v>
@@ -26955,21 +26958,21 @@
         <v>1</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F253" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H253" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B254" s="17" t="s">
         <v>118</v>
@@ -26979,21 +26982,21 @@
         <v>1</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B255" s="17" t="s">
         <v>119</v>
@@ -27003,21 +27006,21 @@
         <v>1</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F255" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H255" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B256" s="17" t="n">
         <v>27717</v>
@@ -27027,21 +27030,21 @@
         <v>1</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F256" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H256" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B257" s="17" t="s">
         <v>134</v>
@@ -27051,21 +27054,21 @@
         <v>1</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F257" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B258" s="17" t="s">
         <v>142</v>
@@ -27075,21 +27078,21 @@
         <v>1</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F258" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B259" s="17" t="s">
         <v>144</v>
@@ -27099,21 +27102,21 @@
         <v>1</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F259" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B260" s="17" t="n">
         <v>14799</v>
@@ -27123,21 +27126,21 @@
         <v>1</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F260" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B261" s="17" t="n">
         <v>3265</v>
@@ -27147,21 +27150,21 @@
         <v>1</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H261" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B262" s="17" t="n">
         <v>7686</v>
@@ -27171,21 +27174,21 @@
         <v>1</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B263" s="17" t="n">
         <v>10264</v>
@@ -27195,21 +27198,21 @@
         <v>1</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F263" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H263" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B264" s="17" t="n">
         <v>12879</v>
@@ -27222,18 +27225,18 @@
         <v>4</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H264" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B265" s="17" t="n">
         <v>18798</v>
@@ -27245,21 +27248,21 @@
         <v>1</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H265" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B266" s="17" t="n">
         <v>25268</v>
@@ -27269,21 +27272,21 @@
         <v>1</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B267" s="17" t="s">
         <v>120</v>
@@ -27293,47 +27296,47 @@
         <v>1</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="17" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D268" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H268" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="17" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B269" s="17" t="s">
         <v>123</v>
@@ -27343,21 +27346,21 @@
         <v>1</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H269" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B270" s="17" t="s">
         <v>124</v>
@@ -27367,21 +27370,21 @@
         <v>1</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F270" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="17" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B271" s="17" t="s">
         <v>125</v>
@@ -27391,21 +27394,21 @@
         <v>1</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F271" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G271" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H271" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B272" s="17" t="n">
         <v>31440</v>
@@ -27415,24 +27418,24 @@
         <v>1</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H272" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B273" s="17" t="n">
         <v>4158</v>
@@ -27442,21 +27445,21 @@
         <v>1</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H273" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B274" s="17" t="s">
         <v>131</v>
@@ -27469,18 +27472,18 @@
         <v>6</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H274" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="17" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B275" s="17" t="n">
         <v>3460</v>
@@ -27490,21 +27493,21 @@
         <v>1</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H275" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="17" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B276" s="17" t="n">
         <v>5862</v>
@@ -27516,21 +27519,21 @@
         <v>1</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H276" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="17" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B277" s="17" t="n">
         <v>10110</v>
@@ -27540,21 +27543,21 @@
         <v>1</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H277" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="17" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B278" s="17" t="n">
         <v>32311</v>
@@ -27564,27 +27567,27 @@
         <v>1</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H278" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B279" s="70" t="s">
         <v>182</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D279" s="17" t="n">
         <v>1</v>
@@ -27593,24 +27596,24 @@
         <v>4</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H279" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B280" s="70" t="s">
         <v>182</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D280" s="17" t="n">
         <v>2</v>
@@ -27619,24 +27622,24 @@
         <v>4</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H280" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B281" s="70" t="s">
         <v>182</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D281" s="17" t="n">
         <v>2</v>
@@ -27645,24 +27648,24 @@
         <v>4</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H281" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B282" s="70" t="s">
         <v>182</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D282" s="17" t="n">
         <v>1</v>
@@ -27671,13 +27674,13 @@
         <v>4</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H282" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -27699,8 +27702,8 @@
   </sheetPr>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="J86:O87 A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27715,7 +27718,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27723,7 +27726,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27731,7 +27734,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27739,7 +27742,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27747,7 +27750,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27755,7 +27758,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27763,7 +27766,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27771,7 +27774,7 @@
         <v>112</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27779,7 +27782,7 @@
         <v>113</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27787,7 +27790,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27795,7 +27798,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27803,7 +27806,7 @@
         <v>116</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27811,7 +27814,7 @@
         <v>117</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27819,7 +27822,7 @@
         <v>25304</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27839,7 +27842,7 @@
         <v>33460</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27847,7 +27850,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27855,7 +27858,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27863,7 +27866,7 @@
         <v>18601</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27871,7 +27874,7 @@
         <v>20979</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27879,7 +27882,7 @@
         <v>23030</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27893,7 +27896,7 @@
         <v>27548</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27901,7 +27904,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27909,7 +27912,7 @@
         <v>122</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27917,7 +27920,7 @@
         <v>123</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27925,7 +27928,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27933,7 +27936,7 @@
         <v>125</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27941,7 +27944,7 @@
         <v>20883</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27955,7 +27958,7 @@
         <v>27993</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27963,7 +27966,7 @@
         <v>31023</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27971,7 +27974,7 @@
         <v>33873</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27979,7 +27982,7 @@
         <v>126</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27987,7 +27990,7 @@
         <v>127</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27995,7 +27998,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28003,7 +28006,7 @@
         <v>26585</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28011,7 +28014,7 @@
         <v>27717</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28025,7 +28028,7 @@
         <v>33089</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28033,7 +28036,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28041,7 +28044,7 @@
         <v>131</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28049,7 +28052,7 @@
         <v>132</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28057,7 +28060,7 @@
         <v>133</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28065,7 +28068,7 @@
         <v>134</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28073,7 +28076,7 @@
         <v>142</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28081,7 +28084,7 @@
         <v>143</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28089,7 +28092,7 @@
         <v>144</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28097,7 +28100,7 @@
         <v>145</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28105,7 +28108,7 @@
         <v>146</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28113,7 +28116,7 @@
         <v>3640</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28121,7 +28124,7 @@
         <v>4698</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28141,7 +28144,7 @@
         <v>10264</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28149,7 +28152,7 @@
         <v>10756</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28157,7 +28160,7 @@
         <v>12879</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28165,7 +28168,7 @@
         <v>14908</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28173,7 +28176,7 @@
         <v>18140</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28181,7 +28184,7 @@
         <v>21484</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28189,7 +28192,7 @@
         <v>24890</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28197,7 +28200,7 @@
         <v>28929</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28205,7 +28208,7 @@
         <v>31440</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28213,7 +28216,7 @@
         <v>34493</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28221,7 +28224,7 @@
         <v>14799</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28229,7 +28232,7 @@
         <v>15611</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28237,7 +28240,7 @@
         <v>18113</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28245,7 +28248,7 @@
         <v>21006</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28253,7 +28256,7 @@
         <v>23919</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28261,7 +28264,7 @@
         <v>26477</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28269,7 +28272,7 @@
         <v>29184</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28283,7 +28286,7 @@
         <v>11686</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28291,7 +28294,7 @@
         <v>12402</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28299,7 +28302,7 @@
         <v>16311</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28307,7 +28310,7 @@
         <v>18798</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28315,7 +28318,7 @@
         <v>23058</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28323,7 +28326,7 @@
         <v>25775</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28331,7 +28334,7 @@
         <v>28338</v>
       </c>
       <c r="B80" s="68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28339,7 +28342,7 @@
         <v>30847</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28347,7 +28350,7 @@
         <v>3174</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28355,7 +28358,7 @@
         <v>3199</v>
       </c>
       <c r="B83" s="68" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28363,7 +28366,7 @@
         <v>3265</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28371,7 +28374,7 @@
         <v>3722</v>
       </c>
       <c r="B85" s="68" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28379,7 +28382,7 @@
         <v>3968</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28387,7 +28390,7 @@
         <v>4955</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28395,7 +28398,7 @@
         <v>5862</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28403,7 +28406,7 @@
         <v>6154</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28411,7 +28414,7 @@
         <v>7686</v>
       </c>
       <c r="B90" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28419,7 +28422,7 @@
         <v>7848</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28427,7 +28430,7 @@
         <v>9985</v>
       </c>
       <c r="B92" s="68" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28471,7 +28474,7 @@
         <v>21665</v>
       </c>
       <c r="B99" s="68" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28479,7 +28482,7 @@
         <v>22499</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28487,7 +28490,7 @@
         <v>24062</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28495,7 +28498,7 @@
         <v>27134</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28503,7 +28506,7 @@
         <v>29698</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28511,7 +28514,7 @@
         <v>32311</v>
       </c>
       <c r="B104" s="68" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28519,7 +28522,7 @@
         <v>34347</v>
       </c>
       <c r="B105" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -28541,8 +28544,8 @@
   </sheetPr>
   <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="J86:O87 E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28563,31 +28566,31 @@
         <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B3" s="104" t="n">
         <v>41541</v>
@@ -28596,15 +28599,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B4" s="104" t="n">
         <v>41626</v>
@@ -28613,15 +28616,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B5" s="104" t="n">
         <v>41668</v>
@@ -28630,15 +28633,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B6" s="104" t="n">
         <v>41680</v>
@@ -28647,15 +28650,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B7" s="104" t="n">
         <v>41708</v>
@@ -28664,15 +28667,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B8" s="104" t="n">
         <v>41731</v>
@@ -28681,15 +28684,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B9" s="104" t="n">
         <v>41753</v>
@@ -28698,15 +28701,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B10" s="104" t="n">
         <v>41792</v>
@@ -28715,15 +28718,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B11" s="104" t="n">
         <v>41807</v>
@@ -28732,15 +28735,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B12" s="104" t="n">
         <v>41876</v>
@@ -28749,15 +28752,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B13" s="105" t="n">
         <v>41887</v>
@@ -28766,13 +28769,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B14" s="105" t="n">
         <v>41906</v>
@@ -28781,13 +28784,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B15" s="105" t="n">
         <v>41926</v>
@@ -28796,10 +28799,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -28827,8 +28830,8 @@
   </sheetPr>
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="J86:O87 H25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28852,27 +28855,27 @@
         <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="104" t="n">
         <v>41485</v>
@@ -28881,22 +28884,22 @@
         <v>500</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="104" t="n">
         <v>41547</v>
@@ -28905,22 +28908,22 @@
         <v>500</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="104" t="n">
         <v>41567</v>
@@ -28929,22 +28932,22 @@
         <v>600</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" s="104" t="n">
         <v>41649</v>
@@ -28953,22 +28956,22 @@
         <v>602</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="104" t="n">
         <v>41663</v>
@@ -28977,22 +28980,22 @@
         <v>602</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="104" t="n">
         <v>41670</v>
@@ -29001,22 +29004,22 @@
         <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" s="104" t="n">
         <v>41688</v>
@@ -29025,24 +29028,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B9" s="104" t="n">
         <v>41710</v>
@@ -29051,22 +29054,22 @@
         <v>600</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B10" s="104" t="n">
         <v>41716</v>
@@ -29075,24 +29078,24 @@
         <v>600</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B11" s="104" t="n">
         <v>41738</v>
@@ -29101,22 +29104,22 @@
         <v>600</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B12" s="104" t="n">
         <v>41759</v>
@@ -29125,22 +29128,22 @@
         <v>600</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B13" s="104" t="n">
         <v>41771</v>
@@ -29149,22 +29152,22 @@
         <v>600</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B14" s="104" t="n">
         <v>41779</v>
@@ -29173,24 +29176,24 @@
         <v>500</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B15" s="104" t="n">
         <v>41784</v>
@@ -29199,24 +29202,24 @@
         <v>600</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B16" s="104" t="n">
         <v>41801</v>
@@ -29225,24 +29228,24 @@
         <v>600</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B17" s="104" t="n">
         <v>41807</v>
@@ -29251,24 +29254,24 @@
         <v>500</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B18" s="104" t="n">
         <v>41829</v>
@@ -29277,24 +29280,24 @@
         <v>500</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B19" s="104" t="n">
         <v>41880</v>
@@ -29303,24 +29306,24 @@
         <v>500</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B20" s="104" t="n">
         <v>41887</v>
@@ -29329,24 +29332,24 @@
         <v>500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B21" s="105" t="n">
         <v>41909</v>
@@ -29355,24 +29358,24 @@
         <v>500</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B22" s="105" t="n">
         <v>41929</v>
@@ -29381,24 +29384,24 @@
         <v>500</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B23" s="105" t="n">
         <v>41943</v>
@@ -29407,24 +29410,24 @@
         <v>500</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B24" s="105" t="n">
         <v>41963</v>
@@ -29433,24 +29436,24 @@
         <v>500</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B25" s="105" t="n">
         <v>41974</v>
@@ -29459,19 +29462,19 @@
         <v>500</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="390" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="390" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -95,7 +95,7 @@
     <t>p1</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>AE</t>
   </si>
   <si>
     <t>last neg was some time '96 or just wrong</t>
@@ -2324,13 +2324,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2408,6 +2401,13 @@
       <color rgb="FFFF0000"/>
       <name val="Bitstream Vera Serif"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2562,26 +2562,26 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2599,11 +2599,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2611,23 +2611,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2635,7 +2635,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2647,195 +2647,195 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2843,11 +2843,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2855,11 +2855,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2891,27 +2891,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2919,11 +2919,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="6" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="6" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2931,19 +2931,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="6" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="6" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2951,7 +2951,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2959,15 +2959,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="8" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="8" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2979,15 +2979,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2999,19 +2999,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="4" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3035,11 +3035,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal_Blad1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
     <cellStyle name="Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
@@ -3113,8 +3113,8 @@
   </sheetPr>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="H:H J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3948,7 +3948,7 @@
   <dimension ref="A1:G572"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F404" activeCellId="1" sqref="H:H F404"/>
+      <selection pane="topLeft" activeCell="F404" activeCellId="0" sqref="F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15582,8 +15582,8 @@
   </sheetPr>
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18267,7 +18267,9 @@
         <v>182</v>
       </c>
       <c r="E55" s="72"/>
-      <c r="F55" s="63"/>
+      <c r="F55" s="63" t="n">
+        <v>530</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="91" t="s">
         <v>197</v>
@@ -18291,6 +18293,8 @@
       <c r="O55" s="82" t="s">
         <v>186</v>
       </c>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="72" t="s">
@@ -18447,7 +18451,9 @@
         <v>2045</v>
       </c>
       <c r="E59" s="72"/>
-      <c r="F59" s="63"/>
+      <c r="F59" s="63" t="n">
+        <v>640</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="92" t="s">
         <v>176</v>
@@ -20723,7 +20729,7 @@
   <dimension ref="A1:K282"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C282" activeCellId="1" sqref="H:H C282"/>
+      <selection pane="topLeft" activeCell="C282" activeCellId="0" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27850,7 +27856,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="H:H A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28692,7 +28698,7 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="H:H E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28978,7 +28984,7 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H:H"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="672" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="672" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" state="visible" r:id="rId2"/>
@@ -2309,7 +2309,7 @@
     <t>/ebio/abt6_sra/years/2014/06_23/HIVSwedenNexteraXTDualIndex/</t>
   </si>
   <si>
-    <t>16 pat samples + 1 THOMAS</t>
+    <t>16 pat samples (some with A. thaliana as buffer) + 1 THOMAS</t>
   </si>
   <si>
     <t>drop at read 300</t>
@@ -2665,7 +2665,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3050,10 +3050,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3138,12 +3134,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4034,8 +4030,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13956,8 +13952,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13969,7 +13965,7 @@
   </sheetPr>
   <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -19492,7 +19488,7 @@
       <c r="E78" s="89"/>
       <c r="F78" s="89"/>
       <c r="G78" s="65"/>
-      <c r="H78" s="96"/>
+      <c r="H78" s="95"/>
       <c r="I78" s="68" t="s">
         <v>192</v>
       </c>
@@ -19704,7 +19700,7 @@
       <c r="G81" s="65" t="n">
         <v>66.6666666666667</v>
       </c>
-      <c r="H81" s="97" t="s">
+      <c r="H81" s="96" t="s">
         <v>177</v>
       </c>
       <c r="I81" s="68" t="s">
@@ -20276,7 +20272,7 @@
       <c r="G89" s="65" t="n">
         <v>10933.3333333333</v>
       </c>
-      <c r="H89" s="98" t="s">
+      <c r="H89" s="97" t="s">
         <v>183</v>
       </c>
       <c r="I89" s="68" t="s">
@@ -20343,8 +20339,8 @@
       <c r="F90" s="74" t="n">
         <v>280</v>
       </c>
-      <c r="G90" s="99"/>
-      <c r="H90" s="97" t="s">
+      <c r="G90" s="98"/>
+      <c r="H90" s="96" t="s">
         <v>207</v>
       </c>
       <c r="I90" s="68" t="s">
@@ -20412,7 +20408,7 @@
       <c r="E91" s="74"/>
       <c r="F91" s="74"/>
       <c r="G91" s="65"/>
-      <c r="H91" s="97" t="s">
+      <c r="H91" s="96" t="s">
         <v>207</v>
       </c>
       <c r="I91" s="68" t="s">
@@ -20486,7 +20482,7 @@
       <c r="G92" s="65" t="n">
         <v>66.7333333333333</v>
       </c>
-      <c r="H92" s="98" t="s">
+      <c r="H92" s="97" t="s">
         <v>177</v>
       </c>
       <c r="I92" s="68" t="s">
@@ -20556,7 +20552,7 @@
       <c r="G93" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="H93" s="100" t="s">
+      <c r="H93" s="99" t="s">
         <v>218</v>
       </c>
       <c r="I93" s="68" t="s">
@@ -20627,7 +20623,7 @@
       <c r="G94" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="H94" s="97" t="s">
+      <c r="H94" s="96" t="s">
         <v>177</v>
       </c>
       <c r="I94" s="68" t="s">
@@ -20723,7 +20719,7 @@
       <c r="O95" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="P95" s="101"/>
+      <c r="P95" s="100"/>
       <c r="Q95" s="65" t="s">
         <v>180</v>
       </c>
@@ -20894,26 +20890,26 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="102" t="n">
+      <c r="A98" s="101" t="n">
         <v>9985</v>
       </c>
-      <c r="B98" s="102" t="n">
+      <c r="B98" s="101" t="n">
         <v>15034</v>
       </c>
-      <c r="C98" s="103" t="n">
+      <c r="C98" s="102" t="n">
         <v>35241</v>
       </c>
-      <c r="D98" s="104" t="n">
+      <c r="D98" s="103" t="n">
         <v>2190.5</v>
       </c>
-      <c r="E98" s="102" t="n">
+      <c r="E98" s="101" t="n">
         <v>12000</v>
       </c>
       <c r="F98" s="74"/>
       <c r="G98" s="65" t="n">
         <v>800</v>
       </c>
-      <c r="H98" s="105" t="s">
+      <c r="H98" s="104" t="s">
         <v>181</v>
       </c>
       <c r="I98" s="68" t="s">
@@ -20964,26 +20960,26 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="102" t="n">
+      <c r="A99" s="101" t="n">
         <v>10110</v>
       </c>
-      <c r="B99" s="102" t="n">
+      <c r="B99" s="101" t="n">
         <v>15034</v>
       </c>
-      <c r="C99" s="103" t="n">
+      <c r="C99" s="102" t="n">
         <v>35268</v>
       </c>
-      <c r="D99" s="104" t="n">
+      <c r="D99" s="103" t="n">
         <v>2217.5</v>
       </c>
-      <c r="E99" s="102" t="n">
+      <c r="E99" s="101" t="n">
         <v>10500</v>
       </c>
       <c r="F99" s="74"/>
       <c r="G99" s="65" t="n">
         <v>700</v>
       </c>
-      <c r="H99" s="106" t="s">
+      <c r="H99" s="105" t="s">
         <v>177</v>
       </c>
       <c r="I99" s="68" t="s">
@@ -21342,7 +21338,7 @@
       <c r="G104" s="65" t="n">
         <v>4200</v>
       </c>
-      <c r="H104" s="107" t="s">
+      <c r="H104" s="106" t="s">
         <v>184</v>
       </c>
       <c r="I104" s="68" t="s">
@@ -21541,8 +21537,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -21575,43 +21571,43 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57589285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="108" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="108" t="s">
+    <row r="1" s="107" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="107" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="109" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="0"/>
@@ -21634,7 +21630,7 @@
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>234</v>
       </c>
       <c r="B3" s="0"/>
@@ -21660,7 +21656,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>237</v>
       </c>
       <c r="B4" s="0"/>
@@ -21683,7 +21679,7 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="110" t="n">
+      <c r="A5" s="109" t="n">
         <v>37024</v>
       </c>
       <c r="B5" s="0"/>
@@ -21708,7 +21704,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="109" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="0"/>
@@ -21736,7 +21732,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>245</v>
       </c>
       <c r="B7" s="0"/>
@@ -21764,7 +21760,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="109" t="s">
         <v>248</v>
       </c>
       <c r="B8" s="0"/>
@@ -21788,7 +21784,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="109" t="s">
         <v>253</v>
       </c>
       <c r="B9" s="0"/>
@@ -21812,7 +21808,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="109" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="14" t="str">
@@ -21839,7 +21835,7 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="109" t="s">
         <v>257</v>
       </c>
       <c r="B11" s="14" t="str">
@@ -21866,7 +21862,7 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="109" t="s">
         <v>258</v>
       </c>
       <c r="B12" s="14" t="str">
@@ -21893,7 +21889,7 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="109" t="s">
         <v>260</v>
       </c>
       <c r="B13" s="14" t="str">
@@ -21920,7 +21916,7 @@
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="109" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="14" t="str">
@@ -21947,7 +21943,7 @@
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="109" t="s">
         <v>263</v>
       </c>
       <c r="B15" s="14" t="str">
@@ -21974,7 +21970,7 @@
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>265</v>
       </c>
       <c r="B16" s="14" t="str">
@@ -22001,7 +21997,7 @@
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>267</v>
       </c>
       <c r="B17" s="14" t="str">
@@ -22028,7 +22024,7 @@
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="109" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="14" t="str">
@@ -22055,7 +22051,7 @@
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="109" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="0"/>
@@ -22079,7 +22075,7 @@
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="109" t="s">
         <v>275</v>
       </c>
       <c r="B20" s="0"/>
@@ -22103,7 +22099,7 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>277</v>
       </c>
       <c r="B21" s="0"/>
@@ -22126,7 +22122,7 @@
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>279</v>
       </c>
       <c r="B22" s="0"/>
@@ -22149,7 +22145,7 @@
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="109" t="s">
         <v>281</v>
       </c>
       <c r="B23" s="0"/>
@@ -22172,7 +22168,7 @@
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="109" t="s">
         <v>283</v>
       </c>
       <c r="B24" s="0"/>
@@ -22195,7 +22191,7 @@
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="109" t="s">
         <v>285</v>
       </c>
       <c r="B25" s="0"/>
@@ -22218,7 +22214,7 @@
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="109" t="s">
         <v>287</v>
       </c>
       <c r="B26" s="0"/>
@@ -22241,7 +22237,7 @@
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="109" t="s">
         <v>288</v>
       </c>
       <c r="B27" s="14" t="str">
@@ -22268,7 +22264,7 @@
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="109" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="14" t="str">
@@ -22295,7 +22291,7 @@
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="109" t="s">
         <v>290</v>
       </c>
       <c r="B29" s="14" t="str">
@@ -22322,7 +22318,7 @@
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="109" t="s">
         <v>291</v>
       </c>
       <c r="B30" s="14" t="str">
@@ -22349,7 +22345,7 @@
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="109" t="s">
         <v>292</v>
       </c>
       <c r="B31" s="14" t="str">
@@ -22376,7 +22372,7 @@
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="109" t="s">
         <v>293</v>
       </c>
       <c r="B32" s="14" t="str">
@@ -22403,7 +22399,7 @@
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="109" t="s">
         <v>294</v>
       </c>
       <c r="B33" s="0"/>
@@ -22426,7 +22422,7 @@
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="109" t="s">
         <v>296</v>
       </c>
       <c r="B34" s="0"/>
@@ -22449,7 +22445,7 @@
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="109" t="s">
         <v>298</v>
       </c>
       <c r="B35" s="0"/>
@@ -22472,7 +22468,7 @@
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="109" t="s">
         <v>302</v>
       </c>
       <c r="B36" s="0"/>
@@ -22495,7 +22491,7 @@
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="109" t="s">
         <v>304</v>
       </c>
       <c r="B37" s="0"/>
@@ -22518,7 +22514,7 @@
       <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="109" t="s">
         <v>306</v>
       </c>
       <c r="B38" s="0"/>
@@ -22541,7 +22537,7 @@
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="109" t="s">
         <v>308</v>
       </c>
       <c r="B39" s="14" t="str">
@@ -22568,7 +22564,7 @@
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="109" t="s">
         <v>310</v>
       </c>
       <c r="B40" s="14" t="str">
@@ -22595,7 +22591,7 @@
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="109" t="s">
         <v>312</v>
       </c>
       <c r="B41" s="14" t="str">
@@ -22622,7 +22618,7 @@
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="109" t="s">
         <v>314</v>
       </c>
       <c r="B42" s="0"/>
@@ -22643,7 +22639,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="109" t="s">
         <v>319</v>
       </c>
       <c r="B43" s="14" t="str">
@@ -22670,7 +22666,7 @@
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="109" t="s">
         <v>321</v>
       </c>
       <c r="B44" s="14" t="str">
@@ -22697,7 +22693,7 @@
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="109" t="s">
         <v>322</v>
       </c>
       <c r="B45" s="14" t="str">
@@ -22724,7 +22720,7 @@
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="109" t="s">
         <v>323</v>
       </c>
       <c r="B46" s="0"/>
@@ -22745,7 +22741,7 @@
       <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="110" t="n">
+      <c r="A47" s="109" t="n">
         <v>38540</v>
       </c>
       <c r="B47" s="0"/>
@@ -22766,7 +22762,7 @@
       <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="110" t="n">
+      <c r="A48" s="109" t="n">
         <v>38304</v>
       </c>
       <c r="B48" s="0"/>
@@ -22787,7 +22783,7 @@
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="109" t="s">
         <v>327</v>
       </c>
       <c r="B49" s="14" t="str">
@@ -22817,7 +22813,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="109" t="s">
         <v>330</v>
       </c>
       <c r="B50" s="14" t="str">
@@ -22847,7 +22843,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="109" t="s">
         <v>332</v>
       </c>
       <c r="B51" s="14" t="str">
@@ -22874,7 +22870,7 @@
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="109" t="s">
         <v>334</v>
       </c>
       <c r="B52" s="14" t="str">
@@ -22901,7 +22897,7 @@
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="109" t="s">
         <v>335</v>
       </c>
       <c r="B53" s="0"/>
@@ -22922,7 +22918,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="109" t="s">
         <v>338</v>
       </c>
       <c r="B54" s="14" t="str">
@@ -22950,7 +22946,7 @@
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="109" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="14" t="str">
@@ -22978,7 +22974,7 @@
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="109" t="s">
         <v>342</v>
       </c>
       <c r="B56" s="14" t="str">
@@ -23006,7 +23002,7 @@
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="109" t="s">
         <v>344</v>
       </c>
       <c r="B57" s="14" t="str">
@@ -23033,7 +23029,7 @@
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="109" t="s">
         <v>347</v>
       </c>
       <c r="B58" s="14" t="str">
@@ -23060,7 +23056,7 @@
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="109" t="s">
         <v>349</v>
       </c>
       <c r="B59" s="14" t="str">
@@ -23087,7 +23083,7 @@
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="109" t="s">
         <v>352</v>
       </c>
       <c r="B60" s="14" t="str">
@@ -23114,7 +23110,7 @@
       <c r="I60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="109" t="s">
         <v>353</v>
       </c>
       <c r="B61" s="14" t="str">
@@ -23141,7 +23137,7 @@
       <c r="I61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="109" t="s">
         <v>354</v>
       </c>
       <c r="B62" s="14" t="str">
@@ -23168,7 +23164,7 @@
       <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="109" t="s">
         <v>356</v>
       </c>
       <c r="B63" s="14" t="str">
@@ -23195,7 +23191,7 @@
       <c r="I63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="109" t="s">
         <v>358</v>
       </c>
       <c r="B64" s="14" t="str">
@@ -23222,7 +23218,7 @@
       <c r="I64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="109" t="s">
         <v>359</v>
       </c>
       <c r="B65" s="14" t="str">
@@ -23249,7 +23245,7 @@
       <c r="I65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="109" t="s">
         <v>360</v>
       </c>
       <c r="B66" s="14" t="str">
@@ -23276,7 +23272,7 @@
       <c r="I66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="109" t="s">
         <v>361</v>
       </c>
       <c r="B67" s="14" t="str">
@@ -23303,7 +23299,7 @@
       <c r="I67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="109" t="s">
         <v>363</v>
       </c>
       <c r="B68" s="14" t="str">
@@ -23330,7 +23326,7 @@
       <c r="I68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="109" t="s">
         <v>364</v>
       </c>
       <c r="B69" s="14" t="str">
@@ -23357,7 +23353,7 @@
       <c r="I69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="109" t="s">
         <v>365</v>
       </c>
       <c r="B70" s="14" t="str">
@@ -23384,7 +23380,7 @@
       <c r="I70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="109" t="s">
         <v>366</v>
       </c>
       <c r="B71" s="0"/>
@@ -23405,7 +23401,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="109" t="s">
         <v>369</v>
       </c>
       <c r="B72" s="0"/>
@@ -23423,7 +23419,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="109" t="s">
         <v>371</v>
       </c>
       <c r="B73" s="0"/>
@@ -23441,7 +23437,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="110" t="s">
+      <c r="A74" s="109" t="s">
         <v>372</v>
       </c>
       <c r="B74" s="0"/>
@@ -23459,7 +23455,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="109" t="s">
         <v>373</v>
       </c>
       <c r="B75" s="0"/>
@@ -23477,7 +23473,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="110" t="s">
+      <c r="A76" s="109" t="s">
         <v>374</v>
       </c>
       <c r="B76" s="14" t="str">
@@ -23505,7 +23501,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="109" t="s">
         <v>376</v>
       </c>
       <c r="B77" s="14" t="str">
@@ -23533,7 +23529,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="109" t="s">
         <v>378</v>
       </c>
       <c r="B78" s="14" t="str">
@@ -23559,7 +23555,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="109" t="s">
         <v>380</v>
       </c>
       <c r="B79" s="14" t="str">
@@ -23585,7 +23581,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="109" t="s">
         <v>381</v>
       </c>
       <c r="B80" s="14" t="str">
@@ -23611,7 +23607,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="110" t="s">
+      <c r="A81" s="109" t="s">
         <v>382</v>
       </c>
       <c r="B81" s="14" t="str">
@@ -23637,7 +23633,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="109" t="s">
         <v>383</v>
       </c>
       <c r="B82" s="14" t="str">
@@ -23663,7 +23659,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="109" t="s">
         <v>384</v>
       </c>
       <c r="B83" s="14" t="str">
@@ -23689,7 +23685,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="110" t="s">
+      <c r="A84" s="109" t="s">
         <v>385</v>
       </c>
       <c r="B84" s="14" t="str">
@@ -23715,7 +23711,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="109" t="s">
         <v>386</v>
       </c>
       <c r="B85" s="14" t="str">
@@ -23741,7 +23737,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="109" t="s">
         <v>387</v>
       </c>
       <c r="B86" s="14" t="str">
@@ -23767,7 +23763,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="109" t="s">
         <v>388</v>
       </c>
       <c r="B87" s="14" t="str">
@@ -23793,7 +23789,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="109" t="s">
         <v>389</v>
       </c>
       <c r="B88" s="14" t="str">
@@ -23819,7 +23815,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="110" t="s">
+      <c r="A89" s="109" t="s">
         <v>390</v>
       </c>
       <c r="B89" s="14" t="str">
@@ -23845,7 +23841,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="110" t="s">
+      <c r="A90" s="109" t="s">
         <v>391</v>
       </c>
       <c r="B90" s="14" t="str">
@@ -23871,7 +23867,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="110" t="s">
+      <c r="A91" s="109" t="s">
         <v>392</v>
       </c>
       <c r="B91" s="14" t="str">
@@ -23897,7 +23893,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="110" t="s">
+      <c r="A92" s="109" t="s">
         <v>393</v>
       </c>
       <c r="B92" s="14" t="str">
@@ -23923,7 +23919,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="110" t="s">
+      <c r="A93" s="109" t="s">
         <v>395</v>
       </c>
       <c r="B93" s="14" t="str">
@@ -23949,7 +23945,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="109" t="s">
         <v>396</v>
       </c>
       <c r="B94" s="14" t="str">
@@ -23975,7 +23971,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="110" t="s">
+      <c r="A95" s="109" t="s">
         <v>397</v>
       </c>
       <c r="B95" s="14" t="str">
@@ -24001,7 +23997,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="110" t="s">
+      <c r="A96" s="109" t="s">
         <v>398</v>
       </c>
       <c r="B96" s="14" t="str">
@@ -24027,7 +24023,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="110" t="s">
+      <c r="A97" s="109" t="s">
         <v>399</v>
       </c>
       <c r="B97" s="14" t="str">
@@ -24053,7 +24049,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="110" t="s">
+      <c r="A98" s="109" t="s">
         <v>400</v>
       </c>
       <c r="B98" s="14" t="str">
@@ -24079,7 +24075,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="109" t="s">
         <v>401</v>
       </c>
       <c r="B99" s="14" t="str">
@@ -24105,7 +24101,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="110" t="s">
+      <c r="A100" s="109" t="s">
         <v>402</v>
       </c>
       <c r="B100" s="14" t="str">
@@ -24131,7 +24127,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="110" t="s">
+      <c r="A101" s="109" t="s">
         <v>403</v>
       </c>
       <c r="B101" s="14" t="str">
@@ -24157,7 +24153,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="110" t="s">
+      <c r="A102" s="109" t="s">
         <v>404</v>
       </c>
       <c r="B102" s="14" t="str">
@@ -24183,7 +24179,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="110" t="s">
+      <c r="A103" s="109" t="s">
         <v>405</v>
       </c>
       <c r="B103" s="14" t="str">
@@ -24209,7 +24205,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="110" t="s">
+      <c r="A104" s="109" t="s">
         <v>406</v>
       </c>
       <c r="B104" s="14" t="str">
@@ -24235,7 +24231,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="109" t="s">
         <v>407</v>
       </c>
       <c r="B105" s="14" t="str">
@@ -24261,7 +24257,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="110" t="s">
+      <c r="A106" s="109" t="s">
         <v>408</v>
       </c>
       <c r="B106" s="14" t="str">
@@ -24287,7 +24283,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="110" t="s">
+      <c r="A107" s="109" t="s">
         <v>411</v>
       </c>
       <c r="B107" s="14" t="str">
@@ -24313,7 +24309,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="110" t="s">
+      <c r="A108" s="109" t="s">
         <v>412</v>
       </c>
       <c r="B108" s="14" t="str">
@@ -24339,7 +24335,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="110" t="s">
+      <c r="A109" s="109" t="s">
         <v>413</v>
       </c>
       <c r="B109" s="14" t="str">
@@ -24365,7 +24361,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="110" t="s">
+      <c r="A110" s="109" t="s">
         <v>415</v>
       </c>
       <c r="B110" s="14" t="str">
@@ -24391,7 +24387,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="110" t="s">
+      <c r="A111" s="109" t="s">
         <v>416</v>
       </c>
       <c r="B111" s="14" t="str">
@@ -24417,7 +24413,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="110" t="s">
+      <c r="A112" s="109" t="s">
         <v>417</v>
       </c>
       <c r="B112" s="14" t="str">
@@ -24443,7 +24439,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="110" t="s">
+      <c r="A113" s="109" t="s">
         <v>419</v>
       </c>
       <c r="B113" s="14" t="str">
@@ -24469,7 +24465,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="110" t="s">
+      <c r="A114" s="109" t="s">
         <v>420</v>
       </c>
       <c r="B114" s="14" t="str">
@@ -24495,7 +24491,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="110" t="s">
+      <c r="A115" s="109" t="s">
         <v>421</v>
       </c>
       <c r="B115" s="14" t="str">
@@ -24521,7 +24517,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="110" t="s">
+      <c r="A116" s="109" t="s">
         <v>422</v>
       </c>
       <c r="B116" s="14" t="str">
@@ -24547,7 +24543,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="110" t="s">
+      <c r="A117" s="109" t="s">
         <v>423</v>
       </c>
       <c r="B117" s="14" t="str">
@@ -24573,7 +24569,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="110" t="s">
+      <c r="A118" s="109" t="s">
         <v>424</v>
       </c>
       <c r="B118" s="14" t="str">
@@ -24599,7 +24595,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="110" t="s">
+      <c r="A119" s="109" t="s">
         <v>425</v>
       </c>
       <c r="B119" s="14" t="str">
@@ -24625,7 +24621,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="110" t="s">
+      <c r="A120" s="109" t="s">
         <v>426</v>
       </c>
       <c r="B120" s="14" t="str">
@@ -24651,7 +24647,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="110" t="s">
+      <c r="A121" s="109" t="s">
         <v>427</v>
       </c>
       <c r="B121" s="14" t="s">
@@ -24676,7 +24672,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="110" t="s">
+      <c r="A122" s="109" t="s">
         <v>429</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -24701,7 +24697,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="110" t="s">
+      <c r="A123" s="109" t="s">
         <v>431</v>
       </c>
       <c r="B123" s="14" t="n">
@@ -24726,7 +24722,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="110" t="s">
+      <c r="A124" s="109" t="s">
         <v>432</v>
       </c>
       <c r="B124" s="14" t="n">
@@ -24751,7 +24747,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="110" t="s">
+      <c r="A125" s="109" t="s">
         <v>433</v>
       </c>
       <c r="B125" s="14" t="n">
@@ -24776,7 +24772,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="110" t="s">
+      <c r="A126" s="109" t="s">
         <v>434</v>
       </c>
       <c r="B126" s="14" t="n">
@@ -24801,7 +24797,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="110" t="s">
+      <c r="A127" s="109" t="s">
         <v>435</v>
       </c>
       <c r="B127" s="14" t="str">
@@ -24827,7 +24823,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="110" t="s">
+      <c r="A128" s="109" t="s">
         <v>438</v>
       </c>
       <c r="B128" s="0"/>
@@ -24847,7 +24843,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="110" t="s">
+      <c r="A129" s="109" t="s">
         <v>440</v>
       </c>
       <c r="B129" s="0"/>
@@ -24867,7 +24863,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="110" t="s">
+      <c r="A130" s="109" t="s">
         <v>442</v>
       </c>
       <c r="B130" s="14" t="str">
@@ -24892,7 +24888,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="110" t="s">
+      <c r="A131" s="109" t="s">
         <v>444</v>
       </c>
       <c r="B131" s="14" t="str">
@@ -24917,7 +24913,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="109" t="s">
         <v>445</v>
       </c>
       <c r="B132" s="14" t="str">
@@ -24942,7 +24938,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="109" t="s">
         <v>446</v>
       </c>
       <c r="B133" s="14" t="str">
@@ -24967,7 +24963,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="110" t="s">
+      <c r="A134" s="109" t="s">
         <v>447</v>
       </c>
       <c r="B134" s="14" t="str">
@@ -24992,7 +24988,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="110" t="s">
+      <c r="A135" s="109" t="s">
         <v>448</v>
       </c>
       <c r="B135" s="14" t="str">
@@ -25017,7 +25013,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="110" t="s">
+      <c r="A136" s="109" t="s">
         <v>449</v>
       </c>
       <c r="B136" s="14" t="str">
@@ -25042,7 +25038,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="110" t="s">
+      <c r="A137" s="109" t="s">
         <v>450</v>
       </c>
       <c r="B137" s="14" t="str">
@@ -25067,7 +25063,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="110" t="s">
+      <c r="A138" s="109" t="s">
         <v>451</v>
       </c>
       <c r="B138" s="14" t="str">
@@ -25092,7 +25088,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="110" t="s">
+      <c r="A139" s="109" t="s">
         <v>452</v>
       </c>
       <c r="B139" s="14" t="str">
@@ -25117,7 +25113,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="110" t="s">
+      <c r="A140" s="109" t="s">
         <v>453</v>
       </c>
       <c r="B140" s="14" t="str">
@@ -25142,7 +25138,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="110" t="s">
+      <c r="A141" s="109" t="s">
         <v>454</v>
       </c>
       <c r="B141" s="14" t="str">
@@ -25167,7 +25163,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="110" t="s">
+      <c r="A142" s="109" t="s">
         <v>455</v>
       </c>
       <c r="B142" s="14" t="str">
@@ -25192,7 +25188,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="110" t="s">
+      <c r="A143" s="109" t="s">
         <v>456</v>
       </c>
       <c r="B143" s="14" t="str">
@@ -25217,7 +25213,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="110" t="s">
+      <c r="A144" s="109" t="s">
         <v>457</v>
       </c>
       <c r="B144" s="14" t="str">
@@ -25242,7 +25238,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="110" t="s">
+      <c r="A145" s="109" t="s">
         <v>458</v>
       </c>
       <c r="B145" s="14" t="s">
@@ -25266,7 +25262,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="110" t="s">
+      <c r="A146" s="109" t="s">
         <v>459</v>
       </c>
       <c r="B146" s="14" t="s">
@@ -25290,7 +25286,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="110" t="s">
+      <c r="A147" s="109" t="s">
         <v>460</v>
       </c>
       <c r="B147" s="14" t="n">
@@ -25314,7 +25310,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="110" t="s">
+      <c r="A148" s="109" t="s">
         <v>461</v>
       </c>
       <c r="B148" s="14" t="n">
@@ -25338,7 +25334,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="110" t="s">
+      <c r="A149" s="109" t="s">
         <v>462</v>
       </c>
       <c r="B149" s="14" t="n">
@@ -25362,7 +25358,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="110" t="s">
+      <c r="A150" s="109" t="s">
         <v>463</v>
       </c>
       <c r="B150" s="14" t="n">
@@ -25386,7 +25382,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="110" t="s">
+      <c r="A151" s="109" t="s">
         <v>464</v>
       </c>
       <c r="B151" s="14" t="str">
@@ -25411,7 +25407,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="110" t="s">
+      <c r="A152" s="109" t="s">
         <v>465</v>
       </c>
       <c r="B152" s="0"/>
@@ -25431,7 +25427,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="110" t="s">
+      <c r="A153" s="109" t="s">
         <v>466</v>
       </c>
       <c r="B153" s="0"/>
@@ -25451,7 +25447,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="110" t="s">
+      <c r="A154" s="109" t="s">
         <v>467</v>
       </c>
       <c r="B154" s="14" t="str">
@@ -25476,7 +25472,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="110" t="s">
+      <c r="A155" s="109" t="s">
         <v>470</v>
       </c>
       <c r="B155" s="14" t="str">
@@ -25504,7 +25500,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="110" t="s">
+      <c r="A156" s="109" t="s">
         <v>472</v>
       </c>
       <c r="B156" s="14" t="str">
@@ -25529,11 +25525,11 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="110" t="s">
+      <c r="A157" s="109" t="s">
         <v>473</v>
       </c>
       <c r="B157" s="5"/>
-      <c r="C157" s="110" t="s">
+      <c r="C157" s="109" t="s">
         <v>474</v>
       </c>
       <c r="D157" s="0" t="n">
@@ -25553,7 +25549,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="110" t="s">
+      <c r="A158" s="109" t="s">
         <v>476</v>
       </c>
       <c r="B158" s="14" t="str">
@@ -25581,7 +25577,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="110" t="s">
+      <c r="A159" s="109" t="s">
         <v>478</v>
       </c>
       <c r="B159" s="14" t="str">
@@ -25609,7 +25605,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="110" t="s">
+      <c r="A160" s="109" t="s">
         <v>479</v>
       </c>
       <c r="B160" s="14" t="str">
@@ -25634,7 +25630,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="110" t="s">
+      <c r="A161" s="109" t="s">
         <v>480</v>
       </c>
       <c r="B161" s="14" t="str">
@@ -25662,7 +25658,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="110" t="s">
+      <c r="A162" s="109" t="s">
         <v>482</v>
       </c>
       <c r="B162" s="14" t="str">
@@ -25687,7 +25683,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="110" t="s">
+      <c r="A163" s="109" t="s">
         <v>483</v>
       </c>
       <c r="B163" s="14" t="str">
@@ -25715,7 +25711,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="110" t="s">
+      <c r="A164" s="109" t="s">
         <v>485</v>
       </c>
       <c r="B164" s="14" t="str">
@@ -25743,7 +25739,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="110" t="s">
+      <c r="A165" s="109" t="s">
         <v>486</v>
       </c>
       <c r="B165" s="14" t="s">
@@ -25769,7 +25765,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="110" t="s">
+      <c r="A166" s="109" t="s">
         <v>489</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -25796,7 +25792,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="110" t="s">
+      <c r="A167" s="109" t="s">
         <v>492</v>
       </c>
       <c r="B167" s="14" t="s">
@@ -25820,7 +25816,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="110" t="s">
+      <c r="A168" s="109" t="s">
         <v>494</v>
       </c>
       <c r="B168" s="14" t="s">
@@ -25847,7 +25843,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="110" t="s">
+      <c r="A169" s="109" t="s">
         <v>496</v>
       </c>
       <c r="B169" s="14" t="str">
@@ -25875,7 +25871,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="110" t="s">
+      <c r="A170" s="109" t="s">
         <v>498</v>
       </c>
       <c r="B170" s="14" t="str">
@@ -25903,7 +25899,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="110" t="s">
+      <c r="A171" s="109" t="s">
         <v>500</v>
       </c>
       <c r="B171" s="14" t="str">
@@ -25928,7 +25924,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="110" t="s">
+      <c r="A172" s="109" t="s">
         <v>503</v>
       </c>
       <c r="B172" s="14" t="str">
@@ -25956,7 +25952,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="110" t="s">
+      <c r="A173" s="109" t="s">
         <v>504</v>
       </c>
       <c r="B173" s="14" t="str">
@@ -25981,7 +25977,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="110" t="s">
+      <c r="A174" s="109" t="s">
         <v>505</v>
       </c>
       <c r="B174" s="14" t="str">
@@ -26006,7 +26002,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="110" t="s">
+      <c r="A175" s="109" t="s">
         <v>506</v>
       </c>
       <c r="B175" s="14" t="str">
@@ -26031,7 +26027,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="110" t="s">
+      <c r="A176" s="109" t="s">
         <v>507</v>
       </c>
       <c r="B176" s="14" t="str">
@@ -26059,7 +26055,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="110" t="s">
+      <c r="A177" s="109" t="s">
         <v>508</v>
       </c>
       <c r="B177" s="14" t="str">
@@ -26087,7 +26083,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="110" t="s">
+      <c r="A178" s="109" t="s">
         <v>509</v>
       </c>
       <c r="B178" s="14" t="str">
@@ -26117,7 +26113,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="110" t="s">
+      <c r="A179" s="109" t="s">
         <v>511</v>
       </c>
       <c r="B179" s="14" t="str">
@@ -26142,7 +26138,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="110" t="s">
+      <c r="A180" s="109" t="s">
         <v>512</v>
       </c>
       <c r="B180" s="14" t="str">
@@ -26167,7 +26163,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="110" t="s">
+      <c r="A181" s="109" t="s">
         <v>513</v>
       </c>
       <c r="B181" s="14" t="str">
@@ -26192,7 +26188,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="110" t="s">
+      <c r="A182" s="109" t="s">
         <v>514</v>
       </c>
       <c r="B182" s="14" t="str">
@@ -26217,7 +26213,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="110" t="s">
+      <c r="A183" s="109" t="s">
         <v>515</v>
       </c>
       <c r="B183" s="14" t="str">
@@ -26242,7 +26238,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="110" t="s">
+      <c r="A184" s="109" t="s">
         <v>516</v>
       </c>
       <c r="B184" s="14" t="str">
@@ -26267,7 +26263,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="110" t="s">
+      <c r="A185" s="109" t="s">
         <v>517</v>
       </c>
       <c r="B185" s="14" t="str">
@@ -26292,7 +26288,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="110" t="s">
+      <c r="A186" s="109" t="s">
         <v>518</v>
       </c>
       <c r="B186" s="14" t="n">
@@ -26316,7 +26312,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="110" t="s">
+      <c r="A187" s="109" t="s">
         <v>520</v>
       </c>
       <c r="B187" s="14" t="n">
@@ -26340,7 +26336,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="110" t="s">
+      <c r="A188" s="109" t="s">
         <v>522</v>
       </c>
       <c r="B188" s="14" t="str">
@@ -26365,7 +26361,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="110" t="s">
+      <c r="A189" s="109" t="s">
         <v>523</v>
       </c>
       <c r="B189" s="14" t="str">
@@ -26390,7 +26386,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="110" t="s">
+      <c r="A190" s="109" t="s">
         <v>524</v>
       </c>
       <c r="B190" s="14" t="str">
@@ -26415,7 +26411,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="110" t="s">
+      <c r="A191" s="109" t="s">
         <v>525</v>
       </c>
       <c r="B191" s="14" t="str">
@@ -26438,12 +26434,12 @@
       <c r="H191" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="J191" s="111" t="s">
+      <c r="J191" s="110" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="110" t="s">
+      <c r="A192" s="109" t="s">
         <v>527</v>
       </c>
       <c r="B192" s="14" t="str">
@@ -26468,7 +26464,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="110" t="s">
+      <c r="A193" s="109" t="s">
         <v>528</v>
       </c>
       <c r="B193" s="14" t="str">
@@ -26493,7 +26489,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="110" t="s">
+      <c r="A194" s="109" t="s">
         <v>529</v>
       </c>
       <c r="B194" s="14" t="str">
@@ -26518,7 +26514,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="110" t="s">
+      <c r="A195" s="109" t="s">
         <v>530</v>
       </c>
       <c r="B195" s="14" t="str">
@@ -26543,7 +26539,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="110" t="s">
+      <c r="A196" s="109" t="s">
         <v>532</v>
       </c>
       <c r="B196" s="14" t="str">
@@ -26568,7 +26564,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="110" t="s">
+      <c r="A197" s="109" t="s">
         <v>533</v>
       </c>
       <c r="B197" s="14" t="str">
@@ -26593,7 +26589,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="110" t="s">
+      <c r="A198" s="109" t="s">
         <v>534</v>
       </c>
       <c r="B198" s="14" t="str">
@@ -26618,7 +26614,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="110" t="s">
+      <c r="A199" s="109" t="s">
         <v>535</v>
       </c>
       <c r="B199" s="14" t="str">
@@ -26643,7 +26639,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="110" t="s">
+      <c r="A200" s="109" t="s">
         <v>536</v>
       </c>
       <c r="B200" s="14" t="n">
@@ -26667,7 +26663,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="110" t="s">
+      <c r="A201" s="109" t="s">
         <v>540</v>
       </c>
       <c r="B201" s="14" t="n">
@@ -26691,7 +26687,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="110" t="s">
+      <c r="A202" s="109" t="s">
         <v>542</v>
       </c>
       <c r="B202" s="14" t="n">
@@ -26715,7 +26711,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="110" t="s">
+      <c r="A203" s="109" t="s">
         <v>544</v>
       </c>
       <c r="B203" s="14" t="n">
@@ -26739,7 +26735,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="110" t="s">
+      <c r="A204" s="109" t="s">
         <v>546</v>
       </c>
       <c r="B204" s="14" t="s">
@@ -26763,7 +26759,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="110" t="s">
+      <c r="A205" s="109" t="s">
         <v>548</v>
       </c>
       <c r="B205" s="14" t="n">
@@ -26787,7 +26783,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="110" t="s">
+      <c r="A206" s="109" t="s">
         <v>549</v>
       </c>
       <c r="B206" s="14" t="n">
@@ -26811,7 +26807,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="110" t="s">
+      <c r="A207" s="109" t="s">
         <v>550</v>
       </c>
       <c r="B207" s="14" t="s">
@@ -26835,7 +26831,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="110" t="s">
+      <c r="A208" s="109" t="s">
         <v>551</v>
       </c>
       <c r="B208" s="14" t="s">
@@ -26859,7 +26855,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="110" t="s">
+      <c r="A209" s="109" t="s">
         <v>552</v>
       </c>
       <c r="B209" s="14" t="s">
@@ -26883,7 +26879,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="110" t="s">
+      <c r="A210" s="109" t="s">
         <v>553</v>
       </c>
       <c r="B210" s="14" t="s">
@@ -26912,7 +26908,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="110" t="s">
+      <c r="A211" s="109" t="s">
         <v>556</v>
       </c>
       <c r="B211" s="14" t="n">
@@ -26936,7 +26932,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="110" t="s">
+      <c r="A212" s="109" t="s">
         <v>558</v>
       </c>
       <c r="B212" s="14" t="n">
@@ -26960,7 +26956,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="110" t="s">
+      <c r="A213" s="109" t="s">
         <v>559</v>
       </c>
       <c r="B213" s="14" t="n">
@@ -26984,7 +26980,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="110" t="s">
+      <c r="A214" s="109" t="s">
         <v>560</v>
       </c>
       <c r="B214" s="14" t="n">
@@ -27008,7 +27004,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="110" t="s">
+      <c r="A215" s="109" t="s">
         <v>561</v>
       </c>
       <c r="B215" s="14" t="n">
@@ -27032,7 +27028,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="110" t="s">
+      <c r="A216" s="109" t="s">
         <v>370</v>
       </c>
       <c r="B216" s="0"/>
@@ -27050,7 +27046,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="110" t="s">
+      <c r="A217" s="109" t="s">
         <v>562</v>
       </c>
       <c r="B217" s="14" t="n">
@@ -27074,7 +27070,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="110" t="s">
+      <c r="A218" s="109" t="s">
         <v>564</v>
       </c>
       <c r="B218" s="14" t="n">
@@ -27098,7 +27094,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="110" t="s">
+      <c r="A219" s="109" t="s">
         <v>565</v>
       </c>
       <c r="B219" s="14" t="n">
@@ -27122,7 +27118,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="110" t="s">
+      <c r="A220" s="109" t="s">
         <v>566</v>
       </c>
       <c r="B220" s="14" t="n">
@@ -27146,7 +27142,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="110" t="s">
+      <c r="A221" s="109" t="s">
         <v>567</v>
       </c>
       <c r="B221" s="14" t="s">
@@ -27170,7 +27166,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="110" t="s">
+      <c r="A222" s="109" t="s">
         <v>568</v>
       </c>
       <c r="B222" s="14" t="n">
@@ -27194,7 +27190,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="110" t="s">
+      <c r="A223" s="109" t="s">
         <v>569</v>
       </c>
       <c r="B223" s="14" t="s">
@@ -27218,7 +27214,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="110" t="s">
+      <c r="A224" s="109" t="s">
         <v>570</v>
       </c>
       <c r="B224" s="14" t="s">
@@ -27242,7 +27238,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="110" t="s">
+      <c r="A225" s="109" t="s">
         <v>571</v>
       </c>
       <c r="B225" s="14" t="s">
@@ -27268,7 +27264,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="110" t="s">
+      <c r="A226" s="109" t="s">
         <v>572</v>
       </c>
       <c r="B226" s="14" t="n">
@@ -27292,7 +27288,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="110" t="s">
+      <c r="A227" s="109" t="s">
         <v>573</v>
       </c>
       <c r="B227" s="14" t="n">
@@ -27316,7 +27312,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="110" t="s">
+      <c r="A228" s="109" t="s">
         <v>574</v>
       </c>
       <c r="B228" s="14" t="n">
@@ -27340,7 +27336,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="110" t="s">
+      <c r="A229" s="109" t="s">
         <v>575</v>
       </c>
       <c r="B229" s="14" t="n">
@@ -27364,7 +27360,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="110" t="s">
+      <c r="A230" s="109" t="s">
         <v>576</v>
       </c>
       <c r="B230" s="14" t="n">
@@ -28563,7 +28559,7 @@
       <c r="A279" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="B279" s="112" t="s">
+      <c r="B279" s="111" t="s">
         <v>190</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -28589,7 +28585,7 @@
       <c r="A280" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="B280" s="112" t="s">
+      <c r="B280" s="111" t="s">
         <v>190</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -28615,7 +28611,7 @@
       <c r="A281" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="B281" s="112" t="s">
+      <c r="B281" s="111" t="s">
         <v>190</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -28641,7 +28637,7 @@
       <c r="A282" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B282" s="112" t="s">
+      <c r="B282" s="111" t="s">
         <v>190</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -28844,8 +28840,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -28880,7 +28876,7 @@
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -28888,7 +28884,7 @@
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>667</v>
       </c>
     </row>
@@ -28896,7 +28892,7 @@
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>668</v>
       </c>
     </row>
@@ -28904,7 +28900,7 @@
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="112" t="s">
         <v>669</v>
       </c>
     </row>
@@ -28912,7 +28908,7 @@
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="112" t="s">
         <v>670</v>
       </c>
     </row>
@@ -28920,7 +28916,7 @@
       <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="112" t="s">
         <v>671</v>
       </c>
     </row>
@@ -28928,7 +28924,7 @@
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="112" t="s">
         <v>672</v>
       </c>
     </row>
@@ -28936,7 +28932,7 @@
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="112" t="s">
         <v>673</v>
       </c>
     </row>
@@ -28944,7 +28940,7 @@
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="112" t="s">
         <v>674</v>
       </c>
     </row>
@@ -28952,7 +28948,7 @@
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="112" t="s">
         <v>675</v>
       </c>
     </row>
@@ -28960,7 +28956,7 @@
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="112" t="s">
         <v>676</v>
       </c>
     </row>
@@ -28968,7 +28964,7 @@
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="112" t="s">
         <v>677</v>
       </c>
     </row>
@@ -28976,7 +28972,7 @@
       <c r="A14" s="2" t="n">
         <v>25304</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="112" t="s">
         <v>678</v>
       </c>
     </row>
@@ -28996,7 +28992,7 @@
       <c r="A17" s="2" t="n">
         <v>33460</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="112" t="s">
         <v>679</v>
       </c>
     </row>
@@ -29004,7 +29000,7 @@
       <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="112" t="s">
         <v>667</v>
       </c>
     </row>
@@ -29012,7 +29008,7 @@
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="112" t="s">
         <v>680</v>
       </c>
     </row>
@@ -29020,7 +29016,7 @@
       <c r="A20" s="2" t="n">
         <v>18601</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="112" t="s">
         <v>681</v>
       </c>
     </row>
@@ -29028,7 +29024,7 @@
       <c r="A21" s="2" t="n">
         <v>20979</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="112" t="s">
         <v>678</v>
       </c>
     </row>
@@ -29036,7 +29032,7 @@
       <c r="A22" s="2" t="n">
         <v>23030</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="112" t="s">
         <v>682</v>
       </c>
     </row>
@@ -29050,7 +29046,7 @@
       <c r="A24" s="2" t="n">
         <v>27548</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>683</v>
       </c>
     </row>
@@ -29058,7 +29054,7 @@
       <c r="A25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="112" t="s">
         <v>684</v>
       </c>
     </row>
@@ -29066,7 +29062,7 @@
       <c r="A26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="112" t="s">
         <v>672</v>
       </c>
     </row>
@@ -29074,7 +29070,7 @@
       <c r="A27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="112" t="s">
         <v>673</v>
       </c>
     </row>
@@ -29082,7 +29078,7 @@
       <c r="A28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="112" t="s">
         <v>674</v>
       </c>
     </row>
@@ -29090,7 +29086,7 @@
       <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="112" t="s">
         <v>676</v>
       </c>
     </row>
@@ -29098,7 +29094,7 @@
       <c r="A30" s="2" t="n">
         <v>20883</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="112" t="s">
         <v>681</v>
       </c>
     </row>
@@ -29112,7 +29108,7 @@
       <c r="A32" s="2" t="n">
         <v>27993</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="112" t="s">
         <v>683</v>
       </c>
     </row>
@@ -29120,7 +29116,7 @@
       <c r="A33" s="2" t="n">
         <v>31023</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="112" t="s">
         <v>679</v>
       </c>
     </row>
@@ -29128,7 +29124,7 @@
       <c r="A34" s="2" t="n">
         <v>33873</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="112" t="s">
         <v>682</v>
       </c>
     </row>
@@ -29136,7 +29132,7 @@
       <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="112" t="s">
         <v>676</v>
       </c>
     </row>
@@ -29144,7 +29140,7 @@
       <c r="A36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="112" t="s">
         <v>685</v>
       </c>
     </row>
@@ -29152,7 +29148,7 @@
       <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="112" t="s">
         <v>672</v>
       </c>
     </row>
@@ -29160,7 +29156,7 @@
       <c r="A38" s="2" t="n">
         <v>26585</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>678</v>
       </c>
     </row>
@@ -29168,7 +29164,7 @@
       <c r="A39" s="2" t="n">
         <v>27717</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="112" t="s">
         <v>682</v>
       </c>
     </row>
@@ -29182,7 +29178,7 @@
       <c r="A41" s="2" t="n">
         <v>33089</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="112" t="s">
         <v>683</v>
       </c>
     </row>
@@ -29190,7 +29186,7 @@
       <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>686</v>
       </c>
     </row>
@@ -29198,7 +29194,7 @@
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="112" t="s">
         <v>685</v>
       </c>
     </row>
@@ -29206,7 +29202,7 @@
       <c r="A44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>675</v>
       </c>
     </row>
@@ -29214,7 +29210,7 @@
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="112" t="s">
         <v>667</v>
       </c>
     </row>
@@ -29222,7 +29218,7 @@
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="112" t="s">
         <v>674</v>
       </c>
     </row>
@@ -29230,7 +29226,7 @@
       <c r="A47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="112" t="s">
         <v>687</v>
       </c>
     </row>
@@ -29238,7 +29234,7 @@
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>684</v>
       </c>
     </row>
@@ -29246,7 +29242,7 @@
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>671</v>
       </c>
     </row>
@@ -29254,7 +29250,7 @@
       <c r="A50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="112" t="s">
         <v>685</v>
       </c>
     </row>
@@ -29262,7 +29258,7 @@
       <c r="A51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="112" t="s">
         <v>675</v>
       </c>
     </row>
@@ -29270,7 +29266,7 @@
       <c r="A52" s="2" t="n">
         <v>3640</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="112" t="s">
         <v>682</v>
       </c>
     </row>
@@ -29278,7 +29274,7 @@
       <c r="A53" s="2" t="n">
         <v>4698</v>
       </c>
-      <c r="B53" s="113" t="s">
+      <c r="B53" s="112" t="s">
         <v>679</v>
       </c>
     </row>
@@ -29298,7 +29294,7 @@
       <c r="A56" s="2" t="n">
         <v>10264</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="112" t="s">
         <v>669</v>
       </c>
     </row>
@@ -29306,7 +29302,7 @@
       <c r="A57" s="2" t="n">
         <v>10756</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="112" t="s">
         <v>688</v>
       </c>
     </row>
@@ -29314,7 +29310,7 @@
       <c r="A58" s="2" t="n">
         <v>12879</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="112" t="s">
         <v>677</v>
       </c>
     </row>
@@ -29322,7 +29318,7 @@
       <c r="A59" s="2" t="n">
         <v>14908</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="112" t="s">
         <v>689</v>
       </c>
     </row>
@@ -29330,7 +29326,7 @@
       <c r="A60" s="2" t="n">
         <v>18140</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -29338,7 +29334,7 @@
       <c r="A61" s="2" t="n">
         <v>21484</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="112" t="s">
         <v>686</v>
       </c>
     </row>
@@ -29346,7 +29342,7 @@
       <c r="A62" s="2" t="n">
         <v>24890</v>
       </c>
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="112" t="s">
         <v>680</v>
       </c>
     </row>
@@ -29354,7 +29350,7 @@
       <c r="A63" s="2" t="n">
         <v>28929</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="112" t="s">
         <v>673</v>
       </c>
     </row>
@@ -29362,7 +29358,7 @@
       <c r="A64" s="2" t="n">
         <v>31440</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="112" t="s">
         <v>690</v>
       </c>
     </row>
@@ -29370,7 +29366,7 @@
       <c r="A65" s="2" t="n">
         <v>34493</v>
       </c>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="112" t="s">
         <v>691</v>
       </c>
     </row>
@@ -29378,7 +29374,7 @@
       <c r="A66" s="2" t="n">
         <v>14799</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -29386,7 +29382,7 @@
       <c r="A67" s="2" t="n">
         <v>15611</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="112" t="s">
         <v>669</v>
       </c>
     </row>
@@ -29394,7 +29390,7 @@
       <c r="A68" s="2" t="n">
         <v>18113</v>
       </c>
-      <c r="B68" s="113" t="s">
+      <c r="B68" s="112" t="s">
         <v>677</v>
       </c>
     </row>
@@ -29402,7 +29398,7 @@
       <c r="A69" s="2" t="n">
         <v>21006</v>
       </c>
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="112" t="s">
         <v>680</v>
       </c>
     </row>
@@ -29410,7 +29406,7 @@
       <c r="A70" s="2" t="n">
         <v>23919</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="112" t="s">
         <v>689</v>
       </c>
     </row>
@@ -29418,7 +29414,7 @@
       <c r="A71" s="2" t="n">
         <v>26477</v>
       </c>
-      <c r="B71" s="113" t="s">
+      <c r="B71" s="112" t="s">
         <v>686</v>
       </c>
     </row>
@@ -29426,7 +29422,7 @@
       <c r="A72" s="2" t="n">
         <v>29184</v>
       </c>
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="112" t="s">
         <v>691</v>
       </c>
     </row>
@@ -29440,7 +29436,7 @@
       <c r="A74" s="2" t="n">
         <v>11686</v>
       </c>
-      <c r="B74" s="113" t="s">
+      <c r="B74" s="112" t="s">
         <v>670</v>
       </c>
     </row>
@@ -29448,7 +29444,7 @@
       <c r="A75" s="2" t="n">
         <v>12402</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="112" t="s">
         <v>687</v>
       </c>
     </row>
@@ -29456,7 +29452,7 @@
       <c r="A76" s="2" t="n">
         <v>16311</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="B76" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -29464,7 +29460,7 @@
       <c r="A77" s="2" t="n">
         <v>18798</v>
       </c>
-      <c r="B77" s="113" t="s">
+      <c r="B77" s="112" t="s">
         <v>689</v>
       </c>
     </row>
@@ -29472,7 +29468,7 @@
       <c r="A78" s="2" t="n">
         <v>23058</v>
       </c>
-      <c r="B78" s="113" t="s">
+      <c r="B78" s="112" t="s">
         <v>668</v>
       </c>
     </row>
@@ -29480,7 +29476,7 @@
       <c r="A79" s="2" t="n">
         <v>25775</v>
       </c>
-      <c r="B79" s="113" t="s">
+      <c r="B79" s="112" t="s">
         <v>684</v>
       </c>
     </row>
@@ -29488,7 +29484,7 @@
       <c r="A80" s="2" t="n">
         <v>28338</v>
       </c>
-      <c r="B80" s="113" t="s">
+      <c r="B80" s="112" t="s">
         <v>692</v>
       </c>
     </row>
@@ -29496,7 +29492,7 @@
       <c r="A81" s="2" t="n">
         <v>30847</v>
       </c>
-      <c r="B81" s="113" t="s">
+      <c r="B81" s="112" t="s">
         <v>691</v>
       </c>
     </row>
@@ -29504,7 +29500,7 @@
       <c r="A82" s="2" t="n">
         <v>3174</v>
       </c>
-      <c r="B82" s="113" t="s">
+      <c r="B82" s="112" t="s">
         <v>668</v>
       </c>
     </row>
@@ -29512,7 +29508,7 @@
       <c r="A83" s="2" t="n">
         <v>3199</v>
       </c>
-      <c r="B83" s="113" t="s">
+      <c r="B83" s="112" t="s">
         <v>690</v>
       </c>
     </row>
@@ -29520,7 +29516,7 @@
       <c r="A84" s="2" t="n">
         <v>3265</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="B84" s="112" t="s">
         <v>692</v>
       </c>
     </row>
@@ -29528,7 +29524,7 @@
       <c r="A85" s="2" t="n">
         <v>3722</v>
       </c>
-      <c r="B85" s="113" t="s">
+      <c r="B85" s="112" t="s">
         <v>678</v>
       </c>
     </row>
@@ -29536,7 +29532,7 @@
       <c r="A86" s="2" t="n">
         <v>3968</v>
       </c>
-      <c r="B86" s="113" t="s">
+      <c r="B86" s="112" t="s">
         <v>681</v>
       </c>
     </row>
@@ -29544,7 +29540,7 @@
       <c r="A87" s="2" t="n">
         <v>4955</v>
       </c>
-      <c r="B87" s="113" t="s">
+      <c r="B87" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -29552,7 +29548,7 @@
       <c r="A88" s="2" t="n">
         <v>5862</v>
       </c>
-      <c r="B88" s="113" t="s">
+      <c r="B88" s="112" t="s">
         <v>688</v>
       </c>
     </row>
@@ -29560,7 +29556,7 @@
       <c r="A89" s="2" t="n">
         <v>6154</v>
       </c>
-      <c r="B89" s="113" t="s">
+      <c r="B89" s="112" t="s">
         <v>689</v>
       </c>
     </row>
@@ -29568,7 +29564,7 @@
       <c r="A90" s="2" t="n">
         <v>7686</v>
       </c>
-      <c r="B90" s="113" t="s">
+      <c r="B90" s="112" t="s">
         <v>671</v>
       </c>
     </row>
@@ -29576,7 +29572,7 @@
       <c r="A91" s="2" t="n">
         <v>7848</v>
       </c>
-      <c r="B91" s="113" t="s">
+      <c r="B91" s="112" t="s">
         <v>679</v>
       </c>
     </row>
@@ -29584,7 +29580,7 @@
       <c r="A92" s="2" t="n">
         <v>9985</v>
       </c>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="112" t="s">
         <v>683</v>
       </c>
     </row>
@@ -29628,7 +29624,7 @@
       <c r="A99" s="2" t="n">
         <v>21665</v>
       </c>
-      <c r="B99" s="113" t="s">
+      <c r="B99" s="112" t="s">
         <v>670</v>
       </c>
     </row>
@@ -29636,7 +29632,7 @@
       <c r="A100" s="2" t="n">
         <v>22499</v>
       </c>
-      <c r="B100" s="113" t="s">
+      <c r="B100" s="112" t="s">
         <v>688</v>
       </c>
     </row>
@@ -29644,7 +29640,7 @@
       <c r="A101" s="2" t="n">
         <v>24062</v>
       </c>
-      <c r="B101" s="113" t="s">
+      <c r="B101" s="112" t="s">
         <v>666</v>
       </c>
     </row>
@@ -29652,7 +29648,7 @@
       <c r="A102" s="2" t="n">
         <v>27134</v>
       </c>
-      <c r="B102" s="113" t="s">
+      <c r="B102" s="112" t="s">
         <v>687</v>
       </c>
     </row>
@@ -29660,7 +29656,7 @@
       <c r="A103" s="2" t="n">
         <v>29698</v>
       </c>
-      <c r="B103" s="113" t="s">
+      <c r="B103" s="112" t="s">
         <v>692</v>
       </c>
     </row>
@@ -29668,7 +29664,7 @@
       <c r="A104" s="2" t="n">
         <v>32311</v>
       </c>
-      <c r="B104" s="113" t="s">
+      <c r="B104" s="112" t="s">
         <v>690</v>
       </c>
     </row>
@@ -29676,7 +29672,7 @@
       <c r="A105" s="2" t="n">
         <v>34347</v>
       </c>
-      <c r="B105" s="113" t="s">
+      <c r="B105" s="112" t="s">
         <v>681</v>
       </c>
     </row>
@@ -29685,8 +29681,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -29747,7 +29743,7 @@
       <c r="A3" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B3" s="114" t="n">
+      <c r="B3" s="113" t="n">
         <v>41541</v>
       </c>
       <c r="C3" s="5" t="n">
@@ -29764,7 +29760,7 @@
       <c r="A4" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B4" s="114" t="n">
+      <c r="B4" s="113" t="n">
         <v>41626</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -29781,7 +29777,7 @@
       <c r="A5" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B5" s="114" t="n">
+      <c r="B5" s="113" t="n">
         <v>41668</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -29798,7 +29794,7 @@
       <c r="A6" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B6" s="114" t="n">
+      <c r="B6" s="113" t="n">
         <v>41680</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -29815,7 +29811,7 @@
       <c r="A7" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B7" s="114" t="n">
+      <c r="B7" s="113" t="n">
         <v>41708</v>
       </c>
       <c r="C7" s="5" t="n">
@@ -29832,7 +29828,7 @@
       <c r="A8" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B8" s="114" t="n">
+      <c r="B8" s="113" t="n">
         <v>41731</v>
       </c>
       <c r="C8" s="5" t="n">
@@ -29849,7 +29845,7 @@
       <c r="A9" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B9" s="114" t="n">
+      <c r="B9" s="113" t="n">
         <v>41753</v>
       </c>
       <c r="C9" s="5" t="n">
@@ -29866,7 +29862,7 @@
       <c r="A10" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B10" s="114" t="n">
+      <c r="B10" s="113" t="n">
         <v>41792</v>
       </c>
       <c r="C10" s="5" t="n">
@@ -29883,7 +29879,7 @@
       <c r="A11" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B11" s="114" t="n">
+      <c r="B11" s="113" t="n">
         <v>41807</v>
       </c>
       <c r="C11" s="5" t="n">
@@ -29900,7 +29896,7 @@
       <c r="A12" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="B12" s="114" t="n">
+      <c r="B12" s="113" t="n">
         <v>41876</v>
       </c>
       <c r="C12" s="5" t="n">
@@ -29917,7 +29913,7 @@
       <c r="A13" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B13" s="115" t="n">
+      <c r="B13" s="114" t="n">
         <v>41887</v>
       </c>
       <c r="C13" s="5" t="n">
@@ -29932,7 +29928,7 @@
       <c r="A14" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B14" s="115" t="n">
+      <c r="B14" s="114" t="n">
         <v>41906</v>
       </c>
       <c r="C14" s="5" t="n">
@@ -29947,7 +29943,7 @@
       <c r="A15" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="115" t="n">
+      <c r="B15" s="114" t="n">
         <v>41926</v>
       </c>
       <c r="C15" s="5" t="n">
@@ -29971,8 +29967,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -29985,8 +29981,8 @@
   </sheetPr>
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30032,7 +30028,7 @@
       <c r="A2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="114" t="n">
+      <c r="B2" s="113" t="n">
         <v>41485</v>
       </c>
       <c r="C2" s="5" t="n">
@@ -30056,7 +30052,7 @@
       <c r="A3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="114" t="n">
+      <c r="B3" s="113" t="n">
         <v>41547</v>
       </c>
       <c r="C3" s="5" t="n">
@@ -30080,7 +30076,7 @@
       <c r="A4" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="114" t="n">
+      <c r="B4" s="113" t="n">
         <v>41567</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -30104,7 +30100,7 @@
       <c r="A5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="114" t="n">
+      <c r="B5" s="113" t="n">
         <v>41649</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -30128,7 +30124,7 @@
       <c r="A6" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="114" t="n">
+      <c r="B6" s="113" t="n">
         <v>41663</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -30152,7 +30148,7 @@
       <c r="A7" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="114" t="n">
+      <c r="B7" s="113" t="n">
         <v>41670</v>
       </c>
       <c r="C7" s="5" t="n">
@@ -30176,7 +30172,7 @@
       <c r="A8" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="114" t="n">
+      <c r="B8" s="113" t="n">
         <v>41688</v>
       </c>
       <c r="C8" s="5" t="n">
@@ -30202,7 +30198,7 @@
       <c r="A9" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B9" s="114" t="n">
+      <c r="B9" s="113" t="n">
         <v>41710</v>
       </c>
       <c r="C9" s="5" t="n">
@@ -30226,7 +30222,7 @@
       <c r="A10" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B10" s="114" t="n">
+      <c r="B10" s="113" t="n">
         <v>41716</v>
       </c>
       <c r="C10" s="5" t="n">
@@ -30252,7 +30248,7 @@
       <c r="A11" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="114" t="n">
+      <c r="B11" s="113" t="n">
         <v>41738</v>
       </c>
       <c r="C11" s="5" t="n">
@@ -30276,7 +30272,7 @@
       <c r="A12" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="114" t="n">
+      <c r="B12" s="113" t="n">
         <v>41759</v>
       </c>
       <c r="C12" s="5" t="n">
@@ -30300,7 +30296,7 @@
       <c r="A13" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="114" t="n">
+      <c r="B13" s="113" t="n">
         <v>41771</v>
       </c>
       <c r="C13" s="5" t="n">
@@ -30324,7 +30320,7 @@
       <c r="A14" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B14" s="114" t="n">
+      <c r="B14" s="113" t="n">
         <v>41779</v>
       </c>
       <c r="C14" s="5" t="n">
@@ -30350,7 +30346,7 @@
       <c r="A15" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B15" s="114" t="n">
+      <c r="B15" s="113" t="n">
         <v>41784</v>
       </c>
       <c r="C15" s="5" t="n">
@@ -30376,7 +30372,7 @@
       <c r="A16" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B16" s="114" t="n">
+      <c r="B16" s="113" t="n">
         <v>41801</v>
       </c>
       <c r="C16" s="5" t="n">
@@ -30402,7 +30398,7 @@
       <c r="A17" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B17" s="114" t="n">
+      <c r="B17" s="113" t="n">
         <v>41807</v>
       </c>
       <c r="C17" s="5" t="n">
@@ -30428,7 +30424,7 @@
       <c r="A18" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B18" s="114" t="n">
+      <c r="B18" s="113" t="n">
         <v>41829</v>
       </c>
       <c r="C18" s="5" t="n">
@@ -30454,7 +30450,7 @@
       <c r="A19" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B19" s="114" t="n">
+      <c r="B19" s="113" t="n">
         <v>41880</v>
       </c>
       <c r="C19" s="5" t="n">
@@ -30480,7 +30476,7 @@
       <c r="A20" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="114" t="n">
+      <c r="B20" s="113" t="n">
         <v>41887</v>
       </c>
       <c r="C20" s="5" t="n">
@@ -30506,7 +30502,7 @@
       <c r="A21" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="115" t="n">
+      <c r="B21" s="114" t="n">
         <v>41909</v>
       </c>
       <c r="C21" s="5" t="n">
@@ -30532,7 +30528,7 @@
       <c r="A22" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B22" s="115" t="n">
+      <c r="B22" s="114" t="n">
         <v>41929</v>
       </c>
       <c r="C22" s="5" t="n">
@@ -30558,7 +30554,7 @@
       <c r="A23" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B23" s="115" t="n">
+      <c r="B23" s="114" t="n">
         <v>41943</v>
       </c>
       <c r="C23" s="5" t="n">
@@ -30584,7 +30580,7 @@
       <c r="A24" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B24" s="115" t="n">
+      <c r="B24" s="114" t="n">
         <v>41963</v>
       </c>
       <c r="C24" s="5" t="n">
@@ -30610,7 +30606,7 @@
       <c r="A25" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B25" s="115" t="n">
+      <c r="B25" s="114" t="n">
         <v>41974</v>
       </c>
       <c r="C25" s="5" t="n">
@@ -30636,7 +30632,7 @@
       <c r="A26" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B26" s="115" t="n">
+      <c r="B26" s="114" t="n">
         <v>42037</v>
       </c>
       <c r="C26" s="5" t="n">
@@ -30669,8 +30665,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="789">
   <si>
     <t>code</t>
   </si>
@@ -2018,6 +2018,24 @@
     <t>C9669</t>
   </si>
   <si>
+    <t>MIX1_new_PCR1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Tuen78</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>MIX1_new_PCR2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>date of extraction</t>
   </si>
   <si>
@@ -2364,6 +2382,12 @@
   </si>
   <si>
     <t>/ebio/abt6_sra/years/2015/02_04/HIVNexteraXTSweden/</t>
+  </si>
+  <si>
+    <t>2 RNA mixes + 8 Thomas + 9 Mutation rate</t>
+  </si>
+  <si>
+    <t>/ebio/abt6_sra/years/2015/02_18/HIVNexteraXT/</t>
   </si>
 </sst>
 </file>
@@ -3134,12 +3158,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -21549,10 +21573,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K289"/>
+  <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C290" activeCellId="0" sqref="C290"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A292" activeCellId="0" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28833,6 +28857,52 @@
       </c>
       <c r="H289" s="14" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D290" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="G290" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="H290" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D291" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H291" s="14" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -28869,7 +28939,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28877,7 +28947,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28885,7 +28955,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28893,7 +28963,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28901,7 +28971,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28909,7 +28979,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28917,7 +28987,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28925,7 +28995,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28933,7 +29003,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28941,7 +29011,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28949,7 +29019,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28957,7 +29027,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28965,7 +29035,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28973,7 +29043,7 @@
         <v>25304</v>
       </c>
       <c r="B14" s="112" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28993,7 +29063,7 @@
         <v>33460</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29001,7 +29071,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29009,7 +29079,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29017,7 +29087,7 @@
         <v>18601</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29025,7 +29095,7 @@
         <v>20979</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29033,7 +29103,7 @@
         <v>23030</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29047,7 +29117,7 @@
         <v>27548</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29055,7 +29125,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29063,7 +29133,7 @@
         <v>121</v>
       </c>
       <c r="B26" s="112" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29071,7 +29141,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29079,7 +29149,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29087,7 +29157,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="112" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29095,7 +29165,7 @@
         <v>20883</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29109,7 +29179,7 @@
         <v>27993</v>
       </c>
       <c r="B32" s="112" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29117,7 +29187,7 @@
         <v>31023</v>
       </c>
       <c r="B33" s="112" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29125,7 +29195,7 @@
         <v>33873</v>
       </c>
       <c r="B34" s="112" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29133,7 +29203,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="112" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29141,7 +29211,7 @@
         <v>126</v>
       </c>
       <c r="B36" s="112" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29149,7 +29219,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="112" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29157,7 +29227,7 @@
         <v>26585</v>
       </c>
       <c r="B38" s="112" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29165,7 +29235,7 @@
         <v>27717</v>
       </c>
       <c r="B39" s="112" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29179,7 +29249,7 @@
         <v>33089</v>
       </c>
       <c r="B41" s="112" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29187,7 +29257,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="112" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29195,7 +29265,7 @@
         <v>130</v>
       </c>
       <c r="B43" s="112" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29203,7 +29273,7 @@
         <v>131</v>
       </c>
       <c r="B44" s="112" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29211,7 +29281,7 @@
         <v>132</v>
       </c>
       <c r="B45" s="112" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29219,7 +29289,7 @@
         <v>133</v>
       </c>
       <c r="B46" s="112" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29227,7 +29297,7 @@
         <v>141</v>
       </c>
       <c r="B47" s="112" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29235,7 +29305,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="112" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29243,7 +29313,7 @@
         <v>143</v>
       </c>
       <c r="B49" s="112" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29251,7 +29321,7 @@
         <v>144</v>
       </c>
       <c r="B50" s="112" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29259,7 +29329,7 @@
         <v>145</v>
       </c>
       <c r="B51" s="112" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29267,7 +29337,7 @@
         <v>3640</v>
       </c>
       <c r="B52" s="112" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29275,7 +29345,7 @@
         <v>4698</v>
       </c>
       <c r="B53" s="112" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29295,7 +29365,7 @@
         <v>10264</v>
       </c>
       <c r="B56" s="112" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29303,7 +29373,7 @@
         <v>10756</v>
       </c>
       <c r="B57" s="112" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29311,7 +29381,7 @@
         <v>12879</v>
       </c>
       <c r="B58" s="112" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29319,7 +29389,7 @@
         <v>14908</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29327,7 +29397,7 @@
         <v>18140</v>
       </c>
       <c r="B60" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29335,7 +29405,7 @@
         <v>21484</v>
       </c>
       <c r="B61" s="112" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29343,7 +29413,7 @@
         <v>24890</v>
       </c>
       <c r="B62" s="112" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29351,7 +29421,7 @@
         <v>28929</v>
       </c>
       <c r="B63" s="112" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29359,7 +29429,7 @@
         <v>31440</v>
       </c>
       <c r="B64" s="112" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29367,7 +29437,7 @@
         <v>34493</v>
       </c>
       <c r="B65" s="112" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29375,7 +29445,7 @@
         <v>14799</v>
       </c>
       <c r="B66" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29383,7 +29453,7 @@
         <v>15611</v>
       </c>
       <c r="B67" s="112" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29391,7 +29461,7 @@
         <v>18113</v>
       </c>
       <c r="B68" s="112" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29399,7 +29469,7 @@
         <v>21006</v>
       </c>
       <c r="B69" s="112" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29407,7 +29477,7 @@
         <v>23919</v>
       </c>
       <c r="B70" s="112" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29415,7 +29485,7 @@
         <v>26477</v>
       </c>
       <c r="B71" s="112" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29423,7 +29493,7 @@
         <v>29184</v>
       </c>
       <c r="B72" s="112" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29437,7 +29507,7 @@
         <v>11686</v>
       </c>
       <c r="B74" s="112" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29445,7 +29515,7 @@
         <v>12402</v>
       </c>
       <c r="B75" s="112" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29453,7 +29523,7 @@
         <v>16311</v>
       </c>
       <c r="B76" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29461,7 +29531,7 @@
         <v>18798</v>
       </c>
       <c r="B77" s="112" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29469,7 +29539,7 @@
         <v>23058</v>
       </c>
       <c r="B78" s="112" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29477,7 +29547,7 @@
         <v>25775</v>
       </c>
       <c r="B79" s="112" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29485,7 +29555,7 @@
         <v>28338</v>
       </c>
       <c r="B80" s="112" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29493,7 +29563,7 @@
         <v>30847</v>
       </c>
       <c r="B81" s="112" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29501,7 +29571,7 @@
         <v>3174</v>
       </c>
       <c r="B82" s="112" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29509,7 +29579,7 @@
         <v>3199</v>
       </c>
       <c r="B83" s="112" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29517,7 +29587,7 @@
         <v>3265</v>
       </c>
       <c r="B84" s="112" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29525,7 +29595,7 @@
         <v>3722</v>
       </c>
       <c r="B85" s="112" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29533,7 +29603,7 @@
         <v>3968</v>
       </c>
       <c r="B86" s="112" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29541,7 +29611,7 @@
         <v>4955</v>
       </c>
       <c r="B87" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29549,7 +29619,7 @@
         <v>5862</v>
       </c>
       <c r="B88" s="112" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29557,7 +29627,7 @@
         <v>6154</v>
       </c>
       <c r="B89" s="112" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29565,7 +29635,7 @@
         <v>7686</v>
       </c>
       <c r="B90" s="112" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29573,7 +29643,7 @@
         <v>7848</v>
       </c>
       <c r="B91" s="112" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29581,7 +29651,7 @@
         <v>9985</v>
       </c>
       <c r="B92" s="112" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29625,7 +29695,7 @@
         <v>21665</v>
       </c>
       <c r="B99" s="112" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29633,7 +29703,7 @@
         <v>22499</v>
       </c>
       <c r="B100" s="112" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29641,7 +29711,7 @@
         <v>24062</v>
       </c>
       <c r="B101" s="112" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29649,7 +29719,7 @@
         <v>27134</v>
       </c>
       <c r="B102" s="112" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29657,7 +29727,7 @@
         <v>29698</v>
       </c>
       <c r="B103" s="112" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29665,7 +29735,7 @@
         <v>32311</v>
       </c>
       <c r="B104" s="112" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29673,7 +29743,7 @@
         <v>34347</v>
       </c>
       <c r="B105" s="112" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -29717,31 +29787,31 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B3" s="113" t="n">
         <v>41541</v>
@@ -29750,15 +29820,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B4" s="113" t="n">
         <v>41626</v>
@@ -29767,15 +29837,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B5" s="113" t="n">
         <v>41668</v>
@@ -29784,15 +29854,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B6" s="113" t="n">
         <v>41680</v>
@@ -29801,15 +29871,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B7" s="113" t="n">
         <v>41708</v>
@@ -29818,15 +29888,15 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B8" s="113" t="n">
         <v>41731</v>
@@ -29835,15 +29905,15 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B9" s="113" t="n">
         <v>41753</v>
@@ -29852,15 +29922,15 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B10" s="113" t="n">
         <v>41792</v>
@@ -29869,15 +29939,15 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B11" s="113" t="n">
         <v>41807</v>
@@ -29886,15 +29956,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B12" s="113" t="n">
         <v>41876</v>
@@ -29903,15 +29973,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B13" s="114" t="n">
         <v>41887</v>
@@ -29920,13 +29990,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B14" s="114" t="n">
         <v>41906</v>
@@ -29935,13 +30005,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B15" s="114" t="n">
         <v>41926</v>
@@ -29950,10 +30020,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -29982,7 +30052,7 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30006,13 +30076,13 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>227</v>
@@ -30021,7 +30091,7 @@
         <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30035,17 +30105,17 @@
         <v>500</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30059,17 +30129,17 @@
         <v>500</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="5" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30083,17 +30153,17 @@
         <v>600</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30107,17 +30177,17 @@
         <v>602</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="5" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30131,17 +30201,17 @@
         <v>602</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30155,17 +30225,17 @@
         <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="5" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30179,24 +30249,24 @@
         <v>600</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B9" s="113" t="n">
         <v>41710</v>
@@ -30205,16 +30275,16 @@
         <v>600</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H9" s="0"/>
     </row>
@@ -30229,19 +30299,19 @@
         <v>600</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30255,17 +30325,17 @@
         <v>600</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="5" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30279,17 +30349,17 @@
         <v>600</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="5" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30303,17 +30373,17 @@
         <v>600</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="5" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30327,19 +30397,19 @@
         <v>500</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30353,19 +30423,19 @@
         <v>600</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30379,19 +30449,19 @@
         <v>600</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30405,19 +30475,19 @@
         <v>500</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30431,19 +30501,19 @@
         <v>500</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30457,19 +30527,19 @@
         <v>500</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30483,19 +30553,19 @@
         <v>500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30509,19 +30579,19 @@
         <v>500</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>763</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30535,19 +30605,19 @@
         <v>500</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30561,19 +30631,19 @@
         <v>500</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30587,19 +30657,19 @@
         <v>500</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30613,19 +30683,19 @@
         <v>500</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30639,19 +30709,45 @@
         <v>500</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>37</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>780</v>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B27" s="114" t="n">
+        <v>42051</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/hivwholeseq/tables/HIV_reservoir_all.xlsx
+++ b/hivwholeseq/tables/HIV_reservoir_all.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="991">
   <si>
     <t>code</t>
   </si>
@@ -3051,7 +3051,7 @@
     <numFmt numFmtId="172" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="173" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3121,11 +3121,6 @@
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3470,7 +3465,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3482,7 +3477,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3506,19 +3501,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3538,23 +3533,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3566,27 +3561,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3594,23 +3589,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3618,11 +3613,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3630,27 +3625,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3666,7 +3661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3674,11 +3669,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3686,7 +3681,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3694,11 +3689,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3838,7 +3833,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3846,19 +3841,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3874,15 +3869,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3894,7 +3889,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3910,31 +3905,31 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="6" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="6" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="9" borderId="6" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="20" fillId="9" borderId="6" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="9" borderId="7" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="20" fillId="9" borderId="7" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="3" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="20" fillId="3" borderId="1" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3946,14 +3941,14 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="26" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="27" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_15319" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="24" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="25" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="26" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Blad1" xfId="27" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4056,8 +4051,8 @@
   </sheetPr>
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH2" activeCellId="0" sqref="AH2:AI12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4085,7 +4080,7 @@
     <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.57589285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -4283,7 +4278,9 @@
       <c r="P2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="R2" s="14" t="s">
         <v>52</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>173</v>
       </c>
@@ -5005,7 +5002,9 @@
       <c r="P7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="R7" s="14" t="s">
         <v>175</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>192</v>
       </c>
@@ -5147,7 +5146,9 @@
       <c r="P8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="R8" s="14" t="s">
         <v>53</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>242</v>
       </c>
@@ -5561,7 +5562,9 @@
       <c r="P11" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="R11" s="14" t="s">
         <v>175</v>
       </c>
@@ -5805,8 +5808,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -5821,7 +5824,7 @@
   <dimension ref="A1:G572"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="AH2:AI12 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15728,8 +15731,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -15742,7 +15745,7 @@
   <dimension ref="A1:X106"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="1" sqref="AH2:AI12 P1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23313,8 +23316,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -23328,7 +23331,7 @@
   <dimension ref="A1:K291"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A292" activeCellId="1" sqref="AH2:AI12 A292"/>
+      <selection pane="topLeft" activeCell="A292" activeCellId="0" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -30662,8 +30665,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -30677,7 +30680,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AH2:AI12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -31503,8 +31506,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -31518,7 +31521,7 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AH2:AI12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31789,8 +31792,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -31804,7 +31807,7 @@
   <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="1" sqref="AH2:AI12 H28"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32513,8 +32516,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -32527,7 +32530,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AH2:AI12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -34886,8 +34889,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>